--- a/SimResults/sm_car_results.xlsx
+++ b/SimResults/sm_car_results.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demos\allsimscape\cars\vehicle-templates\SimResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBC8BD6D-510C-4C87-A686-06350C6BEBDE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A00673-F30F-4DB1-9380-A60F8B1A350E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="4644" windowWidth="15264" windowHeight="7356" xr2:uid="{040A6F09-DF37-4201-87A6-29EA35F967C7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="835" xr2:uid="{A0ED6085-80D8-4D2A-8B80-6ABD2C7BE595}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="130" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,12 +32,27 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -57,14 +72,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{2C5E4C91-330C-4989-A6F1-B4C16FA6AA07}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{4C0561CC-46A1-4576-BB39-5A5447F23952}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -375,10 +394,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46DF5C8-ADC5-4E3A-A39D-A7372ACE16C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF14B61A-6309-4E02-BAE5-C28962867430}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/SimResults/sm_car_results.xlsx
+++ b/SimResults/sm_car_results.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demos\allsimscape\cars\vehicle-templates\SimResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A00673-F30F-4DB1-9380-A60F8B1A350E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1B49188-82D3-4626-A26B-7903E55E18B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="835" xr2:uid="{A0ED6085-80D8-4D2A-8B80-6ABD2C7BE595}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{47ABF8E6-F87C-40DB-BBF3-CE2D08869017}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="130" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,27 +32,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,18 +57,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{2C5E4C91-330C-4989-A6F1-B4C16FA6AA07}"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{4C0561CC-46A1-4576-BB39-5A5447F23952}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -394,12 +375,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF14B61A-6309-4E02-BAE5-C28962867430}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B66AD86-AB55-4A84-A1F5-D609A90B5998}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/SimResults/sm_car_results.xlsx
+++ b/SimResults/sm_car_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demos\allsimscape\cars\vehicle-templates\SimResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1B49188-82D3-4626-A26B-7903E55E18B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD92C1CD-B08D-4EF3-8117-FCC70335FDAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{47ABF8E6-F87C-40DB-BBF3-CE2D08869017}"/>
+    <workbookView xWindow="2340" yWindow="2904" windowWidth="14400" windowHeight="7908" xr2:uid="{86C44CE1-1010-4E30-92B1-BDE677C7682C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -375,7 +375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B66AD86-AB55-4A84-A1F5-D609A90B5998}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6693134E-643A-4157-8974-D43A7FBD2453}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/SimResults/sm_car_results.xlsx
+++ b/SimResults/sm_car_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demos\allsimscape\cars\vehicle-templates\SimResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\vehicle-templates\SimResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD92C1CD-B08D-4EF3-8117-FCC70335FDAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1917D8AF-2ABA-412B-85D1-7A25224810F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2904" windowWidth="14400" windowHeight="7908" xr2:uid="{86C44CE1-1010-4E30-92B1-BDE677C7682C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86C44CE1-1010-4E30-92B1-BDE677C7682C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>

--- a/SimResults/sm_car_results.xlsx
+++ b/SimResults/sm_car_results.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demos\allsimscape\cars\vehicle-templates\SimResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1B49188-82D3-4626-A26B-7903E55E18B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A00673-F30F-4DB1-9380-A60F8B1A350E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{47ABF8E6-F87C-40DB-BBF3-CE2D08869017}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="835" xr2:uid="{A0ED6085-80D8-4D2A-8B80-6ABD2C7BE595}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="130" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,12 +32,27 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -57,14 +72,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{2C5E4C91-330C-4989-A6F1-B4C16FA6AA07}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{4C0561CC-46A1-4576-BB39-5A5447F23952}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -375,10 +394,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B66AD86-AB55-4A84-A1F5-D609A90B5998}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF14B61A-6309-4E02-BAE5-C28962867430}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/SimResults/sm_car_results.xlsx
+++ b/SimResults/sm_car_results.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\SimResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\smiller\simscape\demo\allsimscape\cars\vehicle-templates\SimResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99C6BFD-ACCB-49E5-A02F-B80FD064B5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A7E9D8-826B-438A-9A20-9EB4CEEDDA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86C44CE1-1010-4E30-92B1-BDE677C7682C}"/>
+    <workbookView xWindow="5565" yWindow="915" windowWidth="21600" windowHeight="11385" xr2:uid="{86C44CE1-1010-4E30-92B1-BDE677C7682C}"/>
   </bookViews>
   <sheets>
-    <sheet name="2022b_240831_0552" sheetId="14" r:id="rId1"/>
+    <sheet name="2022b_240930_1602" sheetId="15" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2022b_240930_1602'!$A$1:$P$266</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -386,19 +389,19 @@
     <t>Axle3_019</t>
   </si>
   <si>
-    <t>MATHWORKS-OL1OH</t>
+    <t>30-Sep-2024 20:06:08</t>
   </si>
   <si>
-    <t>MF-Swift Version: 2306</t>
+    <t>MUC-VIDEOSTUDIO</t>
   </si>
   <si>
-    <t>9.13.0.2553342 (R2022b) Update 9</t>
+    <t>9.13.0.2126072 (R2022b) Update 3</t>
   </si>
   <si>
-    <t>31-Aug-2024 08:49:31</t>
+    <t>MF-Swift Version: 2312</t>
   </si>
   <si>
-    <t>srcR22a R2022b fixedSusp withFastRestart</t>
+    <t xml:space="preserve">v3p2 R22b newTrajFollower stopXMax </t>
   </si>
 </sst>
 </file>
@@ -771,12 +774,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B75C4B2-4636-4020-89DF-44F5835D4D0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D78D99-9CE5-4B07-8534-F052FBA8AFF9}">
   <dimension ref="A1:R266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +799,7 @@
     <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -850,7 +852,7 @@
         <v>15</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -885,26 +887,26 @@
         <v>23</v>
       </c>
       <c r="K2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L2" s="4">
-        <v>9.1498916000000001</v>
+        <v>10.2746938</v>
       </c>
       <c r="M2" s="4">
-        <v>233.7943545125583</v>
+        <v>233.86221125184204</v>
       </c>
       <c r="N2" s="4">
-        <v>8.7573756048312766E-3</v>
+        <v>8.1453449186907941E-3</v>
       </c>
       <c r="O2" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_001_Ca000TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_001_Ca000TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P2" t="s">
         <v>15</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -939,19 +941,19 @@
         <v>23</v>
       </c>
       <c r="K3">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="L3" s="4">
-        <v>11.4733515</v>
+        <v>12.5621712</v>
       </c>
       <c r="M3" s="4">
-        <v>72.046473658093873</v>
+        <v>72.046681083543589</v>
       </c>
       <c r="N3" s="4">
-        <v>-0.55378048573647509</v>
+        <v>-0.55373545284533487</v>
       </c>
       <c r="O3" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_002_Ca000TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_002_Ca000TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P3" t="s">
@@ -993,26 +995,26 @@
         <v>23</v>
       </c>
       <c r="K4">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L4" s="4">
-        <v>10.1230327</v>
+        <v>11.3817992</v>
       </c>
       <c r="M4" s="4">
-        <v>232.8822007105031</v>
+        <v>233.02434143111248</v>
       </c>
       <c r="N4" s="4">
-        <v>2.3644105581510733E-4</v>
+        <v>-1.0918497815023576E-3</v>
       </c>
       <c r="O4" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_003_Ca001TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_003_Ca001TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P4" t="s">
         <v>15</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1047,19 +1049,19 @@
         <v>23</v>
       </c>
       <c r="K5">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="L5" s="4">
-        <v>10.989243500000001</v>
+        <v>13.5554995</v>
       </c>
       <c r="M5" s="4">
-        <v>71.757457013757588</v>
+        <v>71.758682432408492</v>
       </c>
       <c r="N5" s="4">
-        <v>-0.54700847146136078</v>
+        <v>-0.54700547920929332</v>
       </c>
       <c r="O5" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_004_Ca001TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_004_Ca001TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P5" t="s">
@@ -1104,16 +1106,16 @@
         <v>421</v>
       </c>
       <c r="L6" s="4">
-        <v>12.146564700000001</v>
+        <v>16.763019499999999</v>
       </c>
       <c r="M6" s="4">
-        <v>233.04224977274501</v>
+        <v>232.7322530123943</v>
       </c>
       <c r="N6" s="4">
-        <v>0.1053894950427358</v>
+        <v>6.7872279948955963E-2</v>
       </c>
       <c r="O6" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_005_Ca002TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_005_Ca002TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P6" t="s">
@@ -1152,19 +1154,19 @@
         <v>23</v>
       </c>
       <c r="K7">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="L7" s="4">
-        <v>14.734250599999999</v>
+        <v>17.679001299999999</v>
       </c>
       <c r="M7" s="4">
-        <v>71.752365266088034</v>
+        <v>71.749963591552799</v>
       </c>
       <c r="N7" s="4">
-        <v>-0.54378686888942385</v>
+        <v>-0.54337587606077187</v>
       </c>
       <c r="O7" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_006_Ca002TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_006_Ca002TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P7" t="s">
@@ -1203,19 +1205,19 @@
         <v>23</v>
       </c>
       <c r="K8">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="L8" s="4">
-        <v>13.866700099999999</v>
+        <v>18.536013100000002</v>
       </c>
       <c r="M8" s="4">
-        <v>232.41399247012859</v>
+        <v>232.53815049837829</v>
       </c>
       <c r="N8" s="4">
-        <v>6.3596962579487909E-2</v>
+        <v>4.9114412443078063E-2</v>
       </c>
       <c r="O8" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_007_Ca003TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_007_Ca003TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P8" t="s">
@@ -1254,19 +1256,19 @@
         <v>23</v>
       </c>
       <c r="K9">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="L9" s="4">
-        <v>16.157549100000001</v>
+        <v>19.329621499999998</v>
       </c>
       <c r="M9" s="4">
-        <v>71.6219756120379</v>
+        <v>71.617033929983563</v>
       </c>
       <c r="N9" s="4">
-        <v>-0.53826877556506703</v>
+        <v>-0.54030701218569688</v>
       </c>
       <c r="O9" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_008_Ca003TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_008_Ca003TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P9" t="s">
@@ -1305,19 +1307,19 @@
         <v>23</v>
       </c>
       <c r="K10">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="L10" s="4">
-        <v>13.7786594</v>
+        <v>17.610850899999999</v>
       </c>
       <c r="M10" s="4">
-        <v>234.02316443880059</v>
+        <v>234.12909185079528</v>
       </c>
       <c r="N10" s="4">
-        <v>9.6058262110875915E-3</v>
+        <v>1.0860774768222788E-2</v>
       </c>
       <c r="O10" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_009_Ca004TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_009_Ca004TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P10" t="s">
@@ -1356,19 +1358,19 @@
         <v>23</v>
       </c>
       <c r="K11">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="L11" s="4">
-        <v>16.710882600000001</v>
+        <v>20.215273400000001</v>
       </c>
       <c r="M11" s="4">
-        <v>72.064660752801259</v>
+        <v>72.064509522198904</v>
       </c>
       <c r="N11" s="4">
-        <v>-0.55549756154943275</v>
+        <v>-0.5553006272805372</v>
       </c>
       <c r="O11" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_010_Ca004TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_010_Ca004TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P11" t="s">
@@ -1407,19 +1409,19 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="L12" s="4">
-        <v>15.7341502</v>
+        <v>19.206764400000001</v>
       </c>
       <c r="M12" s="4">
-        <v>232.98202922332666</v>
+        <v>233.12492318228672</v>
       </c>
       <c r="N12" s="4">
-        <v>3.7407534692555726E-4</v>
+        <v>7.40880057645155E-4</v>
       </c>
       <c r="O12" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_011_Ca005TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_011_Ca005TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P12" t="s">
@@ -1461,16 +1463,16 @@
         <v>1189</v>
       </c>
       <c r="L13" s="4">
-        <v>18.357461700000002</v>
+        <v>22.067985400000001</v>
       </c>
       <c r="M13" s="4">
-        <v>71.772677078246218</v>
+        <v>71.772430045679954</v>
       </c>
       <c r="N13" s="4">
-        <v>-0.54641030284604653</v>
+        <v>-0.54987519730485679</v>
       </c>
       <c r="O13" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_012_Ca005TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_012_Ca005TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P13" t="s">
@@ -1509,19 +1511,19 @@
         <v>23</v>
       </c>
       <c r="K14">
-        <v>1136</v>
+        <v>1177</v>
       </c>
       <c r="L14" s="4">
-        <v>17.056894400000001</v>
+        <v>25.549431500000001</v>
       </c>
       <c r="M14" s="4">
-        <v>232.9261193606373</v>
+        <v>233.00533993187278</v>
       </c>
       <c r="N14" s="4">
-        <v>6.4938838824118675E-2</v>
+        <v>6.998550229448551E-2</v>
       </c>
       <c r="O14" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_013_Ca006TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_013_Ca006TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P14" t="s">
@@ -1560,19 +1562,19 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>1244</v>
+        <v>1271</v>
       </c>
       <c r="L15" s="4">
-        <v>17.3291763</v>
+        <v>25.0276733</v>
       </c>
       <c r="M15" s="4">
-        <v>71.7512295995258</v>
+        <v>71.75385033265384</v>
       </c>
       <c r="N15" s="4">
-        <v>-0.54450141108533645</v>
+        <v>-0.54361474440308311</v>
       </c>
       <c r="O15" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_014_Ca006TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_014_Ca006TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P15" t="s">
@@ -1611,19 +1613,19 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="L16" s="4">
-        <v>19.8756284</v>
+        <v>24.474564399999998</v>
       </c>
       <c r="M16" s="4">
-        <v>232.62238172191275</v>
+        <v>232.64456826110754</v>
       </c>
       <c r="N16" s="4">
-        <v>6.6085677653763178E-2</v>
+        <v>6.2620321698580506E-2</v>
       </c>
       <c r="O16" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_015_Ca007TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_015_Ca007TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P16" t="s">
@@ -1662,19 +1664,19 @@
         <v>23</v>
       </c>
       <c r="K17">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="L17" s="4">
-        <v>20.808223699999999</v>
+        <v>25.506340399999999</v>
       </c>
       <c r="M17" s="4">
-        <v>71.634151251256895</v>
+        <v>71.633575177014052</v>
       </c>
       <c r="N17" s="4">
-        <v>-0.53942493675765002</v>
+        <v>-0.54111295046227692</v>
       </c>
       <c r="O17" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_016_Ca007TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_016_Ca007TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P17" t="s">
@@ -1713,19 +1715,19 @@
         <v>23</v>
       </c>
       <c r="K18">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L18" s="4">
-        <v>7.1775301000000002</v>
+        <v>8.4501880000000007</v>
       </c>
       <c r="M18" s="4">
-        <v>234.9178138771637</v>
+        <v>234.861558301169</v>
       </c>
       <c r="N18" s="4">
-        <v>-6.9784035487130608E-2</v>
+        <v>-6.9133047274948983E-2</v>
       </c>
       <c r="O18" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_017_Ca016TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_017_Ca016TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P18" t="s">
@@ -1764,19 +1766,19 @@
         <v>23</v>
       </c>
       <c r="K19">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L19" s="4">
-        <v>6.5812172000000002</v>
+        <v>9.1919471999999995</v>
       </c>
       <c r="M19" s="4">
-        <v>72.416849589060007</v>
+        <v>72.417435753648007</v>
       </c>
       <c r="N19" s="4">
-        <v>-2.1645375953034684E-2</v>
+        <v>-2.1565190119023785E-2</v>
       </c>
       <c r="O19" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_018_Ca016TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_018_Ca016TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P19" t="s">
@@ -1815,19 +1817,19 @@
         <v>23</v>
       </c>
       <c r="K20">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="L20" s="4">
-        <v>9.6189040000000006</v>
+        <v>11.914805599999999</v>
       </c>
       <c r="M20" s="4">
-        <v>233.76155691267664</v>
+        <v>234.02584427601727</v>
       </c>
       <c r="N20" s="4">
-        <v>2.0404364388403647E-2</v>
+        <v>1.9098876699802605E-2</v>
       </c>
       <c r="O20" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_019_Ca032TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_019_Ca032TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P20" t="s">
@@ -1866,19 +1868,19 @@
         <v>23</v>
       </c>
       <c r="K21">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="L21" s="4">
-        <v>11.0525424</v>
+        <v>13.3897668</v>
       </c>
       <c r="M21" s="4">
-        <v>72.057023163750472</v>
+        <v>72.052393861855336</v>
       </c>
       <c r="N21" s="4">
-        <v>-0.53546339973508339</v>
+        <v>-0.53471027573976815</v>
       </c>
       <c r="O21" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_020_Ca032TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_020_Ca032TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P21" t="s">
@@ -1917,19 +1919,19 @@
         <v>23</v>
       </c>
       <c r="K22">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L22" s="4">
-        <v>8.4415241000000005</v>
+        <v>13.294731499999999</v>
       </c>
       <c r="M22" s="4">
-        <v>234.0508395225398</v>
+        <v>233.99499085730272</v>
       </c>
       <c r="N22" s="4">
-        <v>-4.4155107329615579E-3</v>
+        <v>-5.095612674170814E-3</v>
       </c>
       <c r="O22" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_021_Ca048TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_021_Ca048TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P22" t="s">
@@ -1968,19 +1970,19 @@
         <v>23</v>
       </c>
       <c r="K23">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L23" s="4">
-        <v>10.635370399999999</v>
+        <v>13.7353165</v>
       </c>
       <c r="M23" s="4">
-        <v>72.054315419250372</v>
+        <v>72.062587404640908</v>
       </c>
       <c r="N23" s="4">
-        <v>-0.54055352190235073</v>
+        <v>-0.54384940195108167</v>
       </c>
       <c r="O23" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_022_Ca048TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_022_Ca048TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P23" t="s">
@@ -2022,16 +2024,16 @@
         <v>390</v>
       </c>
       <c r="L24" s="4">
-        <v>10.6308819</v>
+        <v>13.2632668</v>
       </c>
       <c r="M24" s="4">
-        <v>234.11628092355735</v>
+        <v>234.07990477936019</v>
       </c>
       <c r="N24" s="4">
-        <v>2.2153153933866365E-2</v>
+        <v>2.1709090939130801E-2</v>
       </c>
       <c r="O24" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_023_Ca064TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_023_Ca064TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P24" t="s">
@@ -2070,19 +2072,19 @@
         <v>23</v>
       </c>
       <c r="K25">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="L25" s="4">
-        <v>11.9096665</v>
+        <v>14.9982784</v>
       </c>
       <c r="M25" s="4">
-        <v>72.06283625530213</v>
+        <v>72.065466268796158</v>
       </c>
       <c r="N25" s="4">
-        <v>-0.53088141627245788</v>
+        <v>-0.5298866515096996</v>
       </c>
       <c r="O25" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_024_Ca064TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_024_Ca064TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P25" t="s">
@@ -2121,19 +2123,19 @@
         <v>23</v>
       </c>
       <c r="K26">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L26" s="4">
-        <v>8.7924684000000006</v>
+        <v>13.4359494</v>
       </c>
       <c r="M26" s="4">
-        <v>234.26851736786753</v>
+        <v>234.14302112150185</v>
       </c>
       <c r="N26" s="4">
-        <v>-8.6101901358082763E-3</v>
+        <v>-5.5194299463859802E-3</v>
       </c>
       <c r="O26" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_025_Ca080TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_025_Ca080TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P26" t="s">
@@ -2172,19 +2174,19 @@
         <v>23</v>
       </c>
       <c r="K27">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="L27" s="4">
-        <v>12.936087000000001</v>
+        <v>13.907630899999999</v>
       </c>
       <c r="M27" s="4">
-        <v>72.122339486937932</v>
+        <v>72.116557424787871</v>
       </c>
       <c r="N27" s="4">
-        <v>-0.54086569565090004</v>
+        <v>-0.53585131896930283</v>
       </c>
       <c r="O27" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_026_Ca080TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_026_Ca080TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P27" t="s">
@@ -2223,19 +2225,19 @@
         <v>23</v>
       </c>
       <c r="K28">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="L28" s="4">
-        <v>7.9485085</v>
+        <v>9.6707798999999994</v>
       </c>
       <c r="M28" s="4">
-        <v>236.00726724279676</v>
+        <v>236.0707856015506</v>
       </c>
       <c r="N28" s="4">
-        <v>3.1743772217962263E-2</v>
+        <v>3.1039756642365149E-2</v>
       </c>
       <c r="O28" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_027_Ca096TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_027_Ca096TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P28" t="s">
@@ -2274,19 +2276,19 @@
         <v>23</v>
       </c>
       <c r="K29">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="L29" s="4">
-        <v>10.159668</v>
+        <v>11.5976613</v>
       </c>
       <c r="M29" s="4">
-        <v>72.654770046266265</v>
+        <v>72.654749086232471</v>
       </c>
       <c r="N29" s="4">
-        <v>-0.53988110208508111</v>
+        <v>-0.54208042426134073</v>
       </c>
       <c r="O29" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_028_Ca096TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_028_Ca096TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P29" t="s">
@@ -2325,19 +2327,19 @@
         <v>23</v>
       </c>
       <c r="K30">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="L30" s="4">
-        <v>3.0864666999999999</v>
+        <v>3.9579035</v>
       </c>
       <c r="M30" s="4">
-        <v>242.67039980383566</v>
+        <v>242.6347610154539</v>
       </c>
       <c r="N30" s="4">
-        <v>0.23235808260815013</v>
+        <v>0.23238227743443512</v>
       </c>
       <c r="O30" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_029_Ca112TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_029_Ca112TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P30" t="s">
@@ -2376,19 +2378,19 @@
         <v>23</v>
       </c>
       <c r="K31">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="L31" s="4">
-        <v>3.5474212999999999</v>
+        <v>4.4852014000000002</v>
       </c>
       <c r="M31" s="4">
-        <v>74.661827177005804</v>
+        <v>74.658737205363408</v>
       </c>
       <c r="N31" s="4">
-        <v>-0.33805720242627213</v>
+        <v>-0.33759900566581796</v>
       </c>
       <c r="O31" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_030_Ca112TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_030_Ca112TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P31" t="s">
@@ -2427,19 +2429,19 @@
         <v>23</v>
       </c>
       <c r="K32">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="L32" s="4">
-        <v>3.0715414000000001</v>
+        <v>4.4709104999999996</v>
       </c>
       <c r="M32" s="4">
-        <v>241.60085135400595</v>
+        <v>241.66595681447339</v>
       </c>
       <c r="N32" s="4">
-        <v>0.230750799965588</v>
+        <v>0.22678465252334948</v>
       </c>
       <c r="O32" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_031_Ca113TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_031_Ca113TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P32" t="s">
@@ -2478,19 +2480,19 @@
         <v>23</v>
       </c>
       <c r="K33">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="L33" s="4">
-        <v>3.7420743999999999</v>
+        <v>5.0331826</v>
       </c>
       <c r="M33" s="4">
-        <v>74.346271681195418</v>
+        <v>74.35258302966588</v>
       </c>
       <c r="N33" s="4">
-        <v>-0.33428783134386963</v>
+        <v>-0.32867165610372456</v>
       </c>
       <c r="O33" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_032_Ca113TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_032_Ca113TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P33" t="s">
@@ -2529,19 +2531,19 @@
         <v>23</v>
       </c>
       <c r="K34">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="L34" s="4">
-        <v>4.0131819000000002</v>
+        <v>4.6772001000000003</v>
       </c>
       <c r="M34" s="4">
-        <v>241.53977300560047</v>
+        <v>241.63535164454248</v>
       </c>
       <c r="N34" s="4">
-        <v>0.22921338427765445</v>
+        <v>0.22898004278474487</v>
       </c>
       <c r="O34" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_033_Ca114TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_033_Ca114TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P34" t="s">
@@ -2580,19 +2582,19 @@
         <v>23</v>
       </c>
       <c r="K35">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="L35" s="4">
-        <v>4.8117992999999997</v>
+        <v>5.5807289000000004</v>
       </c>
       <c r="M35" s="4">
-        <v>74.350404006911177</v>
+        <v>74.356728918897076</v>
       </c>
       <c r="N35" s="4">
-        <v>-0.33400272664345271</v>
+        <v>-0.33179292147345302</v>
       </c>
       <c r="O35" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_034_Ca114TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_034_Ca114TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P35" t="s">
@@ -2631,19 +2633,19 @@
         <v>23</v>
       </c>
       <c r="K36">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L36" s="4">
-        <v>4.0529605999999996</v>
+        <v>5.3457502999999997</v>
       </c>
       <c r="M36" s="4">
-        <v>241.1616051302743</v>
+        <v>241.17723399281397</v>
       </c>
       <c r="N36" s="4">
-        <v>0.22787793833452652</v>
+        <v>0.22786476173566053</v>
       </c>
       <c r="O36" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_035_Ca115TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_035_Ca115TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P36" t="s">
@@ -2682,19 +2684,19 @@
         <v>23</v>
       </c>
       <c r="K37">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="L37" s="4">
-        <v>4.5835773</v>
+        <v>5.6386960000000004</v>
       </c>
       <c r="M37" s="4">
-        <v>74.209698334942161</v>
+        <v>74.213608128003088</v>
       </c>
       <c r="N37" s="4">
-        <v>-0.33258639583364497</v>
+        <v>-0.33162266090264036</v>
       </c>
       <c r="O37" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_036_Ca115TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_036_Ca115TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P37" t="s">
@@ -2733,19 +2735,19 @@
         <v>23</v>
       </c>
       <c r="K38">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="L38" s="4">
-        <v>5.4025641999999996</v>
+        <v>7.1284717999999998</v>
       </c>
       <c r="M38" s="4">
-        <v>242.65788580093752</v>
+        <v>242.46516627962953</v>
       </c>
       <c r="N38" s="4">
-        <v>0.22949613511630912</v>
+        <v>0.23355639756178012</v>
       </c>
       <c r="O38" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_037_Ca116TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_037_Ca116TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P38" t="s">
@@ -2784,19 +2786,19 @@
         <v>23</v>
       </c>
       <c r="K39">
-        <v>1068</v>
+        <v>1049</v>
       </c>
       <c r="L39" s="4">
-        <v>6.5455664999999996</v>
+        <v>7.5402696000000002</v>
       </c>
       <c r="M39" s="4">
-        <v>74.661390944906799</v>
+        <v>74.66020533823469</v>
       </c>
       <c r="N39" s="4">
-        <v>-0.33906626267669099</v>
+        <v>-0.34093339804314021</v>
       </c>
       <c r="O39" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_038_Ca116TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_038_Ca116TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P39" t="s">
@@ -2835,19 +2837,19 @@
         <v>23</v>
       </c>
       <c r="K40">
-        <v>961</v>
+        <v>944</v>
       </c>
       <c r="L40" s="4">
-        <v>5.9063936999999997</v>
+        <v>7.9857921000000003</v>
       </c>
       <c r="M40" s="4">
-        <v>241.66607253350659</v>
+        <v>241.660793294575</v>
       </c>
       <c r="N40" s="4">
-        <v>0.22863166261704349</v>
+        <v>0.22795467749314724</v>
       </c>
       <c r="O40" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_039_Ca117TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_039_Ca117TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P40" t="s">
@@ -2886,19 +2888,19 @@
         <v>23</v>
       </c>
       <c r="K41">
-        <v>1063</v>
+        <v>1076</v>
       </c>
       <c r="L41" s="4">
-        <v>7.0343242000000004</v>
+        <v>9.0209948999999998</v>
       </c>
       <c r="M41" s="4">
-        <v>74.35004253322262</v>
+        <v>74.349120772090018</v>
       </c>
       <c r="N41" s="4">
-        <v>-0.33710773291154911</v>
+        <v>-0.33486834782945007</v>
       </c>
       <c r="O41" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_040_Ca117TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_040_Ca117TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P41" t="s">
@@ -2937,19 +2939,19 @@
         <v>23</v>
       </c>
       <c r="K42">
-        <v>952</v>
+        <v>963</v>
       </c>
       <c r="L42" s="4">
-        <v>6.4351336000000003</v>
+        <v>9.0609120999999995</v>
       </c>
       <c r="M42" s="4">
-        <v>241.61013409606161</v>
+        <v>241.65395717276894</v>
       </c>
       <c r="N42" s="4">
-        <v>0.23060527323192562</v>
+        <v>0.22986544729423952</v>
       </c>
       <c r="O42" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_041_Ca118TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_041_Ca118TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P42" t="s">
@@ -2988,19 +2990,19 @@
         <v>23</v>
       </c>
       <c r="K43">
-        <v>1048</v>
+        <v>1075</v>
       </c>
       <c r="L43" s="4">
-        <v>7.7733289000000001</v>
+        <v>9.0071270000000005</v>
       </c>
       <c r="M43" s="4">
-        <v>74.351207248327455</v>
+        <v>74.33584292040473</v>
       </c>
       <c r="N43" s="4">
-        <v>-0.33501992000174008</v>
+        <v>-0.33557315502393315</v>
       </c>
       <c r="O43" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_042_Ca118TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_042_Ca118TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P43" t="s">
@@ -3039,19 +3041,19 @@
         <v>23</v>
       </c>
       <c r="K44">
-        <v>961</v>
+        <v>988</v>
       </c>
       <c r="L44" s="4">
-        <v>6.7109227999999996</v>
+        <v>8.427187</v>
       </c>
       <c r="M44" s="4">
-        <v>241.12925700737776</v>
+        <v>240.95580371988984</v>
       </c>
       <c r="N44" s="4">
-        <v>0.22722561830956689</v>
+        <v>0.22684298463105027</v>
       </c>
       <c r="O44" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_043_Ca119TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_043_Ca119TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P44" t="s">
@@ -3090,19 +3092,19 @@
         <v>23</v>
       </c>
       <c r="K45">
-        <v>1079</v>
+        <v>1118</v>
       </c>
       <c r="L45" s="4">
-        <v>7.229368</v>
+        <v>9.8190188000000003</v>
       </c>
       <c r="M45" s="4">
-        <v>74.199582953237666</v>
+        <v>74.202664608030233</v>
       </c>
       <c r="N45" s="4">
-        <v>-0.33429099859004158</v>
+        <v>-0.33373448401285039</v>
       </c>
       <c r="O45" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_044_Ca119TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_044_Ca119TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P45" t="s">
@@ -3141,19 +3143,19 @@
         <v>23</v>
       </c>
       <c r="K46">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="L46" s="4">
-        <v>16.217455099999999</v>
+        <v>21.104739500000001</v>
       </c>
       <c r="M46" s="4">
-        <v>100.87002099533962</v>
+        <v>100.86930806126598</v>
       </c>
       <c r="N46" s="4">
-        <v>-1.4513297576261085E-2</v>
+        <v>-1.4855941161444307E-2</v>
       </c>
       <c r="O46" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_045_Ca128TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_045_Ca128TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P46" t="s">
@@ -3192,19 +3194,19 @@
         <v>23</v>
       </c>
       <c r="K47">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="L47" s="4">
-        <v>15.507318700000001</v>
+        <v>21.041553700000001</v>
       </c>
       <c r="M47" s="4">
-        <v>37.32377991831784</v>
+        <v>37.314014043601027</v>
       </c>
       <c r="N47" s="4">
-        <v>-0.13878629517121699</v>
+        <v>-0.13802261927627205</v>
       </c>
       <c r="O47" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_046_Ca128TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_046_Ca128TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P47" t="s">
@@ -3243,19 +3245,19 @@
         <v>23</v>
       </c>
       <c r="K48">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="L48" s="4">
-        <v>14.8087082</v>
+        <v>21.6707891</v>
       </c>
       <c r="M48" s="4">
-        <v>232.62601049011514</v>
+        <v>232.30911220192627</v>
       </c>
       <c r="N48" s="4">
-        <v>7.8808434939440536E-2</v>
+        <v>7.7014390416577011E-2</v>
       </c>
       <c r="O48" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_047_Ca129TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_047_Ca129TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P48" t="s">
@@ -3294,19 +3296,19 @@
         <v>23</v>
       </c>
       <c r="K49">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="L49" s="4">
-        <v>16.050200799999999</v>
+        <v>19.158381500000001</v>
       </c>
       <c r="M49" s="4">
-        <v>71.607048878863068</v>
+        <v>71.514327234395978</v>
       </c>
       <c r="N49" s="4">
-        <v>-0.54337998872352422</v>
+        <v>-0.54070904425222133</v>
       </c>
       <c r="O49" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_048_Ca129TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_048_Ca129TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P49" t="s">
@@ -3345,19 +3347,19 @@
         <v>23</v>
       </c>
       <c r="K50">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L50" s="4">
-        <v>25.6861921</v>
+        <v>36.6371222</v>
       </c>
       <c r="M50" s="4">
-        <v>220.39479942065375</v>
+        <v>220.23309767090268</v>
       </c>
       <c r="N50" s="4">
-        <v>-1.4631428018255614</v>
+        <v>-1.4639524975839602</v>
       </c>
       <c r="O50" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_049_Ca130TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_049_Ca130TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P50" t="s">
@@ -3396,19 +3398,19 @@
         <v>23</v>
       </c>
       <c r="K51">
-        <v>763</v>
+        <v>793</v>
       </c>
       <c r="L51" s="4">
-        <v>24.720813799999998</v>
+        <v>32.793303399999999</v>
       </c>
       <c r="M51" s="4">
-        <v>69.572421336151137</v>
+        <v>69.567346126758622</v>
       </c>
       <c r="N51" s="4">
-        <v>-0.55072863116367465</v>
+        <v>-0.55347343635082424</v>
       </c>
       <c r="O51" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_050_Ca130TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_050_Ca130TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P51" t="s">
@@ -3447,19 +3449,19 @@
         <v>23</v>
       </c>
       <c r="K52">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L52" s="4">
-        <v>16.0497993</v>
+        <v>21.371618399999999</v>
       </c>
       <c r="M52" s="4">
-        <v>177.37310331643786</v>
+        <v>177.44597048564043</v>
       </c>
       <c r="N52" s="4">
-        <v>-5.9421223180854126</v>
+        <v>-5.9364887226009451</v>
       </c>
       <c r="O52" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_051_Ca131TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_051_Ca131TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P52" t="s">
@@ -3501,16 +3503,16 @@
         <v>510</v>
       </c>
       <c r="L53" s="4">
-        <v>15.3466863</v>
+        <v>17.974712799999999</v>
       </c>
       <c r="M53" s="4">
-        <v>37.435270491184433</v>
+        <v>37.425794686606217</v>
       </c>
       <c r="N53" s="4">
-        <v>-0.16682841469423221</v>
+        <v>-0.16675421557415626</v>
       </c>
       <c r="O53" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_052_Ca131TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_052_Ca131TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P53" t="s">
@@ -3549,19 +3551,19 @@
         <v>23</v>
       </c>
       <c r="K54">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L54" s="4">
-        <v>9.9166354000000005</v>
+        <v>12.6665069</v>
       </c>
       <c r="M54" s="4">
-        <v>232.25434405901916</v>
+        <v>231.91246667211189</v>
       </c>
       <c r="N54" s="4">
-        <v>3.7523701952729201E-2</v>
+        <v>3.339796085426977E-2</v>
       </c>
       <c r="O54" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_053_Ca132TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_053_Ca132TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P54" t="s">
@@ -3600,19 +3602,19 @@
         <v>23</v>
       </c>
       <c r="K55">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="L55" s="4">
-        <v>13.172376699999999</v>
+        <v>15.0116285</v>
       </c>
       <c r="M55" s="4">
-        <v>71.223450127714955</v>
+        <v>71.222568397319804</v>
       </c>
       <c r="N55" s="4">
-        <v>-0.53035927492958723</v>
+        <v>-0.52798020784827893</v>
       </c>
       <c r="O55" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_054_Ca132TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_054_Ca132TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P55" t="s">
@@ -3651,19 +3653,19 @@
         <v>23</v>
       </c>
       <c r="K56">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L56" s="4">
-        <v>7.6726140000000003</v>
+        <v>11.334356</v>
       </c>
       <c r="M56" s="4">
-        <v>232.8822007105031</v>
+        <v>233.02434143111248</v>
       </c>
       <c r="N56" s="4">
-        <v>2.3644105581510733E-4</v>
+        <v>-1.0918497815023576E-3</v>
       </c>
       <c r="O56" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_055_Ca133TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_055_Ca133TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P56" t="s">
@@ -3702,19 +3704,19 @@
         <v>23</v>
       </c>
       <c r="K57">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="L57" s="4">
-        <v>11.4557667</v>
+        <v>13.5625841</v>
       </c>
       <c r="M57" s="4">
-        <v>71.757457013757588</v>
+        <v>71.758682432408492</v>
       </c>
       <c r="N57" s="4">
-        <v>-0.54700847146136078</v>
+        <v>-0.54700547920929332</v>
       </c>
       <c r="O57" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_056_Ca133TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_056_Ca133TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P57" t="s">
@@ -3753,19 +3755,19 @@
         <v>23</v>
       </c>
       <c r="K58">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="L58" s="4">
-        <v>9.7870079000000008</v>
+        <v>11.6988106</v>
       </c>
       <c r="M58" s="4">
-        <v>233.09474571610622</v>
+        <v>233.03586542650788</v>
       </c>
       <c r="N58" s="4">
-        <v>5.2498729348790063E-4</v>
+        <v>8.305067896391935E-4</v>
       </c>
       <c r="O58" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_057_Ca134TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_057_Ca134TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P58" t="s">
@@ -3804,19 +3806,19 @@
         <v>23</v>
       </c>
       <c r="K59">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="L59" s="4">
-        <v>11.920694299999999</v>
+        <v>13.835469099999999</v>
       </c>
       <c r="M59" s="4">
-        <v>71.763607496146619</v>
+        <v>71.761747334788367</v>
       </c>
       <c r="N59" s="4">
-        <v>-0.54678316769108926</v>
+        <v>-0.54745083199521971</v>
       </c>
       <c r="O59" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_058_Ca134TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_058_Ca134TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P59" t="s">
@@ -3855,19 +3857,19 @@
         <v>23</v>
       </c>
       <c r="K60">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="L60" s="4">
-        <v>8.6595496000000001</v>
+        <v>11.9714089</v>
       </c>
       <c r="M60" s="4">
-        <v>232.96687056818539</v>
+        <v>233.00883025472643</v>
       </c>
       <c r="N60" s="4">
-        <v>2.4345008538149051E-3</v>
+        <v>7.1524726942642596E-4</v>
       </c>
       <c r="O60" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_059_Ca135TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_059_Ca135TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P60" t="s">
@@ -3906,19 +3908,19 @@
         <v>23</v>
       </c>
       <c r="K61">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="L61" s="4">
-        <v>10.170810100000001</v>
+        <v>13.1816137</v>
       </c>
       <c r="M61" s="4">
-        <v>71.767240915703141</v>
+        <v>71.766424124983672</v>
       </c>
       <c r="N61" s="4">
-        <v>-0.54703871911959723</v>
+        <v>-0.54592198793265156</v>
       </c>
       <c r="O61" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_060_Ca135TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_060_Ca135TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P61" t="s">
@@ -3957,19 +3959,19 @@
         <v>23</v>
       </c>
       <c r="K62">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L62" s="4">
-        <v>11.3625569</v>
+        <v>18.144391500000001</v>
       </c>
       <c r="M62" s="4">
-        <v>233.02276811029415</v>
+        <v>233.12125034284918</v>
       </c>
       <c r="N62" s="4">
-        <v>6.7390265492644014E-2</v>
+        <v>5.8586609603155815E-2</v>
       </c>
       <c r="O62" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_061_Ca136TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_061_Ca136TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P62" t="s">
@@ -4008,19 +4010,19 @@
         <v>23</v>
       </c>
       <c r="K63">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="L63" s="4">
-        <v>15.159424899999999</v>
+        <v>19.253132699999998</v>
       </c>
       <c r="M63" s="4">
-        <v>71.756416474655808</v>
+        <v>71.766903863444796</v>
       </c>
       <c r="N63" s="4">
-        <v>-0.54166270523377635</v>
+        <v>-0.54424914676468927</v>
       </c>
       <c r="O63" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_062_Ca136TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_062_Ca136TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P63" t="s">
@@ -4059,19 +4061,19 @@
         <v>23</v>
       </c>
       <c r="K64">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="L64" s="4">
-        <v>7.0006101999999997</v>
+        <v>10.370445500000001</v>
       </c>
       <c r="M64" s="4">
-        <v>233.64010681043797</v>
+        <v>233.54192661676061</v>
       </c>
       <c r="N64" s="4">
-        <v>0.14247475862687123</v>
+        <v>0.14289264090421597</v>
       </c>
       <c r="O64" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_063_Ca137TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_063_Ca137TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P64" t="s">
@@ -4110,19 +4112,19 @@
         <v>23</v>
       </c>
       <c r="K65">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="L65" s="4">
-        <v>9.6560754000000006</v>
+        <v>11.4219603</v>
       </c>
       <c r="M65" s="4">
-        <v>71.797454459517354</v>
+        <v>71.797656756031969</v>
       </c>
       <c r="N65" s="4">
-        <v>-0.50403038507243769</v>
+        <v>-0.50256499105439056</v>
       </c>
       <c r="O65" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_064_Ca137TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_064_Ca137TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P65" t="s">
@@ -4161,19 +4163,19 @@
         <v>23</v>
       </c>
       <c r="K66">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="L66" s="4">
-        <v>10.9626888</v>
+        <v>13.840698700000001</v>
       </c>
       <c r="M66" s="4">
-        <v>233.54460894402655</v>
+        <v>233.56809394111403</v>
       </c>
       <c r="N66" s="4">
-        <v>0.15285371875530679</v>
+        <v>0.15369149180942226</v>
       </c>
       <c r="O66" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_065_Ca138TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_065_Ca138TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P66" t="s">
@@ -4212,19 +4214,19 @@
         <v>23</v>
       </c>
       <c r="K67">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L67" s="4">
-        <v>13.877742599999999</v>
+        <v>14.9503676</v>
       </c>
       <c r="M67" s="4">
-        <v>71.664139815490941</v>
+        <v>71.66114414313968</v>
       </c>
       <c r="N67" s="4">
-        <v>-0.82645650615734678</v>
+        <v>-0.82735748055790193</v>
       </c>
       <c r="O67" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_066_Ca138TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_066_Ca138TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P67" t="s">
@@ -4263,19 +4265,19 @@
         <v>23</v>
       </c>
       <c r="K68">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="L68" s="4">
-        <v>16.230572200000001</v>
+        <v>22.228150599999999</v>
       </c>
       <c r="M68" s="4">
-        <v>411.71264603021757</v>
+        <v>411.81670787122647</v>
       </c>
       <c r="N68" s="4">
-        <v>1.5858094166407377</v>
+        <v>1.583655886966663</v>
       </c>
       <c r="O68" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_067_Ca139TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_067_Ca139TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P68" t="s">
@@ -4314,19 +4316,19 @@
         <v>23</v>
       </c>
       <c r="K69">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="L69" s="4">
-        <v>13.9979978</v>
+        <v>14.968984799999999</v>
       </c>
       <c r="M69" s="4">
-        <v>157.23585894298103</v>
+        <v>157.27294743597437</v>
       </c>
       <c r="N69" s="4">
-        <v>-0.57303786506528909</v>
+        <v>-0.56667416330484921</v>
       </c>
       <c r="O69" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_068_Ca139TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_068_Ca139TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P69" t="s">
@@ -4365,19 +4367,19 @@
         <v>23</v>
       </c>
       <c r="K70">
-        <v>1689</v>
+        <v>1652</v>
       </c>
       <c r="L70" s="4">
-        <v>28.0843417</v>
+        <v>32.676911699999998</v>
       </c>
       <c r="M70" s="4">
-        <v>411.78570068868981</v>
+        <v>411.78363626214502</v>
       </c>
       <c r="N70" s="4">
-        <v>1.5688271603269441</v>
+        <v>1.5661650088955756</v>
       </c>
       <c r="O70" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_069_Ca141TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_069_Ca141TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P70" t="s">
@@ -4416,19 +4418,19 @@
         <v>23</v>
       </c>
       <c r="K71">
-        <v>1696</v>
+        <v>1709</v>
       </c>
       <c r="L71" s="4">
-        <v>21.5435768</v>
+        <v>26.267674899999999</v>
       </c>
       <c r="M71" s="4">
-        <v>157.30946242188563</v>
+        <v>157.31390592666503</v>
       </c>
       <c r="N71" s="4">
-        <v>-0.56325567797862031</v>
+        <v>-0.5652841192158955</v>
       </c>
       <c r="O71" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_070_Ca141TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_070_Ca141TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P71" t="s">
@@ -4467,19 +4469,19 @@
         <v>23</v>
       </c>
       <c r="K72">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="L72" s="4">
-        <v>17.544184300000001</v>
+        <v>22.697374</v>
       </c>
       <c r="M72" s="4">
-        <v>96.717479370668556</v>
+        <v>96.695280715156557</v>
       </c>
       <c r="N72" s="4">
-        <v>-4.0408862266687565E-2</v>
+        <v>-4.089263934423748E-2</v>
       </c>
       <c r="O72" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_071_Ca143TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_071_Ca143TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P72" t="s">
@@ -4518,19 +4520,19 @@
         <v>23</v>
       </c>
       <c r="K73">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="L73" s="4">
-        <v>16.6644361</v>
+        <v>23.4376654</v>
       </c>
       <c r="M73" s="4">
-        <v>25.17407962142207</v>
+        <v>25.169236207858294</v>
       </c>
       <c r="N73" s="4">
-        <v>-5.4658032845276497E-2</v>
+        <v>-5.4719281958081442E-2</v>
       </c>
       <c r="O73" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_072_Ca143TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_072_Ca143TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P73" t="s">
@@ -4569,19 +4571,19 @@
         <v>23</v>
       </c>
       <c r="K74">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="L74" s="4">
-        <v>13.6553817</v>
+        <v>16.464394500000001</v>
       </c>
       <c r="M74" s="4">
-        <v>115.04801379002851</v>
+        <v>115.11955138616108</v>
       </c>
       <c r="N74" s="4">
-        <v>0.53014906927755645</v>
+        <v>0.53239966064873878</v>
       </c>
       <c r="O74" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_073_Ca144TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_073_Ca144TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P74" t="s">
@@ -4620,19 +4622,19 @@
         <v>23</v>
       </c>
       <c r="K75">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="L75" s="4">
-        <v>14.033815000000001</v>
+        <v>16.944720199999999</v>
       </c>
       <c r="M75" s="4">
-        <v>35.860747365879675</v>
+        <v>35.861014778480005</v>
       </c>
       <c r="N75" s="4">
-        <v>-3.5266079154181937E-2</v>
+        <v>-3.5324008466584247E-2</v>
       </c>
       <c r="O75" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_074_Ca144TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_074_Ca144TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P75" t="s">
@@ -4671,19 +4673,19 @@
         <v>23</v>
       </c>
       <c r="K76">
-        <v>2112</v>
+        <v>2390</v>
       </c>
       <c r="L76" s="4">
-        <v>19.931553300000001</v>
+        <v>33.433266199999998</v>
       </c>
       <c r="M76" s="4">
-        <v>401.07028541923484</v>
+        <v>401.13532859414261</v>
       </c>
       <c r="N76" s="4">
-        <v>-67.003762983892031</v>
+        <v>-66.564074082518957</v>
       </c>
       <c r="O76" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_075_Ca147TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_075_Ca147TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P76" t="s">
@@ -4722,19 +4724,19 @@
         <v>23</v>
       </c>
       <c r="K77">
-        <v>1226</v>
+        <v>1261</v>
       </c>
       <c r="L77" s="4">
-        <v>18.200934199999999</v>
+        <v>22.7861455</v>
       </c>
       <c r="M77" s="4">
-        <v>155.47670312189842</v>
+        <v>155.47063386926305</v>
       </c>
       <c r="N77" s="4">
-        <v>-2.7385597054135302</v>
+        <v>-2.7149896556548523</v>
       </c>
       <c r="O77" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_076_Ca147TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_076_Ca147TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P77" t="s">
@@ -4773,19 +4775,19 @@
         <v>23</v>
       </c>
       <c r="K78">
-        <v>1112</v>
+        <v>512</v>
       </c>
       <c r="L78" s="4">
-        <v>55.841796700000003</v>
+        <v>31.817497299999999</v>
       </c>
       <c r="M78" s="4">
-        <v>184.65914925335852</v>
+        <v>184.55649445622737</v>
       </c>
       <c r="N78" s="4">
-        <v>-2.9826880831486206E-2</v>
+        <v>-1.6220980619849131E-3</v>
       </c>
       <c r="O78" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_077_Ca183TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_077_Ca183TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P78" t="s">
@@ -4824,19 +4826,19 @@
         <v>23</v>
       </c>
       <c r="K79">
-        <v>1395</v>
+        <v>833</v>
       </c>
       <c r="L79" s="4">
-        <v>62.020362400000003</v>
+        <v>37.849119000000002</v>
       </c>
       <c r="M79" s="4">
-        <v>57.737861957379302</v>
+        <v>57.652264303491805</v>
       </c>
       <c r="N79" s="4">
-        <v>8.2762221105913067E-2</v>
+        <v>9.5090308782148095E-2</v>
       </c>
       <c r="O79" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_078_Ca183TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_078_Ca183TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P79" t="s">
@@ -4875,19 +4877,19 @@
         <v>23</v>
       </c>
       <c r="K80">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="L80" s="4">
-        <v>12.8043817</v>
+        <v>16.203595799999999</v>
       </c>
       <c r="M80" s="4">
-        <v>233.88981813902785</v>
+        <v>233.91179213146418</v>
       </c>
       <c r="N80" s="4">
-        <v>9.2440376925831073E-3</v>
+        <v>9.2316217452707554E-3</v>
       </c>
       <c r="O80" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_079_Ca008TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_079_Ca008TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P80" t="s">
@@ -4929,16 +4931,16 @@
         <v>551</v>
       </c>
       <c r="L81" s="4">
-        <v>13.8129963</v>
+        <v>19.624174400000001</v>
       </c>
       <c r="M81" s="4">
-        <v>72.061177590033125</v>
+        <v>72.061196180369066</v>
       </c>
       <c r="N81" s="4">
-        <v>-0.54984787726948581</v>
+        <v>-0.54985421126536338</v>
       </c>
       <c r="O81" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_080_Ca008TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_080_Ca008TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P81" t="s">
@@ -4977,19 +4979,19 @@
         <v>23</v>
       </c>
       <c r="K82">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="L82" s="4">
-        <v>13.1979507</v>
+        <v>18.234996500000001</v>
       </c>
       <c r="M82" s="4">
-        <v>233.12167979409475</v>
+        <v>233.11899208289591</v>
       </c>
       <c r="N82" s="4">
-        <v>1.0273730614252664E-3</v>
+        <v>1.0382755986476247E-3</v>
       </c>
       <c r="O82" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_081_Ca009TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_081_Ca009TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P82" t="s">
@@ -5028,19 +5030,19 @@
         <v>23</v>
       </c>
       <c r="K83">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L83" s="4">
-        <v>13.994478600000001</v>
+        <v>21.755742699999999</v>
       </c>
       <c r="M83" s="4">
-        <v>71.773296887041298</v>
+        <v>71.7737461902597</v>
       </c>
       <c r="N83" s="4">
-        <v>-0.54074126859330529</v>
+        <v>-0.54069885906190351</v>
       </c>
       <c r="O83" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_082_Ca009TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_082_Ca009TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P83" t="s">
@@ -5079,19 +5081,19 @@
         <v>23</v>
       </c>
       <c r="K84">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="L84" s="4">
-        <v>12.169965599999999</v>
+        <v>20.369920799999999</v>
       </c>
       <c r="M84" s="4">
-        <v>232.79255825601646</v>
+        <v>232.79255592639782</v>
       </c>
       <c r="N84" s="4">
-        <v>6.9480676210600292E-2</v>
+        <v>6.9445632170213711E-2</v>
       </c>
       <c r="O84" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_083_Ca010TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_083_Ca010TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P84" t="s">
@@ -5130,19 +5132,19 @@
         <v>23</v>
       </c>
       <c r="K85">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L85" s="4">
-        <v>16.6536942</v>
+        <v>25.5336502</v>
       </c>
       <c r="M85" s="4">
-        <v>71.76656912111082</v>
+        <v>71.766582485456453</v>
       </c>
       <c r="N85" s="4">
-        <v>-0.53935820258967604</v>
+        <v>-0.53934151528744922</v>
       </c>
       <c r="O85" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_084_Ca010TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_084_Ca010TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P85" t="s">
@@ -5181,19 +5183,19 @@
         <v>23</v>
       </c>
       <c r="K86">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L86" s="4">
-        <v>16.5374403</v>
+        <v>21.142674800000002</v>
       </c>
       <c r="M86" s="4">
-        <v>232.57831995212061</v>
+        <v>232.57945992270939</v>
       </c>
       <c r="N86" s="4">
-        <v>6.7205287637926922E-2</v>
+        <v>6.7143553702427583E-2</v>
       </c>
       <c r="O86" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_085_Ca011TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_085_Ca011TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P86" t="s">
@@ -5232,19 +5234,19 @@
         <v>23</v>
       </c>
       <c r="K87">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="L87" s="4">
-        <v>20.314343600000001</v>
+        <v>26.1663283</v>
       </c>
       <c r="M87" s="4">
-        <v>71.634212836885865</v>
+        <v>71.63413048937511</v>
       </c>
       <c r="N87" s="4">
-        <v>-0.53886098161264628</v>
+        <v>-0.53441741191589098</v>
       </c>
       <c r="O87" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_086_Ca011TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_086_Ca011TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P87" t="s">
@@ -5283,19 +5285,19 @@
         <v>23</v>
       </c>
       <c r="K88">
-        <v>818</v>
+        <v>838</v>
       </c>
       <c r="L88" s="4">
-        <v>11.0042171</v>
+        <v>18.493373299999998</v>
       </c>
       <c r="M88" s="4">
-        <v>234.08037263710426</v>
+        <v>234.07916109187821</v>
       </c>
       <c r="N88" s="4">
-        <v>9.9499337266434999E-3</v>
+        <v>9.9313976732652576E-3</v>
       </c>
       <c r="O88" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_087_Ca012TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_087_Ca012TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P88" t="s">
@@ -5334,19 +5336,19 @@
         <v>23</v>
       </c>
       <c r="K89">
-        <v>944</v>
+        <v>970</v>
       </c>
       <c r="L89" s="4">
-        <v>12.9350223</v>
+        <v>22.0214727</v>
       </c>
       <c r="M89" s="4">
-        <v>72.056974258112263</v>
+        <v>72.056643652602361</v>
       </c>
       <c r="N89" s="4">
-        <v>-0.55809562998318374</v>
+        <v>-0.55812743815189014</v>
       </c>
       <c r="O89" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_088_Ca012TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_088_Ca012TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P89" t="s">
@@ -5385,19 +5387,19 @@
         <v>23</v>
       </c>
       <c r="K90">
-        <v>818</v>
+        <v>832</v>
       </c>
       <c r="L90" s="4">
-        <v>15.5794587</v>
+        <v>20.700377499999998</v>
       </c>
       <c r="M90" s="4">
-        <v>233.05203620098266</v>
+        <v>233.0528199263681</v>
       </c>
       <c r="N90" s="4">
-        <v>1.5066021242813121E-3</v>
+        <v>1.5169706731430498E-3</v>
       </c>
       <c r="O90" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_089_Ca013TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_089_Ca013TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P90" t="s">
@@ -5436,19 +5438,19 @@
         <v>23</v>
       </c>
       <c r="K91">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="L91" s="4">
-        <v>18.9439463</v>
+        <v>24.460917999999999</v>
       </c>
       <c r="M91" s="4">
-        <v>71.76231921029617</v>
+        <v>71.762483661602303</v>
       </c>
       <c r="N91" s="4">
-        <v>-0.55091968922749912</v>
+        <v>-0.55093590847012464</v>
       </c>
       <c r="O91" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_090_Ca013TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_090_Ca013TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P91" t="s">
@@ -5487,19 +5489,19 @@
         <v>23</v>
       </c>
       <c r="K92">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="L92" s="4">
-        <v>16.301118299999999</v>
+        <v>18.875528599999999</v>
       </c>
       <c r="M92" s="4">
-        <v>232.90666690706524</v>
+        <v>232.90465609791562</v>
       </c>
       <c r="N92" s="4">
-        <v>6.9970412619759642E-2</v>
+        <v>6.998356572550346E-2</v>
       </c>
       <c r="O92" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_091_Ca014TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_091_Ca014TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P92" t="s">
@@ -5538,19 +5540,19 @@
         <v>23</v>
       </c>
       <c r="K93">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="L93" s="4">
-        <v>20.455207600000001</v>
+        <v>25.292665100000001</v>
       </c>
       <c r="M93" s="4">
-        <v>71.766776391197794</v>
+        <v>71.766776259178201</v>
       </c>
       <c r="N93" s="4">
-        <v>-0.54437019852966262</v>
+        <v>-0.54437020635539635</v>
       </c>
       <c r="O93" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_092_Ca014TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_092_Ca014TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P93" t="s">
@@ -5592,16 +5594,16 @@
         <v>863</v>
       </c>
       <c r="L94" s="4">
-        <v>14.888885200000001</v>
+        <v>21.540054900000001</v>
       </c>
       <c r="M94" s="4">
-        <v>232.29508518127042</v>
+        <v>232.2921149656751</v>
       </c>
       <c r="N94" s="4">
-        <v>6.6943108156506712E-2</v>
+        <v>6.6937717999804885E-2</v>
       </c>
       <c r="O94" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_093_Ca015TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_093_Ca015TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P94" t="s">
@@ -5640,19 +5642,19 @@
         <v>23</v>
       </c>
       <c r="K95">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="L95" s="4">
-        <v>18.690529099999999</v>
+        <v>26.738043699999999</v>
       </c>
       <c r="M95" s="4">
-        <v>71.625886875277402</v>
+        <v>71.62512871550031</v>
       </c>
       <c r="N95" s="4">
-        <v>-0.54532233720239243</v>
+        <v>-0.54536077794517346</v>
       </c>
       <c r="O95" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_094_Ca015TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_094_Ca015TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P95" t="s">
@@ -5691,19 +5693,19 @@
         <v>23</v>
       </c>
       <c r="K96">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L96" s="4">
-        <v>4.5528960999999999</v>
+        <v>5.5674577999999997</v>
       </c>
       <c r="M96" s="4">
-        <v>242.5890714015209</v>
+        <v>242.70172474205535</v>
       </c>
       <c r="N96" s="4">
-        <v>0.23206489866861765</v>
+        <v>0.23218529214587894</v>
       </c>
       <c r="O96" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_095_Ca120TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_095_Ca120TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P96" t="s">
@@ -5742,19 +5744,19 @@
         <v>23</v>
       </c>
       <c r="K97">
-        <v>523</v>
+        <v>494</v>
       </c>
       <c r="L97" s="4">
-        <v>5.1081118999999999</v>
+        <v>6.0283689000000003</v>
       </c>
       <c r="M97" s="4">
-        <v>74.670422538606061</v>
+        <v>74.685134429266526</v>
       </c>
       <c r="N97" s="4">
-        <v>-0.33784609217060607</v>
+        <v>-0.33779887211627302</v>
       </c>
       <c r="O97" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_096_Ca120TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_096_Ca120TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P97" t="s">
@@ -5793,19 +5795,19 @@
         <v>23</v>
       </c>
       <c r="K98">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="L98" s="4">
-        <v>5.5178681999999997</v>
+        <v>6.4470694000000002</v>
       </c>
       <c r="M98" s="4">
-        <v>241.54746412970036</v>
+        <v>241.5143726318114</v>
       </c>
       <c r="N98" s="4">
-        <v>0.2286791372248424</v>
+        <v>0.22862728605053528</v>
       </c>
       <c r="O98" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_097_Ca121TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_097_Ca121TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P98" t="s">
@@ -5844,19 +5846,19 @@
         <v>23</v>
       </c>
       <c r="K99">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="L99" s="4">
-        <v>5.7727154000000001</v>
+        <v>7.2219096</v>
       </c>
       <c r="M99" s="4">
-        <v>74.354010081986644</v>
+        <v>74.365125365938397</v>
       </c>
       <c r="N99" s="4">
-        <v>-0.32907378161057715</v>
+        <v>-0.33361272533874831</v>
       </c>
       <c r="O99" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_098_Ca121TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_098_Ca121TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P99" t="s">
@@ -5895,19 +5897,19 @@
         <v>23</v>
       </c>
       <c r="K100">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L100" s="4">
-        <v>4.5702334000000002</v>
+        <v>7.4413143000000002</v>
       </c>
       <c r="M100" s="4">
-        <v>241.76031608215175</v>
+        <v>241.62078870006127</v>
       </c>
       <c r="N100" s="4">
-        <v>0.2287509880189641</v>
+        <v>0.22848057284632906</v>
       </c>
       <c r="O100" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_099_Ca122TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_099_Ca122TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P100" t="s">
@@ -5946,19 +5948,19 @@
         <v>23</v>
       </c>
       <c r="K101">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L101" s="4">
-        <v>6.0388383000000001</v>
+        <v>8.1484509999999997</v>
       </c>
       <c r="M101" s="4">
-        <v>74.382058503710709</v>
+        <v>74.371013019969268</v>
       </c>
       <c r="N101" s="4">
-        <v>-0.33271982565124353</v>
+        <v>-0.32585417450690868</v>
       </c>
       <c r="O101" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_100_Ca122TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_100_Ca122TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P101" t="s">
@@ -5997,19 +5999,19 @@
         <v>23</v>
       </c>
       <c r="K102">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="L102" s="4">
-        <v>4.7354080999999999</v>
+        <v>7.4798396</v>
       </c>
       <c r="M102" s="4">
-        <v>241.04484655394788</v>
+        <v>241.12586499904029</v>
       </c>
       <c r="N102" s="4">
-        <v>0.22465897906448798</v>
+        <v>0.22644563614658994</v>
       </c>
       <c r="O102" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_101_Ca123TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_101_Ca123TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P102" t="s">
@@ -6051,16 +6053,16 @@
         <v>554</v>
       </c>
       <c r="L103" s="4">
-        <v>6.7483472999999998</v>
+        <v>8.3714876999999994</v>
       </c>
       <c r="M103" s="4">
-        <v>74.213416454370815</v>
+        <v>74.221341407014563</v>
       </c>
       <c r="N103" s="4">
-        <v>-0.33228636994882738</v>
+        <v>-0.33284037848640347</v>
       </c>
       <c r="O103" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_102_Ca123TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_102_Ca123TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P103" t="s">
@@ -6099,19 +6101,19 @@
         <v>23</v>
       </c>
       <c r="K104">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="L104" s="4">
-        <v>6.2607625999999996</v>
+        <v>7.1681447</v>
       </c>
       <c r="M104" s="4">
-        <v>242.54521277554818</v>
+        <v>242.6893144756805</v>
       </c>
       <c r="N104" s="4">
-        <v>0.23283647464583762</v>
+        <v>0.23310540984260625</v>
       </c>
       <c r="O104" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_103_Ca124TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_103_Ca124TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P104" t="s">
@@ -6150,19 +6152,19 @@
         <v>23</v>
       </c>
       <c r="K105">
-        <v>1117</v>
+        <v>1125</v>
       </c>
       <c r="L105" s="4">
-        <v>5.5051313999999998</v>
+        <v>7.8245329000000003</v>
       </c>
       <c r="M105" s="4">
-        <v>74.661751867260918</v>
+        <v>74.66272961840248</v>
       </c>
       <c r="N105" s="4">
-        <v>-0.34112488351822423</v>
+        <v>-0.34153787092137572</v>
       </c>
       <c r="O105" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_104_Ca124TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_104_Ca124TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P105" t="s">
@@ -6201,19 +6203,19 @@
         <v>23</v>
       </c>
       <c r="K106">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="L106" s="4">
-        <v>6.5103109000000003</v>
+        <v>8.2088692000000005</v>
       </c>
       <c r="M106" s="4">
-        <v>241.54321991377375</v>
+        <v>241.62988721202183</v>
       </c>
       <c r="N106" s="4">
-        <v>0.22948012359384246</v>
+        <v>0.22963875610615478</v>
       </c>
       <c r="O106" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_105_Ca125TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_105_Ca125TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P106" t="s">
@@ -6252,19 +6254,19 @@
         <v>23</v>
       </c>
       <c r="K107">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="L107" s="4">
-        <v>6.9896178999999998</v>
+        <v>9.1359957000000005</v>
       </c>
       <c r="M107" s="4">
-        <v>74.344280217840364</v>
+        <v>74.343140204375246</v>
       </c>
       <c r="N107" s="4">
-        <v>-0.33726477426703827</v>
+        <v>-0.33759258902252826</v>
       </c>
       <c r="O107" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_106_Ca125TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_106_Ca125TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P107" t="s">
@@ -6303,19 +6305,19 @@
         <v>23</v>
       </c>
       <c r="K108">
-        <v>1007</v>
+        <v>1048</v>
       </c>
       <c r="L108" s="4">
-        <v>5.4263959000000002</v>
+        <v>9.8034154000000004</v>
       </c>
       <c r="M108" s="4">
-        <v>241.64872011860234</v>
+        <v>241.68131618472844</v>
       </c>
       <c r="N108" s="4">
-        <v>0.22966395422700261</v>
+        <v>0.22971557098955656</v>
       </c>
       <c r="O108" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_107_Ca126TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_107_Ca126TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P108" t="s">
@@ -6354,19 +6356,19 @@
         <v>23</v>
       </c>
       <c r="K109">
-        <v>1171</v>
+        <v>1156</v>
       </c>
       <c r="L109" s="4">
-        <v>7.2873507000000002</v>
+        <v>10.735428000000001</v>
       </c>
       <c r="M109" s="4">
-        <v>74.346636840002731</v>
+        <v>74.347517227890037</v>
       </c>
       <c r="N109" s="4">
-        <v>-0.33748378352333974</v>
+        <v>-0.33746696161914663</v>
       </c>
       <c r="O109" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_108_Ca126TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_108_Ca126TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P109" t="s">
@@ -6405,19 +6407,19 @@
         <v>23</v>
       </c>
       <c r="K110">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="L110" s="4">
-        <v>5.7605314999999999</v>
+        <v>8.9282578000000008</v>
       </c>
       <c r="M110" s="4">
-        <v>240.87403313183822</v>
+        <v>241.03459475220717</v>
       </c>
       <c r="N110" s="4">
-        <v>0.22829136348677009</v>
+        <v>0.22858465067545553</v>
       </c>
       <c r="O110" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_109_Ca127TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_109_Ca127TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P110" t="s">
@@ -6456,19 +6458,19 @@
         <v>23</v>
       </c>
       <c r="K111">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="L111" s="4">
-        <v>6.8708571999999997</v>
+        <v>10.6065024</v>
       </c>
       <c r="M111" s="4">
-        <v>74.197620729887959</v>
+        <v>74.196564299744324</v>
       </c>
       <c r="N111" s="4">
-        <v>-0.33498300245992313</v>
+        <v>-0.33262907245068085</v>
       </c>
       <c r="O111" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_110_Ca127TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_110_Ca127TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P111" t="s">
@@ -6507,19 +6509,19 @@
         <v>23</v>
       </c>
       <c r="K112">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="L112" s="4">
-        <v>21.339457700000001</v>
+        <v>26.928000699999998</v>
       </c>
       <c r="M112" s="4">
-        <v>411.4519654661467</v>
+        <v>411.42292058095654</v>
       </c>
       <c r="N112" s="4">
-        <v>1.5906316832174423</v>
+        <v>1.5735214053945898</v>
       </c>
       <c r="O112" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_111_Ca140TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_111_Ca140TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P112" t="s">
@@ -6558,19 +6560,19 @@
         <v>23</v>
       </c>
       <c r="K113">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L113" s="4">
-        <v>17.005392400000002</v>
+        <v>22.352999100000002</v>
       </c>
       <c r="M113" s="4">
-        <v>157.23775378648574</v>
+        <v>157.23227016772086</v>
       </c>
       <c r="N113" s="4">
-        <v>-0.56103013973216631</v>
+        <v>-0.56199942079189091</v>
       </c>
       <c r="O113" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_112_Ca140TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_112_Ca140TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P113" t="s">
@@ -6609,19 +6611,19 @@
         <v>23</v>
       </c>
       <c r="K114">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="L114" s="4">
-        <v>17.305555300000002</v>
+        <v>24.029927199999999</v>
       </c>
       <c r="M114" s="4">
-        <v>411.79066281328937</v>
+        <v>411.82456944657048</v>
       </c>
       <c r="N114" s="4">
-        <v>1.5944987829644963</v>
+        <v>1.5772490986473817</v>
       </c>
       <c r="O114" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_113_Ca142TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_113_Ca142TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P114" t="s">
@@ -6660,19 +6662,19 @@
         <v>23</v>
       </c>
       <c r="K115">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="L115" s="4">
-        <v>18.014787099999999</v>
+        <v>23.9828422</v>
       </c>
       <c r="M115" s="4">
-        <v>157.33772544740492</v>
+        <v>157.34428286152561</v>
       </c>
       <c r="N115" s="4">
-        <v>-0.57625387568378428</v>
+        <v>-0.57506727799735535</v>
       </c>
       <c r="O115" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_114_Ca142TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_114_Ca142TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P115" t="s">
@@ -6711,19 +6713,19 @@
         <v>23</v>
       </c>
       <c r="K116">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="L116" s="4">
-        <v>16.855668699999999</v>
+        <v>19.751655400000001</v>
       </c>
       <c r="M116" s="4">
-        <v>96.615684526513192</v>
+        <v>96.621281319859207</v>
       </c>
       <c r="N116" s="4">
-        <v>-4.1982048482484435E-2</v>
+        <v>-4.199088334109486E-2</v>
       </c>
       <c r="O116" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_115_Ca145TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_115_Ca145TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P116" t="s">
@@ -6762,19 +6764,19 @@
         <v>23</v>
       </c>
       <c r="K117">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="L117" s="4">
-        <v>16.636411800000001</v>
+        <v>25.248028399999999</v>
       </c>
       <c r="M117" s="4">
-        <v>25.166113695689589</v>
+        <v>25.165733510720507</v>
       </c>
       <c r="N117" s="4">
-        <v>-5.1639386815979682E-2</v>
+        <v>-5.1650230513548917E-2</v>
       </c>
       <c r="O117" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_116_Ca145TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_116_Ca145TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P117" t="s">
@@ -6813,19 +6815,19 @@
         <v>23</v>
       </c>
       <c r="K118">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L118" s="4">
-        <v>11.9848658</v>
+        <v>13.7191888</v>
       </c>
       <c r="M118" s="4">
-        <v>115.1116549754821</v>
+        <v>115.11079903440503</v>
       </c>
       <c r="N118" s="4">
-        <v>0.53506826013176589</v>
+        <v>0.53507480448651623</v>
       </c>
       <c r="O118" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_117_Ca146TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_117_Ca146TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P118" t="s">
@@ -6864,19 +6866,19 @@
         <v>23</v>
       </c>
       <c r="K119">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="L119" s="4">
-        <v>13.729969199999999</v>
+        <v>18.521825199999999</v>
       </c>
       <c r="M119" s="4">
-        <v>35.870251409757721</v>
+        <v>35.870247615159087</v>
       </c>
       <c r="N119" s="4">
-        <v>-3.0691183805647605E-2</v>
+        <v>-3.0731152661122411E-2</v>
       </c>
       <c r="O119" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_118_Ca146TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_118_Ca146TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P119" t="s">
@@ -6915,19 +6917,19 @@
         <v>23</v>
       </c>
       <c r="K120">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L120" s="4">
-        <v>12.0467595</v>
+        <v>13.7865041</v>
       </c>
       <c r="M120" s="4">
-        <v>115.1116549754821</v>
+        <v>115.11079903440503</v>
       </c>
       <c r="N120" s="4">
-        <v>0.53506826013176589</v>
+        <v>0.53507480448651623</v>
       </c>
       <c r="O120" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_119_Ca146TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_119_Ca146TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P120" t="s">
@@ -6966,19 +6968,19 @@
         <v>23</v>
       </c>
       <c r="K121">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="L121" s="4">
-        <v>14.6128889</v>
+        <v>18.325362899999998</v>
       </c>
       <c r="M121" s="4">
-        <v>35.870251409757721</v>
+        <v>35.870247615159087</v>
       </c>
       <c r="N121" s="4">
-        <v>-3.0691183805647605E-2</v>
+        <v>-3.0731152661122411E-2</v>
       </c>
       <c r="O121" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_120_Ca146TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_120_Ca146TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P121" t="s">
@@ -7017,19 +7019,19 @@
         <v>23</v>
       </c>
       <c r="K122">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L122" s="4">
-        <v>20.9446403</v>
+        <v>27.1383394</v>
       </c>
       <c r="M122" s="4">
-        <v>183.13819254039828</v>
+        <v>183.12016921064964</v>
       </c>
       <c r="N122" s="4">
-        <v>0.30546477154608082</v>
+        <v>0.30564918110723827</v>
       </c>
       <c r="O122" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_121_Ca161TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_121_Ca161TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P122" t="s">
@@ -7068,19 +7070,19 @@
         <v>23</v>
       </c>
       <c r="K123">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="L123" s="4">
-        <v>28.193571500000001</v>
+        <v>31.7323734</v>
       </c>
       <c r="M123" s="4">
-        <v>157.06350979804316</v>
+        <v>157.0510439944114</v>
       </c>
       <c r="N123" s="4">
-        <v>-0.55955630853390559</v>
+        <v>-0.55541611440661576</v>
       </c>
       <c r="O123" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_122_Ca161TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_122_Ca161TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P123" t="s">
@@ -7119,19 +7121,19 @@
         <v>23</v>
       </c>
       <c r="K124">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="L124" s="4">
-        <v>24.4845161</v>
+        <v>29.447381799999999</v>
       </c>
       <c r="M124" s="4">
-        <v>282.36928118052697</v>
+        <v>282.36885901054438</v>
       </c>
       <c r="N124" s="4">
-        <v>0.73353593910924308</v>
+        <v>0.73313929160580849</v>
       </c>
       <c r="O124" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_123_Ca163TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_123_Ca163TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P124" t="s">
@@ -7170,19 +7172,19 @@
         <v>23</v>
       </c>
       <c r="K125">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="L125" s="4">
-        <v>25.360621699999999</v>
+        <v>40.1317564</v>
       </c>
       <c r="M125" s="4">
-        <v>260.88749239898777</v>
+        <v>260.89664380768448</v>
       </c>
       <c r="N125" s="4">
-        <v>-0.44331826383753992</v>
+        <v>-0.44465200862533216</v>
       </c>
       <c r="O125" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_124_Ca163TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_124_Ca163TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P125" t="s">
@@ -7221,19 +7223,19 @@
         <v>23</v>
       </c>
       <c r="K126">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="L126" s="4">
-        <v>16.342509400000001</v>
+        <v>21.6771168</v>
       </c>
       <c r="M126" s="4">
-        <v>313.20816812667243</v>
+        <v>313.20441498818104</v>
       </c>
       <c r="N126" s="4">
-        <v>1.5291435344814343E-4</v>
+        <v>-5.3452395736832043E-4</v>
       </c>
       <c r="O126" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_125_Ca184TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_125_Ca184TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P126" t="s">
@@ -7272,19 +7274,19 @@
         <v>23</v>
       </c>
       <c r="K127">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="L127" s="4">
-        <v>14.2668187</v>
+        <v>19.123009799999998</v>
       </c>
       <c r="M127" s="4">
-        <v>112.44333081299311</v>
+        <v>112.44211772974815</v>
       </c>
       <c r="N127" s="4">
-        <v>-0.19957904970453647</v>
+        <v>-0.20264487071499523</v>
       </c>
       <c r="O127" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_126_Ca184TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_126_Ca184TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P127" t="s">
@@ -7323,19 +7325,19 @@
         <v>23</v>
       </c>
       <c r="K128">
-        <v>828</v>
+        <v>776</v>
       </c>
       <c r="L128" s="4">
-        <v>13.5885561</v>
+        <v>17.609754299999999</v>
       </c>
       <c r="M128" s="4">
-        <v>381.81587083882511</v>
+        <v>253.23651244694821</v>
       </c>
       <c r="N128" s="4">
-        <v>-2.8642016000723913E-5</v>
+        <v>4.2308874363818916E-3</v>
       </c>
       <c r="O128" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_127_Ca012TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_127_Ca012TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P128" t="s">
@@ -7374,19 +7376,19 @@
         <v>23</v>
       </c>
       <c r="K129">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="L129" s="4">
-        <v>17.627455699999999</v>
+        <v>22.632574099999999</v>
       </c>
       <c r="M129" s="4">
-        <v>75.695097292580172</v>
+        <v>75.694920450121458</v>
       </c>
       <c r="N129" s="4">
-        <v>0.76556561609180662</v>
+        <v>0.76550172202538969</v>
       </c>
       <c r="O129" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_128_Ca012TrN_MaIPA_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_128_Ca012TrN_MaIPA_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P129" t="s">
@@ -7425,19 +7427,19 @@
         <v>23</v>
       </c>
       <c r="K130">
-        <v>810</v>
+        <v>743</v>
       </c>
       <c r="L130" s="4">
-        <v>16.267005999999999</v>
+        <v>21.080171499999999</v>
       </c>
       <c r="M130" s="4">
-        <v>383.23466695148863</v>
+        <v>256.03922919551923</v>
       </c>
       <c r="N130" s="4">
-        <v>1.3295457539141964E-3</v>
+        <v>-4.6981768695513182E-3</v>
       </c>
       <c r="O130" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_129_Ca142TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_129_Ca142TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P130" t="s">
@@ -7476,19 +7478,19 @@
         <v>23</v>
       </c>
       <c r="K131">
-        <v>1542</v>
+        <v>2037</v>
       </c>
       <c r="L131" s="4">
-        <v>40.897267599999999</v>
+        <v>111.1409183</v>
       </c>
       <c r="M131" s="4">
-        <v>85.058423777422746</v>
+        <v>85.060079912224552</v>
       </c>
       <c r="N131" s="4">
-        <v>0.83646563911599581</v>
+        <v>0.83609719593967247</v>
       </c>
       <c r="O131" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_130_Ca142TrN_MaIPA_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_130_Ca142TrN_MaIPA_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P131" t="s">
@@ -7527,19 +7529,19 @@
         <v>23</v>
       </c>
       <c r="K132">
-        <v>518</v>
+        <v>474</v>
       </c>
       <c r="L132" s="4">
-        <v>18.487023900000001</v>
+        <v>28.176509599999999</v>
       </c>
       <c r="M132" s="4">
-        <v>372.20353828539584</v>
+        <v>253.78939275409476</v>
       </c>
       <c r="N132" s="4">
-        <v>1.3703737203147881E-3</v>
+        <v>4.7110242154493776E-2</v>
       </c>
       <c r="O132" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_131_Ca145TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_131_Ca145TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P132" t="s">
@@ -7578,19 +7580,19 @@
         <v>23</v>
       </c>
       <c r="K133">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L133" s="4">
-        <v>14.7257867</v>
+        <v>18.2251935</v>
       </c>
       <c r="M133" s="4">
-        <v>28.2728261248444</v>
+        <v>28.272690631193733</v>
       </c>
       <c r="N133" s="4">
-        <v>1.5548543716459501E-2</v>
+        <v>1.5548811045979518E-2</v>
       </c>
       <c r="O133" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_132_Ca145TrN_MaIPA_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_132_Ca145TrN_MaIPA_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P133" t="s">
@@ -7629,19 +7631,19 @@
         <v>23</v>
       </c>
       <c r="K134">
-        <v>470</v>
+        <v>418</v>
       </c>
       <c r="L134" s="4">
-        <v>13.6640666</v>
+        <v>17.593091900000001</v>
       </c>
       <c r="M134" s="4">
-        <v>370.246261317544</v>
+        <v>253.84542970242683</v>
       </c>
       <c r="N134" s="4">
-        <v>-1.5045424150983422E-6</v>
+        <v>1.2993282551607699E-2</v>
       </c>
       <c r="O134" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_133_Ca184TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_133_Ca184TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P134" t="s">
@@ -7683,16 +7685,16 @@
         <v>375</v>
       </c>
       <c r="L135" s="4">
-        <v>15.8811632</v>
+        <v>19.9664219</v>
       </c>
       <c r="M135" s="4">
-        <v>61.825138185713087</v>
+        <v>61.810603218469637</v>
       </c>
       <c r="N135" s="4">
-        <v>0.56400296068770284</v>
+        <v>0.55694760204058247</v>
       </c>
       <c r="O135" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_134_Ca184TrN_MaIPA_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_134_Ca184TrN_MaIPA_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P135" t="s">
@@ -7731,19 +7733,19 @@
         <v>23</v>
       </c>
       <c r="K136">
-        <v>2007</v>
+        <v>1928</v>
       </c>
       <c r="L136" s="4">
-        <v>40.629813800000001</v>
+        <v>52.905377399999999</v>
       </c>
       <c r="M136" s="4">
-        <v>337.60905704156403</v>
+        <v>256.03780076397476</v>
       </c>
       <c r="N136" s="4">
-        <v>1.4529794220381476E-3</v>
+        <v>1.3886126217199646E-2</v>
       </c>
       <c r="O136" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_135_Ca204TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_135_Ca204TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P136" t="s">
@@ -7782,19 +7784,19 @@
         <v>23</v>
       </c>
       <c r="K137">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="L137" s="4">
-        <v>17.065703899999999</v>
+        <v>23.9353716</v>
       </c>
       <c r="M137" s="4">
-        <v>26.038549295500125</v>
+        <v>26.03959368665377</v>
       </c>
       <c r="N137" s="4">
-        <v>9.6710687165359483E-3</v>
+        <v>9.6811360663843164E-3</v>
       </c>
       <c r="O137" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_136_Ca204TrN_MaIPA_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_136_Ca204TrN_MaIPA_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P137" t="s">
@@ -7833,19 +7835,19 @@
         <v>23</v>
       </c>
       <c r="K138">
-        <v>2953</v>
+        <v>2685</v>
       </c>
       <c r="L138" s="4">
-        <v>33.7573626</v>
+        <v>50.574791500000003</v>
       </c>
       <c r="M138" s="4">
-        <v>-13.847780190946471</v>
+        <v>-1.1837565938708841E-2</v>
       </c>
       <c r="N138" s="4">
-        <v>-0.33308552287417342</v>
+        <v>-0.62259507912609391</v>
       </c>
       <c r="O138" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_137_Ca012TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_137_Ca012TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P138" t="s">
@@ -7884,19 +7886,19 @@
         <v>23</v>
       </c>
       <c r="K139">
-        <v>3395</v>
+        <v>3120</v>
       </c>
       <c r="L139" s="4">
-        <v>32.439301399999998</v>
+        <v>58.9374617</v>
       </c>
       <c r="M139" s="4">
-        <v>5.000592858738159</v>
+        <v>0.78832204379640736</v>
       </c>
       <c r="N139" s="4">
-        <v>-0.40453936201744167</v>
+        <v>-0.32256564547211203</v>
       </c>
       <c r="O139" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_138_Ca012TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_138_Ca012TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P139" t="s">
@@ -7935,19 +7937,19 @@
         <v>23</v>
       </c>
       <c r="K140">
-        <v>2655</v>
+        <v>2497</v>
       </c>
       <c r="L140" s="4">
-        <v>38.630972399999997</v>
+        <v>63.2105289</v>
       </c>
       <c r="M140" s="4">
-        <v>-13.852761223322524</v>
+        <v>-1.9361461714800271E-2</v>
       </c>
       <c r="N140" s="4">
-        <v>-0.25473891610582267</v>
+        <v>-0.54618125145453544</v>
       </c>
       <c r="O140" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_139_Ca142TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_139_Ca142TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P140" t="s">
@@ -7986,19 +7988,19 @@
         <v>23</v>
       </c>
       <c r="K141">
-        <v>3282</v>
+        <v>3108</v>
       </c>
       <c r="L141" s="4">
-        <v>53.665437500000003</v>
+        <v>91.079801200000006</v>
       </c>
       <c r="M141" s="4">
-        <v>5.0170096680227285</v>
+        <v>0.7894010475487967</v>
       </c>
       <c r="N141" s="4">
-        <v>-0.46646649611267138</v>
+        <v>-0.36555638132894869</v>
       </c>
       <c r="O141" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_140_Ca142TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_140_Ca142TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P141" t="s">
@@ -8037,19 +8039,19 @@
         <v>23</v>
       </c>
       <c r="K142">
-        <v>3161</v>
+        <v>2905</v>
       </c>
       <c r="L142" s="4">
-        <v>13.773294999999999</v>
+        <v>24.693656300000001</v>
       </c>
       <c r="M142" s="4">
-        <v>-13.850977560584633</v>
+        <v>-1.8531150771245591E-2</v>
       </c>
       <c r="N142" s="4">
-        <v>-0.24100002399552564</v>
+        <v>-0.52479703954647539</v>
       </c>
       <c r="O142" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_141_Ca116TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_141_Ca116TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P142" t="s">
@@ -8088,19 +8090,19 @@
         <v>23</v>
       </c>
       <c r="K143">
-        <v>3579</v>
+        <v>3393</v>
       </c>
       <c r="L143" s="4">
-        <v>14.399858699999999</v>
+        <v>26.344533899999998</v>
       </c>
       <c r="M143" s="4">
-        <v>5.0122191652075179</v>
+        <v>0.78926366956726035</v>
       </c>
       <c r="N143" s="4">
-        <v>-0.45274772935643937</v>
+        <v>-0.35484905598787098</v>
       </c>
       <c r="O143" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_142_Ca116TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_142_Ca116TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P143" t="s">
@@ -8139,19 +8141,19 @@
         <v>23</v>
       </c>
       <c r="K144">
-        <v>3018</v>
+        <v>2717</v>
       </c>
       <c r="L144" s="4">
-        <v>60.026987499999997</v>
+        <v>92.011114599999999</v>
       </c>
       <c r="M144" s="4">
-        <v>-13.853555083457415</v>
+        <v>-1.6313492290539119E-2</v>
       </c>
       <c r="N144" s="4">
-        <v>-0.16311856120337181</v>
+        <v>-0.3905984016467981</v>
       </c>
       <c r="O144" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_143_Ca143TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_143_Ca143TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P144" t="s">
@@ -8190,19 +8192,19 @@
         <v>23</v>
       </c>
       <c r="K145">
-        <v>3266</v>
+        <v>2888</v>
       </c>
       <c r="L145" s="4">
-        <v>78.546660700000004</v>
+        <v>112.9085986</v>
       </c>
       <c r="M145" s="4">
-        <v>5.0225784026237257</v>
+        <v>0.78777316237295203</v>
       </c>
       <c r="N145" s="4">
-        <v>-0.33110364967076472</v>
+        <v>-0.25826051612091527</v>
       </c>
       <c r="O145" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_144_Ca143TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_144_Ca143TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P145" t="s">
@@ -8241,19 +8243,19 @@
         <v>23</v>
       </c>
       <c r="K146">
-        <v>3432</v>
+        <v>3193</v>
       </c>
       <c r="L146" s="4">
-        <v>55.063404800000001</v>
+        <v>80.197104899999999</v>
       </c>
       <c r="M146" s="4">
-        <v>-13.849446257355439</v>
+        <v>-1.9854267003599893E-2</v>
       </c>
       <c r="N146" s="4">
-        <v>-0.25697186133145761</v>
+        <v>-0.55561914629754894</v>
       </c>
       <c r="O146" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_145_Ca166TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_145_Ca166TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P146" t="s">
@@ -8292,19 +8294,19 @@
         <v>23</v>
       </c>
       <c r="K147">
-        <v>3678</v>
+        <v>3576</v>
       </c>
       <c r="L147" s="4">
-        <v>59.611334100000001</v>
+        <v>91.844749100000001</v>
       </c>
       <c r="M147" s="4">
-        <v>5.0179504093877094</v>
+        <v>0.78825381180753951</v>
       </c>
       <c r="N147" s="4">
-        <v>-0.45413339444730688</v>
+        <v>-0.35639745097541259</v>
       </c>
       <c r="O147" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_146_Ca166TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_146_Ca166TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P147" t="s">
@@ -8343,19 +8345,19 @@
         <v>23</v>
       </c>
       <c r="K148">
-        <v>3395</v>
+        <v>3161</v>
       </c>
       <c r="L148" s="4">
-        <v>40.862747300000002</v>
+        <v>72.705857499999993</v>
       </c>
       <c r="M148" s="4">
-        <v>-13.85177824546413</v>
+        <v>-1.5610174594965734E-2</v>
       </c>
       <c r="N148" s="4">
-        <v>-0.25703529029419364</v>
+        <v>-0.55660235321774387</v>
       </c>
       <c r="O148" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_147_Ca169TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_147_Ca169TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P148" t="s">
@@ -8394,19 +8396,19 @@
         <v>23</v>
       </c>
       <c r="K149">
-        <v>3475</v>
+        <v>3369</v>
       </c>
       <c r="L149" s="4">
-        <v>49.922618399999998</v>
+        <v>76.891024700000003</v>
       </c>
       <c r="M149" s="4">
-        <v>5.0174576163866575</v>
+        <v>0.78738530144586605</v>
       </c>
       <c r="N149" s="4">
-        <v>-0.45305502292846106</v>
+        <v>-0.35565148004184916</v>
       </c>
       <c r="O149" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_148_Ca169TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_148_Ca169TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P149" t="s">
@@ -8445,19 +8447,19 @@
         <v>23</v>
       </c>
       <c r="K150">
-        <v>2348</v>
+        <v>2060</v>
       </c>
       <c r="L150" s="4">
-        <v>55.67597</v>
+        <v>80.803793299999995</v>
       </c>
       <c r="M150" s="4">
-        <v>-13.849935576243402</v>
+        <v>-2.2009728382925836E-2</v>
       </c>
       <c r="N150" s="4">
-        <v>-0.36630748479045161</v>
+        <v>-0.69906679963960561</v>
       </c>
       <c r="O150" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_149_Ca184TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_149_Ca184TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P150" t="s">
@@ -8496,19 +8498,19 @@
         <v>23</v>
       </c>
       <c r="K151">
-        <v>2388</v>
+        <v>2130</v>
       </c>
       <c r="L151" s="4">
-        <v>63.275234900000001</v>
+        <v>76.859856300000004</v>
       </c>
       <c r="M151" s="4">
-        <v>4.9938978962090852</v>
+        <v>0.78314765000374287</v>
       </c>
       <c r="N151" s="4">
-        <v>-0.41836330742668348</v>
+        <v>-0.32963076107572326</v>
       </c>
       <c r="O151" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_150_Ca184TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_150_Ca184TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P151" t="s">
@@ -8547,19 +8549,19 @@
         <v>23</v>
       </c>
       <c r="K152">
-        <v>3415</v>
+        <v>3144</v>
       </c>
       <c r="L152" s="4">
-        <v>37.3746954</v>
+        <v>64.820016300000006</v>
       </c>
       <c r="M152" s="4">
-        <v>-13.847530048445979</v>
+        <v>-1.290153901363443E-2</v>
       </c>
       <c r="N152" s="4">
-        <v>-0.25713088580585081</v>
+        <v>-0.55664926869805254</v>
       </c>
       <c r="O152" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_151_Ca195TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_151_Ca195TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P152" t="s">
@@ -8598,19 +8600,19 @@
         <v>23</v>
       </c>
       <c r="K153">
-        <v>3450</v>
+        <v>3371</v>
       </c>
       <c r="L153" s="4">
-        <v>37.488443599999997</v>
+        <v>71.438287599999995</v>
       </c>
       <c r="M153" s="4">
-        <v>5.0186124656049049</v>
+        <v>0.77429424315082329</v>
       </c>
       <c r="N153" s="4">
-        <v>-0.45305057147046163</v>
+        <v>-0.35555781390419233</v>
       </c>
       <c r="O153" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_152_Ca195TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_152_Ca195TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P153" t="s">
@@ -8649,19 +8651,19 @@
         <v>23</v>
       </c>
       <c r="K154">
-        <v>2387</v>
+        <v>2092</v>
       </c>
       <c r="L154" s="4">
-        <v>30.411809900000002</v>
+        <v>49.000689000000001</v>
       </c>
       <c r="M154" s="4">
-        <v>-13.85129212014373</v>
+        <v>-1.8006373892441002E-2</v>
       </c>
       <c r="N154" s="4">
-        <v>-0.36671084073033194</v>
+        <v>-0.69924893526274967</v>
       </c>
       <c r="O154" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_153_Ca198TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_153_Ca198TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P154" t="s">
@@ -8700,19 +8702,19 @@
         <v>23</v>
       </c>
       <c r="K155">
-        <v>2404</v>
+        <v>2175</v>
       </c>
       <c r="L155" s="4">
-        <v>31.9323373</v>
+        <v>58.117668899999998</v>
       </c>
       <c r="M155" s="4">
-        <v>5.0186858710120781</v>
+        <v>0.7561467351083806</v>
       </c>
       <c r="N155" s="4">
-        <v>-0.41847614762462138</v>
+        <v>-0.3294520519075736</v>
       </c>
       <c r="O155" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_154_Ca198TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_154_Ca198TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P155" t="s">
@@ -8751,19 +8753,19 @@
         <v>23</v>
       </c>
       <c r="K156">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="L156" s="4">
-        <v>13.8896467</v>
+        <v>19.662210699999999</v>
       </c>
       <c r="M156" s="4">
-        <v>73.394344531417474</v>
+        <v>73.384885323356471</v>
       </c>
       <c r="N156" s="4">
-        <v>-0.84672947879271887</v>
+        <v>-0.84635703335886259</v>
       </c>
       <c r="O156" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_155_Ca151TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_155_Ca151TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P156" t="s">
@@ -8802,19 +8804,19 @@
         <v>23</v>
       </c>
       <c r="K157">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="L157" s="4">
-        <v>15.7072097</v>
+        <v>18.924268699999999</v>
       </c>
       <c r="M157" s="4">
-        <v>71.752365266088034</v>
+        <v>71.749963591552799</v>
       </c>
       <c r="N157" s="4">
-        <v>-0.54378686888942385</v>
+        <v>-0.54337587606077187</v>
       </c>
       <c r="O157" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_156_Ca152TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_156_Ca152TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P157" t="s">
@@ -8853,19 +8855,19 @@
         <v>23</v>
       </c>
       <c r="K158">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="L158" s="4">
-        <v>14.0675715</v>
+        <v>21.9440335</v>
       </c>
       <c r="M158" s="4">
-        <v>71.597114022628929</v>
+        <v>71.600606051095994</v>
       </c>
       <c r="N158" s="4">
-        <v>-0.88815958543458584</v>
+        <v>-0.89280629375348408</v>
       </c>
       <c r="O158" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_157_Ca153TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_157_Ca153TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P158" t="s">
@@ -8904,19 +8906,19 @@
         <v>23</v>
       </c>
       <c r="K159">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="L159" s="4">
-        <v>17.410926499999999</v>
+        <v>24.616727399999998</v>
       </c>
       <c r="M159" s="4">
-        <v>71.792182760424197</v>
+        <v>71.784160906135085</v>
       </c>
       <c r="N159" s="4">
-        <v>-0.36059864001295194</v>
+        <v>-0.36835476550276547</v>
       </c>
       <c r="O159" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_158_Ca154TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_158_Ca154TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P159" t="s">
@@ -8955,19 +8957,19 @@
         <v>23</v>
       </c>
       <c r="K160">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="L160" s="4">
-        <v>19.5492439</v>
+        <v>28.441873900000001</v>
       </c>
       <c r="M160" s="4">
-        <v>71.629907558251602</v>
+        <v>71.629510684849791</v>
       </c>
       <c r="N160" s="4">
-        <v>-0.8657669769635884</v>
+        <v>-0.86811113637915738</v>
       </c>
       <c r="O160" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_159_Ca155TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_159_Ca155TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P160" t="s">
@@ -9009,7 +9011,7 @@
         <v>3246</v>
       </c>
       <c r="L161" s="4">
-        <v>11.0636904</v>
+        <v>14.134823900000001</v>
       </c>
       <c r="M161" s="4">
         <v>234.09520337872848</v>
@@ -9018,7 +9020,7 @@
         <v>1.5597601237183302E-2</v>
       </c>
       <c r="O161" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_160_Ca004TrN_MaWOT_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_160_Ca004TrN_MaWOT_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P161" t="s">
@@ -9060,7 +9062,7 @@
         <v>2564</v>
       </c>
       <c r="L162" s="4">
-        <v>7.2106158999999996</v>
+        <v>11.5255598</v>
       </c>
       <c r="M162" s="4">
         <v>72.060968646483076</v>
@@ -9069,7 +9071,7 @@
         <v>-0.55315112787421983</v>
       </c>
       <c r="O162" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_161_Ca004TrN_MaLSS_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_161_Ca004TrN_MaLSS_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P162" t="s">
@@ -9111,7 +9113,7 @@
         <v>2562</v>
       </c>
       <c r="L163" s="4">
-        <v>8.7330322999999996</v>
+        <v>11.3983366</v>
       </c>
       <c r="M163" s="4">
         <v>64.366272556222512</v>
@@ -9120,7 +9122,7 @@
         <v>-25.53945015042936</v>
       </c>
       <c r="O163" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_162_Ca004TrN_MaTUR_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_162_Ca004TrN_MaTUR_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P163" t="s">
@@ -9162,16 +9164,16 @@
         <v>3244</v>
       </c>
       <c r="L164" s="4">
-        <v>3.8007993999999998</v>
+        <v>6.3167546999999997</v>
       </c>
       <c r="M164" s="4">
-        <v>242.70379428436041</v>
+        <v>242.7037948432378</v>
       </c>
       <c r="N164" s="4">
-        <v>0.23327324309701689</v>
+        <v>0.23327776653692373</v>
       </c>
       <c r="O164" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_163_Ca116TrN_MaWOT_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_163_Ca116TrN_MaWOT_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P164" t="s">
@@ -9213,16 +9215,16 @@
         <v>2564</v>
       </c>
       <c r="L165" s="4">
-        <v>3.1723002</v>
+        <v>5.2292293000000001</v>
       </c>
       <c r="M165" s="4">
-        <v>74.659491982450774</v>
+        <v>74.659492311694123</v>
       </c>
       <c r="N165" s="4">
-        <v>-0.34093758006291858</v>
+        <v>-0.34093734199840481</v>
       </c>
       <c r="O165" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_164_Ca116TrN_MaLSS_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_164_Ca116TrN_MaLSS_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P165" t="s">
@@ -9264,16 +9266,16 @@
         <v>2563</v>
       </c>
       <c r="L166" s="4">
-        <v>3.9168167</v>
+        <v>5.3838933999999998</v>
       </c>
       <c r="M166" s="4">
-        <v>71.32397117118802</v>
+        <v>71.323971743789272</v>
       </c>
       <c r="N166" s="4">
-        <v>-17.591551103430934</v>
+        <v>-17.591550619340072</v>
       </c>
       <c r="O166" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_165_Ca116TrN_MaTUR_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_165_Ca116TrN_MaTUR_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P166" t="s">
@@ -9315,16 +9317,16 @@
         <v>3244</v>
       </c>
       <c r="L167" s="4">
-        <v>2.5283266000000002</v>
+        <v>3.8731610000000001</v>
       </c>
       <c r="M167" s="4">
-        <v>242.88013068819623</v>
+        <v>242.88013077767147</v>
       </c>
       <c r="N167" s="4">
-        <v>0.23307974035338433</v>
+        <v>0.23308389744189009</v>
       </c>
       <c r="O167" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_166_Ca124TrN_MaWOT_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_166_Ca124TrN_MaWOT_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P167" t="s">
@@ -9366,16 +9368,16 @@
         <v>2565</v>
       </c>
       <c r="L168" s="4">
-        <v>2.0373644999999998</v>
+        <v>3.2108048</v>
       </c>
       <c r="M168" s="4">
-        <v>74.798394612599097</v>
+        <v>74.79839484160884</v>
       </c>
       <c r="N168" s="4">
-        <v>-0.34251622055333664</v>
+        <v>-0.34251601798099268</v>
       </c>
       <c r="O168" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_167_Ca124TrN_MaLSS_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_167_Ca124TrN_MaLSS_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P168" t="s">
@@ -9417,16 +9419,16 @@
         <v>2564</v>
       </c>
       <c r="L169" s="4">
-        <v>2.0457245999999998</v>
+        <v>3.1320866999999999</v>
       </c>
       <c r="M169" s="4">
-        <v>71.449352968456878</v>
+        <v>71.449353366816283</v>
       </c>
       <c r="N169" s="4">
-        <v>-17.63759605520924</v>
+        <v>-17.637595535249076</v>
       </c>
       <c r="O169" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_168_Ca124TrN_MaTUR_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_168_Ca124TrN_MaTUR_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P169" t="s">
@@ -9468,7 +9470,7 @@
         <v>3833</v>
       </c>
       <c r="L170" s="4">
-        <v>14.3669814</v>
+        <v>19.565753600000001</v>
       </c>
       <c r="M170" s="4">
         <v>411.77327955286199</v>
@@ -9477,7 +9479,7 @@
         <v>1.5228309409456255</v>
       </c>
       <c r="O170" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_169_Ca141TrN_MaWOT_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_169_Ca141TrN_MaWOT_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P170" t="s">
@@ -9519,7 +9521,7 @@
         <v>3192</v>
       </c>
       <c r="L171" s="4">
-        <v>12.781636600000001</v>
+        <v>16.513019400000001</v>
       </c>
       <c r="M171" s="4">
         <v>157.35652746778001</v>
@@ -9528,7 +9530,7 @@
         <v>-0.56383994623820011</v>
       </c>
       <c r="O171" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_170_Ca141TrN_MaLSS_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_170_Ca141TrN_MaLSS_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P171" t="s">
@@ -9570,7 +9572,7 @@
         <v>3160</v>
       </c>
       <c r="L172" s="4">
-        <v>12.1054584</v>
+        <v>16.2971036</v>
       </c>
       <c r="M172" s="4">
         <v>99.307823665682164</v>
@@ -9579,7 +9581,7 @@
         <v>-89.462983441218384</v>
       </c>
       <c r="O172" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_171_Ca141TrN_MaTUR_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_171_Ca141TrN_MaTUR_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P172" t="s">
@@ -9621,16 +9623,16 @@
         <v>2853</v>
       </c>
       <c r="L173" s="4">
-        <v>7.9184369999999999</v>
+        <v>12.578221599999999</v>
       </c>
       <c r="M173" s="4">
-        <v>96.995322014775226</v>
+        <v>96.995317808866005</v>
       </c>
       <c r="N173" s="4">
-        <v>-4.6573667052158575E-2</v>
+        <v>-4.6572432056864017E-2</v>
       </c>
       <c r="O173" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_172_Ca145TrN_MaWOT_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_172_Ca145TrN_MaWOT_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P173" t="s">
@@ -9672,16 +9674,16 @@
         <v>2382</v>
       </c>
       <c r="L174" s="4">
-        <v>6.5518397000000004</v>
+        <v>10.388956</v>
       </c>
       <c r="M174" s="4">
-        <v>25.42026532342183</v>
+        <v>25.420242271035665</v>
       </c>
       <c r="N174" s="4">
-        <v>-5.3207840803906344E-2</v>
+        <v>-5.3226525667028048E-2</v>
       </c>
       <c r="O174" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_173_Ca145TrN_MaLSS_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_173_Ca145TrN_MaLSS_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P174" t="s">
@@ -9720,19 +9722,19 @@
         <v>63</v>
       </c>
       <c r="K175">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="L175" s="4">
-        <v>6.5896201000000003</v>
+        <v>10.5216808</v>
       </c>
       <c r="M175" s="4">
-        <v>25.26694321471393</v>
+        <v>25.265468429135261</v>
       </c>
       <c r="N175" s="4">
-        <v>-2.6407447650070699</v>
+        <v>-2.6403870481787828</v>
       </c>
       <c r="O175" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_174_Ca145TrN_MaTUR_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_174_Ca145TrN_MaTUR_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P175" t="s">
@@ -9771,19 +9773,19 @@
         <v>63</v>
       </c>
       <c r="K176">
-        <v>2856</v>
+        <v>2858</v>
       </c>
       <c r="L176" s="4">
-        <v>10.8822913</v>
+        <v>14.08539</v>
       </c>
       <c r="M176" s="4">
-        <v>97.744507729046816</v>
+        <v>97.748247127463486</v>
       </c>
       <c r="N176" s="4">
-        <v>-4.7359678244855444E-2</v>
+        <v>-4.7319025431749491E-2</v>
       </c>
       <c r="O176" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_175_Ca199TrN_MaWOT_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_175_Ca199TrN_MaWOT_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P176" t="s">
@@ -9822,19 +9824,19 @@
         <v>63</v>
       </c>
       <c r="K177">
-        <v>2383</v>
+        <v>2387</v>
       </c>
       <c r="L177" s="4">
-        <v>8.8395534999999992</v>
+        <v>11.9322429</v>
       </c>
       <c r="M177" s="4">
-        <v>26.056312107681578</v>
+        <v>26.058231617548497</v>
       </c>
       <c r="N177" s="4">
-        <v>-5.2693296890221342E-2</v>
+        <v>-5.2510469966298289E-2</v>
       </c>
       <c r="O177" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_176_Ca199TrN_MaLSS_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_176_Ca199TrN_MaLSS_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P177" t="s">
@@ -9873,19 +9875,19 @@
         <v>63</v>
       </c>
       <c r="K178">
-        <v>2382</v>
+        <v>2384</v>
       </c>
       <c r="L178" s="4">
-        <v>9.0953017999999997</v>
+        <v>11.777680999999999</v>
       </c>
       <c r="M178" s="4">
-        <v>25.894956540091155</v>
+        <v>25.895958283777475</v>
       </c>
       <c r="N178" s="4">
-        <v>-2.7238125714713917</v>
+        <v>-2.7241185591124433</v>
       </c>
       <c r="O178" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_177_Ca199TrN_MaTUR_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_177_Ca199TrN_MaTUR_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P178" t="s">
@@ -9924,19 +9926,19 @@
         <v>23</v>
       </c>
       <c r="K179">
-        <v>588</v>
+        <v>521</v>
       </c>
       <c r="L179" s="4">
-        <v>8.3715048000000003</v>
+        <v>13.687341999999999</v>
       </c>
       <c r="M179" s="4">
-        <v>383.26827927478541</v>
+        <v>254.10316752364764</v>
       </c>
       <c r="N179" s="4">
-        <v>1.3719896375405938E-3</v>
+        <v>-6.4185947421133704E-3</v>
       </c>
       <c r="O179" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_178_Ca139TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_178_Ca139TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P179" t="s">
@@ -9975,19 +9977,19 @@
         <v>23</v>
       </c>
       <c r="K180">
-        <v>1131</v>
+        <v>785</v>
       </c>
       <c r="L180" s="4">
-        <v>36.749520599999997</v>
+        <v>42.722419100000003</v>
       </c>
       <c r="M180" s="4">
-        <v>381.95828587759462</v>
+        <v>253.20512146639192</v>
       </c>
       <c r="N180" s="4">
-        <v>1.2744010786729376E-3</v>
+        <v>2.2547043892001462E-2</v>
       </c>
       <c r="O180" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_179_Ca139TrE_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_179_Ca139TrE_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P180" t="s">
@@ -10026,19 +10028,19 @@
         <v>23</v>
       </c>
       <c r="K181">
-        <v>941</v>
+        <v>891</v>
       </c>
       <c r="L181" s="4">
-        <v>28.640434500000001</v>
+        <v>44.785709799999999</v>
       </c>
       <c r="M181" s="4">
-        <v>382.97222710913877</v>
+        <v>255.82066389643057</v>
       </c>
       <c r="N181" s="4">
-        <v>1.2154287707657474E-3</v>
+        <v>-5.3072498303521343E-3</v>
       </c>
       <c r="O181" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_180_Ca139TrT_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_180_Ca139TrT_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P181" t="s">
@@ -10077,19 +10079,19 @@
         <v>23</v>
       </c>
       <c r="K182">
-        <v>844</v>
+        <v>782</v>
       </c>
       <c r="L182" s="4">
-        <v>17.534049799999998</v>
+        <v>33.361722</v>
       </c>
       <c r="M182" s="4">
-        <v>382.38041686552509</v>
+        <v>253.47080757958236</v>
       </c>
       <c r="N182" s="4">
-        <v>1.4478252895449018E-3</v>
+        <v>1.3449439259538565E-2</v>
       </c>
       <c r="O182" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_181_Ca139TrE_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_181_Ca139TrE_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P182" t="s">
@@ -10128,19 +10130,19 @@
         <v>23</v>
       </c>
       <c r="K183">
-        <v>672</v>
+        <v>626</v>
       </c>
       <c r="L183" s="4">
-        <v>10.111246400000001</v>
+        <v>16.393957199999999</v>
       </c>
       <c r="M183" s="4">
-        <v>381.88645796239723</v>
+        <v>254.1604190544092</v>
       </c>
       <c r="N183" s="4">
-        <v>-3.7156278581029767E-5</v>
+        <v>3.2505601947123708E-3</v>
       </c>
       <c r="O183" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_182_Ca002TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_182_Ca002TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P183" t="s">
@@ -10179,19 +10181,19 @@
         <v>23</v>
       </c>
       <c r="K184">
-        <v>837</v>
+        <v>785</v>
       </c>
       <c r="L184" s="4">
-        <v>25.411982699999999</v>
+        <v>37.224895600000004</v>
       </c>
       <c r="M184" s="4">
-        <v>381.04344376298428</v>
+        <v>253.47684506088785</v>
       </c>
       <c r="N184" s="4">
-        <v>-1.9967472298709765E-5</v>
+        <v>3.6158225198335003E-3</v>
       </c>
       <c r="O184" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_183_Ca002TrE_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_183_Ca002TrE_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P184" t="s">
@@ -10230,19 +10232,19 @@
         <v>23</v>
       </c>
       <c r="K185">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="L185" s="4">
-        <v>34.133476999999999</v>
+        <v>53.225952399999997</v>
       </c>
       <c r="M185" s="4">
-        <v>381.63378410823077</v>
+        <v>254.52051658932709</v>
       </c>
       <c r="N185" s="4">
-        <v>-3.4239111084133356E-5</v>
+        <v>3.0870678567600507E-3</v>
       </c>
       <c r="O185" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_184_Ca002TrT_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_184_Ca002TrT_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P185" t="s">
@@ -10281,19 +10283,19 @@
         <v>23</v>
       </c>
       <c r="K186">
-        <v>844</v>
+        <v>781</v>
       </c>
       <c r="L186" s="4">
-        <v>21.575849399999999</v>
+        <v>26.653371400000001</v>
       </c>
       <c r="M186" s="4">
-        <v>381.04374900775804</v>
+        <v>253.55595836581944</v>
       </c>
       <c r="N186" s="4">
-        <v>-2.0494662080317028E-5</v>
+        <v>3.5670024268910083E-3</v>
       </c>
       <c r="O186" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_185_Ca002TrE_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_185_Ca002TrE_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P186" t="s">
@@ -10332,19 +10334,19 @@
         <v>23</v>
       </c>
       <c r="K187">
-        <v>518</v>
+        <v>475</v>
       </c>
       <c r="L187" s="4">
-        <v>18.626929000000001</v>
+        <v>28.991494599999999</v>
       </c>
       <c r="M187" s="4">
-        <v>372.20353828539584</v>
+        <v>253.49950833120528</v>
       </c>
       <c r="N187" s="4">
-        <v>1.3703737203147881E-3</v>
+        <v>4.8241039373732697E-2</v>
       </c>
       <c r="O187" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_186_Ca145TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_186_Ca145TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P187" t="s">
@@ -10383,19 +10385,19 @@
         <v>23</v>
       </c>
       <c r="K188">
-        <v>617</v>
+        <v>563</v>
       </c>
       <c r="L188" s="4">
-        <v>36.280129299999999</v>
+        <v>54.3826885</v>
       </c>
       <c r="M188" s="4">
-        <v>370.93923755553857</v>
+        <v>254.08643293723998</v>
       </c>
       <c r="N188" s="4">
-        <v>1.3670428975922633E-3</v>
+        <v>4.6386746199589268E-2</v>
       </c>
       <c r="O188" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_187_Ca145TrE_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_187_Ca145TrE_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P188" t="s">
@@ -10434,19 +10436,19 @@
         <v>23</v>
       </c>
       <c r="K189">
-        <v>656</v>
+        <v>629</v>
       </c>
       <c r="L189" s="4">
-        <v>43.671144900000002</v>
+        <v>57.825673799999997</v>
       </c>
       <c r="M189" s="4">
-        <v>371.81358713442904</v>
+        <v>254.1362102599378</v>
       </c>
       <c r="N189" s="4">
-        <v>1.3964537406421229E-3</v>
+        <v>4.5837861199533592E-2</v>
       </c>
       <c r="O189" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_188_Ca145TrT_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_188_Ca145TrT_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P189" t="s">
@@ -10485,19 +10487,19 @@
         <v>23</v>
       </c>
       <c r="K190">
-        <v>607</v>
+        <v>555</v>
       </c>
       <c r="L190" s="4">
-        <v>27.709631000000002</v>
+        <v>44.508662399999999</v>
       </c>
       <c r="M190" s="4">
-        <v>370.93938007984502</v>
+        <v>254.25984834615178</v>
       </c>
       <c r="N190" s="4">
-        <v>1.3679180231340737E-3</v>
+        <v>4.5725003114879925E-2</v>
       </c>
       <c r="O190" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_189_Ca145TrE_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_189_Ca145TrE_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P190" t="s">
@@ -10536,19 +10538,19 @@
         <v>23</v>
       </c>
       <c r="K191">
-        <v>523</v>
+        <v>476</v>
       </c>
       <c r="L191" s="4">
-        <v>8.8493242999999993</v>
+        <v>11.9295948</v>
       </c>
       <c r="M191" s="4">
-        <v>372.20163208604168</v>
+        <v>253.66643868857597</v>
       </c>
       <c r="N191" s="4">
-        <v>1.3797228546188478E-3</v>
+        <v>4.7490912038590238E-2</v>
       </c>
       <c r="O191" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_190_Ca199TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_190_Ca199TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P191" t="s">
@@ -10587,19 +10589,19 @@
         <v>23</v>
       </c>
       <c r="K192">
-        <v>603</v>
+        <v>555</v>
       </c>
       <c r="L192" s="4">
-        <v>16.954742499999998</v>
+        <v>27.585432900000001</v>
       </c>
       <c r="M192" s="4">
-        <v>370.94002269801831</v>
+        <v>254.26031772713088</v>
       </c>
       <c r="N192" s="4">
-        <v>1.37859899098558E-3</v>
+        <v>4.5746541150228914E-2</v>
       </c>
       <c r="O192" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_191_Ca199TrE_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_191_Ca199TrE_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P192" t="s">
@@ -10638,19 +10640,19 @@
         <v>23</v>
       </c>
       <c r="K193">
-        <v>719</v>
+        <v>656</v>
       </c>
       <c r="L193" s="4">
-        <v>23.544842599999999</v>
+        <v>30.474826499999999</v>
       </c>
       <c r="M193" s="4">
-        <v>371.81315714022139</v>
+        <v>254.0992582700087</v>
       </c>
       <c r="N193" s="4">
-        <v>1.4105024571904323E-3</v>
+        <v>4.6240766387476206E-2</v>
       </c>
       <c r="O193" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_192_Ca199TrT_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_192_Ca199TrT_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P193" t="s">
@@ -10689,19 +10691,19 @@
         <v>23</v>
       </c>
       <c r="K194">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="L194" s="4">
-        <v>14.3808586</v>
+        <v>20.357908900000002</v>
       </c>
       <c r="M194" s="4">
-        <v>370.94006540199945</v>
+        <v>253.41453062572276</v>
       </c>
       <c r="N194" s="4">
-        <v>1.3876280861850887E-3</v>
+        <v>4.8998369849651446E-2</v>
       </c>
       <c r="O194" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_193_Ca199TrE_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_193_Ca199TrE_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P194" t="s">
@@ -10740,19 +10742,19 @@
         <v>23</v>
       </c>
       <c r="K195">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="L195" s="4">
-        <v>12.245527900000001</v>
+        <v>18.8855413</v>
       </c>
       <c r="M195" s="4">
-        <v>261.08143287514105</v>
+        <v>261.08175628933844</v>
       </c>
       <c r="N195" s="4">
-        <v>2.5014272012979419</v>
+        <v>2.5013448945187271</v>
       </c>
       <c r="O195" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_194_Ca139TrE_MaTRD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_194_Ca139TrE_MaTRD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P195" t="s">
@@ -10791,19 +10793,19 @@
         <v>23</v>
       </c>
       <c r="K196">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="L196" s="4">
-        <v>13.2815662</v>
+        <v>17.622159100000001</v>
       </c>
       <c r="M196" s="4">
-        <v>261.06407630351788</v>
+        <v>261.06410888157274</v>
       </c>
       <c r="N196" s="4">
-        <v>2.5013619080285934</v>
+        <v>2.501409313424563</v>
       </c>
       <c r="O196" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_195_Ca139TrU_MaTRD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_195_Ca139TrU_MaTRD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P196" t="s">
@@ -10842,19 +10844,19 @@
         <v>23</v>
       </c>
       <c r="K197">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="L197" s="4">
-        <v>14.3006593</v>
+        <v>19.984036799999998</v>
       </c>
       <c r="M197" s="4">
-        <v>-5.2072433849134295E-3</v>
+        <v>-5.2052036180585647E-3</v>
       </c>
       <c r="N197" s="4">
-        <v>-6.1836375124176891E-4</v>
+        <v>-5.9859598298193776E-4</v>
       </c>
       <c r="O197" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_196_Ca149TrN_MaPST_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_196_Ca149TrN_MaPST_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P197" t="s">
@@ -10893,19 +10895,19 @@
         <v>23</v>
       </c>
       <c r="K198">
-        <v>3876</v>
+        <v>1538</v>
       </c>
       <c r="L198" s="4">
-        <v>59.796925700000003</v>
+        <v>58.275273300000002</v>
       </c>
       <c r="M198" s="4">
-        <v>38.423542297841138</v>
+        <v>36.534041418015093</v>
       </c>
       <c r="N198" s="4">
-        <v>0.27192591555937551</v>
+        <v>0.34472135935674925</v>
       </c>
       <c r="O198" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_197_Ca139TrN_MaSKD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_197_Ca139TrN_MaSKD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P198" t="s">
@@ -10944,19 +10946,19 @@
         <v>23</v>
       </c>
       <c r="K199">
-        <v>1675</v>
+        <v>1089</v>
       </c>
       <c r="L199" s="4">
-        <v>40.386415999999997</v>
+        <v>53.662350600000003</v>
       </c>
       <c r="M199" s="4">
-        <v>4.3315588404125762</v>
+        <v>3.3077192789778138</v>
       </c>
       <c r="N199" s="4">
-        <v>27.637355985778033</v>
+        <v>26.656208905870848</v>
       </c>
       <c r="O199" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_198_Ca139TrN_MaRAD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_198_Ca139TrN_MaRAD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P199" t="s">
@@ -10995,19 +10997,19 @@
         <v>23</v>
       </c>
       <c r="K200">
-        <v>3920</v>
+        <v>1319</v>
       </c>
       <c r="L200" s="4">
-        <v>93.540124599999999</v>
+        <v>83.774419800000004</v>
       </c>
       <c r="M200" s="4">
-        <v>25.115631739696283</v>
+        <v>36.47395711684193</v>
       </c>
       <c r="N200" s="4">
-        <v>0.71760036482202694</v>
+        <v>0.2412434312198164</v>
       </c>
       <c r="O200" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_199_Ca184TrN_MaSKD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_199_Ca184TrN_MaSKD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P200" t="s">
@@ -11046,19 +11048,19 @@
         <v>23</v>
       </c>
       <c r="K201">
-        <v>1290</v>
+        <v>629</v>
       </c>
       <c r="L201" s="4">
-        <v>40.186918900000002</v>
+        <v>37.319880300000001</v>
       </c>
       <c r="M201" s="4">
-        <v>12.230633224848358</v>
+        <v>12.325345873723991</v>
       </c>
       <c r="N201" s="4">
-        <v>21.583992070597713</v>
+        <v>21.750716246514148</v>
       </c>
       <c r="O201" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_200_Ca184TrN_MaRAD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_200_Ca184TrN_MaRAD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P201" t="s">
@@ -11097,19 +11099,19 @@
         <v>23</v>
       </c>
       <c r="K202">
-        <v>3920</v>
+        <v>1412</v>
       </c>
       <c r="L202" s="4">
-        <v>66.251582900000002</v>
+        <v>50.380085600000001</v>
       </c>
       <c r="M202" s="4">
-        <v>25.124061014766543</v>
+        <v>36.344255488624505</v>
       </c>
       <c r="N202" s="4">
-        <v>0.71786936190842576</v>
+        <v>0.24618784954653761</v>
       </c>
       <c r="O202" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_201_Ca198TrN_MaSKD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_201_Ca198TrN_MaSKD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P202" t="s">
@@ -11148,19 +11150,19 @@
         <v>23</v>
       </c>
       <c r="K203">
-        <v>1371</v>
+        <v>666</v>
       </c>
       <c r="L203" s="4">
-        <v>27.187683</v>
+        <v>22.752580600000002</v>
       </c>
       <c r="M203" s="4">
-        <v>12.218496475340126</v>
+        <v>12.312268995678735</v>
       </c>
       <c r="N203" s="4">
-        <v>21.540667626027599</v>
+        <v>21.707795668106943</v>
       </c>
       <c r="O203" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_202_Ca198TrN_MaRAD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_202_Ca198TrN_MaRAD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P203" t="s">
@@ -11199,19 +11201,19 @@
         <v>23</v>
       </c>
       <c r="K204">
-        <v>29383</v>
+        <v>26964</v>
       </c>
       <c r="L204" s="4">
-        <v>447.66143799999998</v>
+        <v>615.83106269999996</v>
       </c>
       <c r="M204" s="4">
-        <v>20.741948638260965</v>
+        <v>20.064256990081006</v>
       </c>
       <c r="N204" s="4">
-        <v>3.1589084473410591</v>
+        <v>3.1011374085630838</v>
       </c>
       <c r="O204" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_203_Ca156TrN_MaIPA_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_203_Ca156TrN_MaIPA_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P204" t="s">
@@ -11250,19 +11252,19 @@
         <v>23</v>
       </c>
       <c r="K205">
-        <v>18228</v>
+        <v>18665</v>
       </c>
       <c r="L205" s="4">
-        <v>256.49371889999998</v>
+        <v>412.28803909999999</v>
       </c>
       <c r="M205" s="4">
-        <v>16.634667276832239</v>
+        <v>16.641501556292802</v>
       </c>
       <c r="N205" s="4">
-        <v>0.61181242915602996</v>
+        <v>0.61242329423538477</v>
       </c>
       <c r="O205" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_204_Ca130TrN_MaIPA_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_204_Ca130TrN_MaIPA_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P205" t="s">
@@ -11301,19 +11303,19 @@
         <v>23</v>
       </c>
       <c r="K206">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="L206" s="4">
-        <v>21.212271000000001</v>
+        <v>31.851180200000002</v>
       </c>
       <c r="M206" s="4">
-        <v>347.06965940566118</v>
+        <v>347.42413039628809</v>
       </c>
       <c r="N206" s="4">
-        <v>0.7418504809659543</v>
+        <v>0.73188392738430019</v>
       </c>
       <c r="O206" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_205_Ca171TrN_MaRDP_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_205_Ca171TrN_MaRDP_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P206" t="s">
@@ -11352,19 +11354,19 @@
         <v>23</v>
       </c>
       <c r="K207">
-        <v>1343</v>
+        <v>1281</v>
       </c>
       <c r="L207" s="4">
-        <v>14.4361862</v>
+        <v>17.713065400000001</v>
       </c>
       <c r="M207" s="4">
-        <v>144.12805935798102</v>
+        <v>144.11336289113578</v>
       </c>
       <c r="N207" s="4">
-        <v>3.6049700607179436E-2</v>
+        <v>3.6081928593668773E-2</v>
       </c>
       <c r="O207" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_206_Ca172TrN_MaRDP_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_206_Ca172TrN_MaRDP_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P207" t="s">
@@ -11403,19 +11405,19 @@
         <v>23</v>
       </c>
       <c r="K208">
-        <v>1425</v>
+        <v>1462</v>
       </c>
       <c r="L208" s="4">
-        <v>16.335752599999999</v>
+        <v>28.874805800000001</v>
       </c>
       <c r="M208" s="4">
-        <v>371.49017605651255</v>
+        <v>371.57367151284677</v>
       </c>
       <c r="N208" s="4">
-        <v>0.81154442293087081</v>
+        <v>0.80165769421976807</v>
       </c>
       <c r="O208" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_207_Ca139TrN_MaZPL_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_207_Ca139TrN_MaZPL_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P208" t="s">
@@ -11454,19 +11456,19 @@
         <v>23</v>
       </c>
       <c r="K209">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="L209" s="4">
-        <v>10.747296</v>
+        <v>16.423886499999998</v>
       </c>
       <c r="M209" s="4">
-        <v>397.66022427242137</v>
+        <v>397.51937584641161</v>
       </c>
       <c r="N209" s="4">
-        <v>0.33478850000376997</v>
+        <v>0.33442405253211094</v>
       </c>
       <c r="O209" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_208_Ca165TrN_MaZPL_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_208_Ca165TrN_MaZPL_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P209" t="s">
@@ -11505,19 +11507,19 @@
         <v>23</v>
       </c>
       <c r="K210">
-        <v>1446</v>
+        <v>1428</v>
       </c>
       <c r="L210" s="4">
-        <v>21.471158899999999</v>
+        <v>33.344475000000003</v>
       </c>
       <c r="M210" s="4">
-        <v>371.05201521787399</v>
+        <v>371.34142327799816</v>
       </c>
       <c r="N210" s="4">
-        <v>0.80529120515221708</v>
+        <v>0.80371530524113199</v>
       </c>
       <c r="O210" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_209_Ca171TrN_MaZPL_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_209_Ca171TrN_MaZPL_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P210" t="s">
@@ -11556,19 +11558,19 @@
         <v>23</v>
       </c>
       <c r="K211">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="L211" s="4">
-        <v>4.9184637999999996</v>
+        <v>7.6458776999999998</v>
       </c>
       <c r="M211" s="4">
-        <v>378.35912196626293</v>
+        <v>378.16502104490951</v>
       </c>
       <c r="N211" s="4">
-        <v>0.32225264144950688</v>
+        <v>0.32184374605957389</v>
       </c>
       <c r="O211" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_210_Ca165TrN_MaCPL_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_210_Ca165TrN_MaCPL_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P211" t="s">
@@ -11607,19 +11609,19 @@
         <v>23</v>
       </c>
       <c r="K212">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="L212" s="4">
-        <v>16.205053700000001</v>
+        <v>25.922225600000001</v>
       </c>
       <c r="M212" s="4">
-        <v>347.40648316636668</v>
+        <v>347.54916453773757</v>
       </c>
       <c r="N212" s="4">
-        <v>0.70574701768388082</v>
+        <v>0.76058290237419091</v>
       </c>
       <c r="O212" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_211_Ca171TrN_MaCPL_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_211_Ca171TrN_MaCPL_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P212" t="s">
@@ -11658,19 +11660,19 @@
         <v>23</v>
       </c>
       <c r="K213">
-        <v>2418</v>
+        <v>2421</v>
       </c>
       <c r="L213" s="4">
-        <v>40.800214699999998</v>
+        <v>63.030831399999997</v>
       </c>
       <c r="M213" s="4">
-        <v>151.74108867555034</v>
+        <v>152.46603529517199</v>
       </c>
       <c r="N213" s="4">
-        <v>1.8475176297232704E-3</v>
+        <v>1.9437634002744592E-3</v>
       </c>
       <c r="O213" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_212_Ca171TrN_MaRDR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_212_Ca171TrN_MaRDR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P213" t="s">
@@ -11709,19 +11711,19 @@
         <v>23</v>
       </c>
       <c r="K214">
-        <v>2783</v>
+        <v>2823</v>
       </c>
       <c r="L214" s="4">
-        <v>24.447963000000001</v>
+        <v>40.6858808</v>
       </c>
       <c r="M214" s="4">
-        <v>146.55474750030797</v>
+        <v>146.53869655282526</v>
       </c>
       <c r="N214" s="4">
-        <v>-4.7447260205888764E-3</v>
+        <v>-4.7703186620420253E-3</v>
       </c>
       <c r="O214" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_213_Ca172TrN_MaRDR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_213_Ca172TrN_MaRDR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P214" t="s">
@@ -11760,19 +11762,19 @@
         <v>23</v>
       </c>
       <c r="K215">
-        <v>2959</v>
+        <v>2922</v>
       </c>
       <c r="L215" s="4">
-        <v>31.823350699999999</v>
+        <v>55.120550000000001</v>
       </c>
       <c r="M215" s="4">
-        <v>175.85405729541802</v>
+        <v>176.57615386227835</v>
       </c>
       <c r="N215" s="4">
-        <v>8.8221899116903871E-4</v>
+        <v>8.761663150932726E-4</v>
       </c>
       <c r="O215" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_214_Ca139TrN_MaZRR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_214_Ca139TrN_MaZRR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P215" t="s">
@@ -11811,19 +11813,19 @@
         <v>23</v>
       </c>
       <c r="K216">
-        <v>3544</v>
+        <v>3564</v>
       </c>
       <c r="L216" s="4">
-        <v>20.4311033</v>
+        <v>36.721302600000001</v>
       </c>
       <c r="M216" s="4">
-        <v>176.08867186555739</v>
+        <v>176.84987531143551</v>
       </c>
       <c r="N216" s="4">
-        <v>8.5499157219634354E-5</v>
+        <v>8.1340905201415198E-5</v>
       </c>
       <c r="O216" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_215_Ca165TrN_MaZRR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_215_Ca165TrN_MaZRR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P216" t="s">
@@ -11862,19 +11864,19 @@
         <v>23</v>
       </c>
       <c r="K217">
-        <v>2983</v>
+        <v>2938</v>
       </c>
       <c r="L217" s="4">
-        <v>45.074329200000001</v>
+        <v>76.830467799999994</v>
       </c>
       <c r="M217" s="4">
-        <v>175.86266334473964</v>
+        <v>176.58762723436905</v>
       </c>
       <c r="N217" s="4">
-        <v>8.756773512580675E-4</v>
+        <v>8.6177895408749759E-4</v>
       </c>
       <c r="O217" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_216_Ca171TrN_MaZRR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_216_Ca171TrN_MaZRR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P217" t="s">
@@ -11913,19 +11915,19 @@
         <v>23</v>
       </c>
       <c r="K218">
-        <v>5208</v>
+        <v>4925</v>
       </c>
       <c r="L218" s="4">
-        <v>18.255090599999999</v>
+        <v>31.940079000000001</v>
       </c>
       <c r="M218" s="4">
-        <v>-14.028981417998676</v>
+        <v>-5.9984373202684953</v>
       </c>
       <c r="N218" s="4">
-        <v>3.5161113590662339E-2</v>
+        <v>2.831329957934716E-3</v>
       </c>
       <c r="O218" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_217_Ca170TrN_MaCMP_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_217_Ca170TrN_MaCMP_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P218" t="s">
@@ -11964,19 +11966,19 @@
         <v>23</v>
       </c>
       <c r="K219">
-        <v>1948</v>
+        <v>1816</v>
       </c>
       <c r="L219" s="4">
-        <v>13.107488399999999</v>
+        <v>20.874590000000001</v>
       </c>
       <c r="M219" s="4">
-        <v>-14.040675688326502</v>
+        <v>-5.9893709939942257</v>
       </c>
       <c r="N219" s="4">
-        <v>3.5294058426109227E-2</v>
+        <v>2.9231879194543601E-3</v>
       </c>
       <c r="O219" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_218_Ca170TrN_MaCMF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_218_Ca170TrN_MaCMF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P219" t="s">
@@ -12015,19 +12017,19 @@
         <v>23</v>
       </c>
       <c r="K220">
-        <v>4917</v>
+        <v>4607</v>
       </c>
       <c r="L220" s="4">
-        <v>42.087222699999998</v>
+        <v>71.758996400000001</v>
       </c>
       <c r="M220" s="4">
-        <v>-329.43368646608934</v>
+        <v>-329.53106779961905</v>
       </c>
       <c r="N220" s="4">
-        <v>6.1253057715011154</v>
+        <v>6.1191033422585557</v>
       </c>
       <c r="O220" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_219_Ca170TrN_MaMPO_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_219_Ca170TrN_MaMPO_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P220" t="s">
@@ -12066,19 +12068,19 @@
         <v>23</v>
       </c>
       <c r="K221">
-        <v>2733</v>
+        <v>1216</v>
       </c>
       <c r="L221" s="4">
-        <v>15.1898578</v>
+        <v>20.9420565</v>
       </c>
       <c r="M221" s="4">
-        <v>-13.867543902975022</v>
+        <v>-13.866456652620037</v>
       </c>
       <c r="N221" s="4">
-        <v>0.22371108861523226</v>
+        <v>0.22511022642976286</v>
       </c>
       <c r="O221" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_220_Ca170TrN_MaMCI_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_220_Ca170TrN_MaMCI_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P221" t="s">
@@ -12117,19 +12119,19 @@
         <v>23</v>
       </c>
       <c r="K222">
-        <v>6643</v>
+        <v>6198</v>
       </c>
       <c r="L222" s="4">
-        <v>23.1243157</v>
+        <v>36.736000099999998</v>
       </c>
       <c r="M222" s="4">
-        <v>-12.033368409038102</v>
+        <v>-5.9958326507987847</v>
       </c>
       <c r="N222" s="4">
-        <v>6.3914318433054068E-3</v>
+        <v>-4.4710858237811861E-3</v>
       </c>
       <c r="O222" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_221_Ca170TrN_MaCHO_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_221_Ca170TrN_MaCHO_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P222" t="s">
@@ -12168,19 +12170,19 @@
         <v>23</v>
       </c>
       <c r="K223">
-        <v>3968</v>
+        <v>3428</v>
       </c>
       <c r="L223" s="4">
-        <v>20.6911424</v>
+        <v>34.557336100000001</v>
       </c>
       <c r="M223" s="4">
-        <v>-12.037484511018302</v>
+        <v>-5.9989121808569186</v>
       </c>
       <c r="N223" s="4">
-        <v>6.4143841677320838E-3</v>
+        <v>-4.5036813523368305E-3</v>
       </c>
       <c r="O223" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_222_Ca170TrN_MaCHF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_222_Ca170TrN_MaCHF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P223" t="s">
@@ -12219,19 +12221,19 @@
         <v>23</v>
       </c>
       <c r="K224">
-        <v>7377</v>
+        <v>7056</v>
       </c>
       <c r="L224" s="4">
-        <v>42.337076199999998</v>
+        <v>52.4363417</v>
       </c>
       <c r="M224" s="4">
-        <v>-690.29792798786241</v>
+        <v>-752.11381273220957</v>
       </c>
       <c r="N224" s="4">
-        <v>577.05830751534177</v>
+        <v>628.45192156704047</v>
       </c>
       <c r="O224" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_223_Ca170TrN_MaCKY_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_223_Ca170TrN_MaCKY_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P224" t="s">
@@ -12270,19 +12272,19 @@
         <v>23</v>
       </c>
       <c r="K225">
-        <v>2409</v>
+        <v>2151</v>
       </c>
       <c r="L225" s="4">
-        <v>20.048158000000001</v>
+        <v>27.8871462</v>
       </c>
       <c r="M225" s="4">
-        <v>-758.7213276945937</v>
+        <v>-758.74706845271726</v>
       </c>
       <c r="N225" s="4">
-        <v>632.72974261370405</v>
+        <v>632.74553425746433</v>
       </c>
       <c r="O225" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_224_Ca170TrN_MaCKF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_224_Ca170TrN_MaCKF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P225" t="s">
@@ -12321,19 +12323,19 @@
         <v>23</v>
       </c>
       <c r="K226">
-        <v>2891</v>
+        <v>2808</v>
       </c>
       <c r="L226" s="4">
-        <v>20.762042300000001</v>
+        <v>32.986053200000001</v>
       </c>
       <c r="M226" s="4">
-        <v>177.35370114165696</v>
+        <v>177.34569807820466</v>
       </c>
       <c r="N226" s="4">
-        <v>288.27143706702725</v>
+        <v>288.25263876868314</v>
       </c>
       <c r="O226" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_225_Ca170TrN_MaCNN_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_225_Ca170TrN_MaCNN_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P226" t="s">
@@ -12372,19 +12374,19 @@
         <v>23</v>
       </c>
       <c r="K227">
-        <v>4881</v>
+        <v>4259</v>
       </c>
       <c r="L227" s="4">
-        <v>69.208584400000007</v>
+        <v>132.9578357</v>
       </c>
       <c r="M227" s="4">
-        <v>2994.8434909539014</v>
+        <v>2994.881404729595</v>
       </c>
       <c r="N227" s="4">
-        <v>-3064.9249836061031</v>
+        <v>-3064.8856113770094</v>
       </c>
       <c r="O227" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_226_Ca170TrN_MaCNF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_226_Ca170TrN_MaCNF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P227" t="s">
@@ -12423,19 +12425,19 @@
         <v>23</v>
       </c>
       <c r="K228">
-        <v>2949</v>
+        <v>2914</v>
       </c>
       <c r="L228" s="4">
-        <v>14.0661852</v>
+        <v>27.642486300000002</v>
       </c>
       <c r="M228" s="4">
-        <v>522.24623288301598</v>
+        <v>522.24079157634264</v>
       </c>
       <c r="N228" s="4">
-        <v>-164.33241345556178</v>
+        <v>-164.33104053995442</v>
       </c>
       <c r="O228" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_227_Ca170TrN_MaCSZ_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_227_Ca170TrN_MaCSZ_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P228" t="s">
@@ -12474,19 +12476,19 @@
         <v>23</v>
       </c>
       <c r="K229">
-        <v>5998</v>
+        <v>5689</v>
       </c>
       <c r="L229" s="4">
-        <v>91.420316299999996</v>
+        <v>164.0976742</v>
       </c>
       <c r="M229" s="4">
-        <v>-17.95945732797383</v>
+        <v>-8.9719194011106023</v>
       </c>
       <c r="N229" s="4">
-        <v>5.842955337907197E-2</v>
+        <v>9.7541068205760067E-3</v>
       </c>
       <c r="O229" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_228_Ca170TrN_MaCSF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_228_Ca170TrN_MaCSF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P229" t="s">
@@ -12525,19 +12527,19 @@
         <v>23</v>
       </c>
       <c r="K230">
-        <v>2079</v>
+        <v>2160</v>
       </c>
       <c r="L230" s="4">
-        <v>15.993843</v>
+        <v>31.4095646</v>
       </c>
       <c r="M230" s="4">
-        <v>209.02517465689166</v>
+        <v>209.02194853396972</v>
       </c>
       <c r="N230" s="4">
-        <v>379.2481834404341</v>
+        <v>379.24620502745586</v>
       </c>
       <c r="O230" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_229_Ca170TrN_MaCPU_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_229_Ca170TrN_MaCPU_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P230" t="s">
@@ -12576,19 +12578,19 @@
         <v>23</v>
       </c>
       <c r="K231">
-        <v>2563</v>
+        <v>2595</v>
       </c>
       <c r="L231" s="4">
-        <v>17.473148399999999</v>
+        <v>33.337869099999999</v>
       </c>
       <c r="M231" s="4">
-        <v>183.03376185166962</v>
+        <v>183.03273504778031</v>
       </c>
       <c r="N231" s="4">
-        <v>-170.24136995414847</v>
+        <v>-170.24429246524051</v>
       </c>
       <c r="O231" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_230_Ca170TrN_MaCPD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_230_Ca170TrN_MaCPD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P231" t="s">
@@ -12627,19 +12629,19 @@
         <v>23</v>
       </c>
       <c r="K232">
-        <v>1937</v>
+        <v>1825</v>
       </c>
       <c r="L232" s="4">
-        <v>4.3484980000000002</v>
+        <v>8.7050108000000002</v>
       </c>
       <c r="M232" s="4">
-        <v>-14.04094933211889</v>
+        <v>-5.9996767846078018</v>
       </c>
       <c r="N232" s="4">
-        <v>3.5277991797842287E-2</v>
+        <v>2.895116467440582E-3</v>
       </c>
       <c r="O232" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_231_Ca202TrN_MaCMF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_231_Ca202TrN_MaCMF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P232" t="s">
@@ -12678,19 +12680,19 @@
         <v>23</v>
       </c>
       <c r="K233">
-        <v>4834</v>
+        <v>4528</v>
       </c>
       <c r="L233" s="4">
-        <v>22.944673300000002</v>
+        <v>44.1772451</v>
       </c>
       <c r="M233" s="4">
-        <v>-329.43360892717982</v>
+        <v>-329.5333826305079</v>
       </c>
       <c r="N233" s="4">
-        <v>6.1251567966641289</v>
+        <v>6.1245676485438079</v>
       </c>
       <c r="O233" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_232_Ca202TrN_MaMPO_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_232_Ca202TrN_MaMPO_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P233" t="s">
@@ -12729,19 +12731,19 @@
         <v>23</v>
       </c>
       <c r="K234">
-        <v>2818</v>
+        <v>1191</v>
       </c>
       <c r="L234" s="4">
-        <v>8.8514283999999996</v>
+        <v>12.376863200000001</v>
       </c>
       <c r="M234" s="4">
-        <v>-13.868150108725004</v>
+        <v>-13.86815523054203</v>
       </c>
       <c r="N234" s="4">
-        <v>0.22323668345262604</v>
+        <v>0.22417455480865556</v>
       </c>
       <c r="O234" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_233_Ca202TrN_MaMCI_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_233_Ca202TrN_MaMCI_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P234" t="s">
@@ -12780,19 +12782,19 @@
         <v>23</v>
       </c>
       <c r="K235">
-        <v>4137</v>
+        <v>3590</v>
       </c>
       <c r="L235" s="4">
-        <v>11.5521198</v>
+        <v>18.608223200000001</v>
       </c>
       <c r="M235" s="4">
-        <v>-17.997940730482419</v>
+        <v>-5.9985377868682237</v>
       </c>
       <c r="N235" s="4">
-        <v>6.8055025873395E-2</v>
+        <v>-7.1766636251102524E-3</v>
       </c>
       <c r="O235" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_234_Ca202TrN_MaCKF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_234_Ca202TrN_MaCKF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P235" t="s">
@@ -12831,19 +12833,19 @@
         <v>23</v>
       </c>
       <c r="K236">
-        <v>11573</v>
+        <v>10217</v>
       </c>
       <c r="L236" s="4">
-        <v>145.77980840000001</v>
+        <v>217.9167558</v>
       </c>
       <c r="M236" s="4">
-        <v>-20.78873108307284</v>
+        <v>-8.9989974274030597</v>
       </c>
       <c r="N236" s="4">
-        <v>0.22837935717616323</v>
+        <v>4.7110472545947288E-2</v>
       </c>
       <c r="O236" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_235_Ca202TrN_MaCNF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_235_Ca202TrN_MaCNF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P236" t="s">
@@ -12882,19 +12884,19 @@
         <v>23</v>
       </c>
       <c r="K237">
-        <v>5995</v>
+        <v>5693</v>
       </c>
       <c r="L237" s="4">
-        <v>45.755321799999997</v>
+        <v>95.854648600000004</v>
       </c>
       <c r="M237" s="4">
-        <v>-17.909579057868321</v>
+        <v>-8.9828963370707022</v>
       </c>
       <c r="N237" s="4">
-        <v>5.7827056997631208E-2</v>
+        <v>9.8216053669778307E-3</v>
       </c>
       <c r="O237" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_236_Ca202TrN_MaCSF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_236_Ca202TrN_MaCSF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P237" t="s">
@@ -12933,19 +12935,19 @@
         <v>23</v>
       </c>
       <c r="K238">
-        <v>5471</v>
+        <v>5413</v>
       </c>
       <c r="L238" s="4">
-        <v>18.476208400000001</v>
+        <v>38.919478499999997</v>
       </c>
       <c r="M238" s="4">
-        <v>-14.039292720109154</v>
+        <v>-5.9991707838843613</v>
       </c>
       <c r="N238" s="4">
-        <v>3.5249955902446561E-2</v>
+        <v>2.9960198564859607E-3</v>
       </c>
       <c r="O238" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_237_Ca202TrN_MaCMP_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_237_Ca202TrN_MaCMP_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P238" t="s">
@@ -12984,19 +12986,19 @@
         <v>23</v>
       </c>
       <c r="K239">
-        <v>15539</v>
+        <v>15014</v>
       </c>
       <c r="L239" s="4">
-        <v>62.112348400000002</v>
+        <v>107.5466642</v>
       </c>
       <c r="M239" s="4">
-        <v>-18.002946008823145</v>
+        <v>-5.9923598502923339</v>
       </c>
       <c r="N239" s="4">
-        <v>6.7055674562611509E-2</v>
+        <v>-8.9739714131519127E-3</v>
       </c>
       <c r="O239" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_238_Ca202TrN_MaCKY_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_238_Ca202TrN_MaCKY_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P239" t="s">
@@ -13038,16 +13040,16 @@
         <v>452</v>
       </c>
       <c r="L240" s="4">
-        <v>3.3337317</v>
+        <v>4.6766440999999999</v>
       </c>
       <c r="M240" s="4">
-        <v>381.37486659164909</v>
+        <v>382.00939327162217</v>
       </c>
       <c r="N240" s="4">
-        <v>0.32857745548546308</v>
+        <v>0.32992049848204708</v>
       </c>
       <c r="O240" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_239_Ca202TrN_MaCPL_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_239_Ca202TrN_MaCPL_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P240" t="s">
@@ -13086,19 +13088,19 @@
         <v>23</v>
       </c>
       <c r="K241">
-        <v>2596</v>
+        <v>2624</v>
       </c>
       <c r="L241" s="4">
-        <v>38.227037099999997</v>
+        <v>62.167858000000003</v>
       </c>
       <c r="M241" s="4">
-        <v>175.66092837559697</v>
+        <v>176.38724576505368</v>
       </c>
       <c r="N241" s="4">
-        <v>7.4693803280427747E-4</v>
+        <v>7.5603887656659817E-4</v>
       </c>
       <c r="O241" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_240_Ca140TrN_MaCRR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_240_Ca140TrN_MaCRR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P241" t="s">
@@ -13137,19 +13139,19 @@
         <v>23</v>
       </c>
       <c r="K242">
-        <v>3294</v>
+        <v>3182</v>
       </c>
       <c r="L242" s="4">
-        <v>41.697895199999998</v>
+        <v>63.3953031</v>
       </c>
       <c r="M242" s="4">
-        <v>175.71686635837548</v>
+        <v>176.44693383924678</v>
       </c>
       <c r="N242" s="4">
-        <v>7.7967873512296468E-4</v>
+        <v>7.8215302719383199E-4</v>
       </c>
       <c r="O242" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_241_Ca189TrN_MaCRR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_241_Ca189TrN_MaCRR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P242" t="s">
@@ -13188,19 +13190,19 @@
         <v>92</v>
       </c>
       <c r="K243">
-        <v>1681</v>
+        <v>1847</v>
       </c>
       <c r="L243" s="4">
-        <v>83.579495800000004</v>
+        <v>147.27304090000001</v>
       </c>
       <c r="M243" s="4">
-        <v>51.30059800151848</v>
+        <v>51.299602141488414</v>
       </c>
       <c r="N243" s="4">
-        <v>9.0091380919609387E-3</v>
+        <v>9.0083168708175558E-3</v>
       </c>
       <c r="O243" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_242_Ca173TrN_MaDCA_daessc_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_242_Ca173TrN_MaDCA_daessc_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P243" t="s">
@@ -13239,19 +13241,19 @@
         <v>92</v>
       </c>
       <c r="K244">
-        <v>4198</v>
+        <v>4104</v>
       </c>
       <c r="L244" s="4">
-        <v>139.5483773</v>
+        <v>174.135469</v>
       </c>
       <c r="M244" s="4">
-        <v>980.46491388483048</v>
+        <v>980.46526976959501</v>
       </c>
       <c r="N244" s="4">
-        <v>0.7224676736559712</v>
+        <v>0.72245601009054961</v>
       </c>
       <c r="O244" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_243_Ca173TrN_MaDC1_daessc_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_243_Ca173TrN_MaDC1_daessc_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P244" t="s">
@@ -13290,19 +13292,19 @@
         <v>23</v>
       </c>
       <c r="K245">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L245" s="4">
-        <v>4.1159075999999999</v>
+        <v>6.0026742000000004</v>
       </c>
       <c r="M245" s="4">
-        <v>53.509373479271758</v>
+        <v>53.508860493087028</v>
       </c>
       <c r="N245" s="4">
-        <v>9.8722696429461403E-3</v>
+        <v>9.8552876249811631E-3</v>
       </c>
       <c r="O245" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_244_Ca165TrN_MaDCA_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_244_Ca165TrN_MaDCA_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P245" t="s">
@@ -13341,19 +13343,19 @@
         <v>23</v>
       </c>
       <c r="K246">
-        <v>1201</v>
+        <v>1187</v>
       </c>
       <c r="L246" s="4">
-        <v>8.4429599999999994</v>
+        <v>13.232745</v>
       </c>
       <c r="M246" s="4">
-        <v>992.65342631927797</v>
+        <v>992.65284117050874</v>
       </c>
       <c r="N246" s="4">
-        <v>0.73146900651920777</v>
+        <v>0.78374543833774335</v>
       </c>
       <c r="O246" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_245_Ca165TrN_MaDC1_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_245_Ca165TrN_MaDC1_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P246" t="s">
@@ -13392,19 +13394,19 @@
         <v>92</v>
       </c>
       <c r="K247">
-        <v>4120</v>
+        <v>4144</v>
       </c>
       <c r="L247" s="4">
-        <v>69.749544599999993</v>
+        <v>88.215282999999999</v>
       </c>
       <c r="M247" s="4">
-        <v>980.46216735002872</v>
+        <v>980.46342046912014</v>
       </c>
       <c r="N247" s="4">
-        <v>0.72246464000699073</v>
+        <v>0.72249380867394852</v>
       </c>
       <c r="O247" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_246_Ca196TrN_MaDC1_daessc_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_246_Ca196TrN_MaDC1_daessc_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P247" t="s">
@@ -13443,19 +13445,19 @@
         <v>23</v>
       </c>
       <c r="K248">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="L248" s="4">
-        <v>5.5345635</v>
+        <v>7.8546328000000001</v>
       </c>
       <c r="M248" s="4">
-        <v>147.81605712727492</v>
+        <v>147.8470728875424</v>
       </c>
       <c r="N248" s="4">
-        <v>9.4625708496034577E-2</v>
+        <v>9.4257333732158263E-2</v>
       </c>
       <c r="O248" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_247_Ca179TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_247_Ca179TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P248" t="s">
@@ -13494,19 +13496,19 @@
         <v>23</v>
       </c>
       <c r="K249">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="L249" s="4">
-        <v>7.2324697999999996</v>
+        <v>10.8148509</v>
       </c>
       <c r="M249" s="4">
-        <v>147.83260029758102</v>
+        <v>147.86542305954654</v>
       </c>
       <c r="N249" s="4">
-        <v>9.4504754045573153E-2</v>
+        <v>9.4518748796429547E-2</v>
       </c>
       <c r="O249" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_248_Ca180TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_248_Ca180TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P249" t="s">
@@ -13545,19 +13547,19 @@
         <v>23</v>
       </c>
       <c r="K250">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="L250" s="4">
-        <v>2.2081900999999999</v>
+        <v>3.1722513000000001</v>
       </c>
       <c r="M250" s="4">
-        <v>147.85948401684769</v>
+        <v>147.83181320769648</v>
       </c>
       <c r="N250" s="4">
-        <v>9.4523583503709013E-2</v>
+        <v>9.447416915537997E-2</v>
       </c>
       <c r="O250" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_249_Ca197TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_249_Ca197TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P250" t="s">
@@ -13599,7 +13601,7 @@
         <v>421</v>
       </c>
       <c r="L251" s="4">
-        <v>14.2165514</v>
+        <v>19.577612599999998</v>
       </c>
       <c r="M251" s="4">
         <v>63.227172416907337</v>
@@ -13608,7 +13610,7 @@
         <v>-25.378190011468046</v>
       </c>
       <c r="O251" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_250_Ca182TrN_MaTUR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_250_Ca182TrN_MaTUR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P251" t="s">
@@ -13647,19 +13649,19 @@
         <v>23</v>
       </c>
       <c r="K252">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="L252" s="4">
-        <v>5.5574747000000002</v>
+        <v>6.6978125999999998</v>
       </c>
       <c r="M252" s="4">
-        <v>63.21430152446672</v>
+        <v>63.213941836934069</v>
       </c>
       <c r="N252" s="4">
-        <v>-25.381027537908963</v>
+        <v>-25.380824389233485</v>
       </c>
       <c r="O252" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_251_Ca203TrN_MaTUR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_251_Ca203TrN_MaTUR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P252" t="s">
@@ -13698,19 +13700,19 @@
         <v>23</v>
       </c>
       <c r="K253">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L253" s="4">
-        <v>16.344684600000001</v>
+        <v>21.347089700000001</v>
       </c>
       <c r="M253" s="4">
-        <v>114.17680892945702</v>
+        <v>114.14652759353396</v>
       </c>
       <c r="N253" s="4">
-        <v>-80.786480806163979</v>
+        <v>-80.783400109716453</v>
       </c>
       <c r="O253" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_252_Ca185TrN_MaTUR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_252_Ca185TrN_MaTUR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P253" t="s">
@@ -13749,19 +13751,19 @@
         <v>23</v>
       </c>
       <c r="K254">
-        <v>538</v>
+        <v>560</v>
       </c>
       <c r="L254" s="4">
-        <v>8.9750864000000004</v>
+        <v>12.3796187</v>
       </c>
       <c r="M254" s="4">
-        <v>140.62764983894007</v>
+        <v>140.62957033211694</v>
       </c>
       <c r="N254" s="4">
-        <v>-71.78273018588591</v>
+        <v>-71.774921619161759</v>
       </c>
       <c r="O254" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_240831_0552_253_Ca188TrN_MaTUR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_240930_1602_253_Ca188TrN_MaTUR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P254" t="s">
@@ -13800,19 +13802,19 @@
         <v>23</v>
       </c>
       <c r="K255">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="L255" s="4">
-        <v>16.339258699999998</v>
+        <v>21.983246000000001</v>
       </c>
       <c r="M255" s="4">
-        <v>79.191403342521781</v>
+        <v>79.195513701060506</v>
       </c>
       <c r="N255" s="4">
-        <v>-0.33364204715638829</v>
+        <v>-0.33366095226112802</v>
       </c>
       <c r="O255" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_Axle3_240831_0552_254_CaAxle3_000TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_Axle3_240930_1602_254_CaAxle3_000TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P255" t="s">
@@ -13851,19 +13853,19 @@
         <v>23</v>
       </c>
       <c r="K256">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L256" s="4">
-        <v>15.5121687</v>
+        <v>21.3560868</v>
       </c>
       <c r="M256" s="4">
-        <v>69.13329697133797</v>
+        <v>69.125541323148454</v>
       </c>
       <c r="N256" s="4">
-        <v>8.3863063097864898E-2</v>
+        <v>8.3843922377627292E-2</v>
       </c>
       <c r="O256" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_Axle3_240831_0552_255_CaAxle3_008TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_Axle3_240930_1602_255_CaAxle3_008TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P256" t="s">
@@ -13905,16 +13907,16 @@
         <v>426</v>
       </c>
       <c r="L257" s="4">
-        <v>14.1977853</v>
+        <v>19.567592099999999</v>
       </c>
       <c r="M257" s="4">
-        <v>79.26753082601013</v>
+        <v>79.24769441161969</v>
       </c>
       <c r="N257" s="4">
-        <v>-0.31346583892466412</v>
+        <v>-0.31325677542900665</v>
       </c>
       <c r="O257" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_Axle3_240831_0552_256_CaAxle3_003TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_Axle3_240930_1602_256_CaAxle3_003TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P257" t="s">
@@ -13953,19 +13955,19 @@
         <v>23</v>
       </c>
       <c r="K258">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="L258" s="4">
-        <v>2.6281797999999998</v>
+        <v>3.1845484000000002</v>
       </c>
       <c r="M258" s="4">
-        <v>80.149536181477046</v>
+        <v>80.105368727560347</v>
       </c>
       <c r="N258" s="4">
-        <v>-0.31965340500242301</v>
+        <v>-0.31922436244434088</v>
       </c>
       <c r="O258" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_Axle3_240831_0552_257_CaAxle3_017TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_Axle3_240930_1602_257_CaAxle3_017TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P258" t="s">
@@ -14004,19 +14006,19 @@
         <v>23</v>
       </c>
       <c r="K259">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L259" s="4">
-        <v>33.4570699</v>
+        <v>45.707402100000003</v>
       </c>
       <c r="M259" s="4">
-        <v>23.326795589711995</v>
+        <v>23.326907524485339</v>
       </c>
       <c r="N259" s="4">
-        <v>2.4821401835728729E-3</v>
+        <v>2.4826893934114976E-3</v>
       </c>
       <c r="O259" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_Axle3_240831_0552_258_CaAxle3_010TrK_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_Axle3_240930_1602_258_CaAxle3_010TrK_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P259" t="s">
@@ -14055,19 +14057,19 @@
         <v>23</v>
       </c>
       <c r="K260">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L260" s="4">
-        <v>39.3864582</v>
+        <v>47.1074117</v>
       </c>
       <c r="M260" s="4">
-        <v>23.441154051369235</v>
+        <v>23.441148765091548</v>
       </c>
       <c r="N260" s="4">
-        <v>2.5318378727670898E-3</v>
+        <v>2.5318348974077698E-3</v>
       </c>
       <c r="O260" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_Axle3_240831_0552_259_CaAxle3_010TrK_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_Axle3_240930_1602_259_CaAxle3_010TrK_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P260" t="s">
@@ -14109,16 +14111,16 @@
         <v>395</v>
       </c>
       <c r="L261" s="4">
-        <v>2.5110367</v>
+        <v>3.6747735000000001</v>
       </c>
       <c r="M261" s="4">
-        <v>26.915041029821563</v>
+        <v>26.920089687481319</v>
       </c>
       <c r="N261" s="4">
-        <v>3.6189163614937514E-3</v>
+        <v>3.6214237351397116E-3</v>
       </c>
       <c r="O261" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_Axle3_240831_0552_260_CaAxle3_019TrK_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_Axle3_240930_1602_260_CaAxle3_019TrK_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P261" t="s">
@@ -14160,16 +14162,16 @@
         <v>396</v>
       </c>
       <c r="L262" s="4">
-        <v>3.3177913000000001</v>
+        <v>3.7048779999999999</v>
       </c>
       <c r="M262" s="4">
-        <v>26.904146124473968</v>
+        <v>26.903870778431472</v>
       </c>
       <c r="N262" s="4">
-        <v>3.611462807766589E-3</v>
+        <v>3.6113360628778207E-3</v>
       </c>
       <c r="O262" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_Axle3_240831_0552_261_CaAxle3_019TrK_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_Axle3_240930_1602_261_CaAxle3_019TrK_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P262" t="s">
@@ -14208,19 +14210,19 @@
         <v>23</v>
       </c>
       <c r="K263">
-        <v>752</v>
+        <v>676</v>
       </c>
       <c r="L263" s="4">
-        <v>20.184822</v>
+        <v>26.696550899999998</v>
       </c>
       <c r="M263" s="4">
-        <v>262.42905615904039</v>
+        <v>254.55190096841835</v>
       </c>
       <c r="N263" s="4">
-        <v>-0.10274639910367789</v>
+        <v>-0.10195145477440093</v>
       </c>
       <c r="O263" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_Axle3_240831_0552_262_CaAxle3_012TrK_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_Axle3_240930_1602_262_CaAxle3_012TrK_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P263" t="s">
@@ -14259,19 +14261,19 @@
         <v>23</v>
       </c>
       <c r="K264">
-        <v>853</v>
+        <v>754</v>
       </c>
       <c r="L264" s="4">
-        <v>24.621706</v>
+        <v>29.619218499999999</v>
       </c>
       <c r="M264" s="4">
-        <v>262.41171222944683</v>
+        <v>254.04979557124472</v>
       </c>
       <c r="N264" s="4">
-        <v>-0.1000614925747616</v>
+        <v>-9.808147291449032E-2</v>
       </c>
       <c r="O264" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_Axle3_240831_0552_263_CaAxle3_012TrK_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_Axle3_240930_1602_263_CaAxle3_012TrK_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P264" t="s">
@@ -14310,19 +14312,19 @@
         <v>23</v>
       </c>
       <c r="K265">
-        <v>763</v>
+        <v>672</v>
       </c>
       <c r="L265" s="4">
-        <v>21.896327599999999</v>
+        <v>28.0419363</v>
       </c>
       <c r="M265" s="4">
-        <v>264.07487227736641</v>
+        <v>255.83077909844297</v>
       </c>
       <c r="N265" s="4">
-        <v>-9.8778422348329009E-2</v>
+        <v>-0.10453476514283278</v>
       </c>
       <c r="O265" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_Axle3_240831_0552_264_CaAxle3_012TrK_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_Axle3_240930_1602_264_CaAxle3_012TrK_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P265" t="s">
@@ -14361,19 +14363,19 @@
         <v>23</v>
       </c>
       <c r="K266">
-        <v>1017</v>
+        <v>922</v>
       </c>
       <c r="L266" s="4">
-        <v>26.099426000000001</v>
+        <v>34.2549244</v>
       </c>
       <c r="M266" s="4">
-        <v>264.04776479348516</v>
+        <v>253.20826861991611</v>
       </c>
       <c r="N266" s="4">
-        <v>-9.8669226037052304E-2</v>
+        <v>-8.8697000987246533E-2</v>
       </c>
       <c r="O266" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240831_0552\sm_car_Axle3_240831_0552_265_CaAxle3_012TrK_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1602\sm_car_Axle3_240930_1602_265_CaAxle3_012TrK_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P266" t="s">

--- a/SimResults/sm_car_results.xlsx
+++ b/SimResults/sm_car_results.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\SimResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\smiller\simscape\demo\allsimscape\cars\vehicle-templates\SimResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0867A660-D357-4B5F-9CE5-14FF87E84DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF101FD-9AF6-40CA-8DFB-22B66AA99FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86C44CE1-1010-4E30-92B1-BDE677C7682C}"/>
+    <workbookView xWindow="5565" yWindow="915" windowWidth="21600" windowHeight="11385" xr2:uid="{86C44CE1-1010-4E30-92B1-BDE677C7682C}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023a_240830_1948" sheetId="15" r:id="rId1"/>
+    <sheet name="2023a_240930_1119" sheetId="16" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2023a_240930_1119'!$A$1:$P$266</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -386,19 +389,19 @@
     <t>Axle3_019</t>
   </si>
   <si>
-    <t>MATHWORKS-OL1OH</t>
+    <t>30-Sep-2024 15:27:11</t>
   </si>
   <si>
-    <t>MF-Swift Version: 2306</t>
+    <t>MUC-VIDEOSTUDIO</t>
   </si>
   <si>
-    <t>9.14.0.2674353 (R2023a) Update 7</t>
+    <t>9.14.0.2306882 (R2023a) Update 4</t>
   </si>
   <si>
-    <t>30-Aug-2024 22:42:20</t>
+    <t>MF-Swift Version: 2312</t>
   </si>
   <si>
-    <t>srcR22a R2023a FixedSusp FastRestart</t>
+    <t>v3p2 R23a newTrajFollower stopXMax</t>
   </si>
 </sst>
 </file>
@@ -771,12 +774,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF086B5B-9364-472E-A772-F9C8BD95B2FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B9D476-479C-456E-8FA6-59DD3EC6DAE2}">
   <dimension ref="A1:R266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U12" sqref="U12"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +799,7 @@
     <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -850,7 +852,7 @@
         <v>15</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -885,26 +887,26 @@
         <v>23</v>
       </c>
       <c r="K2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L2" s="4">
-        <v>8.2063992999999993</v>
+        <v>10.410383599999999</v>
       </c>
       <c r="M2" s="4">
-        <v>233.7943545125583</v>
+        <v>233.86221125184204</v>
       </c>
       <c r="N2" s="4">
-        <v>8.7573756048312766E-3</v>
+        <v>8.1453449186907941E-3</v>
       </c>
       <c r="O2" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_001_Ca000TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_001_Ca000TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P2" t="s">
         <v>15</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -939,19 +941,19 @@
         <v>23</v>
       </c>
       <c r="K3">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="L3" s="4">
-        <v>10.1016666</v>
+        <v>12.5476659</v>
       </c>
       <c r="M3" s="4">
-        <v>72.046473658093873</v>
+        <v>72.046681083543589</v>
       </c>
       <c r="N3" s="4">
-        <v>-0.55378048573647509</v>
+        <v>-0.55373545284533487</v>
       </c>
       <c r="O3" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_002_Ca000TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_002_Ca000TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P3" t="s">
@@ -993,26 +995,26 @@
         <v>23</v>
       </c>
       <c r="K4">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L4" s="4">
-        <v>9.4562211000000005</v>
+        <v>11.4796426</v>
       </c>
       <c r="M4" s="4">
-        <v>232.8822007105031</v>
+        <v>233.02434143111248</v>
       </c>
       <c r="N4" s="4">
-        <v>2.3644105581510733E-4</v>
+        <v>-1.0918497815023576E-3</v>
       </c>
       <c r="O4" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_003_Ca001TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_003_Ca001TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P4" t="s">
         <v>15</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1047,19 +1049,19 @@
         <v>23</v>
       </c>
       <c r="K5">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="L5" s="4">
-        <v>11.2405572</v>
+        <v>13.8314038</v>
       </c>
       <c r="M5" s="4">
-        <v>71.757457013757588</v>
+        <v>71.758682432408492</v>
       </c>
       <c r="N5" s="4">
-        <v>-0.54700847146136078</v>
+        <v>-0.54700547920929332</v>
       </c>
       <c r="O5" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_004_Ca001TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_004_Ca001TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P5" t="s">
@@ -1101,19 +1103,19 @@
         <v>23</v>
       </c>
       <c r="K6">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L6" s="4">
-        <v>13.358459699999999</v>
+        <v>17.9645872</v>
       </c>
       <c r="M6" s="4">
-        <v>232.93404328279058</v>
+        <v>233.0634743742298</v>
       </c>
       <c r="N6" s="4">
-        <v>8.0998091419733659E-2</v>
+        <v>6.8960561211061672E-2</v>
       </c>
       <c r="O6" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_005_Ca002TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_005_Ca002TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P6" t="s">
@@ -1152,19 +1154,19 @@
         <v>23</v>
       </c>
       <c r="K7">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="L7" s="4">
-        <v>14.8816945</v>
+        <v>17.750867299999999</v>
       </c>
       <c r="M7" s="4">
-        <v>71.750818476099937</v>
+        <v>71.774720122052727</v>
       </c>
       <c r="N7" s="4">
-        <v>-0.54255332178047611</v>
+        <v>-0.54324760216114121</v>
       </c>
       <c r="O7" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_006_Ca002TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_006_Ca002TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P7" t="s">
@@ -1203,19 +1205,19 @@
         <v>23</v>
       </c>
       <c r="K8">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="L8" s="4">
-        <v>12.4300259</v>
+        <v>17.0102902</v>
       </c>
       <c r="M8" s="4">
-        <v>232.62814301511207</v>
+        <v>232.48515327133916</v>
       </c>
       <c r="N8" s="4">
-        <v>5.9792920477236007E-2</v>
+        <v>6.839056405282333E-2</v>
       </c>
       <c r="O8" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_007_Ca003TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_007_Ca003TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P8" t="s">
@@ -1254,19 +1256,19 @@
         <v>23</v>
       </c>
       <c r="K9">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="L9" s="4">
-        <v>15.1329136</v>
+        <v>18.687806900000002</v>
       </c>
       <c r="M9" s="4">
-        <v>71.627464462945198</v>
+        <v>71.624553923621434</v>
       </c>
       <c r="N9" s="4">
-        <v>-0.53599925921043434</v>
+        <v>-0.53694138159082083</v>
       </c>
       <c r="O9" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_008_Ca003TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_008_Ca003TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P9" t="s">
@@ -1305,19 +1307,19 @@
         <v>23</v>
       </c>
       <c r="K10">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="L10" s="4">
-        <v>13.993371700000001</v>
+        <v>17.893334500000002</v>
       </c>
       <c r="M10" s="4">
-        <v>234.02316443880059</v>
+        <v>234.12909185079528</v>
       </c>
       <c r="N10" s="4">
-        <v>9.6058262110875915E-3</v>
+        <v>1.0860774768222788E-2</v>
       </c>
       <c r="O10" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_009_Ca004TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_009_Ca004TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P10" t="s">
@@ -1356,19 +1358,19 @@
         <v>23</v>
       </c>
       <c r="K11">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="L11" s="4">
-        <v>16.7787091</v>
+        <v>20.685407600000001</v>
       </c>
       <c r="M11" s="4">
-        <v>72.064660752801259</v>
+        <v>72.064509522198904</v>
       </c>
       <c r="N11" s="4">
-        <v>-0.55549756154943275</v>
+        <v>-0.5553006272805372</v>
       </c>
       <c r="O11" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_010_Ca004TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_010_Ca004TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P11" t="s">
@@ -1407,19 +1409,19 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="L12" s="4">
-        <v>13.224863300000001</v>
+        <v>19.416716699999998</v>
       </c>
       <c r="M12" s="4">
-        <v>232.98202922332666</v>
+        <v>233.12492318228672</v>
       </c>
       <c r="N12" s="4">
-        <v>3.7407534692555726E-4</v>
+        <v>7.40880057645155E-4</v>
       </c>
       <c r="O12" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_011_Ca005TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_011_Ca005TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P12" t="s">
@@ -1461,16 +1463,16 @@
         <v>1189</v>
       </c>
       <c r="L13" s="4">
-        <v>18.829931699999999</v>
+        <v>22.201418700000001</v>
       </c>
       <c r="M13" s="4">
-        <v>71.772677078246218</v>
+        <v>71.772430045679954</v>
       </c>
       <c r="N13" s="4">
-        <v>-0.54641030284604653</v>
+        <v>-0.54987519730485679</v>
       </c>
       <c r="O13" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_012_Ca005TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_012_Ca005TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P13" t="s">
@@ -1509,19 +1511,19 @@
         <v>23</v>
       </c>
       <c r="K14">
-        <v>1163</v>
+        <v>1184</v>
       </c>
       <c r="L14" s="4">
-        <v>16.218679300000002</v>
+        <v>26.1836512</v>
       </c>
       <c r="M14" s="4">
-        <v>233.05084713349845</v>
+        <v>233.02547177806287</v>
       </c>
       <c r="N14" s="4">
-        <v>5.9858075744533147E-2</v>
+        <v>6.9600011097732825E-2</v>
       </c>
       <c r="O14" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_013_Ca006TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_013_Ca006TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P14" t="s">
@@ -1560,19 +1562,19 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="L15" s="4">
-        <v>20.252383600000002</v>
+        <v>25.835456099999998</v>
       </c>
       <c r="M15" s="4">
-        <v>71.753547092454909</v>
+        <v>71.753271431244158</v>
       </c>
       <c r="N15" s="4">
-        <v>-0.54381857962002866</v>
+        <v>-0.54346454287154511</v>
       </c>
       <c r="O15" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_014_Ca006TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_014_Ca006TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P15" t="s">
@@ -1611,19 +1613,19 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="L16" s="4">
-        <v>19.057910199999998</v>
+        <v>24.632766799999999</v>
       </c>
       <c r="M16" s="4">
-        <v>232.58995018603889</v>
+        <v>232.45801498869611</v>
       </c>
       <c r="N16" s="4">
-        <v>6.7337881004593966E-2</v>
+        <v>4.4917149007574216E-2</v>
       </c>
       <c r="O16" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_015_Ca007TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_015_Ca007TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P16" t="s">
@@ -1662,19 +1664,19 @@
         <v>23</v>
       </c>
       <c r="K17">
-        <v>1272</v>
+        <v>1255</v>
       </c>
       <c r="L17" s="4">
-        <v>22.593717000000002</v>
+        <v>27.9895581</v>
       </c>
       <c r="M17" s="4">
-        <v>71.633633980900996</v>
+        <v>71.633086143955524</v>
       </c>
       <c r="N17" s="4">
-        <v>-0.53900848996973239</v>
+        <v>-0.53893115373512224</v>
       </c>
       <c r="O17" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_016_Ca007TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_016_Ca007TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P17" t="s">
@@ -1713,19 +1715,19 @@
         <v>23</v>
       </c>
       <c r="K18">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L18" s="4">
-        <v>6.7339947000000002</v>
+        <v>8.5576840000000001</v>
       </c>
       <c r="M18" s="4">
-        <v>234.9178138771637</v>
+        <v>234.861558301169</v>
       </c>
       <c r="N18" s="4">
-        <v>-6.9784035487130608E-2</v>
+        <v>-6.9133047274948983E-2</v>
       </c>
       <c r="O18" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_017_Ca016TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_017_Ca016TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P18" t="s">
@@ -1764,19 +1766,19 @@
         <v>23</v>
       </c>
       <c r="K19">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L19" s="4">
-        <v>6.1175481999999999</v>
+        <v>9.3061696999999999</v>
       </c>
       <c r="M19" s="4">
-        <v>72.416849589060007</v>
+        <v>72.417435753648007</v>
       </c>
       <c r="N19" s="4">
-        <v>-2.1645375953034684E-2</v>
+        <v>-2.1565190119023785E-2</v>
       </c>
       <c r="O19" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_018_Ca016TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_018_Ca016TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P19" t="s">
@@ -1815,19 +1817,19 @@
         <v>23</v>
       </c>
       <c r="K20">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="L20" s="4">
-        <v>9.6975076999999992</v>
+        <v>12.0433743</v>
       </c>
       <c r="M20" s="4">
-        <v>233.76155691267664</v>
+        <v>234.02584427601727</v>
       </c>
       <c r="N20" s="4">
-        <v>2.0404364388403647E-2</v>
+        <v>1.9098876699802605E-2</v>
       </c>
       <c r="O20" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_019_Ca032TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_019_Ca032TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P20" t="s">
@@ -1866,19 +1868,19 @@
         <v>23</v>
       </c>
       <c r="K21">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="L21" s="4">
-        <v>10.7298922</v>
+        <v>13.4871619</v>
       </c>
       <c r="M21" s="4">
-        <v>72.057023163750472</v>
+        <v>72.052393861855336</v>
       </c>
       <c r="N21" s="4">
-        <v>-0.53546339973508339</v>
+        <v>-0.53471027573976815</v>
       </c>
       <c r="O21" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_020_Ca032TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_020_Ca032TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P21" t="s">
@@ -1917,19 +1919,19 @@
         <v>23</v>
       </c>
       <c r="K22">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L22" s="4">
-        <v>8.6086077000000003</v>
+        <v>13.320499999999999</v>
       </c>
       <c r="M22" s="4">
-        <v>234.0508395225398</v>
+        <v>233.99499085730272</v>
       </c>
       <c r="N22" s="4">
-        <v>-4.4155107329615579E-3</v>
+        <v>-5.095612674170814E-3</v>
       </c>
       <c r="O22" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_021_Ca048TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_021_Ca048TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P22" t="s">
@@ -1968,19 +1970,19 @@
         <v>23</v>
       </c>
       <c r="K23">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L23" s="4">
-        <v>10.338191500000001</v>
+        <v>13.886488399999999</v>
       </c>
       <c r="M23" s="4">
-        <v>72.054315419250372</v>
+        <v>72.062587404640908</v>
       </c>
       <c r="N23" s="4">
-        <v>-0.54055352190235073</v>
+        <v>-0.54384940195108167</v>
       </c>
       <c r="O23" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_022_Ca048TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_022_Ca048TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P23" t="s">
@@ -2022,16 +2024,16 @@
         <v>390</v>
       </c>
       <c r="L24" s="4">
-        <v>10.8171135</v>
+        <v>13.303444199999999</v>
       </c>
       <c r="M24" s="4">
-        <v>234.11628092355735</v>
+        <v>234.07990477936019</v>
       </c>
       <c r="N24" s="4">
-        <v>2.2153153933866365E-2</v>
+        <v>2.1709090939130801E-2</v>
       </c>
       <c r="O24" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_023_Ca064TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_023_Ca064TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P24" t="s">
@@ -2070,19 +2072,19 @@
         <v>23</v>
       </c>
       <c r="K25">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="L25" s="4">
-        <v>12.4512891</v>
+        <v>14.953122499999999</v>
       </c>
       <c r="M25" s="4">
-        <v>72.06283625530213</v>
+        <v>72.065466268796158</v>
       </c>
       <c r="N25" s="4">
-        <v>-0.53088141627245788</v>
+        <v>-0.5298866515096996</v>
       </c>
       <c r="O25" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_024_Ca064TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_024_Ca064TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P25" t="s">
@@ -2121,19 +2123,19 @@
         <v>23</v>
       </c>
       <c r="K26">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L26" s="4">
-        <v>11.2905414</v>
+        <v>13.237237</v>
       </c>
       <c r="M26" s="4">
-        <v>234.26851736786753</v>
+        <v>234.14302112150185</v>
       </c>
       <c r="N26" s="4">
-        <v>-8.6101901358082763E-3</v>
+        <v>-5.5194299463859802E-3</v>
       </c>
       <c r="O26" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_025_Ca080TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_025_Ca080TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P26" t="s">
@@ -2172,19 +2174,19 @@
         <v>23</v>
       </c>
       <c r="K27">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="L27" s="4">
-        <v>13.2894212</v>
+        <v>13.923110599999999</v>
       </c>
       <c r="M27" s="4">
-        <v>72.122339486937932</v>
+        <v>72.116557424787871</v>
       </c>
       <c r="N27" s="4">
-        <v>-0.54086569565090004</v>
+        <v>-0.53585131896930283</v>
       </c>
       <c r="O27" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_026_Ca080TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_026_Ca080TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P27" t="s">
@@ -2223,19 +2225,19 @@
         <v>23</v>
       </c>
       <c r="K28">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="L28" s="4">
-        <v>6.8765761000000003</v>
+        <v>9.7087295999999998</v>
       </c>
       <c r="M28" s="4">
-        <v>236.00726724279676</v>
+        <v>236.0707856015506</v>
       </c>
       <c r="N28" s="4">
-        <v>3.1743772217962263E-2</v>
+        <v>3.1039756642365149E-2</v>
       </c>
       <c r="O28" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_027_Ca096TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_027_Ca096TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P28" t="s">
@@ -2274,19 +2276,19 @@
         <v>23</v>
       </c>
       <c r="K29">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="L29" s="4">
-        <v>9.5860228000000003</v>
+        <v>11.7423929</v>
       </c>
       <c r="M29" s="4">
-        <v>72.654770046266265</v>
+        <v>72.654749086232471</v>
       </c>
       <c r="N29" s="4">
-        <v>-0.53988110208508111</v>
+        <v>-0.54208042426134073</v>
       </c>
       <c r="O29" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_028_Ca096TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_028_Ca096TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P29" t="s">
@@ -2325,19 +2327,19 @@
         <v>23</v>
       </c>
       <c r="K30">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="L30" s="4">
-        <v>3.0932647000000002</v>
+        <v>4.0244055000000003</v>
       </c>
       <c r="M30" s="4">
-        <v>242.67039980383566</v>
+        <v>242.6347610154539</v>
       </c>
       <c r="N30" s="4">
-        <v>0.23235808260815013</v>
+        <v>0.23238227743443512</v>
       </c>
       <c r="O30" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_029_Ca112TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_029_Ca112TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P30" t="s">
@@ -2376,19 +2378,19 @@
         <v>23</v>
       </c>
       <c r="K31">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="L31" s="4">
-        <v>2.6298463000000001</v>
+        <v>4.4888333999999999</v>
       </c>
       <c r="M31" s="4">
-        <v>74.661827177005804</v>
+        <v>74.658737205363408</v>
       </c>
       <c r="N31" s="4">
-        <v>-0.33805720242627213</v>
+        <v>-0.33759900566581796</v>
       </c>
       <c r="O31" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_030_Ca112TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_030_Ca112TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P31" t="s">
@@ -2427,19 +2429,19 @@
         <v>23</v>
       </c>
       <c r="K32">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L32" s="4">
-        <v>3.7641657999999998</v>
+        <v>4.7770048999999997</v>
       </c>
       <c r="M32" s="4">
-        <v>241.37238819150514</v>
+        <v>241.66595681447339</v>
       </c>
       <c r="N32" s="4">
-        <v>0.2300985957234257</v>
+        <v>0.22678465252334948</v>
       </c>
       <c r="O32" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_031_Ca113TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_031_Ca113TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P32" t="s">
@@ -2478,19 +2480,19 @@
         <v>23</v>
       </c>
       <c r="K33">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="L33" s="4">
-        <v>3.5191756000000001</v>
+        <v>5.6744751000000004</v>
       </c>
       <c r="M33" s="4">
-        <v>74.346247075244349</v>
+        <v>74.35258302966588</v>
       </c>
       <c r="N33" s="4">
-        <v>-0.33340647436958676</v>
+        <v>-0.32867165610372456</v>
       </c>
       <c r="O33" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_032_Ca113TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_032_Ca113TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P33" t="s">
@@ -2529,19 +2531,19 @@
         <v>23</v>
       </c>
       <c r="K34">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L34" s="4">
-        <v>3.3220076999999999</v>
+        <v>5.2097094999999998</v>
       </c>
       <c r="M34" s="4">
-        <v>241.53977300560047</v>
+        <v>241.64502260539703</v>
       </c>
       <c r="N34" s="4">
-        <v>0.22921338427765445</v>
+        <v>0.22848272760716321</v>
       </c>
       <c r="O34" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_033_Ca114TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_033_Ca114TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P34" t="s">
@@ -2580,19 +2582,19 @@
         <v>23</v>
       </c>
       <c r="K35">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="L35" s="4">
-        <v>3.7199539000000001</v>
+        <v>5.4270687999999998</v>
       </c>
       <c r="M35" s="4">
-        <v>74.350404006911177</v>
+        <v>74.356920756212176</v>
       </c>
       <c r="N35" s="4">
-        <v>-0.33400272664345271</v>
+        <v>-0.33304433514489173</v>
       </c>
       <c r="O35" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_034_Ca114TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_034_Ca114TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P35" t="s">
@@ -2634,16 +2636,16 @@
         <v>400</v>
       </c>
       <c r="L36" s="4">
-        <v>3.3631042</v>
+        <v>5.3498691000000003</v>
       </c>
       <c r="M36" s="4">
-        <v>241.1616051302743</v>
+        <v>241.12752967081565</v>
       </c>
       <c r="N36" s="4">
-        <v>0.22787793833452652</v>
+        <v>0.22727424029065113</v>
       </c>
       <c r="O36" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_035_Ca115TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_035_Ca115TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P36" t="s">
@@ -2682,19 +2684,19 @@
         <v>23</v>
       </c>
       <c r="K37">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="L37" s="4">
-        <v>3.9032597</v>
+        <v>5.5946555</v>
       </c>
       <c r="M37" s="4">
-        <v>74.209698334942161</v>
+        <v>74.210810003060075</v>
       </c>
       <c r="N37" s="4">
-        <v>-0.33258639583364497</v>
+        <v>-0.33418355896123292</v>
       </c>
       <c r="O37" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_036_Ca115TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_036_Ca115TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P37" t="s">
@@ -2733,19 +2735,19 @@
         <v>23</v>
       </c>
       <c r="K38">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="L38" s="4">
-        <v>4.5636274999999999</v>
+        <v>7.2013280000000002</v>
       </c>
       <c r="M38" s="4">
-        <v>242.65788580093752</v>
+        <v>242.46516627962953</v>
       </c>
       <c r="N38" s="4">
-        <v>0.22949613511630912</v>
+        <v>0.23355639756178012</v>
       </c>
       <c r="O38" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_037_Ca116TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_037_Ca116TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P38" t="s">
@@ -2784,19 +2786,19 @@
         <v>23</v>
       </c>
       <c r="K39">
-        <v>1068</v>
+        <v>1049</v>
       </c>
       <c r="L39" s="4">
-        <v>5.8193976999999997</v>
+        <v>7.7709742000000004</v>
       </c>
       <c r="M39" s="4">
-        <v>74.661390944906799</v>
+        <v>74.66020533823469</v>
       </c>
       <c r="N39" s="4">
-        <v>-0.33906626267669099</v>
+        <v>-0.34093339804314021</v>
       </c>
       <c r="O39" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_038_Ca116TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_038_Ca116TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P39" t="s">
@@ -2835,19 +2837,19 @@
         <v>23</v>
       </c>
       <c r="K40">
-        <v>961</v>
+        <v>944</v>
       </c>
       <c r="L40" s="4">
-        <v>6.4392994999999997</v>
+        <v>8.0013269000000005</v>
       </c>
       <c r="M40" s="4">
-        <v>241.59872362020488</v>
+        <v>241.660793294575</v>
       </c>
       <c r="N40" s="4">
-        <v>0.22863486007347317</v>
+        <v>0.22795467749314724</v>
       </c>
       <c r="O40" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_039_Ca117TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_039_Ca117TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P40" t="s">
@@ -2886,19 +2888,19 @@
         <v>23</v>
       </c>
       <c r="K41">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="L41" s="4">
-        <v>7.2395309000000001</v>
+        <v>9.2039901999999998</v>
       </c>
       <c r="M41" s="4">
-        <v>74.350847450337284</v>
+        <v>74.349120772090018</v>
       </c>
       <c r="N41" s="4">
-        <v>-0.33672797963868656</v>
+        <v>-0.33486834782945007</v>
       </c>
       <c r="O41" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_040_Ca117TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_040_Ca117TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P41" t="s">
@@ -2937,19 +2939,19 @@
         <v>23</v>
       </c>
       <c r="K42">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="L42" s="4">
-        <v>6.5029056000000001</v>
+        <v>8.4761138999999996</v>
       </c>
       <c r="M42" s="4">
-        <v>241.61013409606161</v>
+        <v>241.37675448675455</v>
       </c>
       <c r="N42" s="4">
-        <v>0.23060527323192562</v>
+        <v>0.22794119810278904</v>
       </c>
       <c r="O42" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_041_Ca118TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_041_Ca118TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P42" t="s">
@@ -2988,19 +2990,19 @@
         <v>23</v>
       </c>
       <c r="K43">
-        <v>1048</v>
+        <v>1073</v>
       </c>
       <c r="L43" s="4">
-        <v>7.8844763999999996</v>
+        <v>9.9531234000000008</v>
       </c>
       <c r="M43" s="4">
-        <v>74.351207248327455</v>
+        <v>74.339421454790141</v>
       </c>
       <c r="N43" s="4">
-        <v>-0.33501992000174008</v>
+        <v>-0.33474132199193057</v>
       </c>
       <c r="O43" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_042_Ca118TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_042_Ca118TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P43" t="s">
@@ -3039,19 +3041,19 @@
         <v>23</v>
       </c>
       <c r="K44">
-        <v>961</v>
+        <v>982</v>
       </c>
       <c r="L44" s="4">
-        <v>6.7447923000000003</v>
+        <v>8.5034256999999993</v>
       </c>
       <c r="M44" s="4">
-        <v>241.12925700737776</v>
+        <v>241.02385446767263</v>
       </c>
       <c r="N44" s="4">
-        <v>0.22722561830956689</v>
+        <v>0.22516127208946926</v>
       </c>
       <c r="O44" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_043_Ca119TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_043_Ca119TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P44" t="s">
@@ -3090,19 +3092,19 @@
         <v>23</v>
       </c>
       <c r="K45">
-        <v>1079</v>
+        <v>1095</v>
       </c>
       <c r="L45" s="4">
-        <v>7.5280509999999996</v>
+        <v>9.4408177999999996</v>
       </c>
       <c r="M45" s="4">
-        <v>74.199582953237666</v>
+        <v>74.203595256818872</v>
       </c>
       <c r="N45" s="4">
-        <v>-0.33429099859004158</v>
+        <v>-0.33274068668602785</v>
       </c>
       <c r="O45" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_044_Ca119TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_044_Ca119TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P45" t="s">
@@ -3141,19 +3143,19 @@
         <v>23</v>
       </c>
       <c r="K46">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="L46" s="4">
-        <v>15.9733477</v>
+        <v>21.217294899999999</v>
       </c>
       <c r="M46" s="4">
-        <v>100.87002099533962</v>
+        <v>100.86930806126598</v>
       </c>
       <c r="N46" s="4">
-        <v>-1.4513297576261085E-2</v>
+        <v>-1.4855941161444307E-2</v>
       </c>
       <c r="O46" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_045_Ca128TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_045_Ca128TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P46" t="s">
@@ -3192,19 +3194,19 @@
         <v>23</v>
       </c>
       <c r="K47">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="L47" s="4">
-        <v>15.620841</v>
+        <v>21.370766499999998</v>
       </c>
       <c r="M47" s="4">
-        <v>37.32377991831784</v>
+        <v>37.314014043601027</v>
       </c>
       <c r="N47" s="4">
-        <v>-0.13878629517121699</v>
+        <v>-0.13802261927627205</v>
       </c>
       <c r="O47" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_046_Ca128TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_046_Ca128TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P47" t="s">
@@ -3243,19 +3245,19 @@
         <v>23</v>
       </c>
       <c r="K48">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="L48" s="4">
-        <v>14.149059899999999</v>
+        <v>21.277830099999999</v>
       </c>
       <c r="M48" s="4">
-        <v>232.58626607853191</v>
+        <v>232.15670563829335</v>
       </c>
       <c r="N48" s="4">
-        <v>8.0427397763510669E-2</v>
+        <v>7.9877065821775159E-2</v>
       </c>
       <c r="O48" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_047_Ca129TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_047_Ca129TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P48" t="s">
@@ -3294,19 +3296,19 @@
         <v>23</v>
       </c>
       <c r="K49">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L49" s="4">
-        <v>15.732738299999999</v>
+        <v>20.742738200000002</v>
       </c>
       <c r="M49" s="4">
-        <v>71.583203083432565</v>
+        <v>71.506230144233299</v>
       </c>
       <c r="N49" s="4">
-        <v>-0.5389873808071789</v>
+        <v>-0.54042703011601334</v>
       </c>
       <c r="O49" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_048_Ca129TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_048_Ca129TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P49" t="s">
@@ -3345,19 +3347,19 @@
         <v>23</v>
       </c>
       <c r="K50">
-        <v>771</v>
+        <v>790</v>
       </c>
       <c r="L50" s="4">
-        <v>22.532214799999998</v>
+        <v>35.875935499999997</v>
       </c>
       <c r="M50" s="4">
-        <v>220.39059843036739</v>
+        <v>220.21056239492768</v>
       </c>
       <c r="N50" s="4">
-        <v>-1.463880025013589</v>
+        <v>-1.468088523073807</v>
       </c>
       <c r="O50" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_049_Ca130TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_049_Ca130TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P50" t="s">
@@ -3396,19 +3398,19 @@
         <v>23</v>
       </c>
       <c r="K51">
-        <v>752</v>
+        <v>788</v>
       </c>
       <c r="L51" s="4">
-        <v>24.8661888</v>
+        <v>33.883412800000002</v>
       </c>
       <c r="M51" s="4">
-        <v>69.57241351916889</v>
+        <v>69.56727847054951</v>
       </c>
       <c r="N51" s="4">
-        <v>-0.55072620974615771</v>
+        <v>-0.5536144740399086</v>
       </c>
       <c r="O51" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_050_Ca130TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_050_Ca130TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P51" t="s">
@@ -3447,19 +3449,19 @@
         <v>23</v>
       </c>
       <c r="K52">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L52" s="4">
-        <v>16.438427099999998</v>
+        <v>22.055301199999999</v>
       </c>
       <c r="M52" s="4">
-        <v>177.37310331643786</v>
+        <v>177.44597048564043</v>
       </c>
       <c r="N52" s="4">
-        <v>-5.9421223180854126</v>
+        <v>-5.9364887226009451</v>
       </c>
       <c r="O52" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_051_Ca131TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_051_Ca131TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P52" t="s">
@@ -3501,16 +3503,16 @@
         <v>510</v>
       </c>
       <c r="L53" s="4">
-        <v>15.445586</v>
+        <v>17.8601408</v>
       </c>
       <c r="M53" s="4">
-        <v>37.435270491184433</v>
+        <v>37.425794686606217</v>
       </c>
       <c r="N53" s="4">
-        <v>-0.16682841469423221</v>
+        <v>-0.16675421557415626</v>
       </c>
       <c r="O53" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_052_Ca131TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_052_Ca131TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P53" t="s">
@@ -3549,19 +3551,19 @@
         <v>23</v>
       </c>
       <c r="K54">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L54" s="4">
-        <v>8.2870690000000007</v>
+        <v>12.6536303</v>
       </c>
       <c r="M54" s="4">
-        <v>232.25434405901916</v>
+        <v>231.91246667211189</v>
       </c>
       <c r="N54" s="4">
-        <v>3.7523701952729201E-2</v>
+        <v>3.339796085426977E-2</v>
       </c>
       <c r="O54" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_053_Ca132TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_053_Ca132TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P54" t="s">
@@ -3600,19 +3602,19 @@
         <v>23</v>
       </c>
       <c r="K55">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="L55" s="4">
-        <v>12.3394572</v>
+        <v>15.282531799999999</v>
       </c>
       <c r="M55" s="4">
-        <v>71.223450127714955</v>
+        <v>71.222568397319804</v>
       </c>
       <c r="N55" s="4">
-        <v>-0.53035927492958723</v>
+        <v>-0.52798020784827893</v>
       </c>
       <c r="O55" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_054_Ca132TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_054_Ca132TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P55" t="s">
@@ -3651,19 +3653,19 @@
         <v>23</v>
       </c>
       <c r="K56">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L56" s="4">
-        <v>7.7354190999999997</v>
+        <v>11.4772114</v>
       </c>
       <c r="M56" s="4">
-        <v>232.8822007105031</v>
+        <v>233.02434143111248</v>
       </c>
       <c r="N56" s="4">
-        <v>2.3644105581510733E-4</v>
+        <v>-1.0918497815023576E-3</v>
       </c>
       <c r="O56" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_055_Ca133TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_055_Ca133TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P56" t="s">
@@ -3702,19 +3704,19 @@
         <v>23</v>
       </c>
       <c r="K57">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="L57" s="4">
-        <v>10.7170486</v>
+        <v>13.8540288</v>
       </c>
       <c r="M57" s="4">
-        <v>71.757457013757588</v>
+        <v>71.758682432408492</v>
       </c>
       <c r="N57" s="4">
-        <v>-0.54700847146136078</v>
+        <v>-0.54700547920929332</v>
       </c>
       <c r="O57" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_056_Ca133TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_056_Ca133TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P57" t="s">
@@ -3753,19 +3755,19 @@
         <v>23</v>
       </c>
       <c r="K58">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="L58" s="4">
-        <v>8.0103264000000003</v>
+        <v>11.921271900000001</v>
       </c>
       <c r="M58" s="4">
-        <v>233.09474571610622</v>
+        <v>233.03586542650788</v>
       </c>
       <c r="N58" s="4">
-        <v>5.2498729348790063E-4</v>
+        <v>8.305067896391935E-4</v>
       </c>
       <c r="O58" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_057_Ca134TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_057_Ca134TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P58" t="s">
@@ -3804,19 +3806,19 @@
         <v>23</v>
       </c>
       <c r="K59">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="L59" s="4">
-        <v>10.9237287</v>
+        <v>14.069755600000001</v>
       </c>
       <c r="M59" s="4">
-        <v>71.763607496146619</v>
+        <v>71.761747334788367</v>
       </c>
       <c r="N59" s="4">
-        <v>-0.54678316769108926</v>
+        <v>-0.54745083199521971</v>
       </c>
       <c r="O59" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_058_Ca134TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_058_Ca134TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P59" t="s">
@@ -3855,19 +3857,19 @@
         <v>23</v>
       </c>
       <c r="K60">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="L60" s="4">
-        <v>8.6469121999999992</v>
+        <v>12.090723499999999</v>
       </c>
       <c r="M60" s="4">
-        <v>232.96687056818539</v>
+        <v>233.00883025472643</v>
       </c>
       <c r="N60" s="4">
-        <v>2.4345008538149051E-3</v>
+        <v>7.1524726942642596E-4</v>
       </c>
       <c r="O60" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_059_Ca135TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_059_Ca135TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P60" t="s">
@@ -3906,19 +3908,19 @@
         <v>23</v>
       </c>
       <c r="K61">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="L61" s="4">
-        <v>9.9846872999999992</v>
+        <v>13.360745700000001</v>
       </c>
       <c r="M61" s="4">
-        <v>71.767240915703141</v>
+        <v>71.766424124983672</v>
       </c>
       <c r="N61" s="4">
-        <v>-0.54703871911959723</v>
+        <v>-0.54592198793265156</v>
       </c>
       <c r="O61" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_060_Ca135TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_060_Ca135TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P61" t="s">
@@ -3957,19 +3959,19 @@
         <v>23</v>
       </c>
       <c r="K62">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L62" s="4">
-        <v>11.7640572</v>
+        <v>18.435889299999999</v>
       </c>
       <c r="M62" s="4">
-        <v>233.02276811029415</v>
+        <v>233.12125034284918</v>
       </c>
       <c r="N62" s="4">
-        <v>6.7390265492644014E-2</v>
+        <v>5.8586609603155815E-2</v>
       </c>
       <c r="O62" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_061_Ca136TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_061_Ca136TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P62" t="s">
@@ -4008,19 +4010,19 @@
         <v>23</v>
       </c>
       <c r="K63">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="L63" s="4">
-        <v>15.077180800000001</v>
+        <v>19.609515500000001</v>
       </c>
       <c r="M63" s="4">
-        <v>71.756416474655808</v>
+        <v>71.766903863444796</v>
       </c>
       <c r="N63" s="4">
-        <v>-0.54166270523377635</v>
+        <v>-0.54424914676468927</v>
       </c>
       <c r="O63" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_062_Ca136TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_062_Ca136TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P63" t="s">
@@ -4059,19 +4061,19 @@
         <v>23</v>
       </c>
       <c r="K64">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="L64" s="4">
-        <v>8.0198692000000005</v>
+        <v>10.472629599999999</v>
       </c>
       <c r="M64" s="4">
-        <v>233.64010681043797</v>
+        <v>233.54192661676061</v>
       </c>
       <c r="N64" s="4">
-        <v>0.14247475862687123</v>
+        <v>0.14289264090421597</v>
       </c>
       <c r="O64" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_063_Ca137TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_063_Ca137TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P64" t="s">
@@ -4110,19 +4112,19 @@
         <v>23</v>
       </c>
       <c r="K65">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="L65" s="4">
-        <v>9.7181013000000007</v>
+        <v>13.3784768</v>
       </c>
       <c r="M65" s="4">
-        <v>71.797454459517354</v>
+        <v>71.797656756031969</v>
       </c>
       <c r="N65" s="4">
-        <v>-0.50403038507243769</v>
+        <v>-0.50256499105439056</v>
       </c>
       <c r="O65" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_064_Ca137TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_064_Ca137TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P65" t="s">
@@ -4161,19 +4163,19 @@
         <v>23</v>
       </c>
       <c r="K66">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="L66" s="4">
-        <v>11.144754000000001</v>
+        <v>14.457337799999999</v>
       </c>
       <c r="M66" s="4">
-        <v>233.54460894402655</v>
+        <v>233.56809394111403</v>
       </c>
       <c r="N66" s="4">
-        <v>0.15285371875530679</v>
+        <v>0.15369149180942226</v>
       </c>
       <c r="O66" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_065_Ca138TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_065_Ca138TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P66" t="s">
@@ -4212,19 +4214,19 @@
         <v>23</v>
       </c>
       <c r="K67">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L67" s="4">
-        <v>13.151398199999999</v>
+        <v>15.0628981</v>
       </c>
       <c r="M67" s="4">
-        <v>71.664139815490941</v>
+        <v>71.66114414313968</v>
       </c>
       <c r="N67" s="4">
-        <v>-0.82645650615734678</v>
+        <v>-0.82735748055790193</v>
       </c>
       <c r="O67" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_066_Ca138TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_066_Ca138TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P67" t="s">
@@ -4263,19 +4265,19 @@
         <v>23</v>
       </c>
       <c r="K68">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L68" s="4">
-        <v>14.7889155</v>
+        <v>26.3716401</v>
       </c>
       <c r="M68" s="4">
-        <v>411.71264603021757</v>
+        <v>411.55901278403769</v>
       </c>
       <c r="N68" s="4">
-        <v>1.5858094166407377</v>
+        <v>1.5290394541661705</v>
       </c>
       <c r="O68" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_067_Ca139TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_067_Ca139TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P68" t="s">
@@ -4314,19 +4316,19 @@
         <v>23</v>
       </c>
       <c r="K69">
-        <v>526</v>
+        <v>554</v>
       </c>
       <c r="L69" s="4">
-        <v>13.4644542</v>
+        <v>15.9305561</v>
       </c>
       <c r="M69" s="4">
-        <v>157.23585894298103</v>
+        <v>157.2364546672739</v>
       </c>
       <c r="N69" s="4">
-        <v>-0.57303786506528909</v>
+        <v>-0.56724484919864449</v>
       </c>
       <c r="O69" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_068_Ca139TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_068_Ca139TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P69" t="s">
@@ -4365,19 +4367,19 @@
         <v>23</v>
       </c>
       <c r="K70">
-        <v>1689</v>
+        <v>1665</v>
       </c>
       <c r="L70" s="4">
-        <v>27.836327600000001</v>
+        <v>33.281168299999997</v>
       </c>
       <c r="M70" s="4">
-        <v>411.78570068868981</v>
+        <v>411.66128851709988</v>
       </c>
       <c r="N70" s="4">
-        <v>1.5688271603269441</v>
+        <v>1.5513660651418055</v>
       </c>
       <c r="O70" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_069_Ca141TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_069_Ca141TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P70" t="s">
@@ -4416,19 +4418,19 @@
         <v>23</v>
       </c>
       <c r="K71">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="L71" s="4">
-        <v>19.8655489</v>
+        <v>26.368249500000001</v>
       </c>
       <c r="M71" s="4">
-        <v>157.30946242188563</v>
+        <v>157.30748799429315</v>
       </c>
       <c r="N71" s="4">
-        <v>-0.56325567797862031</v>
+        <v>-0.54325651211923487</v>
       </c>
       <c r="O71" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_070_Ca141TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_070_Ca141TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P71" t="s">
@@ -4467,19 +4469,19 @@
         <v>23</v>
       </c>
       <c r="K72">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="L72" s="4">
-        <v>17.562666499999999</v>
+        <v>24.5050797</v>
       </c>
       <c r="M72" s="4">
-        <v>96.717479370668556</v>
+        <v>96.663700799913457</v>
       </c>
       <c r="N72" s="4">
-        <v>-4.0408862266687565E-2</v>
+        <v>-4.2051776922115668E-2</v>
       </c>
       <c r="O72" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_071_Ca143TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_071_Ca143TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P72" t="s">
@@ -4518,19 +4520,19 @@
         <v>23</v>
       </c>
       <c r="K73">
-        <v>433</v>
+        <v>464</v>
       </c>
       <c r="L73" s="4">
-        <v>18.3645028</v>
+        <v>26.7233579</v>
       </c>
       <c r="M73" s="4">
-        <v>25.17407962142207</v>
+        <v>25.169046421467492</v>
       </c>
       <c r="N73" s="4">
-        <v>-5.4658032845276497E-2</v>
+        <v>-5.4846838475871573E-2</v>
       </c>
       <c r="O73" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_072_Ca143TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_072_Ca143TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P73" t="s">
@@ -4569,19 +4571,19 @@
         <v>23</v>
       </c>
       <c r="K74">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L74" s="4">
-        <v>13.074388900000001</v>
+        <v>16.816337600000001</v>
       </c>
       <c r="M74" s="4">
-        <v>115.06337016607483</v>
+        <v>115.11955138616108</v>
       </c>
       <c r="N74" s="4">
-        <v>0.5302156364252042</v>
+        <v>0.53239966064873878</v>
       </c>
       <c r="O74" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_073_Ca144TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_073_Ca144TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P74" t="s">
@@ -4620,19 +4622,19 @@
         <v>23</v>
       </c>
       <c r="K75">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="L75" s="4">
-        <v>15.373526999999999</v>
+        <v>17.077208599999999</v>
       </c>
       <c r="M75" s="4">
-        <v>35.861614817842501</v>
+        <v>35.861014778480005</v>
       </c>
       <c r="N75" s="4">
-        <v>-3.5659713545152891E-2</v>
+        <v>-3.5324008466584247E-2</v>
       </c>
       <c r="O75" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_074_Ca144TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_074_Ca144TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P75" t="s">
@@ -4671,19 +4673,19 @@
         <v>23</v>
       </c>
       <c r="K76">
-        <v>2137</v>
+        <v>2390</v>
       </c>
       <c r="L76" s="4">
-        <v>20.394689700000001</v>
+        <v>33.387346100000002</v>
       </c>
       <c r="M76" s="4">
-        <v>401.19987940461931</v>
+        <v>401.13532859414261</v>
       </c>
       <c r="N76" s="4">
-        <v>-66.258727434037311</v>
+        <v>-66.564074082518957</v>
       </c>
       <c r="O76" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_075_Ca147TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_075_Ca147TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P76" t="s">
@@ -4725,16 +4727,16 @@
         <v>1261</v>
       </c>
       <c r="L77" s="4">
-        <v>18.348527700000002</v>
+        <v>22.852929499999998</v>
       </c>
       <c r="M77" s="4">
-        <v>155.47064493477532</v>
+        <v>155.47063386926305</v>
       </c>
       <c r="N77" s="4">
-        <v>-2.7583962857402842</v>
+        <v>-2.7149896556548523</v>
       </c>
       <c r="O77" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_076_Ca147TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_076_Ca147TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P77" t="s">
@@ -4773,19 +4775,19 @@
         <v>23</v>
       </c>
       <c r="K78">
-        <v>1112</v>
+        <v>512</v>
       </c>
       <c r="L78" s="4">
-        <v>49.252339900000003</v>
+        <v>32.093717699999999</v>
       </c>
       <c r="M78" s="4">
-        <v>184.65914925335852</v>
+        <v>184.55649445622737</v>
       </c>
       <c r="N78" s="4">
-        <v>-2.9826880831486206E-2</v>
+        <v>-1.6220980619849131E-3</v>
       </c>
       <c r="O78" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_077_Ca183TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_077_Ca183TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P78" t="s">
@@ -4824,19 +4826,19 @@
         <v>23</v>
       </c>
       <c r="K79">
-        <v>1395</v>
+        <v>833</v>
       </c>
       <c r="L79" s="4">
-        <v>60.393038699999998</v>
+        <v>38.193732099999998</v>
       </c>
       <c r="M79" s="4">
-        <v>57.737861957379302</v>
+        <v>57.652264303491805</v>
       </c>
       <c r="N79" s="4">
-        <v>8.2762221105913067E-2</v>
+        <v>9.5090308782148095E-2</v>
       </c>
       <c r="O79" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_078_Ca183TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_078_Ca183TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P79" t="s">
@@ -4875,19 +4877,19 @@
         <v>23</v>
       </c>
       <c r="K80">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="L80" s="4">
-        <v>12.586953599999999</v>
+        <v>15.946654300000001</v>
       </c>
       <c r="M80" s="4">
-        <v>233.88981813902785</v>
+        <v>233.91179213146418</v>
       </c>
       <c r="N80" s="4">
-        <v>9.2440376925831073E-3</v>
+        <v>9.2316217452707554E-3</v>
       </c>
       <c r="O80" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_079_Ca008TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_079_Ca008TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P80" t="s">
@@ -4929,16 +4931,16 @@
         <v>551</v>
       </c>
       <c r="L81" s="4">
-        <v>12.429804600000001</v>
+        <v>19.4783629</v>
       </c>
       <c r="M81" s="4">
-        <v>72.061177590033125</v>
+        <v>72.061196180369066</v>
       </c>
       <c r="N81" s="4">
-        <v>-0.54984787726948581</v>
+        <v>-0.54985421126536338</v>
       </c>
       <c r="O81" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_080_Ca008TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_080_Ca008TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P81" t="s">
@@ -4977,19 +4979,19 @@
         <v>23</v>
       </c>
       <c r="K82">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="L82" s="4">
-        <v>13.4416913</v>
+        <v>18.187505900000001</v>
       </c>
       <c r="M82" s="4">
-        <v>233.12167979409475</v>
+        <v>233.11899208289591</v>
       </c>
       <c r="N82" s="4">
-        <v>1.0273730614252664E-3</v>
+        <v>1.0382755986476247E-3</v>
       </c>
       <c r="O82" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_081_Ca009TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_081_Ca009TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P82" t="s">
@@ -5028,19 +5030,19 @@
         <v>23</v>
       </c>
       <c r="K83">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L83" s="4">
-        <v>16.057249299999999</v>
+        <v>21.7678583</v>
       </c>
       <c r="M83" s="4">
-        <v>71.773296887041298</v>
+        <v>71.7737461902597</v>
       </c>
       <c r="N83" s="4">
-        <v>-0.54074126859330529</v>
+        <v>-0.54069885906190351</v>
       </c>
       <c r="O83" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_082_Ca009TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_082_Ca009TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P83" t="s">
@@ -5079,19 +5081,19 @@
         <v>23</v>
       </c>
       <c r="K84">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L84" s="4">
-        <v>14.3287827</v>
+        <v>20.585697400000001</v>
       </c>
       <c r="M84" s="4">
-        <v>232.7757145525805</v>
+        <v>232.79255592639782</v>
       </c>
       <c r="N84" s="4">
-        <v>6.940629301028009E-2</v>
+        <v>6.9445632170213711E-2</v>
       </c>
       <c r="O84" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_083_Ca010TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_083_Ca010TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P84" t="s">
@@ -5130,19 +5132,19 @@
         <v>23</v>
       </c>
       <c r="K85">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="L85" s="4">
-        <v>16.226169599999999</v>
+        <v>25.9319411</v>
       </c>
       <c r="M85" s="4">
-        <v>71.765030425611755</v>
+        <v>71.766582485456453</v>
       </c>
       <c r="N85" s="4">
-        <v>-0.53875902907985496</v>
+        <v>-0.53934151528744922</v>
       </c>
       <c r="O85" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_084_Ca010TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_084_Ca010TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P85" t="s">
@@ -5181,19 +5183,19 @@
         <v>23</v>
       </c>
       <c r="K86">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="L86" s="4">
-        <v>13.177331000000001</v>
+        <v>21.3863108</v>
       </c>
       <c r="M86" s="4">
-        <v>232.51354361644923</v>
+        <v>232.57945992270939</v>
       </c>
       <c r="N86" s="4">
-        <v>6.7132873016424136E-2</v>
+        <v>6.7143553702427583E-2</v>
       </c>
       <c r="O86" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_085_Ca011TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_085_Ca011TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P86" t="s">
@@ -5232,19 +5234,19 @@
         <v>23</v>
       </c>
       <c r="K87">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="L87" s="4">
-        <v>17.3078064</v>
+        <v>25.8609543</v>
       </c>
       <c r="M87" s="4">
-        <v>71.634063513011299</v>
+        <v>71.63413048937511</v>
       </c>
       <c r="N87" s="4">
-        <v>-0.53927660497966956</v>
+        <v>-0.53441741191589098</v>
       </c>
       <c r="O87" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_086_Ca011TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_086_Ca011TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P87" t="s">
@@ -5283,19 +5285,19 @@
         <v>23</v>
       </c>
       <c r="K88">
-        <v>818</v>
+        <v>838</v>
       </c>
       <c r="L88" s="4">
-        <v>10.7938568</v>
+        <v>18.571113100000002</v>
       </c>
       <c r="M88" s="4">
-        <v>234.08037263710426</v>
+        <v>234.07916109187821</v>
       </c>
       <c r="N88" s="4">
-        <v>9.9499337266434999E-3</v>
+        <v>9.9313976732652576E-3</v>
       </c>
       <c r="O88" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_087_Ca012TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_087_Ca012TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P88" t="s">
@@ -5334,19 +5336,19 @@
         <v>23</v>
       </c>
       <c r="K89">
-        <v>944</v>
+        <v>970</v>
       </c>
       <c r="L89" s="4">
-        <v>13.152589799999999</v>
+        <v>20.556406800000001</v>
       </c>
       <c r="M89" s="4">
-        <v>72.056974258112263</v>
+        <v>72.056643652602361</v>
       </c>
       <c r="N89" s="4">
-        <v>-0.55809562998318374</v>
+        <v>-0.55812743815189014</v>
       </c>
       <c r="O89" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_088_Ca012TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_088_Ca012TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P89" t="s">
@@ -5385,19 +5387,19 @@
         <v>23</v>
       </c>
       <c r="K90">
-        <v>818</v>
+        <v>832</v>
       </c>
       <c r="L90" s="4">
-        <v>14.8243881</v>
+        <v>20.506170900000001</v>
       </c>
       <c r="M90" s="4">
-        <v>233.05203620098266</v>
+        <v>233.0528199263681</v>
       </c>
       <c r="N90" s="4">
-        <v>1.5066021242813121E-3</v>
+        <v>1.5169706731430498E-3</v>
       </c>
       <c r="O90" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_089_Ca013TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_089_Ca013TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P90" t="s">
@@ -5436,19 +5438,19 @@
         <v>23</v>
       </c>
       <c r="K91">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="L91" s="4">
-        <v>17.9559575</v>
+        <v>24.203339199999998</v>
       </c>
       <c r="M91" s="4">
-        <v>71.76231921029617</v>
+        <v>71.762483661602303</v>
       </c>
       <c r="N91" s="4">
-        <v>-0.55091968922749912</v>
+        <v>-0.55093590847012464</v>
       </c>
       <c r="O91" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_090_Ca013TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_090_Ca013TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P91" t="s">
@@ -5487,19 +5489,19 @@
         <v>23</v>
       </c>
       <c r="K92">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="L92" s="4">
-        <v>12.8798505</v>
+        <v>18.842726599999999</v>
       </c>
       <c r="M92" s="4">
-        <v>232.95445542051783</v>
+        <v>232.90465609791562</v>
       </c>
       <c r="N92" s="4">
-        <v>6.9571957492827269E-2</v>
+        <v>6.998356572550346E-2</v>
       </c>
       <c r="O92" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_091_Ca014TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_091_Ca014TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P92" t="s">
@@ -5541,16 +5543,16 @@
         <v>1002</v>
       </c>
       <c r="L93" s="4">
-        <v>17.294878199999999</v>
+        <v>25.014112699999998</v>
       </c>
       <c r="M93" s="4">
-        <v>71.765412706766341</v>
+        <v>71.766776259178201</v>
       </c>
       <c r="N93" s="4">
-        <v>-0.54719218826644667</v>
+        <v>-0.54437020635539635</v>
       </c>
       <c r="O93" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_092_Ca014TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_092_Ca014TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P93" t="s">
@@ -5589,19 +5591,19 @@
         <v>23</v>
       </c>
       <c r="K94">
-        <v>879</v>
+        <v>863</v>
       </c>
       <c r="L94" s="4">
-        <v>13.7763952</v>
+        <v>21.702279900000001</v>
       </c>
       <c r="M94" s="4">
-        <v>232.34837101341466</v>
+        <v>232.2921149656751</v>
       </c>
       <c r="N94" s="4">
-        <v>6.7138315221446823E-2</v>
+        <v>6.6937717999804885E-2</v>
       </c>
       <c r="O94" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_093_Ca015TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_093_Ca015TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P94" t="s">
@@ -5640,19 +5642,19 @@
         <v>23</v>
       </c>
       <c r="K95">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="L95" s="4">
-        <v>19.2950041</v>
+        <v>27.209237600000002</v>
       </c>
       <c r="M95" s="4">
-        <v>71.625312850418055</v>
+        <v>71.62512871550031</v>
       </c>
       <c r="N95" s="4">
-        <v>-0.54445172203311221</v>
+        <v>-0.54536077794517346</v>
       </c>
       <c r="O95" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_094_Ca015TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_094_Ca015TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P95" t="s">
@@ -5691,19 +5693,19 @@
         <v>23</v>
       </c>
       <c r="K96">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L96" s="4">
-        <v>3.3739157</v>
+        <v>5.6633870000000002</v>
       </c>
       <c r="M96" s="4">
-        <v>242.5890714015209</v>
+        <v>242.70172474205535</v>
       </c>
       <c r="N96" s="4">
-        <v>0.23206489866861765</v>
+        <v>0.23218529214587894</v>
       </c>
       <c r="O96" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_095_Ca120TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_095_Ca120TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P96" t="s">
@@ -5742,19 +5744,19 @@
         <v>23</v>
       </c>
       <c r="K97">
-        <v>523</v>
+        <v>494</v>
       </c>
       <c r="L97" s="4">
-        <v>3.8767611999999998</v>
+        <v>6.1575911999999997</v>
       </c>
       <c r="M97" s="4">
-        <v>74.670422538606061</v>
+        <v>74.685134429266526</v>
       </c>
       <c r="N97" s="4">
-        <v>-0.33784609217060607</v>
+        <v>-0.33779887211627302</v>
       </c>
       <c r="O97" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_096_Ca120TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_096_Ca120TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P97" t="s">
@@ -5793,19 +5795,19 @@
         <v>23</v>
       </c>
       <c r="K98">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="L98" s="4">
-        <v>4.0183394999999997</v>
+        <v>6.5494177000000002</v>
       </c>
       <c r="M98" s="4">
-        <v>241.54746412970036</v>
+        <v>241.5143726318114</v>
       </c>
       <c r="N98" s="4">
-        <v>0.2286791372248424</v>
+        <v>0.22862728605053528</v>
       </c>
       <c r="O98" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_097_Ca121TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_097_Ca121TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P98" t="s">
@@ -5844,19 +5846,19 @@
         <v>23</v>
       </c>
       <c r="K99">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="L99" s="4">
-        <v>4.9378222999999997</v>
+        <v>7.2960805999999998</v>
       </c>
       <c r="M99" s="4">
-        <v>74.354010081986644</v>
+        <v>74.365125365938397</v>
       </c>
       <c r="N99" s="4">
-        <v>-0.32907378161057715</v>
+        <v>-0.33361272533874831</v>
       </c>
       <c r="O99" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_098_Ca121TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_098_Ca121TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P99" t="s">
@@ -5895,19 +5897,19 @@
         <v>23</v>
       </c>
       <c r="K100">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L100" s="4">
-        <v>5.1238294</v>
+        <v>7.1666216</v>
       </c>
       <c r="M100" s="4">
-        <v>241.76082877418119</v>
+        <v>241.66164005606853</v>
       </c>
       <c r="N100" s="4">
-        <v>0.22875360423101218</v>
+        <v>0.22856611177629868</v>
       </c>
       <c r="O100" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_099_Ca122TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_099_Ca122TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P100" t="s">
@@ -5946,19 +5948,19 @@
         <v>23</v>
       </c>
       <c r="K101">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="L101" s="4">
-        <v>5.45648</v>
+        <v>7.6518854000000003</v>
       </c>
       <c r="M101" s="4">
-        <v>74.381879142033</v>
+        <v>74.368711420195567</v>
       </c>
       <c r="N101" s="4">
-        <v>-0.33040962617501868</v>
+        <v>-0.32513348402756465</v>
       </c>
       <c r="O101" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_100_Ca122TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_100_Ca122TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P101" t="s">
@@ -5997,19 +5999,19 @@
         <v>23</v>
       </c>
       <c r="K102">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="L102" s="4">
-        <v>5.3622877999999998</v>
+        <v>7.1562950000000001</v>
       </c>
       <c r="M102" s="4">
-        <v>241.1828235911378</v>
+        <v>241.05199379533013</v>
       </c>
       <c r="N102" s="4">
-        <v>0.22488263097380404</v>
+        <v>0.22632130622445654</v>
       </c>
       <c r="O102" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_101_Ca123TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_101_Ca123TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P102" t="s">
@@ -6048,19 +6050,19 @@
         <v>23</v>
       </c>
       <c r="K103">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="L103" s="4">
-        <v>5.2305751000000003</v>
+        <v>7.9866770999999996</v>
       </c>
       <c r="M103" s="4">
-        <v>74.215374775070487</v>
+        <v>74.224274542720465</v>
       </c>
       <c r="N103" s="4">
-        <v>-0.33323564890825996</v>
+        <v>-0.33249183348567796</v>
       </c>
       <c r="O103" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_102_Ca123TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_102_Ca123TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P103" t="s">
@@ -6099,19 +6101,19 @@
         <v>23</v>
       </c>
       <c r="K104">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="L104" s="4">
-        <v>4.7137758999999999</v>
+        <v>7.0491251999999998</v>
       </c>
       <c r="M104" s="4">
-        <v>242.54521277554818</v>
+        <v>242.6893144756805</v>
       </c>
       <c r="N104" s="4">
-        <v>0.23283647464583762</v>
+        <v>0.23310540984260625</v>
       </c>
       <c r="O104" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_103_Ca124TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_103_Ca124TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P104" t="s">
@@ -6150,19 +6152,19 @@
         <v>23</v>
       </c>
       <c r="K105">
-        <v>1117</v>
+        <v>1125</v>
       </c>
       <c r="L105" s="4">
-        <v>5.8346099999999996</v>
+        <v>7.5389967000000002</v>
       </c>
       <c r="M105" s="4">
-        <v>74.661751867260918</v>
+        <v>74.66272961840248</v>
       </c>
       <c r="N105" s="4">
-        <v>-0.34112488351822423</v>
+        <v>-0.34153787092137572</v>
       </c>
       <c r="O105" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_104_Ca124TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_104_Ca124TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P105" t="s">
@@ -6201,19 +6203,19 @@
         <v>23</v>
       </c>
       <c r="K106">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="L106" s="4">
-        <v>5.8816791999999998</v>
+        <v>7.7935588999999998</v>
       </c>
       <c r="M106" s="4">
-        <v>241.54321991377375</v>
+        <v>241.62988721202183</v>
       </c>
       <c r="N106" s="4">
-        <v>0.22948012359384246</v>
+        <v>0.22963875610615478</v>
       </c>
       <c r="O106" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_105_Ca125TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_105_Ca125TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P106" t="s">
@@ -6252,19 +6254,19 @@
         <v>23</v>
       </c>
       <c r="K107">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="L107" s="4">
-        <v>5.9486375000000002</v>
+        <v>9.0626434000000007</v>
       </c>
       <c r="M107" s="4">
-        <v>74.344280217840364</v>
+        <v>74.343140204375246</v>
       </c>
       <c r="N107" s="4">
-        <v>-0.33726477426703827</v>
+        <v>-0.33759258902252826</v>
       </c>
       <c r="O107" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_106_Ca125TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_106_Ca125TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P107" t="s">
@@ -6303,19 +6305,19 @@
         <v>23</v>
       </c>
       <c r="K108">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="L108" s="4">
-        <v>5.6067369999999999</v>
+        <v>8.3866175999999992</v>
       </c>
       <c r="M108" s="4">
-        <v>241.64123934033074</v>
+        <v>241.67698907037897</v>
       </c>
       <c r="N108" s="4">
-        <v>0.22965108555217975</v>
+        <v>0.22970605369639702</v>
       </c>
       <c r="O108" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_107_Ca126TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_107_Ca126TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P108" t="s">
@@ -6354,19 +6356,19 @@
         <v>23</v>
       </c>
       <c r="K109">
-        <v>1146</v>
+        <v>1151</v>
       </c>
       <c r="L109" s="4">
-        <v>7.4408583000000004</v>
+        <v>9.9351637000000004</v>
       </c>
       <c r="M109" s="4">
-        <v>74.34646955905535</v>
+        <v>74.345669804845159</v>
       </c>
       <c r="N109" s="4">
-        <v>-0.3371600409786864</v>
+        <v>-0.33709944949486353</v>
       </c>
       <c r="O109" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_108_Ca126TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_108_Ca126TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P109" t="s">
@@ -6405,19 +6407,19 @@
         <v>23</v>
       </c>
       <c r="K110">
-        <v>1045</v>
+        <v>1054</v>
       </c>
       <c r="L110" s="4">
-        <v>6.9306777000000004</v>
+        <v>9.1840329999999994</v>
       </c>
       <c r="M110" s="4">
-        <v>241.07161291546092</v>
+        <v>241.0760444074788</v>
       </c>
       <c r="N110" s="4">
-        <v>0.22864421126241821</v>
+        <v>0.22859326637382041</v>
       </c>
       <c r="O110" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_109_Ca127TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_109_Ca127TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P110" t="s">
@@ -6456,19 +6458,19 @@
         <v>23</v>
       </c>
       <c r="K111">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="L111" s="4">
-        <v>6.4534228000000002</v>
+        <v>10.129682600000001</v>
       </c>
       <c r="M111" s="4">
-        <v>74.197676663171563</v>
+        <v>74.198096920355738</v>
       </c>
       <c r="N111" s="4">
-        <v>-0.33469334572616805</v>
+        <v>-0.33384949360960703</v>
       </c>
       <c r="O111" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_110_Ca127TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_110_Ca127TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P111" t="s">
@@ -6507,19 +6509,19 @@
         <v>23</v>
       </c>
       <c r="K112">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="L112" s="4">
-        <v>17.365305800000002</v>
+        <v>26.710343699999999</v>
       </c>
       <c r="M112" s="4">
-        <v>411.43994389134639</v>
+        <v>411.42292058095654</v>
       </c>
       <c r="N112" s="4">
-        <v>1.5691641814940522</v>
+        <v>1.5735214053945898</v>
       </c>
       <c r="O112" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_111_Ca140TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_111_Ca140TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P112" t="s">
@@ -6558,19 +6560,19 @@
         <v>23</v>
       </c>
       <c r="K113">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L113" s="4">
-        <v>13.8787567</v>
+        <v>22.1192384</v>
       </c>
       <c r="M113" s="4">
-        <v>157.2399023027921</v>
+        <v>157.23227016772086</v>
       </c>
       <c r="N113" s="4">
-        <v>-0.56583799273803814</v>
+        <v>-0.56199942079189091</v>
       </c>
       <c r="O113" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_112_Ca140TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_112_Ca140TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P113" t="s">
@@ -6609,19 +6611,19 @@
         <v>23</v>
       </c>
       <c r="K114">
-        <v>973</v>
+        <v>980</v>
       </c>
       <c r="L114" s="4">
-        <v>15.6983175</v>
+        <v>24.015474900000001</v>
       </c>
       <c r="M114" s="4">
-        <v>411.79628623521728</v>
+        <v>411.82456944657048</v>
       </c>
       <c r="N114" s="4">
-        <v>1.5898157991683091</v>
+        <v>1.5772490986473817</v>
       </c>
       <c r="O114" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_113_Ca142TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_113_Ca142TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P114" t="s">
@@ -6663,16 +6665,16 @@
         <v>1103</v>
       </c>
       <c r="L115" s="4">
-        <v>15.082187899999999</v>
+        <v>24.043579099999999</v>
       </c>
       <c r="M115" s="4">
-        <v>157.33547862693121</v>
+        <v>157.34428286152561</v>
       </c>
       <c r="N115" s="4">
-        <v>-0.57342739868408943</v>
+        <v>-0.57506727799735535</v>
       </c>
       <c r="O115" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_114_Ca142TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_114_Ca142TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P115" t="s">
@@ -6711,19 +6713,19 @@
         <v>23</v>
       </c>
       <c r="K116">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="L116" s="4">
-        <v>13.054496</v>
+        <v>19.670410700000001</v>
       </c>
       <c r="M116" s="4">
-        <v>96.662455539786777</v>
+        <v>96.621281319859207</v>
       </c>
       <c r="N116" s="4">
-        <v>-4.2126675746220386E-2</v>
+        <v>-4.199088334109486E-2</v>
       </c>
       <c r="O116" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_115_Ca145TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_115_Ca145TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P116" t="s">
@@ -6762,19 +6764,19 @@
         <v>23</v>
       </c>
       <c r="K117">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="L117" s="4">
-        <v>16.111172700000001</v>
+        <v>25.381694400000001</v>
       </c>
       <c r="M117" s="4">
-        <v>25.165674722110261</v>
+        <v>25.165733510720507</v>
       </c>
       <c r="N117" s="4">
-        <v>-5.1686031953333454E-2</v>
+        <v>-5.1650230513548917E-2</v>
       </c>
       <c r="O117" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_116_Ca145TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_116_Ca145TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P117" t="s">
@@ -6813,19 +6815,19 @@
         <v>23</v>
       </c>
       <c r="K118">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L118" s="4">
-        <v>10.667003599999999</v>
+        <v>13.667909399999999</v>
       </c>
       <c r="M118" s="4">
-        <v>115.11151908343714</v>
+        <v>115.11079903440503</v>
       </c>
       <c r="N118" s="4">
-        <v>0.5350548340116662</v>
+        <v>0.53507480448651623</v>
       </c>
       <c r="O118" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_117_Ca146TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_117_Ca146TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P118" t="s">
@@ -6864,19 +6866,19 @@
         <v>23</v>
       </c>
       <c r="K119">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="L119" s="4">
-        <v>11.179571599999999</v>
+        <v>18.445994299999999</v>
       </c>
       <c r="M119" s="4">
-        <v>35.869373198004716</v>
+        <v>35.870247615159087</v>
       </c>
       <c r="N119" s="4">
-        <v>-3.0855079245616868E-2</v>
+        <v>-3.0731152661122411E-2</v>
       </c>
       <c r="O119" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_118_Ca146TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_118_Ca146TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P119" t="s">
@@ -6915,19 +6917,19 @@
         <v>23</v>
       </c>
       <c r="K120">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L120" s="4">
-        <v>10.687258399999999</v>
+        <v>13.6487164</v>
       </c>
       <c r="M120" s="4">
-        <v>115.11151908343714</v>
+        <v>115.11079903440503</v>
       </c>
       <c r="N120" s="4">
-        <v>0.5350548340116662</v>
+        <v>0.53507480448651623</v>
       </c>
       <c r="O120" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_119_Ca146TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_119_Ca146TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P120" t="s">
@@ -6966,19 +6968,19 @@
         <v>23</v>
       </c>
       <c r="K121">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="L121" s="4">
-        <v>11.241357799999999</v>
+        <v>18.321285100000001</v>
       </c>
       <c r="M121" s="4">
-        <v>35.869373198004716</v>
+        <v>35.870247615159087</v>
       </c>
       <c r="N121" s="4">
-        <v>-3.0855079245616868E-2</v>
+        <v>-3.0731152661122411E-2</v>
       </c>
       <c r="O121" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_120_Ca146TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_120_Ca146TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P121" t="s">
@@ -7017,19 +7019,19 @@
         <v>23</v>
       </c>
       <c r="K122">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L122" s="4">
-        <v>20.698549499999999</v>
+        <v>27.5353441</v>
       </c>
       <c r="M122" s="4">
-        <v>183.1385299871948</v>
+        <v>183.12277574446932</v>
       </c>
       <c r="N122" s="4">
-        <v>0.30740922536630882</v>
+        <v>0.30566047139092584</v>
       </c>
       <c r="O122" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_121_Ca161TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_121_Ca161TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P122" t="s">
@@ -7068,19 +7070,19 @@
         <v>23</v>
       </c>
       <c r="K123">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="L123" s="4">
-        <v>23.090214599999999</v>
+        <v>30.998337100000001</v>
       </c>
       <c r="M123" s="4">
-        <v>157.05463466659529</v>
+        <v>157.0510439944114</v>
       </c>
       <c r="N123" s="4">
-        <v>-0.57328834463066891</v>
+        <v>-0.55541611440661576</v>
       </c>
       <c r="O123" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_122_Ca161TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_122_Ca161TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P123" t="s">
@@ -7119,19 +7121,19 @@
         <v>23</v>
       </c>
       <c r="K124">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="L124" s="4">
-        <v>22.724505700000002</v>
+        <v>30.2926289</v>
       </c>
       <c r="M124" s="4">
-        <v>282.36878421823286</v>
+        <v>282.3688708637394</v>
       </c>
       <c r="N124" s="4">
-        <v>0.73333848598337403</v>
+        <v>0.7333815644077053</v>
       </c>
       <c r="O124" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_123_Ca163TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_123_Ca163TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P124" t="s">
@@ -7170,19 +7172,19 @@
         <v>23</v>
       </c>
       <c r="K125">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="L125" s="4">
-        <v>25.002227999999999</v>
+        <v>40.423363199999997</v>
       </c>
       <c r="M125" s="4">
-        <v>260.89076033313501</v>
+        <v>260.88434260786642</v>
       </c>
       <c r="N125" s="4">
-        <v>-0.44052064475212588</v>
+        <v>-0.43234851850765904</v>
       </c>
       <c r="O125" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_124_Ca163TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_124_Ca163TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P125" t="s">
@@ -7221,19 +7223,19 @@
         <v>23</v>
       </c>
       <c r="K126">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="L126" s="4">
-        <v>19.506843199999999</v>
+        <v>21.545001200000002</v>
       </c>
       <c r="M126" s="4">
-        <v>313.20816812667243</v>
+        <v>313.20441498818104</v>
       </c>
       <c r="N126" s="4">
-        <v>1.5291435344814343E-4</v>
+        <v>-5.3452395736832043E-4</v>
       </c>
       <c r="O126" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_125_Ca184TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_125_Ca184TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P126" t="s">
@@ -7272,19 +7274,19 @@
         <v>23</v>
       </c>
       <c r="K127">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="L127" s="4">
-        <v>16.161221699999999</v>
+        <v>18.7048421</v>
       </c>
       <c r="M127" s="4">
-        <v>112.44333081299311</v>
+        <v>112.44211772974815</v>
       </c>
       <c r="N127" s="4">
-        <v>-0.19957904970453647</v>
+        <v>-0.20264487071499523</v>
       </c>
       <c r="O127" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_126_Ca184TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_126_Ca184TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P127" t="s">
@@ -7323,19 +7325,19 @@
         <v>23</v>
       </c>
       <c r="K128">
-        <v>828</v>
+        <v>776</v>
       </c>
       <c r="L128" s="4">
-        <v>14.9900723</v>
+        <v>17.477619499999999</v>
       </c>
       <c r="M128" s="4">
-        <v>381.81587083882511</v>
+        <v>253.23651244694821</v>
       </c>
       <c r="N128" s="4">
-        <v>-2.8642016000723913E-5</v>
+        <v>4.2308874363818916E-3</v>
       </c>
       <c r="O128" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_127_Ca012TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_127_Ca012TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P128" t="s">
@@ -7374,19 +7376,19 @@
         <v>23</v>
       </c>
       <c r="K129">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="L129" s="4">
-        <v>19.153390600000002</v>
+        <v>22.418566299999998</v>
       </c>
       <c r="M129" s="4">
-        <v>75.695097292580172</v>
+        <v>75.694920450121458</v>
       </c>
       <c r="N129" s="4">
-        <v>0.76556561609180662</v>
+        <v>0.76550172202538969</v>
       </c>
       <c r="O129" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_128_Ca012TrN_MaIPA_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_128_Ca012TrN_MaIPA_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P129" t="s">
@@ -7425,19 +7427,19 @@
         <v>23</v>
       </c>
       <c r="K130">
-        <v>801</v>
+        <v>743</v>
       </c>
       <c r="L130" s="4">
-        <v>17.789704499999999</v>
+        <v>21.027396100000001</v>
       </c>
       <c r="M130" s="4">
-        <v>383.23455522728136</v>
+        <v>256.03922919551923</v>
       </c>
       <c r="N130" s="4">
-        <v>1.3374388107427748E-3</v>
+        <v>-4.6981768695513182E-3</v>
       </c>
       <c r="O130" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_129_Ca142TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_129_Ca142TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P130" t="s">
@@ -7476,19 +7478,19 @@
         <v>23</v>
       </c>
       <c r="K131">
-        <v>1572</v>
+        <v>2037</v>
       </c>
       <c r="L131" s="4">
-        <v>41.623244100000001</v>
+        <v>110.2987823</v>
       </c>
       <c r="M131" s="4">
-        <v>85.068052973352877</v>
+        <v>85.060079912224552</v>
       </c>
       <c r="N131" s="4">
-        <v>0.82143547180046739</v>
+        <v>0.83609719593967247</v>
       </c>
       <c r="O131" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_130_Ca142TrN_MaIPA_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_130_Ca142TrN_MaIPA_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P131" t="s">
@@ -7527,19 +7529,19 @@
         <v>23</v>
       </c>
       <c r="K132">
-        <v>520</v>
+        <v>474</v>
       </c>
       <c r="L132" s="4">
-        <v>20.1105631</v>
+        <v>28.085453000000001</v>
       </c>
       <c r="M132" s="4">
-        <v>372.20354886588302</v>
+        <v>253.78939275409476</v>
       </c>
       <c r="N132" s="4">
-        <v>1.4090698524791279E-3</v>
+        <v>4.7110242154493776E-2</v>
       </c>
       <c r="O132" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_131_Ca145TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_131_Ca145TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P132" t="s">
@@ -7578,19 +7580,19 @@
         <v>23</v>
       </c>
       <c r="K133">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L133" s="4">
-        <v>14.7468428</v>
+        <v>18.234441100000002</v>
       </c>
       <c r="M133" s="4">
-        <v>28.272713761909301</v>
+        <v>28.272690631193733</v>
       </c>
       <c r="N133" s="4">
-        <v>1.5548265108026985E-2</v>
+        <v>1.5548811045979518E-2</v>
       </c>
       <c r="O133" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_132_Ca145TrN_MaIPA_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_132_Ca145TrN_MaIPA_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P133" t="s">
@@ -7629,19 +7631,19 @@
         <v>23</v>
       </c>
       <c r="K134">
-        <v>470</v>
+        <v>418</v>
       </c>
       <c r="L134" s="4">
-        <v>11.324622</v>
+        <v>17.559147899999999</v>
       </c>
       <c r="M134" s="4">
-        <v>370.246261317544</v>
+        <v>253.84542970242683</v>
       </c>
       <c r="N134" s="4">
-        <v>-1.5045424150983422E-6</v>
+        <v>1.2993282551607699E-2</v>
       </c>
       <c r="O134" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_133_Ca184TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_133_Ca184TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P134" t="s">
@@ -7683,16 +7685,16 @@
         <v>375</v>
       </c>
       <c r="L135" s="4">
-        <v>15.690039499999999</v>
+        <v>19.937604199999999</v>
       </c>
       <c r="M135" s="4">
-        <v>61.825138185713087</v>
+        <v>61.810603218469637</v>
       </c>
       <c r="N135" s="4">
-        <v>0.56400296068770284</v>
+        <v>0.55694760204058247</v>
       </c>
       <c r="O135" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_134_Ca184TrN_MaIPA_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_134_Ca184TrN_MaIPA_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P135" t="s">
@@ -7731,19 +7733,19 @@
         <v>23</v>
       </c>
       <c r="K136">
-        <v>2007</v>
+        <v>1928</v>
       </c>
       <c r="L136" s="4">
-        <v>45.505839100000003</v>
+        <v>53.159435600000002</v>
       </c>
       <c r="M136" s="4">
-        <v>337.60905704156403</v>
+        <v>256.03780076397476</v>
       </c>
       <c r="N136" s="4">
-        <v>1.4529794220381476E-3</v>
+        <v>1.3886126217199646E-2</v>
       </c>
       <c r="O136" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_135_Ca204TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_135_Ca204TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P136" t="s">
@@ -7782,19 +7784,19 @@
         <v>23</v>
       </c>
       <c r="K137">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="L137" s="4">
-        <v>17.099941699999999</v>
+        <v>23.222662499999998</v>
       </c>
       <c r="M137" s="4">
-        <v>26.038549295500125</v>
+        <v>26.03959368665377</v>
       </c>
       <c r="N137" s="4">
-        <v>9.6710687165359483E-3</v>
+        <v>9.6811360663843164E-3</v>
       </c>
       <c r="O137" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_136_Ca204TrN_MaIPA_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_136_Ca204TrN_MaIPA_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P137" t="s">
@@ -7833,19 +7835,19 @@
         <v>23</v>
       </c>
       <c r="K138">
-        <v>2953</v>
+        <v>2685</v>
       </c>
       <c r="L138" s="4">
-        <v>27.827125299999999</v>
+        <v>51.224988799999998</v>
       </c>
       <c r="M138" s="4">
-        <v>-13.847780190946471</v>
+        <v>-1.1837565938708841E-2</v>
       </c>
       <c r="N138" s="4">
-        <v>-0.33308552287417342</v>
+        <v>-0.62259507912609391</v>
       </c>
       <c r="O138" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_137_Ca012TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_137_Ca012TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P138" t="s">
@@ -7884,19 +7886,19 @@
         <v>23</v>
       </c>
       <c r="K139">
-        <v>3395</v>
+        <v>3120</v>
       </c>
       <c r="L139" s="4">
-        <v>36.756598400000001</v>
+        <v>59.619787000000002</v>
       </c>
       <c r="M139" s="4">
-        <v>5.000592858738159</v>
+        <v>0.78832204379640736</v>
       </c>
       <c r="N139" s="4">
-        <v>-0.40453936201744167</v>
+        <v>-0.32256564547211203</v>
       </c>
       <c r="O139" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_138_Ca012TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_138_Ca012TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P139" t="s">
@@ -7935,19 +7937,19 @@
         <v>23</v>
       </c>
       <c r="K140">
-        <v>2655</v>
+        <v>2497</v>
       </c>
       <c r="L140" s="4">
-        <v>35.589028499999998</v>
+        <v>63.095384199999998</v>
       </c>
       <c r="M140" s="4">
-        <v>-13.852761223322524</v>
+        <v>-1.9361461714800271E-2</v>
       </c>
       <c r="N140" s="4">
-        <v>-0.25473891610582267</v>
+        <v>-0.54618125145453544</v>
       </c>
       <c r="O140" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_139_Ca142TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_139_Ca142TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P140" t="s">
@@ -7986,19 +7988,19 @@
         <v>23</v>
       </c>
       <c r="K141">
-        <v>3282</v>
+        <v>3108</v>
       </c>
       <c r="L141" s="4">
-        <v>50.657863800000001</v>
+        <v>90.516261900000003</v>
       </c>
       <c r="M141" s="4">
-        <v>5.0170096680227285</v>
+        <v>0.7894010475487967</v>
       </c>
       <c r="N141" s="4">
-        <v>-0.46646649611267138</v>
+        <v>-0.36555638132894869</v>
       </c>
       <c r="O141" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_140_Ca142TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_140_Ca142TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P141" t="s">
@@ -8037,19 +8039,19 @@
         <v>23</v>
       </c>
       <c r="K142">
-        <v>3165</v>
+        <v>2864</v>
       </c>
       <c r="L142" s="4">
-        <v>16.1474513</v>
+        <v>24.587486999999999</v>
       </c>
       <c r="M142" s="4">
-        <v>-13.85312220470154</v>
+        <v>-1.8395236396054518E-2</v>
       </c>
       <c r="N142" s="4">
-        <v>-0.24101031236362253</v>
+        <v>-0.5249310473743829</v>
       </c>
       <c r="O142" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_141_Ca116TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_141_Ca116TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P142" t="s">
@@ -8088,19 +8090,19 @@
         <v>23</v>
       </c>
       <c r="K143">
-        <v>3621</v>
+        <v>3376</v>
       </c>
       <c r="L143" s="4">
-        <v>15.357768500000001</v>
+        <v>25.981211600000002</v>
       </c>
       <c r="M143" s="4">
-        <v>5.0105878261450005</v>
+        <v>0.78025910821920341</v>
       </c>
       <c r="N143" s="4">
-        <v>-0.45273710284093371</v>
+        <v>-0.35483824825674681</v>
       </c>
       <c r="O143" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_142_Ca116TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_142_Ca116TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P143" t="s">
@@ -8139,19 +8141,19 @@
         <v>23</v>
       </c>
       <c r="K144">
-        <v>3018</v>
+        <v>2717</v>
       </c>
       <c r="L144" s="4">
-        <v>55.160009500000001</v>
+        <v>92.610567500000002</v>
       </c>
       <c r="M144" s="4">
-        <v>-13.853555083457415</v>
+        <v>-1.6313492290539119E-2</v>
       </c>
       <c r="N144" s="4">
-        <v>-0.16311856120337181</v>
+        <v>-0.3905984016467981</v>
       </c>
       <c r="O144" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_143_Ca143TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_143_Ca143TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P144" t="s">
@@ -8190,19 +8192,19 @@
         <v>23</v>
       </c>
       <c r="K145">
-        <v>3266</v>
+        <v>2888</v>
       </c>
       <c r="L145" s="4">
-        <v>76.882893699999997</v>
+        <v>113.4023607</v>
       </c>
       <c r="M145" s="4">
-        <v>5.0225784026237257</v>
+        <v>0.78777316237295203</v>
       </c>
       <c r="N145" s="4">
-        <v>-0.33110364967076472</v>
+        <v>-0.25826051612091527</v>
       </c>
       <c r="O145" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_144_Ca143TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_144_Ca143TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P145" t="s">
@@ -8241,19 +8243,19 @@
         <v>23</v>
       </c>
       <c r="K146">
-        <v>3447</v>
+        <v>3185</v>
       </c>
       <c r="L146" s="4">
-        <v>54.497166999999997</v>
+        <v>81.506679700000007</v>
       </c>
       <c r="M146" s="4">
-        <v>-13.852593208227145</v>
+        <v>-1.8160470998950226E-2</v>
       </c>
       <c r="N146" s="4">
-        <v>-0.25690907564163867</v>
+        <v>-0.55565160255278079</v>
       </c>
       <c r="O146" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_145_Ca166TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_145_Ca166TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P146" t="s">
@@ -8292,19 +8294,19 @@
         <v>23</v>
       </c>
       <c r="K147">
-        <v>3671</v>
+        <v>3573</v>
       </c>
       <c r="L147" s="4">
-        <v>50.602027700000001</v>
+        <v>92.9802277</v>
       </c>
       <c r="M147" s="4">
-        <v>5.0168395402363979</v>
+        <v>0.78810495170153239</v>
       </c>
       <c r="N147" s="4">
-        <v>-0.45410367823400466</v>
+        <v>-0.35644925298655672</v>
       </c>
       <c r="O147" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_146_Ca166TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_146_Ca166TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P147" t="s">
@@ -8343,19 +8345,19 @@
         <v>23</v>
       </c>
       <c r="K148">
-        <v>3441</v>
+        <v>3134</v>
       </c>
       <c r="L148" s="4">
-        <v>41.9723848</v>
+        <v>70.729991499999997</v>
       </c>
       <c r="M148" s="4">
-        <v>-13.853604127725001</v>
+        <v>-3.9107908703678307E-3</v>
       </c>
       <c r="N148" s="4">
-        <v>-0.25700541810540156</v>
+        <v>-0.55683018060213507</v>
       </c>
       <c r="O148" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_147_Ca169TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_147_Ca169TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P148" t="s">
@@ -8394,19 +8396,19 @@
         <v>23</v>
       </c>
       <c r="K149">
-        <v>3471</v>
+        <v>3347</v>
       </c>
       <c r="L149" s="4">
-        <v>49.025756000000001</v>
+        <v>74.078198599999993</v>
       </c>
       <c r="M149" s="4">
-        <v>5.0020229494052355</v>
+        <v>0.77697472949878055</v>
       </c>
       <c r="N149" s="4">
-        <v>-0.45302286559600791</v>
+        <v>-0.35561605995708867</v>
       </c>
       <c r="O149" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_148_Ca169TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_148_Ca169TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P149" t="s">
@@ -8445,19 +8447,19 @@
         <v>23</v>
       </c>
       <c r="K150">
-        <v>2348</v>
+        <v>2060</v>
       </c>
       <c r="L150" s="4">
-        <v>60.278018500000002</v>
+        <v>80.042139500000005</v>
       </c>
       <c r="M150" s="4">
-        <v>-13.849935576243402</v>
+        <v>-2.2009728382925836E-2</v>
       </c>
       <c r="N150" s="4">
-        <v>-0.36630748479045161</v>
+        <v>-0.69906679963960561</v>
       </c>
       <c r="O150" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_149_Ca184TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_149_Ca184TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P150" t="s">
@@ -8496,19 +8498,19 @@
         <v>23</v>
       </c>
       <c r="K151">
-        <v>2388</v>
+        <v>2130</v>
       </c>
       <c r="L151" s="4">
-        <v>60.168224100000003</v>
+        <v>76.972593599999996</v>
       </c>
       <c r="M151" s="4">
-        <v>4.9938978962090852</v>
+        <v>0.78314765000374287</v>
       </c>
       <c r="N151" s="4">
-        <v>-0.41836330742668348</v>
+        <v>-0.32963076107572326</v>
       </c>
       <c r="O151" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_150_Ca184TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_150_Ca184TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P151" t="s">
@@ -8547,19 +8549,19 @@
         <v>23</v>
       </c>
       <c r="K152">
-        <v>3424</v>
+        <v>3153</v>
       </c>
       <c r="L152" s="4">
-        <v>35.276426700000002</v>
+        <v>70.001039800000001</v>
       </c>
       <c r="M152" s="4">
-        <v>-13.853917740408715</v>
+        <v>1.1172981017465319E-2</v>
       </c>
       <c r="N152" s="4">
-        <v>-0.2570093529255052</v>
+        <v>-0.55714377165082973</v>
       </c>
       <c r="O152" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_151_Ca195TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_151_Ca195TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P152" t="s">
@@ -8598,19 +8600,19 @@
         <v>23</v>
       </c>
       <c r="K153">
-        <v>3449</v>
+        <v>3374</v>
       </c>
       <c r="L153" s="4">
-        <v>45.838313200000002</v>
+        <v>71.022775800000005</v>
       </c>
       <c r="M153" s="4">
-        <v>5.0188513440708675</v>
+        <v>0.7885857294095846</v>
       </c>
       <c r="N153" s="4">
-        <v>-0.45307309891259506</v>
+        <v>-0.35565670730462978</v>
       </c>
       <c r="O153" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_152_Ca195TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_152_Ca195TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P153" t="s">
@@ -8649,19 +8651,19 @@
         <v>23</v>
       </c>
       <c r="K154">
-        <v>2387</v>
+        <v>2092</v>
       </c>
       <c r="L154" s="4">
-        <v>31.1607068</v>
+        <v>49.285857800000002</v>
       </c>
       <c r="M154" s="4">
-        <v>-13.85129212014373</v>
+        <v>-1.8006373892441002E-2</v>
       </c>
       <c r="N154" s="4">
-        <v>-0.36671084073033194</v>
+        <v>-0.69924893526274967</v>
       </c>
       <c r="O154" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_153_Ca198TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_153_Ca198TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P154" t="s">
@@ -8700,19 +8702,19 @@
         <v>23</v>
       </c>
       <c r="K155">
-        <v>2404</v>
+        <v>2175</v>
       </c>
       <c r="L155" s="4">
-        <v>38.571010800000003</v>
+        <v>59.161809599999998</v>
       </c>
       <c r="M155" s="4">
-        <v>5.0186858710120781</v>
+        <v>0.7561467351083806</v>
       </c>
       <c r="N155" s="4">
-        <v>-0.41847614762462138</v>
+        <v>-0.3294520519075736</v>
       </c>
       <c r="O155" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_154_Ca198TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_154_Ca198TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P155" t="s">
@@ -8751,19 +8753,19 @@
         <v>23</v>
       </c>
       <c r="K156">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="L156" s="4">
-        <v>12.288364</v>
+        <v>19.8261234</v>
       </c>
       <c r="M156" s="4">
-        <v>73.394344531417474</v>
+        <v>73.384885323356471</v>
       </c>
       <c r="N156" s="4">
-        <v>-0.84672947879271887</v>
+        <v>-0.84635703335886259</v>
       </c>
       <c r="O156" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_155_Ca151TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_155_Ca151TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P156" t="s">
@@ -8802,19 +8804,19 @@
         <v>23</v>
       </c>
       <c r="K157">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="L157" s="4">
-        <v>13.3832521</v>
+        <v>19.141537599999999</v>
       </c>
       <c r="M157" s="4">
-        <v>71.752365266088034</v>
+        <v>71.749963591552799</v>
       </c>
       <c r="N157" s="4">
-        <v>-0.54378686888942385</v>
+        <v>-0.54337587606077187</v>
       </c>
       <c r="O157" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_156_Ca152TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_156_Ca152TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P157" t="s">
@@ -8853,19 +8855,19 @@
         <v>23</v>
       </c>
       <c r="K158">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="L158" s="4">
-        <v>13.6866827</v>
+        <v>21.9444047</v>
       </c>
       <c r="M158" s="4">
-        <v>71.597114022628929</v>
+        <v>71.600606051095994</v>
       </c>
       <c r="N158" s="4">
-        <v>-0.88815958543458584</v>
+        <v>-0.89280629375348408</v>
       </c>
       <c r="O158" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_157_Ca153TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_157_Ca153TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P158" t="s">
@@ -8904,19 +8906,19 @@
         <v>23</v>
       </c>
       <c r="K159">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="L159" s="4">
-        <v>19.383468499999999</v>
+        <v>24.335893200000001</v>
       </c>
       <c r="M159" s="4">
-        <v>71.792182760424197</v>
+        <v>71.784160906135085</v>
       </c>
       <c r="N159" s="4">
-        <v>-0.36059864001295194</v>
+        <v>-0.36835476550276547</v>
       </c>
       <c r="O159" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_158_Ca154TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_158_Ca154TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P159" t="s">
@@ -8955,19 +8957,19 @@
         <v>23</v>
       </c>
       <c r="K160">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="L160" s="4">
-        <v>23.273140900000001</v>
+        <v>28.002200299999998</v>
       </c>
       <c r="M160" s="4">
-        <v>71.629907558251602</v>
+        <v>71.629510684849791</v>
       </c>
       <c r="N160" s="4">
-        <v>-0.8657669769635884</v>
+        <v>-0.86811113637915738</v>
       </c>
       <c r="O160" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_159_Ca155TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_159_Ca155TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P160" t="s">
@@ -9009,7 +9011,7 @@
         <v>3246</v>
       </c>
       <c r="L161" s="4">
-        <v>11.0674621</v>
+        <v>14.313876799999999</v>
       </c>
       <c r="M161" s="4">
         <v>234.09520337872848</v>
@@ -9018,7 +9020,7 @@
         <v>1.5597601237183302E-2</v>
       </c>
       <c r="O161" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_160_Ca004TrN_MaWOT_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_160_Ca004TrN_MaWOT_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P161" t="s">
@@ -9060,7 +9062,7 @@
         <v>2564</v>
       </c>
       <c r="L162" s="4">
-        <v>8.7272876999999998</v>
+        <v>11.4285935</v>
       </c>
       <c r="M162" s="4">
         <v>72.060968646483076</v>
@@ -9069,7 +9071,7 @@
         <v>-0.55315112787421983</v>
       </c>
       <c r="O162" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_161_Ca004TrN_MaLSS_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_161_Ca004TrN_MaLSS_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P162" t="s">
@@ -9111,7 +9113,7 @@
         <v>2562</v>
       </c>
       <c r="L163" s="4">
-        <v>8.8872687999999993</v>
+        <v>11.4412859</v>
       </c>
       <c r="M163" s="4">
         <v>64.366272556222512</v>
@@ -9120,7 +9122,7 @@
         <v>-25.53945015042936</v>
       </c>
       <c r="O163" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_162_Ca004TrN_MaTUR_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_162_Ca004TrN_MaTUR_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P163" t="s">
@@ -9162,16 +9164,16 @@
         <v>3244</v>
       </c>
       <c r="L164" s="4">
-        <v>4.5610920000000004</v>
+        <v>6.4326942000000003</v>
       </c>
       <c r="M164" s="4">
-        <v>242.70379428436041</v>
+        <v>242.7037948432378</v>
       </c>
       <c r="N164" s="4">
-        <v>0.23327324309701689</v>
+        <v>0.23327776653692373</v>
       </c>
       <c r="O164" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_163_Ca116TrN_MaWOT_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_163_Ca116TrN_MaWOT_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P164" t="s">
@@ -9213,16 +9215,16 @@
         <v>2564</v>
       </c>
       <c r="L165" s="4">
-        <v>3.8040864000000001</v>
+        <v>5.2482170999999997</v>
       </c>
       <c r="M165" s="4">
-        <v>74.659491982450774</v>
+        <v>74.659492311694123</v>
       </c>
       <c r="N165" s="4">
-        <v>-0.34093758006291858</v>
+        <v>-0.34093734199840481</v>
       </c>
       <c r="O165" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_164_Ca116TrN_MaLSS_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_164_Ca116TrN_MaLSS_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P165" t="s">
@@ -9264,16 +9266,16 @@
         <v>2563</v>
       </c>
       <c r="L166" s="4">
-        <v>3.4110467999999998</v>
+        <v>5.2774473000000004</v>
       </c>
       <c r="M166" s="4">
-        <v>71.32397117118802</v>
+        <v>71.323971743789272</v>
       </c>
       <c r="N166" s="4">
-        <v>-17.591551103430934</v>
+        <v>-17.591550619340072</v>
       </c>
       <c r="O166" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_165_Ca116TrN_MaTUR_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_165_Ca116TrN_MaTUR_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P166" t="s">
@@ -9315,16 +9317,16 @@
         <v>3244</v>
       </c>
       <c r="L167" s="4">
-        <v>2.5235479000000001</v>
+        <v>3.9372714000000002</v>
       </c>
       <c r="M167" s="4">
-        <v>242.88013068819623</v>
+        <v>242.88013077767147</v>
       </c>
       <c r="N167" s="4">
-        <v>0.23307974035338433</v>
+        <v>0.23308389744189009</v>
       </c>
       <c r="O167" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_166_Ca124TrN_MaWOT_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_166_Ca124TrN_MaWOT_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P167" t="s">
@@ -9366,16 +9368,16 @@
         <v>2565</v>
       </c>
       <c r="L168" s="4">
-        <v>2.1294591999999999</v>
+        <v>3.2007550999999999</v>
       </c>
       <c r="M168" s="4">
-        <v>74.798394612599097</v>
+        <v>74.79839484160884</v>
       </c>
       <c r="N168" s="4">
-        <v>-0.34251622055333664</v>
+        <v>-0.34251601798099268</v>
       </c>
       <c r="O168" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_167_Ca124TrN_MaLSS_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_167_Ca124TrN_MaLSS_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P168" t="s">
@@ -9417,16 +9419,16 @@
         <v>2564</v>
       </c>
       <c r="L169" s="4">
-        <v>1.9163796</v>
+        <v>3.0856474999999999</v>
       </c>
       <c r="M169" s="4">
-        <v>71.449352968456878</v>
+        <v>71.449353366816283</v>
       </c>
       <c r="N169" s="4">
-        <v>-17.63759605520924</v>
+        <v>-17.637595535249076</v>
       </c>
       <c r="O169" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_168_Ca124TrN_MaTUR_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_168_Ca124TrN_MaTUR_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P169" t="s">
@@ -9468,7 +9470,7 @@
         <v>3833</v>
       </c>
       <c r="L170" s="4">
-        <v>12.6431825</v>
+        <v>19.4550725</v>
       </c>
       <c r="M170" s="4">
         <v>411.77327955286199</v>
@@ -9477,7 +9479,7 @@
         <v>1.5228309409456255</v>
       </c>
       <c r="O170" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_169_Ca141TrN_MaWOT_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_169_Ca141TrN_MaWOT_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P170" t="s">
@@ -9519,7 +9521,7 @@
         <v>3192</v>
       </c>
       <c r="L171" s="4">
-        <v>10.471241900000001</v>
+        <v>16.6239861</v>
       </c>
       <c r="M171" s="4">
         <v>157.35652746778001</v>
@@ -9528,7 +9530,7 @@
         <v>-0.56383994623820011</v>
       </c>
       <c r="O171" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_170_Ca141TrN_MaLSS_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_170_Ca141TrN_MaLSS_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P171" t="s">
@@ -9570,7 +9572,7 @@
         <v>3160</v>
       </c>
       <c r="L172" s="4">
-        <v>12.6764128</v>
+        <v>16.286148799999999</v>
       </c>
       <c r="M172" s="4">
         <v>99.307823665682164</v>
@@ -9579,7 +9581,7 @@
         <v>-89.462983441218384</v>
       </c>
       <c r="O172" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_171_Ca141TrN_MaTUR_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_171_Ca141TrN_MaTUR_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P172" t="s">
@@ -9621,16 +9623,16 @@
         <v>2853</v>
       </c>
       <c r="L173" s="4">
-        <v>8.1511238000000006</v>
+        <v>12.421491899999999</v>
       </c>
       <c r="M173" s="4">
-        <v>96.995322014775226</v>
+        <v>96.995317808866005</v>
       </c>
       <c r="N173" s="4">
-        <v>-4.6573667052158575E-2</v>
+        <v>-4.6572432056864017E-2</v>
       </c>
       <c r="O173" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_172_Ca145TrN_MaWOT_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_172_Ca145TrN_MaWOT_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P173" t="s">
@@ -9672,16 +9674,16 @@
         <v>2382</v>
       </c>
       <c r="L174" s="4">
-        <v>8.0623179</v>
+        <v>10.328227099999999</v>
       </c>
       <c r="M174" s="4">
-        <v>25.42026532342183</v>
+        <v>25.420242271035665</v>
       </c>
       <c r="N174" s="4">
-        <v>-5.3207840803906344E-2</v>
+        <v>-5.3226525667028048E-2</v>
       </c>
       <c r="O174" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_173_Ca145TrN_MaLSS_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_173_Ca145TrN_MaLSS_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P174" t="s">
@@ -9720,19 +9722,19 @@
         <v>63</v>
       </c>
       <c r="K175">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="L175" s="4">
-        <v>8.1901081999999992</v>
+        <v>10.325935299999999</v>
       </c>
       <c r="M175" s="4">
-        <v>25.26694321471393</v>
+        <v>25.265468429135261</v>
       </c>
       <c r="N175" s="4">
-        <v>-2.6407447650070699</v>
+        <v>-2.6403870481787828</v>
       </c>
       <c r="O175" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_174_Ca145TrN_MaTUR_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_174_Ca145TrN_MaTUR_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P175" t="s">
@@ -9771,19 +9773,19 @@
         <v>63</v>
       </c>
       <c r="K176">
-        <v>2856</v>
+        <v>2858</v>
       </c>
       <c r="L176" s="4">
-        <v>10.8213396</v>
+        <v>13.9831208</v>
       </c>
       <c r="M176" s="4">
-        <v>97.744507729046816</v>
+        <v>97.748247127463486</v>
       </c>
       <c r="N176" s="4">
-        <v>-4.7359678244855444E-2</v>
+        <v>-4.7319025431749491E-2</v>
       </c>
       <c r="O176" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_175_Ca199TrN_MaWOT_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_175_Ca199TrN_MaWOT_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P176" t="s">
@@ -9822,19 +9824,19 @@
         <v>63</v>
       </c>
       <c r="K177">
-        <v>2383</v>
+        <v>2387</v>
       </c>
       <c r="L177" s="4">
-        <v>7.7897563999999999</v>
+        <v>11.7136496</v>
       </c>
       <c r="M177" s="4">
-        <v>26.056312107681578</v>
+        <v>26.058231617548497</v>
       </c>
       <c r="N177" s="4">
-        <v>-5.2693296890221342E-2</v>
+        <v>-5.2510469966298289E-2</v>
       </c>
       <c r="O177" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_176_Ca199TrN_MaLSS_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_176_Ca199TrN_MaLSS_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P177" t="s">
@@ -9873,19 +9875,19 @@
         <v>63</v>
       </c>
       <c r="K178">
-        <v>2382</v>
+        <v>2384</v>
       </c>
       <c r="L178" s="4">
-        <v>7.4739119000000001</v>
+        <v>11.680585499999999</v>
       </c>
       <c r="M178" s="4">
-        <v>25.894956540091155</v>
+        <v>25.895958283777475</v>
       </c>
       <c r="N178" s="4">
-        <v>-2.7238125714713917</v>
+        <v>-2.7241185591124433</v>
       </c>
       <c r="O178" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_177_Ca199TrN_MaTUR_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_177_Ca199TrN_MaTUR_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P178" t="s">
@@ -9924,19 +9926,19 @@
         <v>23</v>
       </c>
       <c r="K179">
-        <v>588</v>
+        <v>521</v>
       </c>
       <c r="L179" s="4">
-        <v>8.0066825999999995</v>
+        <v>13.715983400000001</v>
       </c>
       <c r="M179" s="4">
-        <v>383.26827927478541</v>
+        <v>254.10316752364764</v>
       </c>
       <c r="N179" s="4">
-        <v>1.3719896375405938E-3</v>
+        <v>-6.4185947421133704E-3</v>
       </c>
       <c r="O179" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_178_Ca139TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_178_Ca139TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P179" t="s">
@@ -9975,19 +9977,19 @@
         <v>23</v>
       </c>
       <c r="K180">
-        <v>1131</v>
+        <v>785</v>
       </c>
       <c r="L180" s="4">
-        <v>43.176418699999999</v>
+        <v>42.644250100000001</v>
       </c>
       <c r="M180" s="4">
-        <v>381.95828587759462</v>
+        <v>253.20512146639192</v>
       </c>
       <c r="N180" s="4">
-        <v>1.2744010786729376E-3</v>
+        <v>2.2547043892001462E-2</v>
       </c>
       <c r="O180" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_179_Ca139TrE_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_179_Ca139TrE_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P180" t="s">
@@ -10026,19 +10028,19 @@
         <v>23</v>
       </c>
       <c r="K181">
-        <v>941</v>
+        <v>800</v>
       </c>
       <c r="L181" s="4">
-        <v>32.458665400000001</v>
+        <v>36.4692066</v>
       </c>
       <c r="M181" s="4">
-        <v>382.97222710913877</v>
+        <v>254.76378647154615</v>
       </c>
       <c r="N181" s="4">
-        <v>1.2154287707657474E-3</v>
+        <v>-5.7985298065057478E-3</v>
       </c>
       <c r="O181" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_180_Ca139TrT_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_180_Ca139TrT_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P181" t="s">
@@ -10077,19 +10079,19 @@
         <v>23</v>
       </c>
       <c r="K182">
-        <v>844</v>
+        <v>773</v>
       </c>
       <c r="L182" s="4">
-        <v>18.346507800000001</v>
+        <v>31.211357700000001</v>
       </c>
       <c r="M182" s="4">
-        <v>382.38041686552509</v>
+        <v>253.60086184172297</v>
       </c>
       <c r="N182" s="4">
-        <v>1.4478252895449018E-3</v>
+        <v>1.3411250285655818E-2</v>
       </c>
       <c r="O182" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_181_Ca139TrE_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_181_Ca139TrE_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P182" t="s">
@@ -10128,19 +10130,19 @@
         <v>23</v>
       </c>
       <c r="K183">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="L183" s="4">
-        <v>10.381352400000001</v>
+        <v>16.0386919</v>
       </c>
       <c r="M183" s="4">
-        <v>381.88645796239723</v>
+        <v>254.24483161961206</v>
       </c>
       <c r="N183" s="4">
-        <v>-3.7156278581029767E-5</v>
+        <v>3.2022831227855875E-3</v>
       </c>
       <c r="O183" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_182_Ca002TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_182_Ca002TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P183" t="s">
@@ -10179,19 +10181,19 @@
         <v>23</v>
       </c>
       <c r="K184">
-        <v>837</v>
+        <v>772</v>
       </c>
       <c r="L184" s="4">
-        <v>26.3550285</v>
+        <v>38.738997599999998</v>
       </c>
       <c r="M184" s="4">
-        <v>381.04344376298428</v>
+        <v>253.52589839886917</v>
       </c>
       <c r="N184" s="4">
-        <v>-1.9967472298709765E-5</v>
+        <v>3.5906624897164008E-3</v>
       </c>
       <c r="O184" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_183_Ca002TrE_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_183_Ca002TrE_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P184" t="s">
@@ -10230,19 +10232,19 @@
         <v>23</v>
       </c>
       <c r="K185">
-        <v>995</v>
+        <v>947</v>
       </c>
       <c r="L185" s="4">
-        <v>31.098893700000001</v>
+        <v>47.095256900000003</v>
       </c>
       <c r="M185" s="4">
-        <v>381.63378410823077</v>
+        <v>254.1485819874859</v>
       </c>
       <c r="N185" s="4">
-        <v>-3.4239111084133356E-5</v>
+        <v>3.2598229001514767E-3</v>
       </c>
       <c r="O185" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_184_Ca002TrT_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_184_Ca002TrT_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P185" t="s">
@@ -10281,19 +10283,19 @@
         <v>23</v>
       </c>
       <c r="K186">
-        <v>844</v>
+        <v>786</v>
       </c>
       <c r="L186" s="4">
-        <v>19.4248832</v>
+        <v>27.21528</v>
       </c>
       <c r="M186" s="4">
-        <v>381.04374900775804</v>
+        <v>253.56372640107588</v>
       </c>
       <c r="N186" s="4">
-        <v>-2.0494662080317028E-5</v>
+        <v>3.5604071078818578E-3</v>
       </c>
       <c r="O186" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_185_Ca002TrE_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_185_Ca002TrE_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P186" t="s">
@@ -10332,19 +10334,19 @@
         <v>23</v>
       </c>
       <c r="K187">
-        <v>518</v>
+        <v>474</v>
       </c>
       <c r="L187" s="4">
-        <v>18.513922000000001</v>
+        <v>28.502102600000001</v>
       </c>
       <c r="M187" s="4">
-        <v>372.20353828539584</v>
+        <v>253.78939275409476</v>
       </c>
       <c r="N187" s="4">
-        <v>1.3703737203147881E-3</v>
+        <v>4.7110242154493776E-2</v>
       </c>
       <c r="O187" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_186_Ca145TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_186_Ca145TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P187" t="s">
@@ -10383,19 +10385,19 @@
         <v>23</v>
       </c>
       <c r="K188">
-        <v>617</v>
+        <v>560</v>
       </c>
       <c r="L188" s="4">
-        <v>35.600533599999999</v>
+        <v>51.520063499999999</v>
       </c>
       <c r="M188" s="4">
-        <v>370.93923755553857</v>
+        <v>254.25968334356605</v>
       </c>
       <c r="N188" s="4">
-        <v>1.3670428975922633E-3</v>
+        <v>4.5735808278453582E-2</v>
       </c>
       <c r="O188" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_187_Ca145TrE_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_187_Ca145TrE_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P188" t="s">
@@ -10434,19 +10436,19 @@
         <v>23</v>
       </c>
       <c r="K189">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="L189" s="4">
-        <v>37.265057900000002</v>
+        <v>58.486637700000003</v>
       </c>
       <c r="M189" s="4">
-        <v>371.81358713442904</v>
+        <v>253.66789204242559</v>
       </c>
       <c r="N189" s="4">
-        <v>1.3964537406421229E-3</v>
+        <v>4.7636376062293984E-2</v>
       </c>
       <c r="O189" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_188_Ca145TrT_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_188_Ca145TrT_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P189" t="s">
@@ -10485,19 +10487,19 @@
         <v>23</v>
       </c>
       <c r="K190">
-        <v>607</v>
+        <v>555</v>
       </c>
       <c r="L190" s="4">
-        <v>26.300594400000001</v>
+        <v>41.702853599999997</v>
       </c>
       <c r="M190" s="4">
-        <v>370.93938007984502</v>
+        <v>253.29832603179557</v>
       </c>
       <c r="N190" s="4">
-        <v>1.3679180231340737E-3</v>
+        <v>4.9418800616837011E-2</v>
       </c>
       <c r="O190" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_189_Ca145TrE_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_189_Ca145TrE_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P190" t="s">
@@ -10536,19 +10538,19 @@
         <v>23</v>
       </c>
       <c r="K191">
-        <v>523</v>
+        <v>473</v>
       </c>
       <c r="L191" s="4">
-        <v>8.3229676999999995</v>
+        <v>11.766703700000001</v>
       </c>
       <c r="M191" s="4">
-        <v>372.20163208604168</v>
+        <v>255.47497252856419</v>
       </c>
       <c r="N191" s="4">
-        <v>1.3797228546188478E-3</v>
+        <v>4.0602822145509698E-2</v>
       </c>
       <c r="O191" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_190_Ca199TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_190_Ca199TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P191" t="s">
@@ -10587,19 +10589,19 @@
         <v>23</v>
       </c>
       <c r="K192">
-        <v>603</v>
+        <v>555</v>
       </c>
       <c r="L192" s="4">
-        <v>16.549157000000001</v>
+        <v>27.102425400000001</v>
       </c>
       <c r="M192" s="4">
-        <v>370.94002269801831</v>
+        <v>254.26031371881214</v>
       </c>
       <c r="N192" s="4">
-        <v>1.37859899098558E-3</v>
+        <v>4.5738123699572419E-2</v>
       </c>
       <c r="O192" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_191_Ca199TrE_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_191_Ca199TrE_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P192" t="s">
@@ -10638,19 +10640,19 @@
         <v>23</v>
       </c>
       <c r="K193">
-        <v>719</v>
+        <v>612</v>
       </c>
       <c r="L193" s="4">
-        <v>19.3376698</v>
+        <v>25.273470100000001</v>
       </c>
       <c r="M193" s="4">
-        <v>371.81315714022139</v>
+        <v>254.11080373654107</v>
       </c>
       <c r="N193" s="4">
-        <v>1.4105024571904323E-3</v>
+        <v>4.5908922973917576E-2</v>
       </c>
       <c r="O193" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_192_Ca199TrT_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_192_Ca199TrT_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P193" t="s">
@@ -10689,19 +10691,19 @@
         <v>23</v>
       </c>
       <c r="K194">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="L194" s="4">
-        <v>11.769250599999999</v>
+        <v>19.747045</v>
       </c>
       <c r="M194" s="4">
-        <v>370.94006540199945</v>
+        <v>253.38887697279591</v>
       </c>
       <c r="N194" s="4">
-        <v>1.3876280861850887E-3</v>
+        <v>4.9106278726040564E-2</v>
       </c>
       <c r="O194" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_193_Ca199TrE_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_193_Ca199TrE_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P194" t="s">
@@ -10740,19 +10742,19 @@
         <v>23</v>
       </c>
       <c r="K195">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="L195" s="4">
-        <v>11.6320406</v>
+        <v>17.200455699999999</v>
       </c>
       <c r="M195" s="4">
-        <v>261.08143287514105</v>
+        <v>261.08165704118346</v>
       </c>
       <c r="N195" s="4">
-        <v>2.5014272012979419</v>
+        <v>2.5014477074986958</v>
       </c>
       <c r="O195" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_194_Ca139TrE_MaTRD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_194_Ca139TrE_MaTRD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P195" t="s">
@@ -10791,19 +10793,19 @@
         <v>23</v>
       </c>
       <c r="K196">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L196" s="4">
-        <v>10.7077826</v>
+        <v>16.992454500000001</v>
       </c>
       <c r="M196" s="4">
-        <v>261.06407630351788</v>
+        <v>261.06413284139052</v>
       </c>
       <c r="N196" s="4">
-        <v>2.5013619080285934</v>
+        <v>2.501357211407115</v>
       </c>
       <c r="O196" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_195_Ca139TrU_MaTRD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_195_Ca139TrU_MaTRD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P196" t="s">
@@ -10842,19 +10844,19 @@
         <v>23</v>
       </c>
       <c r="K197">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="L197" s="4">
-        <v>14.0957475</v>
+        <v>19.7551001</v>
       </c>
       <c r="M197" s="4">
-        <v>-5.2072433849134295E-3</v>
+        <v>-5.2052036180585647E-3</v>
       </c>
       <c r="N197" s="4">
-        <v>-6.1836375124176891E-4</v>
+        <v>-5.9859598298193776E-4</v>
       </c>
       <c r="O197" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_196_Ca149TrN_MaPST_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_196_Ca149TrN_MaPST_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P197" t="s">
@@ -10893,19 +10895,19 @@
         <v>23</v>
       </c>
       <c r="K198">
-        <v>3876</v>
+        <v>1530</v>
       </c>
       <c r="L198" s="4">
-        <v>49.5441389</v>
+        <v>56.682713300000003</v>
       </c>
       <c r="M198" s="4">
-        <v>38.423542297841138</v>
+        <v>36.653261116329297</v>
       </c>
       <c r="N198" s="4">
-        <v>0.27192591555937551</v>
+        <v>0.33973574720893457</v>
       </c>
       <c r="O198" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_197_Ca139TrN_MaSKD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_197_Ca139TrN_MaSKD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P198" t="s">
@@ -10944,19 +10946,19 @@
         <v>23</v>
       </c>
       <c r="K199">
-        <v>1675</v>
+        <v>1073</v>
       </c>
       <c r="L199" s="4">
-        <v>35.503660000000004</v>
+        <v>49.803630499999997</v>
       </c>
       <c r="M199" s="4">
-        <v>4.3315588404125762</v>
+        <v>3.3094393636811077</v>
       </c>
       <c r="N199" s="4">
-        <v>27.637355985778033</v>
+        <v>26.658204944058514</v>
       </c>
       <c r="O199" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_198_Ca139TrN_MaRAD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_198_Ca139TrN_MaRAD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P199" t="s">
@@ -10995,19 +10997,19 @@
         <v>23</v>
       </c>
       <c r="K200">
-        <v>3920</v>
+        <v>1319</v>
       </c>
       <c r="L200" s="4">
-        <v>102.2964408</v>
+        <v>82.584858199999999</v>
       </c>
       <c r="M200" s="4">
-        <v>25.115631739696283</v>
+        <v>36.47395711684193</v>
       </c>
       <c r="N200" s="4">
-        <v>0.71760036482202694</v>
+        <v>0.2412434312198164</v>
       </c>
       <c r="O200" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_199_Ca184TrN_MaSKD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_199_Ca184TrN_MaSKD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P200" t="s">
@@ -11046,19 +11048,19 @@
         <v>23</v>
       </c>
       <c r="K201">
-        <v>1290</v>
+        <v>629</v>
       </c>
       <c r="L201" s="4">
-        <v>36.593012299999998</v>
+        <v>36.658757100000003</v>
       </c>
       <c r="M201" s="4">
-        <v>12.230633224848358</v>
+        <v>12.325345873723991</v>
       </c>
       <c r="N201" s="4">
-        <v>21.583992070597713</v>
+        <v>21.750716246514148</v>
       </c>
       <c r="O201" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_200_Ca184TrN_MaRAD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_200_Ca184TrN_MaRAD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P201" t="s">
@@ -11097,19 +11099,19 @@
         <v>23</v>
       </c>
       <c r="K202">
-        <v>3920</v>
+        <v>1412</v>
       </c>
       <c r="L202" s="4">
-        <v>61.241403699999999</v>
+        <v>50.088302499999998</v>
       </c>
       <c r="M202" s="4">
-        <v>25.124061014766543</v>
+        <v>36.344255488624505</v>
       </c>
       <c r="N202" s="4">
-        <v>0.71786936190842576</v>
+        <v>0.24618784954653761</v>
       </c>
       <c r="O202" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_201_Ca198TrN_MaSKD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_201_Ca198TrN_MaSKD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P202" t="s">
@@ -11148,19 +11150,19 @@
         <v>23</v>
       </c>
       <c r="K203">
-        <v>1371</v>
+        <v>666</v>
       </c>
       <c r="L203" s="4">
-        <v>27.919588900000001</v>
+        <v>22.4245506</v>
       </c>
       <c r="M203" s="4">
-        <v>12.218496475340126</v>
+        <v>12.312268995678735</v>
       </c>
       <c r="N203" s="4">
-        <v>21.540667626027599</v>
+        <v>21.707795668106943</v>
       </c>
       <c r="O203" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_202_Ca198TrN_MaRAD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_202_Ca198TrN_MaRAD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P203" t="s">
@@ -11199,19 +11201,19 @@
         <v>23</v>
       </c>
       <c r="K204">
-        <v>27243</v>
+        <v>26654</v>
       </c>
       <c r="L204" s="4">
-        <v>418.61281439999999</v>
+        <v>588.10488699999996</v>
       </c>
       <c r="M204" s="4">
-        <v>20.636780660349928</v>
+        <v>19.934132298467929</v>
       </c>
       <c r="N204" s="4">
-        <v>2.6236283163076557</v>
+        <v>3.0456901589429624</v>
       </c>
       <c r="O204" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_203_Ca156TrN_MaIPA_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_203_Ca156TrN_MaIPA_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P204" t="s">
@@ -11250,19 +11252,19 @@
         <v>23</v>
       </c>
       <c r="K205">
-        <v>19038</v>
+        <v>18934</v>
       </c>
       <c r="L205" s="4">
-        <v>283.76499699999999</v>
+        <v>414.1367563</v>
       </c>
       <c r="M205" s="4">
-        <v>16.632571092353267</v>
+        <v>16.627893970180288</v>
       </c>
       <c r="N205" s="4">
-        <v>0.59977102241128721</v>
+        <v>0.60008697507214281</v>
       </c>
       <c r="O205" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_204_Ca130TrN_MaIPA_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_204_Ca130TrN_MaIPA_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P205" t="s">
@@ -11301,19 +11303,19 @@
         <v>23</v>
       </c>
       <c r="K206">
-        <v>1341</v>
+        <v>1346</v>
       </c>
       <c r="L206" s="4">
-        <v>21.249971500000001</v>
+        <v>31.7442283</v>
       </c>
       <c r="M206" s="4">
-        <v>347.06965940566118</v>
+        <v>347.37122229697525</v>
       </c>
       <c r="N206" s="4">
-        <v>0.7418504809659543</v>
+        <v>0.73599566772475677</v>
       </c>
       <c r="O206" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_205_Ca171TrN_MaRDP_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_205_Ca171TrN_MaRDP_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P206" t="s">
@@ -11355,7 +11357,7 @@
         <v>1343</v>
       </c>
       <c r="L207" s="4">
-        <v>11.916233500000001</v>
+        <v>17.8669911</v>
       </c>
       <c r="M207" s="4">
         <v>144.12805935798102</v>
@@ -11364,7 +11366,7 @@
         <v>3.6049700607179436E-2</v>
       </c>
       <c r="O207" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_206_Ca172TrN_MaRDP_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_206_Ca172TrN_MaRDP_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P207" t="s">
@@ -11403,19 +11405,19 @@
         <v>23</v>
       </c>
       <c r="K208">
-        <v>1425</v>
+        <v>1407</v>
       </c>
       <c r="L208" s="4">
-        <v>17.872214400000001</v>
+        <v>25.2143877</v>
       </c>
       <c r="M208" s="4">
-        <v>371.49017605651255</v>
+        <v>371.65023895105708</v>
       </c>
       <c r="N208" s="4">
-        <v>0.81154442293087081</v>
+        <v>0.80199669361952985</v>
       </c>
       <c r="O208" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_207_Ca139TrN_MaZPL_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_207_Ca139TrN_MaZPL_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P208" t="s">
@@ -11454,19 +11456,19 @@
         <v>23</v>
       </c>
       <c r="K209">
-        <v>2097</v>
+        <v>2106</v>
       </c>
       <c r="L209" s="4">
-        <v>13.032068900000001</v>
+        <v>16.3267512</v>
       </c>
       <c r="M209" s="4">
-        <v>397.66669447163213</v>
+        <v>397.51754029211907</v>
       </c>
       <c r="N209" s="4">
-        <v>0.33479577968156998</v>
+        <v>0.33443471252412399</v>
       </c>
       <c r="O209" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_208_Ca165TrN_MaZPL_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_208_Ca165TrN_MaZPL_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P209" t="s">
@@ -11505,19 +11507,19 @@
         <v>23</v>
       </c>
       <c r="K210">
-        <v>1446</v>
+        <v>1422</v>
       </c>
       <c r="L210" s="4">
-        <v>25.2481975</v>
+        <v>32.895781800000002</v>
       </c>
       <c r="M210" s="4">
-        <v>371.05201521787399</v>
+        <v>371.3069481012306</v>
       </c>
       <c r="N210" s="4">
-        <v>0.80529120515221708</v>
+        <v>0.80284181801527665</v>
       </c>
       <c r="O210" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_209_Ca171TrN_MaZPL_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_209_Ca171TrN_MaZPL_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P210" t="s">
@@ -11556,19 +11558,19 @@
         <v>23</v>
       </c>
       <c r="K211">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="L211" s="4">
-        <v>4.7333702000000004</v>
+        <v>7.1821533999999998</v>
       </c>
       <c r="M211" s="4">
-        <v>378.34374809623364</v>
+        <v>378.15915926071989</v>
       </c>
       <c r="N211" s="4">
-        <v>0.32219145666655996</v>
+        <v>0.32186648590400252</v>
       </c>
       <c r="O211" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_210_Ca165TrN_MaCPL_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_210_Ca165TrN_MaCPL_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P211" t="s">
@@ -11607,19 +11609,19 @@
         <v>23</v>
       </c>
       <c r="K212">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="L212" s="4">
-        <v>16.021643300000001</v>
+        <v>23.820356499999999</v>
       </c>
       <c r="M212" s="4">
-        <v>347.40648316636668</v>
+        <v>347.11434280159074</v>
       </c>
       <c r="N212" s="4">
-        <v>0.70574701768388082</v>
+        <v>0.74364450589272102</v>
       </c>
       <c r="O212" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_211_Ca171TrN_MaCPL_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_211_Ca171TrN_MaCPL_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P212" t="s">
@@ -11658,19 +11660,19 @@
         <v>23</v>
       </c>
       <c r="K213">
-        <v>2418</v>
+        <v>2382</v>
       </c>
       <c r="L213" s="4">
-        <v>38.178893299999999</v>
+        <v>58.7782464</v>
       </c>
       <c r="M213" s="4">
-        <v>151.74108867555034</v>
+        <v>152.46638274063471</v>
       </c>
       <c r="N213" s="4">
-        <v>1.8475176297232704E-3</v>
+        <v>1.9369430209668873E-3</v>
       </c>
       <c r="O213" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_212_Ca171TrN_MaRDR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_212_Ca171TrN_MaRDR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P213" t="s">
@@ -11709,19 +11711,19 @@
         <v>23</v>
       </c>
       <c r="K214">
-        <v>2783</v>
+        <v>2796</v>
       </c>
       <c r="L214" s="4">
-        <v>24.221375800000001</v>
+        <v>40.280131799999999</v>
       </c>
       <c r="M214" s="4">
-        <v>146.55474750030797</v>
+        <v>146.53764345567058</v>
       </c>
       <c r="N214" s="4">
-        <v>-4.7447260205888764E-3</v>
+        <v>-4.772988998331144E-3</v>
       </c>
       <c r="O214" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_213_Ca172TrN_MaRDR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_213_Ca172TrN_MaRDR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P214" t="s">
@@ -11760,19 +11762,19 @@
         <v>23</v>
       </c>
       <c r="K215">
-        <v>2959</v>
+        <v>2943</v>
       </c>
       <c r="L215" s="4">
-        <v>33.1786058</v>
+        <v>55.308862400000002</v>
       </c>
       <c r="M215" s="4">
-        <v>175.85405729541802</v>
+        <v>176.5899320420161</v>
       </c>
       <c r="N215" s="4">
-        <v>8.8221899116903871E-4</v>
+        <v>8.7084693990002412E-4</v>
       </c>
       <c r="O215" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_214_Ca139TrN_MaZRR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_214_Ca139TrN_MaZRR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P215" t="s">
@@ -11811,19 +11813,19 @@
         <v>23</v>
       </c>
       <c r="K216">
-        <v>3551</v>
+        <v>3568</v>
       </c>
       <c r="L216" s="4">
-        <v>20.964403799999999</v>
+        <v>40.399928699999997</v>
       </c>
       <c r="M216" s="4">
-        <v>176.08867339223332</v>
+        <v>176.84994915724135</v>
       </c>
       <c r="N216" s="4">
-        <v>8.5090983507273154E-5</v>
+        <v>8.1255104517916681E-5</v>
       </c>
       <c r="O216" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_215_Ca165TrN_MaZRR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_215_Ca165TrN_MaZRR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P216" t="s">
@@ -11862,19 +11864,19 @@
         <v>23</v>
       </c>
       <c r="K217">
-        <v>2983</v>
+        <v>2934</v>
       </c>
       <c r="L217" s="4">
-        <v>54.427307499999998</v>
+        <v>78.393555399999997</v>
       </c>
       <c r="M217" s="4">
-        <v>175.86266334473964</v>
+        <v>176.58811026854883</v>
       </c>
       <c r="N217" s="4">
-        <v>8.756773512580675E-4</v>
+        <v>8.6664216074726374E-4</v>
       </c>
       <c r="O217" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_216_Ca171TrN_MaZRR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_216_Ca171TrN_MaZRR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P217" t="s">
@@ -11913,19 +11915,19 @@
         <v>23</v>
       </c>
       <c r="K218">
-        <v>5224</v>
+        <v>4925</v>
       </c>
       <c r="L218" s="4">
-        <v>20.5533359</v>
+        <v>31.783188599999999</v>
       </c>
       <c r="M218" s="4">
-        <v>-14.041000997467348</v>
+        <v>-5.9984373202684953</v>
       </c>
       <c r="N218" s="4">
-        <v>3.5216786038308731E-2</v>
+        <v>2.831329957934716E-3</v>
       </c>
       <c r="O218" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_217_Ca170TrN_MaCMP_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_217_Ca170TrN_MaCMP_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P218" t="s">
@@ -11964,19 +11966,19 @@
         <v>23</v>
       </c>
       <c r="K219">
-        <v>1952</v>
+        <v>1816</v>
       </c>
       <c r="L219" s="4">
-        <v>12.406637</v>
+        <v>20.614909300000001</v>
       </c>
       <c r="M219" s="4">
-        <v>-14.040662033201411</v>
+        <v>-5.9893709939942257</v>
       </c>
       <c r="N219" s="4">
-        <v>3.5199840137524217E-2</v>
+        <v>2.9231879194543601E-3</v>
       </c>
       <c r="O219" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_218_Ca170TrN_MaCMF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_218_Ca170TrN_MaCMF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P219" t="s">
@@ -12015,19 +12017,19 @@
         <v>23</v>
       </c>
       <c r="K220">
-        <v>4914</v>
+        <v>4627</v>
       </c>
       <c r="L220" s="4">
-        <v>36.733769299999999</v>
+        <v>71.855572800000004</v>
       </c>
       <c r="M220" s="4">
-        <v>-329.43906556146811</v>
+        <v>-329.53905006309407</v>
       </c>
       <c r="N220" s="4">
-        <v>6.1392142914394743</v>
+        <v>6.1403600083105578</v>
       </c>
       <c r="O220" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_219_Ca170TrN_MaMPO_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_219_Ca170TrN_MaMPO_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P220" t="s">
@@ -12066,19 +12068,19 @@
         <v>23</v>
       </c>
       <c r="K221">
-        <v>2791</v>
+        <v>1215</v>
       </c>
       <c r="L221" s="4">
-        <v>13.987333899999999</v>
+        <v>20.043191100000001</v>
       </c>
       <c r="M221" s="4">
-        <v>-13.868411384639558</v>
+        <v>-13.865773784040371</v>
       </c>
       <c r="N221" s="4">
-        <v>0.22320440808334752</v>
+        <v>0.22556216669778451</v>
       </c>
       <c r="O221" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_220_Ca170TrN_MaMCI_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_220_Ca170TrN_MaMCI_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P221" t="s">
@@ -12117,19 +12119,19 @@
         <v>23</v>
       </c>
       <c r="K222">
-        <v>6665</v>
+        <v>5725</v>
       </c>
       <c r="L222" s="4">
-        <v>20.870018600000002</v>
+        <v>36.695669600000002</v>
       </c>
       <c r="M222" s="4">
-        <v>-12.037659346961297</v>
+        <v>-5.9989382149344701</v>
       </c>
       <c r="N222" s="4">
-        <v>6.4023107624285747E-3</v>
+        <v>-4.4572475074867897E-3</v>
       </c>
       <c r="O222" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_221_Ca170TrN_MaCHO_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_221_Ca170TrN_MaCHO_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P222" t="s">
@@ -12168,19 +12170,19 @@
         <v>23</v>
       </c>
       <c r="K223">
-        <v>3962</v>
+        <v>3383</v>
       </c>
       <c r="L223" s="4">
-        <v>18.4390149</v>
+        <v>37.143582500000001</v>
       </c>
       <c r="M223" s="4">
-        <v>-12.018781405183947</v>
+        <v>-5.9844406662792018</v>
       </c>
       <c r="N223" s="4">
-        <v>6.3718430917450121E-3</v>
+        <v>-4.5553317746344548E-3</v>
       </c>
       <c r="O223" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_222_Ca170TrN_MaCHF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_222_Ca170TrN_MaCHF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P223" t="s">
@@ -12219,19 +12221,19 @@
         <v>23</v>
       </c>
       <c r="K224">
-        <v>7405</v>
+        <v>7056</v>
       </c>
       <c r="L224" s="4">
-        <v>36.096350700000002</v>
+        <v>51.9478899</v>
       </c>
       <c r="M224" s="4">
-        <v>-690.29511251912129</v>
+        <v>-752.11381273220957</v>
       </c>
       <c r="N224" s="4">
-        <v>577.05568262692759</v>
+        <v>628.45192156704047</v>
       </c>
       <c r="O224" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_223_Ca170TrN_MaCKY_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_223_Ca170TrN_MaCKY_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P224" t="s">
@@ -12270,19 +12272,19 @@
         <v>23</v>
       </c>
       <c r="K225">
-        <v>2417</v>
+        <v>2151</v>
       </c>
       <c r="L225" s="4">
-        <v>16.328858</v>
+        <v>27.516483699999998</v>
       </c>
       <c r="M225" s="4">
-        <v>-758.72299060915464</v>
+        <v>-758.74706845271726</v>
       </c>
       <c r="N225" s="4">
-        <v>632.7307273672709</v>
+        <v>632.74553425746433</v>
       </c>
       <c r="O225" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_224_Ca170TrN_MaCKF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_224_Ca170TrN_MaCKF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P225" t="s">
@@ -12321,19 +12323,19 @@
         <v>23</v>
       </c>
       <c r="K226">
-        <v>2638</v>
+        <v>2792</v>
       </c>
       <c r="L226" s="4">
-        <v>15.9898968</v>
+        <v>30.362180800000001</v>
       </c>
       <c r="M226" s="4">
-        <v>177.3534427948976</v>
+        <v>177.34574713856776</v>
       </c>
       <c r="N226" s="4">
-        <v>288.27043099223744</v>
+        <v>288.25279625227341</v>
       </c>
       <c r="O226" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_225_Ca170TrN_MaCNN_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_225_Ca170TrN_MaCNN_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P226" t="s">
@@ -12372,19 +12374,19 @@
         <v>23</v>
       </c>
       <c r="K227">
-        <v>4860</v>
+        <v>4371</v>
       </c>
       <c r="L227" s="4">
-        <v>65.883143500000003</v>
+        <v>127.0958376</v>
       </c>
       <c r="M227" s="4">
-        <v>2994.8400591528571</v>
+        <v>2994.8746734077204</v>
       </c>
       <c r="N227" s="4">
-        <v>-3064.9262058270338</v>
+        <v>-3064.8919192829885</v>
       </c>
       <c r="O227" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_226_Ca170TrN_MaCNF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_226_Ca170TrN_MaCNF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P227" t="s">
@@ -12423,19 +12425,19 @@
         <v>23</v>
       </c>
       <c r="K228">
-        <v>2938</v>
+        <v>2924</v>
       </c>
       <c r="L228" s="4">
-        <v>16.0542585</v>
+        <v>26.473279699999999</v>
       </c>
       <c r="M228" s="4">
-        <v>522.24512802680556</v>
+        <v>522.24157400693866</v>
       </c>
       <c r="N228" s="4">
-        <v>-164.33327965469223</v>
+        <v>-164.33031938642</v>
       </c>
       <c r="O228" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_227_Ca170TrN_MaCSZ_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_227_Ca170TrN_MaCSZ_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P228" t="s">
@@ -12474,19 +12476,19 @@
         <v>23</v>
       </c>
       <c r="K229">
-        <v>5960</v>
+        <v>5698</v>
       </c>
       <c r="L229" s="4">
-        <v>80.339279700000006</v>
+        <v>160.1680562</v>
       </c>
       <c r="M229" s="4">
-        <v>-17.947513300371376</v>
+        <v>-8.9267516801535951</v>
       </c>
       <c r="N229" s="4">
-        <v>5.8080993083482919E-2</v>
+        <v>9.7635305503795278E-3</v>
       </c>
       <c r="O229" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_228_Ca170TrN_MaCSF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_228_Ca170TrN_MaCSF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P229" t="s">
@@ -12525,19 +12527,19 @@
         <v>23</v>
       </c>
       <c r="K230">
-        <v>2187</v>
+        <v>2147</v>
       </c>
       <c r="L230" s="4">
-        <v>17.112611399999999</v>
+        <v>29.129931500000001</v>
       </c>
       <c r="M230" s="4">
-        <v>209.02458963897899</v>
+        <v>209.02155689594687</v>
       </c>
       <c r="N230" s="4">
-        <v>379.24806435179624</v>
+        <v>379.24621436115001</v>
       </c>
       <c r="O230" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_229_Ca170TrN_MaCPU_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_229_Ca170TrN_MaCPU_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P230" t="s">
@@ -12576,19 +12578,19 @@
         <v>23</v>
       </c>
       <c r="K231">
-        <v>2633</v>
+        <v>2540</v>
       </c>
       <c r="L231" s="4">
-        <v>17.0074684</v>
+        <v>30.5821498</v>
       </c>
       <c r="M231" s="4">
-        <v>183.0337236444152</v>
+        <v>183.03232501027719</v>
       </c>
       <c r="N231" s="4">
-        <v>-170.24148447300104</v>
+        <v>-170.24498685459912</v>
       </c>
       <c r="O231" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_230_Ca170TrN_MaCPD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_230_Ca170TrN_MaCPD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P231" t="s">
@@ -12627,19 +12629,19 @@
         <v>23</v>
       </c>
       <c r="K232">
-        <v>1954</v>
+        <v>1838</v>
       </c>
       <c r="L232" s="4">
-        <v>4.1703343000000004</v>
+        <v>8.3846211000000004</v>
       </c>
       <c r="M232" s="4">
-        <v>-14.041550118152168</v>
+        <v>-5.9998931448022619</v>
       </c>
       <c r="N232" s="4">
-        <v>3.5291009414045317E-2</v>
+        <v>2.900435534250438E-3</v>
       </c>
       <c r="O232" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_231_Ca202TrN_MaCMF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_231_Ca202TrN_MaCMF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P232" t="s">
@@ -12678,19 +12680,19 @@
         <v>23</v>
       </c>
       <c r="K233">
-        <v>4854</v>
+        <v>4526</v>
       </c>
       <c r="L233" s="4">
-        <v>22.598563899999998</v>
+        <v>41.671908000000002</v>
       </c>
       <c r="M233" s="4">
-        <v>-329.43251561896301</v>
+        <v>-329.53268640926785</v>
       </c>
       <c r="N233" s="4">
-        <v>6.1225487001439935</v>
+        <v>6.1224522244264312</v>
       </c>
       <c r="O233" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_232_Ca202TrN_MaMPO_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_232_Ca202TrN_MaMPO_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P233" t="s">
@@ -12729,19 +12731,19 @@
         <v>23</v>
       </c>
       <c r="K234">
-        <v>2749</v>
+        <v>1203</v>
       </c>
       <c r="L234" s="4">
-        <v>8.8137678000000008</v>
+        <v>11.9649909</v>
       </c>
       <c r="M234" s="4">
-        <v>-13.867865876901625</v>
+        <v>-13.865442364356035</v>
       </c>
       <c r="N234" s="4">
-        <v>0.22342302985020979</v>
+        <v>0.22574268887370863</v>
       </c>
       <c r="O234" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_233_Ca202TrN_MaMCI_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_233_Ca202TrN_MaMCI_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P234" t="s">
@@ -12780,19 +12782,19 @@
         <v>23</v>
       </c>
       <c r="K235">
-        <v>4142</v>
+        <v>3637</v>
       </c>
       <c r="L235" s="4">
-        <v>11.358025100000001</v>
+        <v>18.3567426</v>
       </c>
       <c r="M235" s="4">
-        <v>-18.000653318982806</v>
+        <v>-5.9991593205619562</v>
       </c>
       <c r="N235" s="4">
-        <v>6.812062396227761E-2</v>
+        <v>-7.2010165072066571E-3</v>
       </c>
       <c r="O235" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_234_Ca202TrN_MaCKF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_234_Ca202TrN_MaCKF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P235" t="s">
@@ -12831,19 +12833,19 @@
         <v>23</v>
       </c>
       <c r="K236">
-        <v>11529</v>
+        <v>10234</v>
       </c>
       <c r="L236" s="4">
-        <v>119.1515788</v>
+        <v>196.4959824</v>
       </c>
       <c r="M236" s="4">
-        <v>-20.800152939171465</v>
+        <v>-8.9991962189184527</v>
       </c>
       <c r="N236" s="4">
-        <v>0.22868196447802536</v>
+        <v>4.69924713816419E-2</v>
       </c>
       <c r="O236" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_235_Ca202TrN_MaCNF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_235_Ca202TrN_MaCNF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P236" t="s">
@@ -12882,19 +12884,19 @@
         <v>23</v>
       </c>
       <c r="K237">
-        <v>6008</v>
+        <v>5703</v>
       </c>
       <c r="L237" s="4">
-        <v>51.360035000000003</v>
+        <v>92.649488099999999</v>
       </c>
       <c r="M237" s="4">
-        <v>-17.952090287002008</v>
+        <v>-8.9611208828619962</v>
       </c>
       <c r="N237" s="4">
-        <v>5.8144251418097127E-2</v>
+        <v>9.9654162556420608E-3</v>
       </c>
       <c r="O237" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_236_Ca202TrN_MaCSF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_236_Ca202TrN_MaCSF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P237" t="s">
@@ -12933,19 +12935,19 @@
         <v>23</v>
       </c>
       <c r="K238">
-        <v>5568</v>
+        <v>5436</v>
       </c>
       <c r="L238" s="4">
-        <v>23.1670774</v>
+        <v>36.404578299999997</v>
       </c>
       <c r="M238" s="4">
-        <v>-14.039493646513264</v>
+        <v>-5.9995602342527308</v>
       </c>
       <c r="N238" s="4">
-        <v>3.5228858424066992E-2</v>
+        <v>2.906393241688396E-3</v>
       </c>
       <c r="O238" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_237_Ca202TrN_MaCMP_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_237_Ca202TrN_MaCMP_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P238" t="s">
@@ -12984,19 +12986,19 @@
         <v>23</v>
       </c>
       <c r="K239">
-        <v>15656</v>
+        <v>14907</v>
       </c>
       <c r="L239" s="4">
-        <v>70.723921799999999</v>
+        <v>103.27469360000001</v>
       </c>
       <c r="M239" s="4">
-        <v>-18.002426932842639</v>
+        <v>-5.9979219969407458</v>
       </c>
       <c r="N239" s="4">
-        <v>6.7042299452185233E-2</v>
+        <v>-8.9173020838779309E-3</v>
       </c>
       <c r="O239" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_238_Ca202TrN_MaCKY_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_238_Ca202TrN_MaCKY_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P239" t="s">
@@ -13035,19 +13037,19 @@
         <v>23</v>
       </c>
       <c r="K240">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L240" s="4">
-        <v>2.8336686000000002</v>
+        <v>4.4625471000000001</v>
       </c>
       <c r="M240" s="4">
-        <v>381.37470582478164</v>
+        <v>382.00939327162217</v>
       </c>
       <c r="N240" s="4">
-        <v>0.32892979626584667</v>
+        <v>0.32992049848204708</v>
       </c>
       <c r="O240" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_239_Ca202TrN_MaCPL_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_239_Ca202TrN_MaCPL_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P240" t="s">
@@ -13086,19 +13088,19 @@
         <v>23</v>
       </c>
       <c r="K241">
-        <v>2596</v>
+        <v>2582</v>
       </c>
       <c r="L241" s="4">
-        <v>43.382972700000003</v>
+        <v>62.408962099999997</v>
       </c>
       <c r="M241" s="4">
-        <v>175.66092837559697</v>
+        <v>176.38711579620744</v>
       </c>
       <c r="N241" s="4">
-        <v>7.4693803280427747E-4</v>
+        <v>7.5367968255672972E-4</v>
       </c>
       <c r="O241" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_240_Ca140TrN_MaCRR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_240_Ca140TrN_MaCRR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P241" t="s">
@@ -13137,19 +13139,19 @@
         <v>23</v>
       </c>
       <c r="K242">
-        <v>3294</v>
+        <v>3199</v>
       </c>
       <c r="L242" s="4">
-        <v>37.979769099999999</v>
+        <v>60.877959400000002</v>
       </c>
       <c r="M242" s="4">
-        <v>175.71686635837548</v>
+        <v>176.44713230936495</v>
       </c>
       <c r="N242" s="4">
-        <v>7.7967873512296468E-4</v>
+        <v>7.8319883942979036E-4</v>
       </c>
       <c r="O242" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_241_Ca189TrN_MaCRR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_241_Ca189TrN_MaCRR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P242" t="s">
@@ -13188,19 +13190,19 @@
         <v>92</v>
       </c>
       <c r="K243">
-        <v>1606</v>
+        <v>1727</v>
       </c>
       <c r="L243" s="4">
-        <v>72.908713700000007</v>
+        <v>129.31557670000001</v>
       </c>
       <c r="M243" s="4">
-        <v>51.29928285505946</v>
+        <v>51.29961571110573</v>
       </c>
       <c r="N243" s="4">
-        <v>9.0082859678097815E-3</v>
+        <v>9.008414994225486E-3</v>
       </c>
       <c r="O243" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_242_Ca173TrN_MaDCA_daessc_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_242_Ca173TrN_MaDCA_daessc_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P243" t="s">
@@ -13239,19 +13241,19 @@
         <v>92</v>
       </c>
       <c r="K244">
-        <v>4219</v>
+        <v>4214</v>
       </c>
       <c r="L244" s="4">
-        <v>134.14375570000001</v>
+        <v>196.08377100000001</v>
       </c>
       <c r="M244" s="4">
-        <v>980.46607265318482</v>
+        <v>980.46540780545217</v>
       </c>
       <c r="N244" s="4">
-        <v>0.72240240864093253</v>
+        <v>0.72235444142413707</v>
       </c>
       <c r="O244" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_243_Ca173TrN_MaDC1_daessc_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_243_Ca173TrN_MaDC1_daessc_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P244" t="s">
@@ -13290,19 +13292,19 @@
         <v>23</v>
       </c>
       <c r="K245">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="L245" s="4">
-        <v>3.9599098000000001</v>
+        <v>5.7953723000000004</v>
       </c>
       <c r="M245" s="4">
-        <v>53.509374595175288</v>
+        <v>53.509578239721478</v>
       </c>
       <c r="N245" s="4">
-        <v>9.8716398835029737E-3</v>
+        <v>9.874139901183002E-3</v>
       </c>
       <c r="O245" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_244_Ca165TrN_MaDCA_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_244_Ca165TrN_MaDCA_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P245" t="s">
@@ -13341,19 +13343,19 @@
         <v>23</v>
       </c>
       <c r="K246">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="L246" s="4">
-        <v>9.4529224999999997</v>
+        <v>13.299426800000001</v>
       </c>
       <c r="M246" s="4">
-        <v>992.65509899126391</v>
+        <v>992.6539279970707</v>
       </c>
       <c r="N246" s="4">
-        <v>0.72268589291169205</v>
+        <v>0.83113493112968395</v>
       </c>
       <c r="O246" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_245_Ca165TrN_MaDC1_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_245_Ca165TrN_MaDC1_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P246" t="s">
@@ -13392,19 +13394,19 @@
         <v>92</v>
       </c>
       <c r="K247">
-        <v>4108</v>
+        <v>4161</v>
       </c>
       <c r="L247" s="4">
-        <v>63.036157000000003</v>
+        <v>95.038888299999996</v>
       </c>
       <c r="M247" s="4">
-        <v>980.4630885306027</v>
+        <v>980.46183835068507</v>
       </c>
       <c r="N247" s="4">
-        <v>0.72245829211727108</v>
+        <v>0.72243998582010749</v>
       </c>
       <c r="O247" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_246_Ca196TrN_MaDC1_daessc_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_246_Ca196TrN_MaDC1_daessc_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P247" t="s">
@@ -13443,19 +13445,19 @@
         <v>23</v>
       </c>
       <c r="K248">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="L248" s="4">
-        <v>5.9213262000000002</v>
+        <v>7.2456988999999998</v>
       </c>
       <c r="M248" s="4">
-        <v>147.84383766509859</v>
+        <v>147.8187532228219</v>
       </c>
       <c r="N248" s="4">
-        <v>9.4261455646341974E-2</v>
+        <v>9.5246861226239612E-2</v>
       </c>
       <c r="O248" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_247_Ca179TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_247_Ca179TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P248" t="s">
@@ -13494,19 +13496,19 @@
         <v>23</v>
       </c>
       <c r="K249">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="L249" s="4">
-        <v>8.0463886000000002</v>
+        <v>10.9599948</v>
       </c>
       <c r="M249" s="4">
-        <v>147.86545883828796</v>
+        <v>147.86507683474844</v>
       </c>
       <c r="N249" s="4">
-        <v>9.4544744785358459E-2</v>
+        <v>9.4535118318422262E-2</v>
       </c>
       <c r="O249" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_248_Ca180TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_248_Ca180TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P249" t="s">
@@ -13545,19 +13547,19 @@
         <v>23</v>
       </c>
       <c r="K250">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="L250" s="4">
-        <v>2.4814145000000001</v>
+        <v>3.1326534000000001</v>
       </c>
       <c r="M250" s="4">
-        <v>147.85953999126772</v>
+        <v>147.82521218310927</v>
       </c>
       <c r="N250" s="4">
-        <v>9.4516583108177149E-2</v>
+        <v>9.4456850711384363E-2</v>
       </c>
       <c r="O250" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_249_Ca197TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_249_Ca197TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P250" t="s">
@@ -13599,7 +13601,7 @@
         <v>421</v>
       </c>
       <c r="L251" s="4">
-        <v>15.6421615</v>
+        <v>19.514486399999999</v>
       </c>
       <c r="M251" s="4">
         <v>63.227172416907337</v>
@@ -13608,7 +13610,7 @@
         <v>-25.378190011468046</v>
       </c>
       <c r="O251" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_250_Ca182TrN_MaTUR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_250_Ca182TrN_MaTUR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P251" t="s">
@@ -13647,19 +13649,19 @@
         <v>23</v>
       </c>
       <c r="K252">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="L252" s="4">
-        <v>4.5106190000000002</v>
+        <v>6.6942651</v>
       </c>
       <c r="M252" s="4">
-        <v>63.21430152446672</v>
+        <v>63.213941836934069</v>
       </c>
       <c r="N252" s="4">
-        <v>-25.381027537908963</v>
+        <v>-25.380824389233485</v>
       </c>
       <c r="O252" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_251_Ca203TrN_MaTUR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_251_Ca203TrN_MaTUR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P252" t="s">
@@ -13698,19 +13700,19 @@
         <v>23</v>
       </c>
       <c r="K253">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="L253" s="4">
-        <v>16.0671246</v>
+        <v>20.912269200000001</v>
       </c>
       <c r="M253" s="4">
-        <v>114.17680892945702</v>
+        <v>114.1766297220766</v>
       </c>
       <c r="N253" s="4">
-        <v>-80.786480806163979</v>
+        <v>-80.782199113943108</v>
       </c>
       <c r="O253" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_252_Ca185TrN_MaTUR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_252_Ca185TrN_MaTUR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P253" t="s">
@@ -13749,19 +13751,19 @@
         <v>23</v>
       </c>
       <c r="K254">
-        <v>538</v>
+        <v>560</v>
       </c>
       <c r="L254" s="4">
-        <v>9.3134060000000005</v>
+        <v>12.123273299999999</v>
       </c>
       <c r="M254" s="4">
-        <v>140.62764983894007</v>
+        <v>140.63388298467797</v>
       </c>
       <c r="N254" s="4">
-        <v>-71.78273018588591</v>
+        <v>-71.77742441349956</v>
       </c>
       <c r="O254" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_240830_1948_253_Ca188TrN_MaTUR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_240930_1119_253_Ca188TrN_MaTUR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P254" t="s">
@@ -13800,19 +13802,19 @@
         <v>23</v>
       </c>
       <c r="K255">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="L255" s="4">
-        <v>15.9350237</v>
+        <v>20.6432134</v>
       </c>
       <c r="M255" s="4">
-        <v>79.191403342521781</v>
+        <v>79.081929959359798</v>
       </c>
       <c r="N255" s="4">
-        <v>-0.33364204715638829</v>
+        <v>-0.33226143308131689</v>
       </c>
       <c r="O255" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_Axle3_240830_1948_254_CaAxle3_000TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_Axle3_240930_1119_254_CaAxle3_000TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P255" t="s">
@@ -13851,19 +13853,19 @@
         <v>23</v>
       </c>
       <c r="K256">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L256" s="4">
-        <v>16.173925799999999</v>
+        <v>21.875293200000002</v>
       </c>
       <c r="M256" s="4">
-        <v>69.13329697133797</v>
+        <v>69.125541323148454</v>
       </c>
       <c r="N256" s="4">
-        <v>8.3863063097864898E-2</v>
+        <v>8.3843922377627292E-2</v>
       </c>
       <c r="O256" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_Axle3_240830_1948_255_CaAxle3_008TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_Axle3_240930_1119_255_CaAxle3_008TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P256" t="s">
@@ -13905,16 +13907,16 @@
         <v>426</v>
       </c>
       <c r="L257" s="4">
-        <v>14.9711245</v>
+        <v>18.030990800000001</v>
       </c>
       <c r="M257" s="4">
-        <v>79.26753082601013</v>
+        <v>79.24769441161969</v>
       </c>
       <c r="N257" s="4">
-        <v>-0.31346583892466412</v>
+        <v>-0.31325677542900665</v>
       </c>
       <c r="O257" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_Axle3_240830_1948_256_CaAxle3_003TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_Axle3_240930_1119_256_CaAxle3_003TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P257" t="s">
@@ -13953,19 +13955,19 @@
         <v>23</v>
       </c>
       <c r="K258">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="L258" s="4">
-        <v>2.4064774</v>
+        <v>2.9579040000000001</v>
       </c>
       <c r="M258" s="4">
-        <v>80.149536181477046</v>
+        <v>80.105368727560347</v>
       </c>
       <c r="N258" s="4">
-        <v>-0.31965340500242301</v>
+        <v>-0.31922436244434088</v>
       </c>
       <c r="O258" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_Axle3_240830_1948_257_CaAxle3_017TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_Axle3_240930_1119_257_CaAxle3_017TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P258" t="s">
@@ -14007,16 +14009,16 @@
         <v>379</v>
       </c>
       <c r="L259" s="4">
-        <v>34.418355599999998</v>
+        <v>45.996200399999999</v>
       </c>
       <c r="M259" s="4">
-        <v>23.326591154260509</v>
+        <v>23.326907524485339</v>
       </c>
       <c r="N259" s="4">
-        <v>2.4825691196431639E-3</v>
+        <v>2.4826893934114976E-3</v>
       </c>
       <c r="O259" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_Axle3_240830_1948_258_CaAxle3_010TrK_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_Axle3_240930_1119_258_CaAxle3_010TrK_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P259" t="s">
@@ -14058,16 +14060,16 @@
         <v>402</v>
       </c>
       <c r="L260" s="4">
-        <v>31.6483439</v>
+        <v>44.991455199999997</v>
       </c>
       <c r="M260" s="4">
-        <v>23.441148459771718</v>
+        <v>23.441153101647831</v>
       </c>
       <c r="N260" s="4">
-        <v>2.5318340812336311E-3</v>
+        <v>2.5318370679568297E-3</v>
       </c>
       <c r="O260" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_Axle3_240830_1948_259_CaAxle3_010TrK_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_Axle3_240930_1119_259_CaAxle3_010TrK_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P260" t="s">
@@ -14109,16 +14111,16 @@
         <v>395</v>
       </c>
       <c r="L261" s="4">
-        <v>2.3581172000000001</v>
+        <v>3.5716817000000001</v>
       </c>
       <c r="M261" s="4">
-        <v>26.915043021668794</v>
+        <v>26.919982883540509</v>
       </c>
       <c r="N261" s="4">
-        <v>3.6189184600081623E-3</v>
+        <v>3.621376984547349E-3</v>
       </c>
       <c r="O261" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_Axle3_240830_1948_260_CaAxle3_019TrK_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_Axle3_240930_1119_260_CaAxle3_019TrK_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P261" t="s">
@@ -14160,16 +14162,16 @@
         <v>396</v>
       </c>
       <c r="L262" s="4">
-        <v>2.6384289000000001</v>
+        <v>3.5826699</v>
       </c>
       <c r="M262" s="4">
-        <v>26.904154781457223</v>
+        <v>26.903891641978319</v>
       </c>
       <c r="N262" s="4">
-        <v>3.6114672267954853E-3</v>
+        <v>3.6113456748907632E-3</v>
       </c>
       <c r="O262" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_Axle3_240830_1948_261_CaAxle3_019TrK_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_Axle3_240930_1119_261_CaAxle3_019TrK_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P262" t="s">
@@ -14208,19 +14210,19 @@
         <v>23</v>
       </c>
       <c r="K263">
-        <v>755</v>
+        <v>666</v>
       </c>
       <c r="L263" s="4">
-        <v>21.048201800000001</v>
+        <v>28.877029400000001</v>
       </c>
       <c r="M263" s="4">
-        <v>262.42896625396344</v>
+        <v>253.23732462164332</v>
       </c>
       <c r="N263" s="4">
-        <v>-0.10292288380295567</v>
+        <v>-9.6804866988886573E-2</v>
       </c>
       <c r="O263" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_Axle3_240830_1948_262_CaAxle3_012TrK_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_Axle3_240930_1119_262_CaAxle3_012TrK_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P263" t="s">
@@ -14259,19 +14261,19 @@
         <v>23</v>
       </c>
       <c r="K264">
-        <v>848</v>
+        <v>755</v>
       </c>
       <c r="L264" s="4">
-        <v>23.652419800000001</v>
+        <v>30.20992</v>
       </c>
       <c r="M264" s="4">
-        <v>262.41172543987489</v>
+        <v>254.39233198667654</v>
       </c>
       <c r="N264" s="4">
-        <v>-0.1000174603743913</v>
+        <v>-9.8901082958095188E-2</v>
       </c>
       <c r="O264" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_Axle3_240830_1948_263_CaAxle3_012TrK_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_Axle3_240930_1119_263_CaAxle3_012TrK_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P264" t="s">
@@ -14310,19 +14312,19 @@
         <v>23</v>
       </c>
       <c r="K265">
-        <v>753</v>
+        <v>672</v>
       </c>
       <c r="L265" s="4">
-        <v>21.250549800000002</v>
+        <v>28.290202399999998</v>
       </c>
       <c r="M265" s="4">
-        <v>264.07513699723097</v>
+        <v>255.83077909844297</v>
       </c>
       <c r="N265" s="4">
-        <v>-9.8934115844132364E-2</v>
+        <v>-0.10453476514283278</v>
       </c>
       <c r="O265" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_Axle3_240830_1948_264_CaAxle3_012TrK_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_Axle3_240930_1119_264_CaAxle3_012TrK_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P265" t="s">
@@ -14361,19 +14363,19 @@
         <v>23</v>
       </c>
       <c r="K266">
-        <v>1016</v>
+        <v>922</v>
       </c>
       <c r="L266" s="4">
-        <v>27.4791338</v>
+        <v>35.086640899999999</v>
       </c>
       <c r="M266" s="4">
-        <v>264.047843691362</v>
+        <v>253.20826861991611</v>
       </c>
       <c r="N266" s="4">
-        <v>-9.8709987120733089E-2</v>
+        <v>-8.8697000987246533E-2</v>
       </c>
       <c r="O266" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_1948\sm_car_Axle3_240830_1948_265_CaAxle3_012TrK_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_1119\sm_car_Axle3_240930_1119_265_CaAxle3_012TrK_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P266" t="s">
@@ -14381,6 +14383,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P266" xr:uid="{D6B9D476-479C-456E-8FA6-59DD3EC6DAE2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SimResults/sm_car_results.xlsx
+++ b/SimResults/sm_car_results.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\SimResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\veh-tpl\SimResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D0C8BB-C1CD-405E-814B-BB3A6D57DFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9918F870-350F-4090-8B41-5AB9D1209BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86C44CE1-1010-4E30-92B1-BDE677C7682C}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023b_240830_2345" sheetId="16" r:id="rId1"/>
+    <sheet name="2023b_240930_0651" sheetId="17" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -395,10 +395,10 @@
     <t>23.2.0.2668659 (R2023b) Update 9</t>
   </si>
   <si>
-    <t>31-Aug-2024 02:33:05</t>
+    <t>30-Sep-2024 09:09:41</t>
   </si>
   <si>
-    <t>srcR2022a R2023b fixedSusp withFastRestart</t>
+    <t>v3p2 R23b newTrajFollower stopXMax</t>
   </si>
 </sst>
 </file>
@@ -771,12 +771,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6ACFF8-6C4D-43EA-BD22-326E53D17128}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E15E47-B680-43F1-9CA7-C062A0820922}">
   <dimension ref="A1:R266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R9" sqref="R9"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +796,7 @@
     <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -888,7 +887,7 @@
         <v>396</v>
       </c>
       <c r="L2" s="4">
-        <v>6.7849865999999999</v>
+        <v>6.2314610999999998</v>
       </c>
       <c r="M2" s="4">
         <v>233.7943545125583</v>
@@ -897,7 +896,7 @@
         <v>8.7573756048312766E-3</v>
       </c>
       <c r="O2" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_001_Ca000TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_001_Ca000TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P2" t="s">
@@ -942,7 +941,7 @@
         <v>523</v>
       </c>
       <c r="L3" s="4">
-        <v>10.5854581</v>
+        <v>7.2842941000000003</v>
       </c>
       <c r="M3" s="4">
         <v>72.046473658093873</v>
@@ -951,7 +950,7 @@
         <v>-0.55378048573647509</v>
       </c>
       <c r="O3" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_002_Ca000TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_002_Ca000TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P3" t="s">
@@ -996,7 +995,7 @@
         <v>395</v>
       </c>
       <c r="L4" s="4">
-        <v>8.5061458000000005</v>
+        <v>7.2431551000000001</v>
       </c>
       <c r="M4" s="4">
         <v>232.8822007105031</v>
@@ -1005,7 +1004,7 @@
         <v>2.3644105581510733E-4</v>
       </c>
       <c r="O4" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_003_Ca001TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_003_Ca001TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P4" t="s">
@@ -1050,7 +1049,7 @@
         <v>515</v>
       </c>
       <c r="L5" s="4">
-        <v>11.2368763</v>
+        <v>8.2234581000000002</v>
       </c>
       <c r="M5" s="4">
         <v>71.757457013757588</v>
@@ -1059,7 +1058,7 @@
         <v>-0.54700847146136078</v>
       </c>
       <c r="O5" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_004_Ca001TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_004_Ca001TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P5" t="s">
@@ -1101,19 +1100,19 @@
         <v>23</v>
       </c>
       <c r="K6">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="L6" s="4">
-        <v>13.5185055</v>
+        <v>10.083202099999999</v>
       </c>
       <c r="M6" s="4">
-        <v>232.9369928271272</v>
+        <v>233.04224977274501</v>
       </c>
       <c r="N6" s="4">
-        <v>6.2327968762361428E-2</v>
+        <v>0.1053894950427358</v>
       </c>
       <c r="O6" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_005_Ca002TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_005_Ca002TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P6" t="s">
@@ -1152,19 +1151,19 @@
         <v>23</v>
       </c>
       <c r="K7">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="L7" s="4">
-        <v>14.768796200000001</v>
+        <v>11.087243900000001</v>
       </c>
       <c r="M7" s="4">
-        <v>71.756572225680387</v>
+        <v>71.752365266088034</v>
       </c>
       <c r="N7" s="4">
-        <v>-0.54232636887225438</v>
+        <v>-0.54378686888942385</v>
       </c>
       <c r="O7" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_006_Ca002TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_006_Ca002TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P7" t="s">
@@ -1203,19 +1202,19 @@
         <v>23</v>
       </c>
       <c r="K8">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="L8" s="4">
-        <v>10.9568584</v>
+        <v>10.675657599999999</v>
       </c>
       <c r="M8" s="4">
-        <v>232.60597653087763</v>
+        <v>232.41399247012859</v>
       </c>
       <c r="N8" s="4">
-        <v>6.2401428918297364E-2</v>
+        <v>6.3596962579487909E-2</v>
       </c>
       <c r="O8" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_007_Ca003TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_007_Ca003TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P8" t="s">
@@ -1254,19 +1253,19 @@
         <v>23</v>
       </c>
       <c r="K9">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="L9" s="4">
-        <v>13.7913494</v>
+        <v>11.6778327</v>
       </c>
       <c r="M9" s="4">
-        <v>71.625712869894528</v>
+        <v>71.6219756120379</v>
       </c>
       <c r="N9" s="4">
-        <v>-0.54079170455745063</v>
+        <v>-0.53826877556506703</v>
       </c>
       <c r="O9" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_008_Ca003TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_008_Ca003TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P9" t="s">
@@ -1308,7 +1307,7 @@
         <v>1051</v>
       </c>
       <c r="L10" s="4">
-        <v>12.3728228</v>
+        <v>10.490463500000001</v>
       </c>
       <c r="M10" s="4">
         <v>234.02316443880059</v>
@@ -1317,7 +1316,7 @@
         <v>9.6058262110875915E-3</v>
       </c>
       <c r="O10" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_009_Ca004TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_009_Ca004TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P10" t="s">
@@ -1359,7 +1358,7 @@
         <v>1181</v>
       </c>
       <c r="L11" s="4">
-        <v>14.9563994</v>
+        <v>12.7232834</v>
       </c>
       <c r="M11" s="4">
         <v>72.064660752801259</v>
@@ -1368,7 +1367,7 @@
         <v>-0.55549756154943275</v>
       </c>
       <c r="O11" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_010_Ca004TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_010_Ca004TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P11" t="s">
@@ -1410,7 +1409,7 @@
         <v>1060</v>
       </c>
       <c r="L12" s="4">
-        <v>15.824277</v>
+        <v>12.2779554</v>
       </c>
       <c r="M12" s="4">
         <v>232.98202922332666</v>
@@ -1419,7 +1418,7 @@
         <v>3.7407534692555726E-4</v>
       </c>
       <c r="O12" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_011_Ca005TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_011_Ca005TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P12" t="s">
@@ -1461,7 +1460,7 @@
         <v>1189</v>
       </c>
       <c r="L13" s="4">
-        <v>19.179204899999998</v>
+        <v>13.7823057</v>
       </c>
       <c r="M13" s="4">
         <v>71.772677078246218</v>
@@ -1470,7 +1469,7 @@
         <v>-0.54641030284604653</v>
       </c>
       <c r="O13" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_012_Ca005TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_012_Ca005TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P13" t="s">
@@ -1509,19 +1508,19 @@
         <v>23</v>
       </c>
       <c r="K14">
-        <v>1157</v>
+        <v>1136</v>
       </c>
       <c r="L14" s="4">
-        <v>14.904881700000001</v>
+        <v>13.900684399999999</v>
       </c>
       <c r="M14" s="4">
-        <v>233.03521932081185</v>
+        <v>232.9261193606373</v>
       </c>
       <c r="N14" s="4">
-        <v>7.1369233341839228E-2</v>
+        <v>6.4938838824118675E-2</v>
       </c>
       <c r="O14" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_013_Ca006TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_013_Ca006TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P14" t="s">
@@ -1560,19 +1559,19 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>1263</v>
+        <v>1244</v>
       </c>
       <c r="L15" s="4">
-        <v>21.065651200000001</v>
+        <v>14.366461899999999</v>
       </c>
       <c r="M15" s="4">
-        <v>71.75410382829169</v>
+        <v>71.7512295995258</v>
       </c>
       <c r="N15" s="4">
-        <v>-0.54427386740590866</v>
+        <v>-0.54450141108533645</v>
       </c>
       <c r="O15" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_014_Ca006TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_014_Ca006TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P15" t="s">
@@ -1611,19 +1610,19 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>1165</v>
+        <v>1176</v>
       </c>
       <c r="L16" s="4">
-        <v>17.955131099999999</v>
+        <v>16.1284241</v>
       </c>
       <c r="M16" s="4">
-        <v>232.54927374447107</v>
+        <v>232.62238172191275</v>
       </c>
       <c r="N16" s="4">
-        <v>7.2830154729333144E-2</v>
+        <v>6.6085677653763178E-2</v>
       </c>
       <c r="O16" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_015_Ca007TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_015_Ca007TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P16" t="s">
@@ -1662,19 +1661,19 @@
         <v>23</v>
       </c>
       <c r="K17">
-        <v>1259</v>
+        <v>1244</v>
       </c>
       <c r="L17" s="4">
-        <v>21.945027100000001</v>
+        <v>16.059038999999999</v>
       </c>
       <c r="M17" s="4">
-        <v>71.633066147923103</v>
+        <v>71.634151251256895</v>
       </c>
       <c r="N17" s="4">
-        <v>-0.54136542633953189</v>
+        <v>-0.53942493675765002</v>
       </c>
       <c r="O17" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_016_Ca007TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_016_Ca007TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P17" t="s">
@@ -1716,7 +1715,7 @@
         <v>386</v>
       </c>
       <c r="L18" s="4">
-        <v>6.3862503999999998</v>
+        <v>5.5874126000000004</v>
       </c>
       <c r="M18" s="4">
         <v>234.9178138771637</v>
@@ -1725,7 +1724,7 @@
         <v>-6.9784035487130608E-2</v>
       </c>
       <c r="O18" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_017_Ca016TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_017_Ca016TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P18" t="s">
@@ -1767,7 +1766,7 @@
         <v>474</v>
       </c>
       <c r="L19" s="4">
-        <v>7.4620867999999998</v>
+        <v>5.2867483000000002</v>
       </c>
       <c r="M19" s="4">
         <v>72.416849589060007</v>
@@ -1776,7 +1775,7 @@
         <v>-2.1645375953034684E-2</v>
       </c>
       <c r="O19" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_018_Ca016TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_018_Ca016TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P19" t="s">
@@ -1818,7 +1817,7 @@
         <v>389</v>
       </c>
       <c r="L20" s="4">
-        <v>9.3735646999999993</v>
+        <v>7.4863252999999998</v>
       </c>
       <c r="M20" s="4">
         <v>233.76155691267664</v>
@@ -1827,7 +1826,7 @@
         <v>2.0404364388403647E-2</v>
       </c>
       <c r="O20" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_019_Ca032TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_019_Ca032TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P20" t="s">
@@ -1869,7 +1868,7 @@
         <v>507</v>
       </c>
       <c r="L21" s="4">
-        <v>11.274425600000001</v>
+        <v>7.9490439000000004</v>
       </c>
       <c r="M21" s="4">
         <v>72.057023163750472</v>
@@ -1878,7 +1877,7 @@
         <v>-0.53546339973508339</v>
       </c>
       <c r="O21" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_020_Ca032TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_020_Ca032TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P21" t="s">
@@ -1920,7 +1919,7 @@
         <v>407</v>
       </c>
       <c r="L22" s="4">
-        <v>9.0358456</v>
+        <v>8.0328174000000008</v>
       </c>
       <c r="M22" s="4">
         <v>234.0508395225398</v>
@@ -1929,7 +1928,7 @@
         <v>-4.4155107329615579E-3</v>
       </c>
       <c r="O22" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_021_Ca048TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_021_Ca048TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P22" t="s">
@@ -1971,7 +1970,7 @@
         <v>504</v>
       </c>
       <c r="L23" s="4">
-        <v>10.742178900000001</v>
+        <v>7.8233546</v>
       </c>
       <c r="M23" s="4">
         <v>72.054315419250372</v>
@@ -1980,7 +1979,7 @@
         <v>-0.54055352190235073</v>
       </c>
       <c r="O23" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_022_Ca048TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_022_Ca048TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P23" t="s">
@@ -2022,7 +2021,7 @@
         <v>390</v>
       </c>
       <c r="L24" s="4">
-        <v>10.3602665</v>
+        <v>8.2630008999999998</v>
       </c>
       <c r="M24" s="4">
         <v>234.11628092355735</v>
@@ -2031,7 +2030,7 @@
         <v>2.2153153933866365E-2</v>
       </c>
       <c r="O24" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_023_Ca064TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_023_Ca064TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P24" t="s">
@@ -2073,7 +2072,7 @@
         <v>508</v>
       </c>
       <c r="L25" s="4">
-        <v>12.031401499999999</v>
+        <v>9.0446711999999998</v>
       </c>
       <c r="M25" s="4">
         <v>72.06283625530213</v>
@@ -2082,7 +2081,7 @@
         <v>-0.53088141627245788</v>
       </c>
       <c r="O25" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_024_Ca064TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_024_Ca064TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P25" t="s">
@@ -2124,7 +2123,7 @@
         <v>391</v>
       </c>
       <c r="L26" s="4">
-        <v>10.764075800000001</v>
+        <v>8.3877310999999999</v>
       </c>
       <c r="M26" s="4">
         <v>234.26851736786753</v>
@@ -2133,7 +2132,7 @@
         <v>-8.6101901358082763E-3</v>
       </c>
       <c r="O26" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_025_Ca080TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_025_Ca080TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P26" t="s">
@@ -2175,7 +2174,7 @@
         <v>520</v>
       </c>
       <c r="L27" s="4">
-        <v>13.250868199999999</v>
+        <v>9.4309773000000003</v>
       </c>
       <c r="M27" s="4">
         <v>72.122339486937932</v>
@@ -2184,7 +2183,7 @@
         <v>-0.54086569565090004</v>
       </c>
       <c r="O27" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_026_Ca080TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_026_Ca080TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P27" t="s">
@@ -2226,7 +2225,7 @@
         <v>394</v>
       </c>
       <c r="L28" s="4">
-        <v>7.5444534000000001</v>
+        <v>6.2140085000000003</v>
       </c>
       <c r="M28" s="4">
         <v>236.00726724279676</v>
@@ -2235,7 +2234,7 @@
         <v>3.1743772217962263E-2</v>
       </c>
       <c r="O28" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_027_Ca096TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_027_Ca096TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P28" t="s">
@@ -2277,7 +2276,7 @@
         <v>502</v>
       </c>
       <c r="L29" s="4">
-        <v>9.8241314000000006</v>
+        <v>7.0336163000000003</v>
       </c>
       <c r="M29" s="4">
         <v>72.654770046266265</v>
@@ -2286,7 +2285,7 @@
         <v>-0.53988110208508111</v>
       </c>
       <c r="O29" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_028_Ca096TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_028_Ca096TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P29" t="s">
@@ -2328,7 +2327,7 @@
         <v>375</v>
       </c>
       <c r="L30" s="4">
-        <v>2.5040076999999998</v>
+        <v>2.3134939999999999</v>
       </c>
       <c r="M30" s="4">
         <v>242.66659684757968</v>
@@ -2337,7 +2336,7 @@
         <v>0.23471335283580222</v>
       </c>
       <c r="O30" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_029_Ca112TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_029_Ca112TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P30" t="s">
@@ -2379,7 +2378,7 @@
         <v>479</v>
       </c>
       <c r="L31" s="4">
-        <v>3.5081300999999998</v>
+        <v>2.4293209</v>
       </c>
       <c r="M31" s="4">
         <v>74.662301932478982</v>
@@ -2388,7 +2387,7 @@
         <v>-0.33799217683846294</v>
       </c>
       <c r="O31" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_030_Ca112TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_030_Ca112TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P31" t="s">
@@ -2430,7 +2429,7 @@
         <v>381</v>
       </c>
       <c r="L32" s="4">
-        <v>3.1349075000000002</v>
+        <v>2.9460194999999998</v>
       </c>
       <c r="M32" s="4">
         <v>241.4809733023389</v>
@@ -2439,7 +2438,7 @@
         <v>0.2284156335876229</v>
       </c>
       <c r="O32" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_031_Ca113TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_031_Ca113TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P32" t="s">
@@ -2481,7 +2480,7 @@
         <v>474</v>
       </c>
       <c r="L33" s="4">
-        <v>3.2634976</v>
+        <v>2.8973412999999999</v>
       </c>
       <c r="M33" s="4">
         <v>74.346929173822147</v>
@@ -2490,7 +2489,7 @@
         <v>-0.33522393102518444</v>
       </c>
       <c r="O33" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_032_Ca113TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_032_Ca113TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P33" t="s">
@@ -2529,19 +2528,19 @@
         <v>23</v>
       </c>
       <c r="K34">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L34" s="4">
-        <v>3.6863706000000001</v>
+        <v>3.2216195999999999</v>
       </c>
       <c r="M34" s="4">
-        <v>241.68178395173524</v>
+        <v>241.56288913705441</v>
       </c>
       <c r="N34" s="4">
-        <v>0.2298728932418069</v>
+        <v>0.22932350426412373</v>
       </c>
       <c r="O34" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_033_Ca114TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_033_Ca114TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P34" t="s">
@@ -2580,19 +2579,19 @@
         <v>23</v>
       </c>
       <c r="K35">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="L35" s="4">
-        <v>3.5602301999999999</v>
+        <v>3.4127548999999999</v>
       </c>
       <c r="M35" s="4">
-        <v>74.350069186367904</v>
+        <v>74.349440698349369</v>
       </c>
       <c r="N35" s="4">
-        <v>-0.33438669611970967</v>
+        <v>-0.33442130315761376</v>
       </c>
       <c r="O35" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_034_Ca114TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_034_Ca114TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P35" t="s">
@@ -2631,19 +2630,19 @@
         <v>23</v>
       </c>
       <c r="K36">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="L36" s="4">
-        <v>3.7877483000000001</v>
+        <v>3.2671402999999999</v>
       </c>
       <c r="M36" s="4">
-        <v>240.96075819820564</v>
+        <v>241.09518630410309</v>
       </c>
       <c r="N36" s="4">
-        <v>0.22740987031796256</v>
+        <v>0.22762690361494706</v>
       </c>
       <c r="O36" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_035_Ca115TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_035_Ca115TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P36" t="s">
@@ -2682,19 +2681,19 @@
         <v>23</v>
       </c>
       <c r="K37">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="L37" s="4">
-        <v>4.1316041999999999</v>
+        <v>3.2158573000000001</v>
       </c>
       <c r="M37" s="4">
-        <v>74.206828278496602</v>
+        <v>74.208202265048115</v>
       </c>
       <c r="N37" s="4">
-        <v>-0.33285127582213575</v>
+        <v>-0.33236342316312184</v>
       </c>
       <c r="O37" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_036_Ca115TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_036_Ca115TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P37" t="s">
@@ -2736,7 +2735,7 @@
         <v>934</v>
       </c>
       <c r="L38" s="4">
-        <v>5.2304475000000004</v>
+        <v>4.5191999999999997</v>
       </c>
       <c r="M38" s="4">
         <v>242.67672774494193</v>
@@ -2745,7 +2744,7 @@
         <v>0.23362581427729487</v>
       </c>
       <c r="O38" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_037_Ca116TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_037_Ca116TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P38" t="s">
@@ -2787,7 +2786,7 @@
         <v>1046</v>
       </c>
       <c r="L39" s="4">
-        <v>6.4688957</v>
+        <v>4.7212626000000002</v>
       </c>
       <c r="M39" s="4">
         <v>74.65961397242792</v>
@@ -2796,7 +2795,7 @@
         <v>-0.33905829499748558</v>
       </c>
       <c r="O39" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_038_Ca116TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_038_Ca116TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P39" t="s">
@@ -2838,7 +2837,7 @@
         <v>946</v>
       </c>
       <c r="L40" s="4">
-        <v>6.2228079000000003</v>
+        <v>5.1172333999999999</v>
       </c>
       <c r="M40" s="4">
         <v>241.63241141713598</v>
@@ -2847,7 +2846,7 @@
         <v>0.23021702247040707</v>
       </c>
       <c r="O40" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_039_Ca117TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_039_Ca117TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P40" t="s">
@@ -2889,7 +2888,7 @@
         <v>1076</v>
       </c>
       <c r="L41" s="4">
-        <v>7.4761711000000002</v>
+        <v>5.5932266000000004</v>
       </c>
       <c r="M41" s="4">
         <v>74.35106037960692</v>
@@ -2898,7 +2897,7 @@
         <v>-0.33672664319886098</v>
       </c>
       <c r="O41" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_040_Ca117TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_040_Ca117TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P41" t="s">
@@ -2937,19 +2936,19 @@
         <v>23</v>
       </c>
       <c r="K42">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="L42" s="4">
-        <v>5.9118624999999998</v>
+        <v>5.1775614000000001</v>
       </c>
       <c r="M42" s="4">
-        <v>241.59014062377832</v>
+        <v>241.50224705303981</v>
       </c>
       <c r="N42" s="4">
-        <v>0.22976047785076112</v>
+        <v>0.22964513060442759</v>
       </c>
       <c r="O42" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_041_Ca118TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_041_Ca118TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P42" t="s">
@@ -2988,19 +2987,19 @@
         <v>23</v>
       </c>
       <c r="K43">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="L43" s="4">
-        <v>7.5699093</v>
+        <v>5.8588581</v>
       </c>
       <c r="M43" s="4">
-        <v>74.353214833077203</v>
+        <v>74.350753543772854</v>
       </c>
       <c r="N43" s="4">
-        <v>-0.33533691870247523</v>
+        <v>-0.33654861111692308</v>
       </c>
       <c r="O43" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_042_Ca118TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_042_Ca118TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P43" t="s">
@@ -3039,19 +3038,19 @@
         <v>23</v>
       </c>
       <c r="K44">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="L44" s="4">
-        <v>6.2543901999999996</v>
+        <v>5.3716358</v>
       </c>
       <c r="M44" s="4">
-        <v>241.14623650214122</v>
+        <v>241.076582244306</v>
       </c>
       <c r="N44" s="4">
-        <v>0.22902889730151593</v>
+        <v>0.22488556418886024</v>
       </c>
       <c r="O44" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_043_Ca119TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_043_Ca119TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P44" t="s">
@@ -3090,19 +3089,19 @@
         <v>23</v>
       </c>
       <c r="K45">
-        <v>1069</v>
+        <v>1087</v>
       </c>
       <c r="L45" s="4">
-        <v>7.9384395000000003</v>
+        <v>5.8932878000000004</v>
       </c>
       <c r="M45" s="4">
-        <v>74.198516262025564</v>
+        <v>74.200533943709615</v>
       </c>
       <c r="N45" s="4">
-        <v>-0.33246459082202756</v>
+        <v>-0.33570721342891136</v>
       </c>
       <c r="O45" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_044_Ca119TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_044_Ca119TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P45" t="s">
@@ -3144,7 +3143,7 @@
         <v>405</v>
       </c>
       <c r="L46" s="4">
-        <v>17.049876399999999</v>
+        <v>13.1287308</v>
       </c>
       <c r="M46" s="4">
         <v>100.86613149945659</v>
@@ -3153,7 +3152,7 @@
         <v>-1.4357057540660792E-2</v>
       </c>
       <c r="O46" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_045_Ca128TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_045_Ca128TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P46" t="s">
@@ -3195,7 +3194,7 @@
         <v>471</v>
       </c>
       <c r="L47" s="4">
-        <v>15.9573245</v>
+        <v>11.5221579</v>
       </c>
       <c r="M47" s="4">
         <v>37.323873590505954</v>
@@ -3204,7 +3203,7 @@
         <v>-0.13870152242594028</v>
       </c>
       <c r="O47" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_046_Ca128TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_046_Ca128TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P47" t="s">
@@ -3243,19 +3242,19 @@
         <v>23</v>
       </c>
       <c r="K48">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="L48" s="4">
-        <v>15.461539200000001</v>
+        <v>10.993366</v>
       </c>
       <c r="M48" s="4">
-        <v>232.31762111240542</v>
+        <v>232.58626607853191</v>
       </c>
       <c r="N48" s="4">
-        <v>7.3019483302746296E-2</v>
+        <v>8.0427397763510669E-2</v>
       </c>
       <c r="O48" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_047_Ca129TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_047_Ca129TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P48" t="s">
@@ -3294,19 +3293,19 @@
         <v>23</v>
       </c>
       <c r="K49">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L49" s="4">
-        <v>15.9555828</v>
+        <v>11.6469091</v>
       </c>
       <c r="M49" s="4">
-        <v>71.542845215152269</v>
+        <v>71.583203083432565</v>
       </c>
       <c r="N49" s="4">
-        <v>-0.54118789296646785</v>
+        <v>-0.5389873808071789</v>
       </c>
       <c r="O49" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_048_Ca129TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_048_Ca129TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P49" t="s">
@@ -3348,7 +3347,7 @@
         <v>771</v>
       </c>
       <c r="L50" s="4">
-        <v>27.434199</v>
+        <v>20.9071842</v>
       </c>
       <c r="M50" s="4">
         <v>220.39059843036739</v>
@@ -3357,7 +3356,7 @@
         <v>-1.463880025013589</v>
       </c>
       <c r="O50" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_049_Ca130TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_049_Ca130TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P50" t="s">
@@ -3399,7 +3398,7 @@
         <v>752</v>
       </c>
       <c r="L51" s="4">
-        <v>22.636835999999999</v>
+        <v>18.494989100000002</v>
       </c>
       <c r="M51" s="4">
         <v>69.57241351916889</v>
@@ -3408,7 +3407,7 @@
         <v>-0.55072620974615771</v>
       </c>
       <c r="O51" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_050_Ca130TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_050_Ca130TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P51" t="s">
@@ -3450,7 +3449,7 @@
         <v>589</v>
       </c>
       <c r="L52" s="4">
-        <v>13.0763044</v>
+        <v>16.2852064</v>
       </c>
       <c r="M52" s="4">
         <v>177.37310331643786</v>
@@ -3459,7 +3458,7 @@
         <v>-5.9421223180854126</v>
       </c>
       <c r="O52" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_051_Ca131TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_051_Ca131TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P52" t="s">
@@ -3501,7 +3500,7 @@
         <v>510</v>
       </c>
       <c r="L53" s="4">
-        <v>14.1818203</v>
+        <v>11.590020600000001</v>
       </c>
       <c r="M53" s="4">
         <v>37.435270491184433</v>
@@ -3510,7 +3509,7 @@
         <v>-0.16682841469423221</v>
       </c>
       <c r="O53" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_052_Ca131TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_052_Ca131TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P53" t="s">
@@ -3552,7 +3551,7 @@
         <v>372</v>
       </c>
       <c r="L54" s="4">
-        <v>9.5605657999999991</v>
+        <v>7.6333279000000003</v>
       </c>
       <c r="M54" s="4">
         <v>232.25434405901916</v>
@@ -3561,7 +3560,7 @@
         <v>3.7523701952729201E-2</v>
       </c>
       <c r="O54" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_053_Ca132TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_053_Ca132TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P54" t="s">
@@ -3603,7 +3602,7 @@
         <v>506</v>
       </c>
       <c r="L55" s="4">
-        <v>12.4324116</v>
+        <v>8.8700401000000006</v>
       </c>
       <c r="M55" s="4">
         <v>71.223450127714955</v>
@@ -3612,7 +3611,7 @@
         <v>-0.53035927492958723</v>
       </c>
       <c r="O55" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_054_Ca132TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_054_Ca132TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P55" t="s">
@@ -3651,19 +3650,19 @@
         <v>23</v>
       </c>
       <c r="K56">
-        <v>395</v>
+        <v>561</v>
       </c>
       <c r="L56" s="4">
-        <v>7.9613940999999997</v>
+        <v>13.283318400000001</v>
       </c>
       <c r="M56" s="4">
-        <v>232.8822007105031</v>
+        <v>176.12861142075508</v>
       </c>
       <c r="N56" s="4">
-        <v>2.3644105581510733E-4</v>
+        <v>-9.2582920124134134</v>
       </c>
       <c r="O56" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_055_Ca133TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_055_Ca133TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P56" t="s">
@@ -3702,19 +3701,19 @@
         <v>23</v>
       </c>
       <c r="K57">
-        <v>515</v>
+        <v>554</v>
       </c>
       <c r="L57" s="4">
-        <v>10.8764685</v>
+        <v>12.1248466</v>
       </c>
       <c r="M57" s="4">
-        <v>71.757457013757588</v>
+        <v>36.213260939419527</v>
       </c>
       <c r="N57" s="4">
-        <v>-0.54700847146136078</v>
+        <v>-0.1589460704562092</v>
       </c>
       <c r="O57" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_056_Ca133TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_056_Ca133TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P57" t="s">
@@ -3756,7 +3755,7 @@
         <v>378</v>
       </c>
       <c r="L58" s="4">
-        <v>9.2698737999999992</v>
+        <v>7.4738620999999998</v>
       </c>
       <c r="M58" s="4">
         <v>233.09474571610622</v>
@@ -3765,7 +3764,7 @@
         <v>5.2498729348790063E-4</v>
       </c>
       <c r="O58" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_057_Ca134TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_057_Ca134TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P58" t="s">
@@ -3807,7 +3806,7 @@
         <v>497</v>
       </c>
       <c r="L59" s="4">
-        <v>11.2335987</v>
+        <v>8.6158476000000004</v>
       </c>
       <c r="M59" s="4">
         <v>71.763607496146619</v>
@@ -3816,7 +3815,7 @@
         <v>-0.54678316769108926</v>
       </c>
       <c r="O59" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_058_Ca134TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_058_Ca134TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P59" t="s">
@@ -3858,7 +3857,7 @@
         <v>363</v>
       </c>
       <c r="L60" s="4">
-        <v>9.2456045000000007</v>
+        <v>6.5765226999999999</v>
       </c>
       <c r="M60" s="4">
         <v>232.96687056818539</v>
@@ -3867,7 +3866,7 @@
         <v>2.4345008538149051E-3</v>
       </c>
       <c r="O60" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_059_Ca135TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_059_Ca135TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P60" t="s">
@@ -3909,7 +3908,7 @@
         <v>509</v>
       </c>
       <c r="L61" s="4">
-        <v>9.3298164999999997</v>
+        <v>7.2536337</v>
       </c>
       <c r="M61" s="4">
         <v>71.767240915703141</v>
@@ -3918,7 +3917,7 @@
         <v>-0.54703871911959723</v>
       </c>
       <c r="O61" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_060_Ca135TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_060_Ca135TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P61" t="s">
@@ -3960,16 +3959,16 @@
         <v>428</v>
       </c>
       <c r="L62" s="4">
-        <v>11.5223361</v>
+        <v>10.4255107</v>
       </c>
       <c r="M62" s="4">
-        <v>233.03337359837261</v>
+        <v>233.02276811029415</v>
       </c>
       <c r="N62" s="4">
-        <v>7.1529414567881505E-2</v>
+        <v>6.7390265492644014E-2</v>
       </c>
       <c r="O62" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_061_Ca136TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_061_Ca136TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P62" t="s">
@@ -4008,19 +4007,19 @@
         <v>23</v>
       </c>
       <c r="K63">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="L63" s="4">
-        <v>14.9667694</v>
+        <v>11.039469499999999</v>
       </c>
       <c r="M63" s="4">
-        <v>71.761327353647346</v>
+        <v>71.756416474655808</v>
       </c>
       <c r="N63" s="4">
-        <v>-0.5459198449723317</v>
+        <v>-0.54166270523377635</v>
       </c>
       <c r="O63" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_062_Ca136TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_062_Ca136TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P63" t="s">
@@ -4062,7 +4061,7 @@
         <v>333</v>
       </c>
       <c r="L64" s="4">
-        <v>6.4986500999999999</v>
+        <v>5.9127770000000002</v>
       </c>
       <c r="M64" s="4">
         <v>233.64010681043797</v>
@@ -4071,7 +4070,7 @@
         <v>0.14247475862687123</v>
       </c>
       <c r="O64" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_063_Ca137TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_063_Ca137TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P64" t="s">
@@ -4113,7 +4112,7 @@
         <v>469</v>
       </c>
       <c r="L65" s="4">
-        <v>9.4100298000000002</v>
+        <v>6.8531230000000001</v>
       </c>
       <c r="M65" s="4">
         <v>71.797454459517354</v>
@@ -4122,7 +4121,7 @@
         <v>-0.50403038507243769</v>
       </c>
       <c r="O65" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_064_Ca137TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_064_Ca137TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P65" t="s">
@@ -4164,7 +4163,7 @@
         <v>339</v>
       </c>
       <c r="L66" s="4">
-        <v>10.878681200000001</v>
+        <v>8.3812809000000001</v>
       </c>
       <c r="M66" s="4">
         <v>233.54460894402655</v>
@@ -4173,7 +4172,7 @@
         <v>0.15285371875530679</v>
       </c>
       <c r="O66" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_065_Ca138TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_065_Ca138TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P66" t="s">
@@ -4215,7 +4214,7 @@
         <v>499</v>
       </c>
       <c r="L67" s="4">
-        <v>13.7300301</v>
+        <v>9.3949306000000004</v>
       </c>
       <c r="M67" s="4">
         <v>71.664139815490941</v>
@@ -4224,7 +4223,7 @@
         <v>-0.82645650615734678</v>
       </c>
       <c r="O67" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_066_Ca138TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_066_Ca138TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P67" t="s">
@@ -4263,19 +4262,19 @@
         <v>23</v>
       </c>
       <c r="K68">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="L68" s="4">
-        <v>16.436177600000001</v>
+        <v>13.224543199999999</v>
       </c>
       <c r="M68" s="4">
-        <v>411.7079343545052</v>
+        <v>411.71264603021757</v>
       </c>
       <c r="N68" s="4">
-        <v>1.5793248104084823</v>
+        <v>1.5858094166407377</v>
       </c>
       <c r="O68" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_067_Ca139TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_067_Ca139TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P68" t="s">
@@ -4314,19 +4313,19 @@
         <v>23</v>
       </c>
       <c r="K69">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="L69" s="4">
-        <v>12.3929948</v>
+        <v>9.8406711999999992</v>
       </c>
       <c r="M69" s="4">
-        <v>157.24206483742861</v>
+        <v>157.23585894298103</v>
       </c>
       <c r="N69" s="4">
-        <v>-0.56943199989705318</v>
+        <v>-0.57303786506528909</v>
       </c>
       <c r="O69" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_068_Ca139TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_068_Ca139TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P69" t="s">
@@ -4365,19 +4364,19 @@
         <v>23</v>
       </c>
       <c r="K70">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="L70" s="4">
-        <v>26.324714799999999</v>
+        <v>21.090749800000001</v>
       </c>
       <c r="M70" s="4">
-        <v>411.81861100682335</v>
+        <v>411.78570068868981</v>
       </c>
       <c r="N70" s="4">
-        <v>1.5794488169731173</v>
+        <v>1.5688271603269441</v>
       </c>
       <c r="O70" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_069_Ca141TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_069_Ca141TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P70" t="s">
@@ -4416,19 +4415,19 @@
         <v>23</v>
       </c>
       <c r="K71">
-        <v>1687</v>
+        <v>1696</v>
       </c>
       <c r="L71" s="4">
-        <v>20.400035500000001</v>
+        <v>15.792049</v>
       </c>
       <c r="M71" s="4">
-        <v>157.30376736526784</v>
+        <v>157.30946242188563</v>
       </c>
       <c r="N71" s="4">
-        <v>-0.55381358528330948</v>
+        <v>-0.56325567797862031</v>
       </c>
       <c r="O71" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_070_Ca141TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_070_Ca141TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P71" t="s">
@@ -4470,7 +4469,7 @@
         <v>337</v>
       </c>
       <c r="L72" s="4">
-        <v>17.5040719</v>
+        <v>13.867115500000001</v>
       </c>
       <c r="M72" s="4">
         <v>96.717479370668556</v>
@@ -4479,7 +4478,7 @@
         <v>-4.0408862266687565E-2</v>
       </c>
       <c r="O72" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_071_Ca143TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_071_Ca143TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P72" t="s">
@@ -4521,7 +4520,7 @@
         <v>433</v>
       </c>
       <c r="L73" s="4">
-        <v>18.323707800000001</v>
+        <v>13.842571899999999</v>
       </c>
       <c r="M73" s="4">
         <v>25.17407962142207</v>
@@ -4530,7 +4529,7 @@
         <v>-5.4658032845276497E-2</v>
       </c>
       <c r="O73" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_072_Ca143TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_072_Ca143TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P73" t="s">
@@ -4572,7 +4571,7 @@
         <v>339</v>
       </c>
       <c r="L74" s="4">
-        <v>12.4121609</v>
+        <v>10.3923542</v>
       </c>
       <c r="M74" s="4">
         <v>115.04801379002851</v>
@@ -4581,7 +4580,7 @@
         <v>0.53014906927755645</v>
       </c>
       <c r="O74" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_073_Ca144TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_073_Ca144TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P74" t="s">
@@ -4623,7 +4622,7 @@
         <v>450</v>
       </c>
       <c r="L75" s="4">
-        <v>14.2516687</v>
+        <v>10.261700599999999</v>
       </c>
       <c r="M75" s="4">
         <v>35.860747365879675</v>
@@ -4632,7 +4631,7 @@
         <v>-3.5266079154181937E-2</v>
       </c>
       <c r="O75" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_074_Ca144TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_074_Ca144TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P75" t="s">
@@ -4674,7 +4673,7 @@
         <v>2391</v>
       </c>
       <c r="L76" s="4">
-        <v>24.516955100000001</v>
+        <v>19.6174608</v>
       </c>
       <c r="M76" s="4">
         <v>401.45400687367737</v>
@@ -4683,7 +4682,7 @@
         <v>-64.802070760366064</v>
       </c>
       <c r="O76" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_075_Ca147TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_075_Ca147TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P76" t="s">
@@ -4725,7 +4724,7 @@
         <v>1265</v>
       </c>
       <c r="L77" s="4">
-        <v>18.325059400000001</v>
+        <v>13.3666816</v>
       </c>
       <c r="M77" s="4">
         <v>155.46767077386662</v>
@@ -4734,7 +4733,7 @@
         <v>-2.6662191873101171</v>
       </c>
       <c r="O77" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_076_Ca147TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_076_Ca147TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P77" t="s">
@@ -4776,7 +4775,7 @@
         <v>1112</v>
       </c>
       <c r="L78" s="4">
-        <v>52.8088306</v>
+        <v>41.867222400000003</v>
       </c>
       <c r="M78" s="4">
         <v>184.65914925335852</v>
@@ -4785,7 +4784,7 @@
         <v>-2.9826880831486206E-2</v>
       </c>
       <c r="O78" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_077_Ca183TrN_MaWOT_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_077_Ca183TrN_MaWOT_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P78" t="s">
@@ -4827,7 +4826,7 @@
         <v>1395</v>
       </c>
       <c r="L79" s="4">
-        <v>62.673447899999999</v>
+        <v>46.153571100000001</v>
       </c>
       <c r="M79" s="4">
         <v>57.737861957379302</v>
@@ -4836,7 +4835,7 @@
         <v>8.2762221105913067E-2</v>
       </c>
       <c r="O79" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_078_Ca183TrN_MaLSS_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_078_Ca183TrN_MaLSS_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P79" t="s">
@@ -4878,7 +4877,7 @@
         <v>379</v>
       </c>
       <c r="L80" s="4">
-        <v>10.682278</v>
+        <v>9.3234852999999998</v>
       </c>
       <c r="M80" s="4">
         <v>233.88981813902785</v>
@@ -4887,7 +4886,7 @@
         <v>9.2440376925831073E-3</v>
       </c>
       <c r="O80" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_079_Ca008TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_079_Ca008TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P80" t="s">
@@ -4929,7 +4928,7 @@
         <v>551</v>
       </c>
       <c r="L81" s="4">
-        <v>12.745119600000001</v>
+        <v>10.985500099999999</v>
       </c>
       <c r="M81" s="4">
         <v>72.061177590033125</v>
@@ -4938,7 +4937,7 @@
         <v>-0.54984787726948581</v>
       </c>
       <c r="O81" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_080_Ca008TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_080_Ca008TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P81" t="s">
@@ -4980,7 +4979,7 @@
         <v>367</v>
       </c>
       <c r="L82" s="4">
-        <v>13.3328316</v>
+        <v>9.8178038000000001</v>
       </c>
       <c r="M82" s="4">
         <v>233.12167979409475</v>
@@ -4989,7 +4988,7 @@
         <v>1.0273730614252664E-3</v>
       </c>
       <c r="O82" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_081_Ca009TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_081_Ca009TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P82" t="s">
@@ -5031,7 +5030,7 @@
         <v>530</v>
       </c>
       <c r="L83" s="4">
-        <v>14.069970100000001</v>
+        <v>12.4233086</v>
       </c>
       <c r="M83" s="4">
         <v>71.773296887041298</v>
@@ -5040,7 +5039,7 @@
         <v>-0.54074126859330529</v>
       </c>
       <c r="O83" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_082_Ca009TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_082_Ca009TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P83" t="s">
@@ -5079,19 +5078,19 @@
         <v>23</v>
       </c>
       <c r="K84">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="L84" s="4">
-        <v>12.980378099999999</v>
+        <v>10.822333799999999</v>
       </c>
       <c r="M84" s="4">
-        <v>232.7757145525805</v>
+        <v>232.79255825601646</v>
       </c>
       <c r="N84" s="4">
-        <v>6.940629301028009E-2</v>
+        <v>6.9480676210600292E-2</v>
       </c>
       <c r="O84" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_083_Ca010TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_083_Ca010TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P84" t="s">
@@ -5130,19 +5129,19 @@
         <v>23</v>
       </c>
       <c r="K85">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="L85" s="4">
-        <v>16.1395573</v>
+        <v>14.5133724</v>
       </c>
       <c r="M85" s="4">
-        <v>71.765030425611755</v>
+        <v>71.76656912111082</v>
       </c>
       <c r="N85" s="4">
-        <v>-0.53875902907985496</v>
+        <v>-0.53935820258967604</v>
       </c>
       <c r="O85" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_084_Ca010TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_084_Ca010TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P85" t="s">
@@ -5181,19 +5180,19 @@
         <v>23</v>
       </c>
       <c r="K86">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L86" s="4">
-        <v>13.262375499999999</v>
+        <v>11.654698</v>
       </c>
       <c r="M86" s="4">
-        <v>232.51354361644923</v>
+        <v>232.57831995212061</v>
       </c>
       <c r="N86" s="4">
-        <v>6.7132873016424136E-2</v>
+        <v>6.7205287637926922E-2</v>
       </c>
       <c r="O86" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_085_Ca011TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_085_Ca011TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P86" t="s">
@@ -5232,19 +5231,19 @@
         <v>23</v>
       </c>
       <c r="K87">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="L87" s="4">
-        <v>20.583789500000002</v>
+        <v>15.1917814</v>
       </c>
       <c r="M87" s="4">
-        <v>71.634063513011299</v>
+        <v>71.634212836885865</v>
       </c>
       <c r="N87" s="4">
-        <v>-0.53927660497966956</v>
+        <v>-0.53886098161264628</v>
       </c>
       <c r="O87" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_086_Ca011TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_086_Ca011TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P87" t="s">
@@ -5286,7 +5285,7 @@
         <v>818</v>
       </c>
       <c r="L88" s="4">
-        <v>10.990225300000001</v>
+        <v>9.4496657000000006</v>
       </c>
       <c r="M88" s="4">
         <v>234.08037263710426</v>
@@ -5295,7 +5294,7 @@
         <v>9.9499337266434999E-3</v>
       </c>
       <c r="O88" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_087_Ca012TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_087_Ca012TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P88" t="s">
@@ -5337,7 +5336,7 @@
         <v>944</v>
       </c>
       <c r="L89" s="4">
-        <v>12.2928242</v>
+        <v>10.8922419</v>
       </c>
       <c r="M89" s="4">
         <v>72.056974258112263</v>
@@ -5346,7 +5345,7 @@
         <v>-0.55809562998318374</v>
       </c>
       <c r="O89" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_088_Ca012TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_088_Ca012TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P89" t="s">
@@ -5388,7 +5387,7 @@
         <v>818</v>
       </c>
       <c r="L90" s="4">
-        <v>14.723398299999999</v>
+        <v>11.002333399999999</v>
       </c>
       <c r="M90" s="4">
         <v>233.05203620098266</v>
@@ -5397,7 +5396,7 @@
         <v>1.5066021242813121E-3</v>
       </c>
       <c r="O90" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_089_Ca013TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_089_Ca013TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P90" t="s">
@@ -5439,7 +5438,7 @@
         <v>967</v>
       </c>
       <c r="L91" s="4">
-        <v>15.71481</v>
+        <v>13.6329691</v>
       </c>
       <c r="M91" s="4">
         <v>71.76231921029617</v>
@@ -5448,7 +5447,7 @@
         <v>-0.55091968922749912</v>
       </c>
       <c r="O91" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_090_Ca013TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_090_Ca013TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P91" t="s">
@@ -5487,19 +5486,19 @@
         <v>23</v>
       </c>
       <c r="K92">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="L92" s="4">
-        <v>12.796877800000001</v>
+        <v>11.4889733</v>
       </c>
       <c r="M92" s="4">
-        <v>232.95445542051783</v>
+        <v>232.90666690706524</v>
       </c>
       <c r="N92" s="4">
-        <v>6.9571957492827269E-2</v>
+        <v>6.9970412619759642E-2</v>
       </c>
       <c r="O92" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_091_Ca014TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_091_Ca014TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P92" t="s">
@@ -5538,19 +5537,19 @@
         <v>23</v>
       </c>
       <c r="K93">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="L93" s="4">
-        <v>18.434376700000001</v>
+        <v>14.511082399999999</v>
       </c>
       <c r="M93" s="4">
-        <v>71.765412706766341</v>
+        <v>71.766776391197794</v>
       </c>
       <c r="N93" s="4">
-        <v>-0.54719218826644667</v>
+        <v>-0.54437019852966262</v>
       </c>
       <c r="O93" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_092_Ca014TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_092_Ca014TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P93" t="s">
@@ -5589,19 +5588,19 @@
         <v>23</v>
       </c>
       <c r="K94">
-        <v>879</v>
+        <v>863</v>
       </c>
       <c r="L94" s="4">
-        <v>14.4479226</v>
+        <v>12.053130700000001</v>
       </c>
       <c r="M94" s="4">
-        <v>232.34837101341466</v>
+        <v>232.29508518127042</v>
       </c>
       <c r="N94" s="4">
-        <v>6.7138315221446823E-2</v>
+        <v>6.6943108156506712E-2</v>
       </c>
       <c r="O94" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_093_Ca015TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_093_Ca015TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P94" t="s">
@@ -5640,19 +5639,19 @@
         <v>23</v>
       </c>
       <c r="K95">
-        <v>1020</v>
+        <v>1028</v>
       </c>
       <c r="L95" s="4">
-        <v>19.018139099999999</v>
+        <v>15.5490751</v>
       </c>
       <c r="M95" s="4">
-        <v>71.625312850418055</v>
+        <v>71.625886875277402</v>
       </c>
       <c r="N95" s="4">
-        <v>-0.54445172203311221</v>
+        <v>-0.54532233720239243</v>
       </c>
       <c r="O95" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_094_Ca015TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_094_Ca015TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P95" t="s">
@@ -5694,7 +5693,7 @@
         <v>402</v>
       </c>
       <c r="L96" s="4">
-        <v>3.6449522999999999</v>
+        <v>2.9808962999999999</v>
       </c>
       <c r="M96" s="4">
         <v>242.5890714015209</v>
@@ -5703,7 +5702,7 @@
         <v>0.23206489866861765</v>
       </c>
       <c r="O96" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_095_Ca120TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_095_Ca120TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P96" t="s">
@@ -5745,7 +5744,7 @@
         <v>523</v>
       </c>
       <c r="L97" s="4">
-        <v>4.0100179999999996</v>
+        <v>3.2755255999999999</v>
       </c>
       <c r="M97" s="4">
         <v>74.670422538606061</v>
@@ -5754,7 +5753,7 @@
         <v>-0.33784609217060607</v>
       </c>
       <c r="O97" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_096_Ca120TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_096_Ca120TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P97" t="s">
@@ -5796,7 +5795,7 @@
         <v>419</v>
       </c>
       <c r="L98" s="4">
-        <v>4.8287965000000002</v>
+        <v>3.5837289999999999</v>
       </c>
       <c r="M98" s="4">
         <v>241.54746412970036</v>
@@ -5805,7 +5804,7 @@
         <v>0.2286791372248424</v>
       </c>
       <c r="O98" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_097_Ca121TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_097_Ca121TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P98" t="s">
@@ -5847,7 +5846,7 @@
         <v>518</v>
       </c>
       <c r="L99" s="4">
-        <v>5.1889814999999997</v>
+        <v>3.8804504999999998</v>
       </c>
       <c r="M99" s="4">
         <v>74.354010081986644</v>
@@ -5856,7 +5855,7 @@
         <v>-0.32907378161057715</v>
       </c>
       <c r="O99" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_098_Ca121TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_098_Ca121TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P99" t="s">
@@ -5895,19 +5894,19 @@
         <v>23</v>
       </c>
       <c r="K100">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L100" s="4">
-        <v>4.9439852000000002</v>
+        <v>3.7814662000000001</v>
       </c>
       <c r="M100" s="4">
-        <v>241.76082877418119</v>
+        <v>241.76031608215175</v>
       </c>
       <c r="N100" s="4">
-        <v>0.22875360423101218</v>
+        <v>0.2287509880189641</v>
       </c>
       <c r="O100" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_099_Ca122TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_099_Ca122TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P100" t="s">
@@ -5946,19 +5945,19 @@
         <v>23</v>
       </c>
       <c r="K101">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="L101" s="4">
-        <v>5.4012732000000003</v>
+        <v>4.2351653000000002</v>
       </c>
       <c r="M101" s="4">
-        <v>74.381879142033</v>
+        <v>74.382058503710709</v>
       </c>
       <c r="N101" s="4">
-        <v>-0.33040962617501868</v>
+        <v>-0.33271982565124353</v>
       </c>
       <c r="O101" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_100_Ca122TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_100_Ca122TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P101" t="s">
@@ -5997,19 +5996,19 @@
         <v>23</v>
       </c>
       <c r="K102">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="L102" s="4">
-        <v>5.3064172000000003</v>
+        <v>3.869815</v>
       </c>
       <c r="M102" s="4">
-        <v>241.1828235911378</v>
+        <v>241.04484655394788</v>
       </c>
       <c r="N102" s="4">
-        <v>0.22488263097380404</v>
+        <v>0.22465897906448798</v>
       </c>
       <c r="O102" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_101_Ca123TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_101_Ca123TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P102" t="s">
@@ -6048,19 +6047,19 @@
         <v>23</v>
       </c>
       <c r="K103">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="L103" s="4">
-        <v>6.0720383</v>
+        <v>4.4484294000000002</v>
       </c>
       <c r="M103" s="4">
-        <v>74.215374775070487</v>
+        <v>74.213416454370815</v>
       </c>
       <c r="N103" s="4">
-        <v>-0.33323564890825996</v>
+        <v>-0.33228636994882738</v>
       </c>
       <c r="O103" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_102_Ca123TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_102_Ca123TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P103" t="s">
@@ -6102,7 +6101,7 @@
         <v>1015</v>
       </c>
       <c r="L104" s="4">
-        <v>4.8093364999999997</v>
+        <v>4.3364700999999997</v>
       </c>
       <c r="M104" s="4">
         <v>242.54521277554818</v>
@@ -6111,7 +6110,7 @@
         <v>0.23283647464583762</v>
       </c>
       <c r="O104" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_103_Ca124TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_103_Ca124TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P104" t="s">
@@ -6153,7 +6152,7 @@
         <v>1117</v>
       </c>
       <c r="L105" s="4">
-        <v>5.4636304999999998</v>
+        <v>4.6684238999999996</v>
       </c>
       <c r="M105" s="4">
         <v>74.661751867260918</v>
@@ -6162,7 +6161,7 @@
         <v>-0.34112488351822423</v>
       </c>
       <c r="O105" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_104_Ca124TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_104_Ca124TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P105" t="s">
@@ -6204,7 +6203,7 @@
         <v>1013</v>
       </c>
       <c r="L106" s="4">
-        <v>6.1707714999999999</v>
+        <v>4.5302550999999998</v>
       </c>
       <c r="M106" s="4">
         <v>241.54321991377375</v>
@@ -6213,7 +6212,7 @@
         <v>0.22948012359384246</v>
       </c>
       <c r="O106" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_105_Ca125TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_105_Ca125TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P106" t="s">
@@ -6255,7 +6254,7 @@
         <v>1134</v>
       </c>
       <c r="L107" s="4">
-        <v>5.9447330999999997</v>
+        <v>5.3550180999999997</v>
       </c>
       <c r="M107" s="4">
         <v>74.344280217840364</v>
@@ -6264,7 +6263,7 @@
         <v>-0.33726477426703827</v>
       </c>
       <c r="O107" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_106_Ca125TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_106_Ca125TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P107" t="s">
@@ -6303,19 +6302,19 @@
         <v>23</v>
       </c>
       <c r="K108">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="L108" s="4">
-        <v>5.5169847000000001</v>
+        <v>4.5203499000000003</v>
       </c>
       <c r="M108" s="4">
-        <v>241.64123934033074</v>
+        <v>241.64872011860234</v>
       </c>
       <c r="N108" s="4">
-        <v>0.22965108555217975</v>
+        <v>0.22966395422700261</v>
       </c>
       <c r="O108" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_107_Ca126TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_107_Ca126TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P108" t="s">
@@ -6354,19 +6353,19 @@
         <v>23</v>
       </c>
       <c r="K109">
-        <v>1146</v>
+        <v>1171</v>
       </c>
       <c r="L109" s="4">
-        <v>6.7659218000000001</v>
+        <v>5.8805128</v>
       </c>
       <c r="M109" s="4">
-        <v>74.34646955905535</v>
+        <v>74.346636840002731</v>
       </c>
       <c r="N109" s="4">
-        <v>-0.3371600409786864</v>
+        <v>-0.33748378352333974</v>
       </c>
       <c r="O109" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_108_Ca126TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_108_Ca126TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P109" t="s">
@@ -6405,19 +6404,19 @@
         <v>23</v>
       </c>
       <c r="K110">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="L110" s="4">
-        <v>6.4948959999999998</v>
+        <v>4.9637954999999998</v>
       </c>
       <c r="M110" s="4">
-        <v>241.07161291546092</v>
+        <v>240.87403313183822</v>
       </c>
       <c r="N110" s="4">
-        <v>0.22864421126241821</v>
+        <v>0.22829136348677009</v>
       </c>
       <c r="O110" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_109_Ca127TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_109_Ca127TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P110" t="s">
@@ -6456,19 +6455,19 @@
         <v>23</v>
       </c>
       <c r="K111">
-        <v>1160</v>
+        <v>1175</v>
       </c>
       <c r="L111" s="4">
-        <v>6.3296251999999997</v>
+        <v>6.0075232999999999</v>
       </c>
       <c r="M111" s="4">
-        <v>74.197676663171563</v>
+        <v>74.197620729887959</v>
       </c>
       <c r="N111" s="4">
-        <v>-0.33469334572616805</v>
+        <v>-0.33498300245992313</v>
       </c>
       <c r="O111" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_110_Ca127TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_110_Ca127TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P111" t="s">
@@ -6507,19 +6506,19 @@
         <v>23</v>
       </c>
       <c r="K112">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="L112" s="4">
-        <v>20.4895143</v>
+        <v>15.6323571</v>
       </c>
       <c r="M112" s="4">
-        <v>411.43994389134639</v>
+        <v>411.4519654661467</v>
       </c>
       <c r="N112" s="4">
-        <v>1.5691641814940522</v>
+        <v>1.5906316832174423</v>
       </c>
       <c r="O112" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_111_Ca140TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_111_Ca140TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P112" t="s">
@@ -6558,19 +6557,19 @@
         <v>23</v>
       </c>
       <c r="K113">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="L113" s="4">
-        <v>14.365032100000001</v>
+        <v>13.0565598</v>
       </c>
       <c r="M113" s="4">
-        <v>157.2399023027921</v>
+        <v>157.23775378648574</v>
       </c>
       <c r="N113" s="4">
-        <v>-0.56583799273803814</v>
+        <v>-0.56103013973216631</v>
       </c>
       <c r="O113" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_112_Ca140TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_112_Ca140TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P113" t="s">
@@ -6609,19 +6608,19 @@
         <v>23</v>
       </c>
       <c r="K114">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="L114" s="4">
-        <v>18.3341466</v>
+        <v>13.8966619</v>
       </c>
       <c r="M114" s="4">
-        <v>411.79628623521728</v>
+        <v>411.79066281328937</v>
       </c>
       <c r="N114" s="4">
-        <v>1.5898157991683091</v>
+        <v>1.5944987829644963</v>
       </c>
       <c r="O114" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_113_Ca142TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_113_Ca142TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P114" t="s">
@@ -6660,19 +6659,19 @@
         <v>23</v>
       </c>
       <c r="K115">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="L115" s="4">
-        <v>14.6225828</v>
+        <v>13.190015600000001</v>
       </c>
       <c r="M115" s="4">
-        <v>157.33547862693121</v>
+        <v>157.33772544740492</v>
       </c>
       <c r="N115" s="4">
-        <v>-0.57342739868408943</v>
+        <v>-0.57625387568378428</v>
       </c>
       <c r="O115" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_114_Ca142TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_114_Ca142TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P115" t="s">
@@ -6711,19 +6710,19 @@
         <v>23</v>
       </c>
       <c r="K116">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L116" s="4">
-        <v>15.5963745</v>
+        <v>12.4139371</v>
       </c>
       <c r="M116" s="4">
-        <v>96.662455539786777</v>
+        <v>96.615684526513192</v>
       </c>
       <c r="N116" s="4">
-        <v>-4.2126675746220386E-2</v>
+        <v>-4.1982048482484435E-2</v>
       </c>
       <c r="O116" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_115_Ca145TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_115_Ca145TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P116" t="s">
@@ -6762,19 +6761,19 @@
         <v>23</v>
       </c>
       <c r="K117">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="L117" s="4">
-        <v>16.532458599999998</v>
+        <v>14.5749406</v>
       </c>
       <c r="M117" s="4">
-        <v>25.165674722110261</v>
+        <v>25.166113695689589</v>
       </c>
       <c r="N117" s="4">
-        <v>-5.1686031953333454E-2</v>
+        <v>-5.1639386815979682E-2</v>
       </c>
       <c r="O117" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_116_Ca145TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_116_Ca145TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P117" t="s">
@@ -6813,19 +6812,19 @@
         <v>23</v>
       </c>
       <c r="K118">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L118" s="4">
-        <v>8.9364314</v>
+        <v>8.4857248999999992</v>
       </c>
       <c r="M118" s="4">
-        <v>115.11151908343714</v>
+        <v>115.1116549754821</v>
       </c>
       <c r="N118" s="4">
-        <v>0.5350548340116662</v>
+        <v>0.53506826013176589</v>
       </c>
       <c r="O118" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_117_Ca146TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_117_Ca146TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P118" t="s">
@@ -6864,19 +6863,19 @@
         <v>23</v>
       </c>
       <c r="K119">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L119" s="4">
-        <v>11.0800562</v>
+        <v>11.0686768</v>
       </c>
       <c r="M119" s="4">
-        <v>35.869373198004716</v>
+        <v>35.870251409757721</v>
       </c>
       <c r="N119" s="4">
-        <v>-3.0855079245616868E-2</v>
+        <v>-3.0691183805647605E-2</v>
       </c>
       <c r="O119" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_118_Ca146TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_118_Ca146TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P119" t="s">
@@ -6915,19 +6914,19 @@
         <v>23</v>
       </c>
       <c r="K120">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L120" s="4">
-        <v>9.1263793999999994</v>
+        <v>8.6017668</v>
       </c>
       <c r="M120" s="4">
-        <v>115.11151908343714</v>
+        <v>115.1116549754821</v>
       </c>
       <c r="N120" s="4">
-        <v>0.5350548340116662</v>
+        <v>0.53506826013176589</v>
       </c>
       <c r="O120" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_119_Ca146TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_119_Ca146TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P120" t="s">
@@ -6966,19 +6965,19 @@
         <v>23</v>
       </c>
       <c r="K121">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L121" s="4">
-        <v>10.9731858</v>
+        <v>11.692603999999999</v>
       </c>
       <c r="M121" s="4">
-        <v>35.869373198004716</v>
+        <v>35.870251409757721</v>
       </c>
       <c r="N121" s="4">
-        <v>-3.0855079245616868E-2</v>
+        <v>-3.0691183805647605E-2</v>
       </c>
       <c r="O121" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_120_Ca146TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_120_Ca146TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P121" t="s">
@@ -7017,19 +7016,19 @@
         <v>23</v>
       </c>
       <c r="K122">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="L122" s="4">
-        <v>16.5983558</v>
+        <v>15.538615200000001</v>
       </c>
       <c r="M122" s="4">
-        <v>183.14398060868902</v>
+        <v>183.12704048305986</v>
       </c>
       <c r="N122" s="4">
-        <v>0.30540343333404341</v>
+        <v>0.3054901113753864</v>
       </c>
       <c r="O122" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_121_Ca161TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_121_Ca161TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P122" t="s">
@@ -7068,19 +7067,19 @@
         <v>23</v>
       </c>
       <c r="K123">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="L123" s="4">
-        <v>21.6041767</v>
+        <v>19.130721399999999</v>
       </c>
       <c r="M123" s="4">
-        <v>157.05738942922795</v>
+        <v>157.06198782252935</v>
       </c>
       <c r="N123" s="4">
-        <v>-0.54645257526278701</v>
+        <v>-0.55680748263444502</v>
       </c>
       <c r="O123" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_122_Ca161TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_122_Ca161TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P123" t="s">
@@ -7119,19 +7118,19 @@
         <v>23</v>
       </c>
       <c r="K124">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="L124" s="4">
-        <v>18.5521286</v>
+        <v>16.691067199999999</v>
       </c>
       <c r="M124" s="4">
-        <v>282.34334282298596</v>
+        <v>282.34357825576171</v>
       </c>
       <c r="N124" s="4">
-        <v>0.73321106586788098</v>
+        <v>0.73409871044442787</v>
       </c>
       <c r="O124" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_123_Ca163TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_123_Ca163TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P124" t="s">
@@ -7170,19 +7169,19 @@
         <v>23</v>
       </c>
       <c r="K125">
-        <v>681</v>
+        <v>702</v>
       </c>
       <c r="L125" s="4">
-        <v>24.924484899999999</v>
+        <v>22.751524</v>
       </c>
       <c r="M125" s="4">
-        <v>260.88722696271998</v>
+        <v>260.89141587239124</v>
       </c>
       <c r="N125" s="4">
-        <v>-0.44696434118231076</v>
+        <v>-0.47334832600774118</v>
       </c>
       <c r="O125" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_124_Ca163TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_124_Ca163TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P125" t="s">
@@ -7224,7 +7223,7 @@
         <v>322</v>
       </c>
       <c r="L126" s="4">
-        <v>17.0451546</v>
+        <v>14.388147</v>
       </c>
       <c r="M126" s="4">
         <v>313.20816812667243</v>
@@ -7233,7 +7232,7 @@
         <v>1.5291435344814343E-4</v>
       </c>
       <c r="O126" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_125_Ca184TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_125_Ca184TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P126" t="s">
@@ -7275,7 +7274,7 @@
         <v>479</v>
       </c>
       <c r="L127" s="4">
-        <v>13.787658199999999</v>
+        <v>10.769655800000001</v>
       </c>
       <c r="M127" s="4">
         <v>112.44333081299311</v>
@@ -7284,7 +7283,7 @@
         <v>-0.19957904970453647</v>
       </c>
       <c r="O127" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_126_Ca184TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_126_Ca184TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P127" t="s">
@@ -7323,19 +7322,19 @@
         <v>23</v>
       </c>
       <c r="K128">
-        <v>822</v>
+        <v>761</v>
       </c>
       <c r="L128" s="4">
-        <v>12.6573344</v>
+        <v>9.9930441999999999</v>
       </c>
       <c r="M128" s="4">
-        <v>381.81591466126821</v>
+        <v>254.6698845475496</v>
       </c>
       <c r="N128" s="4">
-        <v>-2.8841399437595783E-5</v>
+        <v>3.4163189081519718E-3</v>
       </c>
       <c r="O128" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_127_Ca012TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_127_Ca012TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P128" t="s">
@@ -7377,7 +7376,7 @@
         <v>904</v>
       </c>
       <c r="L129" s="4">
-        <v>14.8242954</v>
+        <v>13.2786335</v>
       </c>
       <c r="M129" s="4">
         <v>75.695097292580172</v>
@@ -7386,7 +7385,7 @@
         <v>0.76556561609180662</v>
       </c>
       <c r="O129" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_128_Ca012TrN_MaIPA_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_128_Ca012TrN_MaIPA_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P129" t="s">
@@ -7425,19 +7424,19 @@
         <v>23</v>
       </c>
       <c r="K130">
-        <v>802</v>
+        <v>741</v>
       </c>
       <c r="L130" s="4">
-        <v>15.537891200000001</v>
+        <v>11.5645264</v>
       </c>
       <c r="M130" s="4">
-        <v>383.23460251315896</v>
+        <v>256.03902220483462</v>
       </c>
       <c r="N130" s="4">
-        <v>1.3250519915244396E-3</v>
+        <v>-4.7189425097471371E-3</v>
       </c>
       <c r="O130" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_129_Ca142TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_129_Ca142TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P130" t="s">
@@ -7476,19 +7475,19 @@
         <v>23</v>
       </c>
       <c r="K131">
-        <v>1572</v>
+        <v>1542</v>
       </c>
       <c r="L131" s="4">
-        <v>43.838132899999998</v>
+        <v>36.1710116</v>
       </c>
       <c r="M131" s="4">
-        <v>85.068052973352877</v>
+        <v>85.058423777422746</v>
       </c>
       <c r="N131" s="4">
-        <v>0.82143547180046739</v>
+        <v>0.83646563911599581</v>
       </c>
       <c r="O131" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_130_Ca142TrN_MaIPA_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_130_Ca142TrN_MaIPA_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P131" t="s">
@@ -7527,19 +7526,19 @@
         <v>23</v>
       </c>
       <c r="K132">
-        <v>527</v>
+        <v>474</v>
       </c>
       <c r="L132" s="4">
-        <v>20.131584100000001</v>
+        <v>15.349698200000001</v>
       </c>
       <c r="M132" s="4">
-        <v>372.20355675717434</v>
+        <v>253.27180401064624</v>
       </c>
       <c r="N132" s="4">
-        <v>1.3873388124689967E-3</v>
+        <v>4.9160894154999468E-2</v>
       </c>
       <c r="O132" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_131_Ca145TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_131_Ca145TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P132" t="s">
@@ -7581,16 +7580,16 @@
         <v>317</v>
       </c>
       <c r="L133" s="4">
-        <v>11.582423199999999</v>
+        <v>10.7505322</v>
       </c>
       <c r="M133" s="4">
-        <v>28.272713761909301</v>
+        <v>28.2728261248444</v>
       </c>
       <c r="N133" s="4">
-        <v>1.5548265108026985E-2</v>
+        <v>1.5548543716459501E-2</v>
       </c>
       <c r="O133" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_132_Ca145TrN_MaIPA_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_132_Ca145TrN_MaIPA_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P133" t="s">
@@ -7629,19 +7628,19 @@
         <v>23</v>
       </c>
       <c r="K134">
-        <v>477</v>
+        <v>414</v>
       </c>
       <c r="L134" s="4">
-        <v>15.7934368</v>
+        <v>9.8396448000000003</v>
       </c>
       <c r="M134" s="4">
-        <v>370.24712935998099</v>
+        <v>253.84596743819276</v>
       </c>
       <c r="N134" s="4">
-        <v>-5.6608121212775586E-7</v>
+        <v>1.2996891345370187E-2</v>
       </c>
       <c r="O134" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_133_Ca184TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_133_Ca184TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P134" t="s">
@@ -7683,7 +7682,7 @@
         <v>375</v>
       </c>
       <c r="L135" s="4">
-        <v>13.932387500000001</v>
+        <v>11.202164700000001</v>
       </c>
       <c r="M135" s="4">
         <v>61.825138185713087</v>
@@ -7692,7 +7691,7 @@
         <v>0.56400296068770284</v>
       </c>
       <c r="O135" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_134_Ca184TrN_MaIPA_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_134_Ca184TrN_MaIPA_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P135" t="s">
@@ -7731,19 +7730,19 @@
         <v>23</v>
       </c>
       <c r="K136">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="L136" s="4">
-        <v>30.5855748</v>
+        <v>29.687452799999999</v>
       </c>
       <c r="M136" s="4">
-        <v>337.6062999013505</v>
+        <v>255.18544733154397</v>
       </c>
       <c r="N136" s="4">
-        <v>1.4656777464541193E-3</v>
+        <v>1.5062633559493221E-2</v>
       </c>
       <c r="O136" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_135_Ca204TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_135_Ca204TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P136" t="s">
@@ -7785,7 +7784,7 @@
         <v>671</v>
       </c>
       <c r="L137" s="4">
-        <v>14.056604699999999</v>
+        <v>13.0078365</v>
       </c>
       <c r="M137" s="4">
         <v>26.038549295500125</v>
@@ -7794,7 +7793,7 @@
         <v>9.6710687165359483E-3</v>
       </c>
       <c r="O137" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_136_Ca204TrN_MaIPA_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_136_Ca204TrN_MaIPA_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P137" t="s">
@@ -7833,19 +7832,19 @@
         <v>23</v>
       </c>
       <c r="K138">
-        <v>2964</v>
+        <v>2696</v>
       </c>
       <c r="L138" s="4">
-        <v>26.707970400000001</v>
+        <v>24.881414400000001</v>
       </c>
       <c r="M138" s="4">
-        <v>-13.848449705941659</v>
+        <v>-2.0841191367567249E-2</v>
       </c>
       <c r="N138" s="4">
-        <v>-0.33301225865174577</v>
+        <v>-0.62252173162016589</v>
       </c>
       <c r="O138" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_137_Ca012TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_137_Ca012TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P138" t="s">
@@ -7884,19 +7883,19 @@
         <v>23</v>
       </c>
       <c r="K139">
-        <v>3416</v>
+        <v>3104</v>
       </c>
       <c r="L139" s="4">
-        <v>31.349456199999999</v>
+        <v>29.7292433</v>
       </c>
       <c r="M139" s="4">
-        <v>5.0176301745039567</v>
+        <v>0.78691469347250553</v>
       </c>
       <c r="N139" s="4">
-        <v>-0.40453624112147624</v>
+        <v>-0.32250835255474725</v>
       </c>
       <c r="O139" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_138_Ca012TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_138_Ca012TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P139" t="s">
@@ -7935,19 +7934,19 @@
         <v>23</v>
       </c>
       <c r="K140">
-        <v>2657</v>
+        <v>2496</v>
       </c>
       <c r="L140" s="4">
-        <v>34.931571599999998</v>
+        <v>30.117118900000001</v>
       </c>
       <c r="M140" s="4">
-        <v>-13.80888635564034</v>
+        <v>-1.1533469441517424E-2</v>
       </c>
       <c r="N140" s="4">
-        <v>-0.25551481013042032</v>
+        <v>-0.54629161976314344</v>
       </c>
       <c r="O140" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_139_Ca142TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_139_Ca142TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P140" t="s">
@@ -7986,19 +7985,19 @@
         <v>23</v>
       </c>
       <c r="K141">
-        <v>3269</v>
+        <v>3130</v>
       </c>
       <c r="L141" s="4">
-        <v>48.112139999999997</v>
+        <v>44.954032099999999</v>
       </c>
       <c r="M141" s="4">
-        <v>5.0184910565277194</v>
+        <v>0.788223705234957</v>
       </c>
       <c r="N141" s="4">
-        <v>-0.46654377391151891</v>
+        <v>-0.36582640180120124</v>
       </c>
       <c r="O141" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_140_Ca142TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_140_Ca142TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P141" t="s">
@@ -8037,19 +8036,19 @@
         <v>23</v>
       </c>
       <c r="K142">
-        <v>3192</v>
+        <v>2886</v>
       </c>
       <c r="L142" s="4">
-        <v>13.962852</v>
+        <v>11.875861499999999</v>
       </c>
       <c r="M142" s="4">
-        <v>-13.852371937001852</v>
+        <v>-1.6830958857765976E-2</v>
       </c>
       <c r="N142" s="4">
-        <v>-0.24099870882947746</v>
+        <v>-0.52487693276259617</v>
       </c>
       <c r="O142" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_141_Ca116TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_141_Ca116TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P142" t="s">
@@ -8088,19 +8087,19 @@
         <v>23</v>
       </c>
       <c r="K143">
-        <v>3608</v>
+        <v>3352</v>
       </c>
       <c r="L143" s="4">
-        <v>15.245555100000001</v>
+        <v>12.512768599999999</v>
       </c>
       <c r="M143" s="4">
-        <v>4.9948394784215164</v>
+        <v>0.78767149027523509</v>
       </c>
       <c r="N143" s="4">
-        <v>-0.45264091324480149</v>
+        <v>-0.35488938993729874</v>
       </c>
       <c r="O143" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_142_Ca116TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_142_Ca116TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P143" t="s">
@@ -8139,19 +8138,19 @@
         <v>23</v>
       </c>
       <c r="K144">
-        <v>3024</v>
+        <v>2733</v>
       </c>
       <c r="L144" s="4">
-        <v>61.6567285</v>
+        <v>48.012627199999997</v>
       </c>
       <c r="M144" s="4">
-        <v>-13.853147827083966</v>
+        <v>-1.6382284496449323E-2</v>
       </c>
       <c r="N144" s="4">
-        <v>-0.16264397380842649</v>
+        <v>-0.39082880626947575</v>
       </c>
       <c r="O144" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_143_Ca143TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_143_Ca143TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P144" t="s">
@@ -8190,19 +8189,19 @@
         <v>23</v>
       </c>
       <c r="K145">
-        <v>3236</v>
+        <v>2903</v>
       </c>
       <c r="L145" s="4">
-        <v>74.299625599999999</v>
+        <v>65.363933700000004</v>
       </c>
       <c r="M145" s="4">
-        <v>5.0117300711427744</v>
+        <v>0.78603008091049809</v>
       </c>
       <c r="N145" s="4">
-        <v>-0.33115041680870178</v>
+        <v>-0.25819695975894019</v>
       </c>
       <c r="O145" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_144_Ca143TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_144_Ca143TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P145" t="s">
@@ -8241,19 +8240,19 @@
         <v>23</v>
       </c>
       <c r="K146">
-        <v>3434</v>
+        <v>3196</v>
       </c>
       <c r="L146" s="4">
-        <v>49.299838700000002</v>
+        <v>39.467459099999999</v>
       </c>
       <c r="M146" s="4">
-        <v>-13.840581744888489</v>
+        <v>9.9628923427065863E-3</v>
       </c>
       <c r="N146" s="4">
-        <v>-0.25710413321360154</v>
+        <v>-0.55626161271344654</v>
       </c>
       <c r="O146" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_145_Ca166TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_145_Ca166TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P146" t="s">
@@ -8292,19 +8291,19 @@
         <v>23</v>
       </c>
       <c r="K147">
-        <v>3711</v>
+        <v>3574</v>
       </c>
       <c r="L147" s="4">
-        <v>59.612518799999997</v>
+        <v>44.237844699999997</v>
       </c>
       <c r="M147" s="4">
-        <v>5.0165319716153594</v>
+        <v>0.78906568590537951</v>
       </c>
       <c r="N147" s="4">
-        <v>-0.45409328735633508</v>
+        <v>-0.35640291233813953</v>
       </c>
       <c r="O147" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_146_Ca166TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_146_Ca166TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P147" t="s">
@@ -8343,19 +8342,19 @@
         <v>23</v>
       </c>
       <c r="K148">
-        <v>3421</v>
+        <v>3103</v>
       </c>
       <c r="L148" s="4">
-        <v>40.831539999999997</v>
+        <v>33.881706100000002</v>
       </c>
       <c r="M148" s="4">
-        <v>-13.853951495332316</v>
+        <v>-1.9144182621308653E-2</v>
       </c>
       <c r="N148" s="4">
-        <v>-0.25702090851793408</v>
+        <v>-0.55649831898065838</v>
       </c>
       <c r="O148" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_147_Ca169TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_147_Ca169TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P148" t="s">
@@ -8394,19 +8393,19 @@
         <v>23</v>
       </c>
       <c r="K149">
-        <v>3488</v>
+        <v>3394</v>
       </c>
       <c r="L149" s="4">
-        <v>41.3790318</v>
+        <v>35.955725600000001</v>
       </c>
       <c r="M149" s="4">
-        <v>5.0172864066190908</v>
+        <v>0.78833073229676032</v>
       </c>
       <c r="N149" s="4">
-        <v>-0.45309644781247688</v>
+        <v>-0.35566888692635129</v>
       </c>
       <c r="O149" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_148_Ca169TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_148_Ca169TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P149" t="s">
@@ -8445,19 +8444,19 @@
         <v>23</v>
       </c>
       <c r="K150">
-        <v>2340</v>
+        <v>2105</v>
       </c>
       <c r="L150" s="4">
-        <v>53.633498400000001</v>
+        <v>48.295612400000003</v>
       </c>
       <c r="M150" s="4">
-        <v>-13.847610776873662</v>
+        <v>-2.1525288450339214E-2</v>
       </c>
       <c r="N150" s="4">
-        <v>-0.36634831837627463</v>
+        <v>-0.69907542978572057</v>
       </c>
       <c r="O150" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_149_Ca184TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_149_Ca184TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P150" t="s">
@@ -8496,19 +8495,19 @@
         <v>23</v>
       </c>
       <c r="K151">
-        <v>2351</v>
+        <v>2171</v>
       </c>
       <c r="L151" s="4">
-        <v>49.003353099999998</v>
+        <v>46.208136799999998</v>
       </c>
       <c r="M151" s="4">
-        <v>5.0194642054720831</v>
+        <v>0.78734991679020538</v>
       </c>
       <c r="N151" s="4">
-        <v>-0.41842293438013156</v>
+        <v>-0.32968747359741024</v>
       </c>
       <c r="O151" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_150_Ca184TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_150_Ca184TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P151" t="s">
@@ -8547,19 +8546,19 @@
         <v>23</v>
       </c>
       <c r="K152">
-        <v>3442</v>
+        <v>3143</v>
       </c>
       <c r="L152" s="4">
-        <v>36.538942400000003</v>
+        <v>32.697151499999997</v>
       </c>
       <c r="M152" s="4">
-        <v>-13.853958423131594</v>
+        <v>-1.2991504004787449E-2</v>
       </c>
       <c r="N152" s="4">
-        <v>-0.25703930898119082</v>
+        <v>-0.55664405906273973</v>
       </c>
       <c r="O152" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_151_Ca195TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_151_Ca195TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P152" t="s">
@@ -8598,19 +8597,19 @@
         <v>23</v>
       </c>
       <c r="K153">
-        <v>3447</v>
+        <v>3385</v>
       </c>
       <c r="L153" s="4">
-        <v>37.150946099999999</v>
+        <v>31.529353199999999</v>
       </c>
       <c r="M153" s="4">
-        <v>5.0186249042200481</v>
+        <v>0.78848626297646796</v>
       </c>
       <c r="N153" s="4">
-        <v>-0.45305687999888727</v>
+        <v>-0.3556634371062129</v>
       </c>
       <c r="O153" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_152_Ca195TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_152_Ca195TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P153" t="s">
@@ -8649,19 +8648,19 @@
         <v>23</v>
       </c>
       <c r="K154">
-        <v>2386</v>
+        <v>2114</v>
       </c>
       <c r="L154" s="4">
-        <v>35.824319699999997</v>
+        <v>25.288538299999999</v>
       </c>
       <c r="M154" s="4">
-        <v>-13.846022351914797</v>
+        <v>-2.1067021151887133E-2</v>
       </c>
       <c r="N154" s="4">
-        <v>-0.36649968069570504</v>
+        <v>-0.69905298431748542</v>
       </c>
       <c r="O154" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_153_Ca198TrN_MaMPK_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_153_Ca198TrN_MaMPK_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P154" t="s">
@@ -8700,19 +8699,19 @@
         <v>23</v>
       </c>
       <c r="K155">
-        <v>2388</v>
+        <v>2197</v>
       </c>
       <c r="L155" s="4">
-        <v>32.766944000000002</v>
+        <v>28.014292000000001</v>
       </c>
       <c r="M155" s="4">
-        <v>5.01983650880286</v>
+        <v>0.78943604693566272</v>
       </c>
       <c r="N155" s="4">
-        <v>-0.41844661591060889</v>
+        <v>-0.32973798683709848</v>
       </c>
       <c r="O155" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_154_Ca198TrN_MaMPC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_154_Ca198TrN_MaMPC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P155" t="s">
@@ -8751,19 +8750,19 @@
         <v>23</v>
       </c>
       <c r="K156">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="L156" s="4">
-        <v>12.8163695</v>
+        <v>11.0011603</v>
       </c>
       <c r="M156" s="4">
-        <v>73.394543079200474</v>
+        <v>73.394344531417474</v>
       </c>
       <c r="N156" s="4">
-        <v>-0.84782037594527493</v>
+        <v>-0.84672947879271887</v>
       </c>
       <c r="O156" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_155_Ca151TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_155_Ca151TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P156" t="s">
@@ -8802,19 +8801,19 @@
         <v>23</v>
       </c>
       <c r="K157">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="L157" s="4">
-        <v>12.959581500000001</v>
+        <v>11.6142468</v>
       </c>
       <c r="M157" s="4">
-        <v>71.756572225680387</v>
+        <v>71.752365266088034</v>
       </c>
       <c r="N157" s="4">
-        <v>-0.54232636887225438</v>
+        <v>-0.54378686888942385</v>
       </c>
       <c r="O157" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_156_Ca152TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_156_Ca152TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P157" t="s">
@@ -8853,19 +8852,19 @@
         <v>23</v>
       </c>
       <c r="K158">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="L158" s="4">
-        <v>15.6366915</v>
+        <v>12.523371300000001</v>
       </c>
       <c r="M158" s="4">
-        <v>71.598370536258656</v>
+        <v>71.597114022628929</v>
       </c>
       <c r="N158" s="4">
-        <v>-0.89122183593419368</v>
+        <v>-0.88815958543458584</v>
       </c>
       <c r="O158" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_157_Ca153TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_157_Ca153TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P158" t="s">
@@ -8904,19 +8903,19 @@
         <v>23</v>
       </c>
       <c r="K159">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="L159" s="4">
-        <v>18.066381199999999</v>
+        <v>14.162714100000001</v>
       </c>
       <c r="M159" s="4">
-        <v>71.790550515157065</v>
+        <v>71.792182760424197</v>
       </c>
       <c r="N159" s="4">
-        <v>-0.36631193353258107</v>
+        <v>-0.36059864001295194</v>
       </c>
       <c r="O159" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_158_Ca154TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_158_Ca154TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P159" t="s">
@@ -8955,19 +8954,19 @@
         <v>23</v>
       </c>
       <c r="K160">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="L160" s="4">
-        <v>18.6276245</v>
+        <v>17.107874200000001</v>
       </c>
       <c r="M160" s="4">
-        <v>71.629430166440898</v>
+        <v>71.629907558251602</v>
       </c>
       <c r="N160" s="4">
-        <v>-0.86587308510583672</v>
+        <v>-0.8657669769635884</v>
       </c>
       <c r="O160" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_159_Ca155TrN_MaLSS_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_159_Ca155TrN_MaLSS_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P160" t="s">
@@ -9009,7 +9008,7 @@
         <v>3246</v>
       </c>
       <c r="L161" s="4">
-        <v>10.970489600000001</v>
+        <v>8.118938</v>
       </c>
       <c r="M161" s="4">
         <v>234.09520337872848</v>
@@ -9018,7 +9017,7 @@
         <v>1.5597601237183302E-2</v>
       </c>
       <c r="O161" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_160_Ca004TrN_MaWOT_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_160_Ca004TrN_MaWOT_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P161" t="s">
@@ -9060,7 +9059,7 @@
         <v>2564</v>
       </c>
       <c r="L162" s="4">
-        <v>8.6724248999999993</v>
+        <v>6.6368288</v>
       </c>
       <c r="M162" s="4">
         <v>72.060968646483076</v>
@@ -9069,7 +9068,7 @@
         <v>-0.55315112787421983</v>
       </c>
       <c r="O162" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_161_Ca004TrN_MaLSS_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_161_Ca004TrN_MaLSS_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P162" t="s">
@@ -9111,7 +9110,7 @@
         <v>2562</v>
       </c>
       <c r="L163" s="4">
-        <v>7.5751796000000002</v>
+        <v>6.6266717000000002</v>
       </c>
       <c r="M163" s="4">
         <v>64.366272556222512</v>
@@ -9120,7 +9119,7 @@
         <v>-25.53945015042936</v>
       </c>
       <c r="O163" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_162_Ca004TrN_MaTUR_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_162_Ca004TrN_MaTUR_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P163" t="s">
@@ -9162,7 +9161,7 @@
         <v>3244</v>
       </c>
       <c r="L164" s="4">
-        <v>3.8485911000000002</v>
+        <v>3.3776620999999998</v>
       </c>
       <c r="M164" s="4">
         <v>242.70379428436041</v>
@@ -9171,7 +9170,7 @@
         <v>0.23327324309701689</v>
       </c>
       <c r="O164" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_163_Ca116TrN_MaWOT_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_163_Ca116TrN_MaWOT_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P164" t="s">
@@ -9213,7 +9212,7 @@
         <v>2564</v>
       </c>
       <c r="L165" s="4">
-        <v>3.1837811</v>
+        <v>2.8763964</v>
       </c>
       <c r="M165" s="4">
         <v>74.659491982450774</v>
@@ -9222,7 +9221,7 @@
         <v>-0.34093758006291858</v>
       </c>
       <c r="O165" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_164_Ca116TrN_MaLSS_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_164_Ca116TrN_MaLSS_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P165" t="s">
@@ -9264,7 +9263,7 @@
         <v>2563</v>
       </c>
       <c r="L166" s="4">
-        <v>3.1879504000000001</v>
+        <v>2.8926386000000002</v>
       </c>
       <c r="M166" s="4">
         <v>71.32397117118802</v>
@@ -9273,7 +9272,7 @@
         <v>-17.591551103430934</v>
       </c>
       <c r="O166" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_165_Ca116TrN_MaTUR_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_165_Ca116TrN_MaTUR_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P166" t="s">
@@ -9315,7 +9314,7 @@
         <v>3244</v>
       </c>
       <c r="L167" s="4">
-        <v>2.2196400000000001</v>
+        <v>2.0858096000000002</v>
       </c>
       <c r="M167" s="4">
         <v>242.88013068819623</v>
@@ -9324,7 +9323,7 @@
         <v>0.23307974035338433</v>
       </c>
       <c r="O167" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_166_Ca124TrN_MaWOT_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_166_Ca124TrN_MaWOT_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P167" t="s">
@@ -9366,7 +9365,7 @@
         <v>2565</v>
       </c>
       <c r="L168" s="4">
-        <v>1.7399488000000001</v>
+        <v>1.6516645000000001</v>
       </c>
       <c r="M168" s="4">
         <v>74.798394612599097</v>
@@ -9375,7 +9374,7 @@
         <v>-0.34251622055333664</v>
       </c>
       <c r="O168" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_167_Ca124TrN_MaLSS_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_167_Ca124TrN_MaLSS_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P168" t="s">
@@ -9417,7 +9416,7 @@
         <v>2564</v>
       </c>
       <c r="L169" s="4">
-        <v>1.8046757</v>
+        <v>1.6245318</v>
       </c>
       <c r="M169" s="4">
         <v>71.449352968456878</v>
@@ -9426,7 +9425,7 @@
         <v>-17.63759605520924</v>
       </c>
       <c r="O169" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_168_Ca124TrN_MaTUR_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_168_Ca124TrN_MaTUR_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P169" t="s">
@@ -9468,16 +9467,16 @@
         <v>3833</v>
       </c>
       <c r="L170" s="4">
-        <v>12.6836954</v>
+        <v>11.468351200000001</v>
       </c>
       <c r="M170" s="4">
-        <v>411.77327954089554</v>
+        <v>411.77327955286199</v>
       </c>
       <c r="N170" s="4">
-        <v>1.5228308614799715</v>
+        <v>1.5228309409456255</v>
       </c>
       <c r="O170" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_169_Ca141TrN_MaWOT_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_169_Ca141TrN_MaWOT_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P170" t="s">
@@ -9519,16 +9518,16 @@
         <v>3192</v>
       </c>
       <c r="L171" s="4">
-        <v>10.6620735</v>
+        <v>9.7114928000000003</v>
       </c>
       <c r="M171" s="4">
-        <v>157.35652747775873</v>
+        <v>157.35652746778001</v>
       </c>
       <c r="N171" s="4">
-        <v>-0.56383995304647982</v>
+        <v>-0.56383994623820011</v>
       </c>
       <c r="O171" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_170_Ca141TrN_MaLSS_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_170_Ca141TrN_MaLSS_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P171" t="s">
@@ -9570,16 +9569,16 @@
         <v>3160</v>
       </c>
       <c r="L172" s="4">
-        <v>10.6511549</v>
+        <v>9.4873115000000006</v>
       </c>
       <c r="M172" s="4">
-        <v>99.307823665733622</v>
+        <v>99.307823665682164</v>
       </c>
       <c r="N172" s="4">
-        <v>-89.462983440892131</v>
+        <v>-89.462983441218384</v>
       </c>
       <c r="O172" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_171_Ca141TrN_MaTUR_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_171_Ca141TrN_MaTUR_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P172" t="s">
@@ -9621,16 +9620,16 @@
         <v>2853</v>
       </c>
       <c r="L173" s="4">
-        <v>9.7450022999999995</v>
+        <v>7.3562753000000001</v>
       </c>
       <c r="M173" s="4">
-        <v>96.995323527476671</v>
+        <v>96.995322014775226</v>
       </c>
       <c r="N173" s="4">
-        <v>-4.657504791931933E-2</v>
+        <v>-4.6573667052158575E-2</v>
       </c>
       <c r="O173" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_172_Ca145TrN_MaWOT_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_172_Ca145TrN_MaWOT_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P173" t="s">
@@ -9672,16 +9671,16 @@
         <v>2382</v>
       </c>
       <c r="L174" s="4">
-        <v>8.0644024000000005</v>
+        <v>6.0952782000000001</v>
       </c>
       <c r="M174" s="4">
-        <v>25.420265413655343</v>
+        <v>25.42026532342183</v>
       </c>
       <c r="N174" s="4">
-        <v>-5.3207853694251392E-2</v>
+        <v>-5.3207840803906344E-2</v>
       </c>
       <c r="O174" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_173_Ca145TrN_MaLSS_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_173_Ca145TrN_MaLSS_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P174" t="s">
@@ -9720,19 +9719,19 @@
         <v>63</v>
       </c>
       <c r="K175">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="L175" s="4">
-        <v>7.9326312000000003</v>
+        <v>6.0492381000000002</v>
       </c>
       <c r="M175" s="4">
-        <v>25.266480990928351</v>
+        <v>25.26694321471393</v>
       </c>
       <c r="N175" s="4">
-        <v>-2.6406369550702014</v>
+        <v>-2.6407447650070699</v>
       </c>
       <c r="O175" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_174_Ca145TrN_MaTUR_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_174_Ca145TrN_MaTUR_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P175" t="s">
@@ -9774,16 +9773,16 @@
         <v>2856</v>
       </c>
       <c r="L176" s="4">
-        <v>9.0697580999999996</v>
+        <v>8.4651163</v>
       </c>
       <c r="M176" s="4">
-        <v>97.744823680559279</v>
+        <v>97.744507729046816</v>
       </c>
       <c r="N176" s="4">
-        <v>-4.7302197478626448E-2</v>
+        <v>-4.7359678244855444E-2</v>
       </c>
       <c r="O176" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_175_Ca199TrN_MaWOT_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_175_Ca199TrN_MaWOT_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P176" t="s">
@@ -9825,16 +9824,16 @@
         <v>2383</v>
       </c>
       <c r="L177" s="4">
-        <v>7.8298537000000001</v>
+        <v>7.0182003000000002</v>
       </c>
       <c r="M177" s="4">
-        <v>26.056419893274118</v>
+        <v>26.056312107681578</v>
       </c>
       <c r="N177" s="4">
-        <v>-5.2693006143257587E-2</v>
+        <v>-5.2693296890221342E-2</v>
       </c>
       <c r="O177" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_176_Ca199TrN_MaLSS_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_176_Ca199TrN_MaLSS_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P177" t="s">
@@ -9876,16 +9875,16 @@
         <v>2382</v>
       </c>
       <c r="L178" s="4">
-        <v>7.7159580999999999</v>
+        <v>6.8469778000000003</v>
       </c>
       <c r="M178" s="4">
-        <v>25.894693512385633</v>
+        <v>25.894956540091155</v>
       </c>
       <c r="N178" s="4">
-        <v>-2.7237499840689132</v>
+        <v>-2.7238125714713917</v>
       </c>
       <c r="O178" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_177_Ca199TrN_MaTUR_ode3_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_177_Ca199TrN_MaTUR_ode3_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P178" t="s">
@@ -9924,19 +9923,19 @@
         <v>23</v>
       </c>
       <c r="K179">
-        <v>589</v>
+        <v>524</v>
       </c>
       <c r="L179" s="4">
-        <v>9.2005882999999997</v>
+        <v>7.2618647999999997</v>
       </c>
       <c r="M179" s="4">
-        <v>383.26806840216449</v>
+        <v>256.07268794564766</v>
       </c>
       <c r="N179" s="4">
-        <v>1.3560971393280496E-3</v>
+        <v>-5.4662386572017496E-3</v>
       </c>
       <c r="O179" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_178_Ca139TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_178_Ca139TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P179" t="s">
@@ -9975,19 +9974,19 @@
         <v>23</v>
       </c>
       <c r="K180">
-        <v>1135</v>
+        <v>784</v>
       </c>
       <c r="L180" s="4">
-        <v>35.869631400000003</v>
+        <v>21.972485299999999</v>
       </c>
       <c r="M180" s="4">
-        <v>381.94980139591576</v>
+        <v>253.34805739443681</v>
       </c>
       <c r="N180" s="4">
-        <v>1.3582076968168266E-3</v>
+        <v>1.9761578387674561E-2</v>
       </c>
       <c r="O180" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_179_Ca139TrE_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_179_Ca139TrE_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P180" t="s">
@@ -10026,19 +10025,19 @@
         <v>23</v>
       </c>
       <c r="K181">
-        <v>984</v>
+        <v>788</v>
       </c>
       <c r="L181" s="4">
-        <v>33.347875000000002</v>
+        <v>19.288487100000001</v>
       </c>
       <c r="M181" s="4">
-        <v>382.9722758309415</v>
+        <v>254.86359321232487</v>
       </c>
       <c r="N181" s="4">
-        <v>9.1499057068400447E-4</v>
+        <v>-5.7514107028877604E-3</v>
       </c>
       <c r="O181" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_180_Ca139TrT_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_180_Ca139TrT_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P181" t="s">
@@ -10077,19 +10076,19 @@
         <v>23</v>
       </c>
       <c r="K182">
-        <v>828</v>
+        <v>771</v>
       </c>
       <c r="L182" s="4">
-        <v>21.441085699999999</v>
+        <v>17.284679300000001</v>
       </c>
       <c r="M182" s="4">
-        <v>382.37066236026851</v>
+        <v>253.19486536256659</v>
       </c>
       <c r="N182" s="4">
-        <v>1.3320634518461105E-3</v>
+        <v>1.3544752995082732E-2</v>
       </c>
       <c r="O182" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_181_Ca139TrE_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_181_Ca139TrE_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P182" t="s">
@@ -10128,19 +10127,19 @@
         <v>23</v>
       </c>
       <c r="K183">
-        <v>674</v>
+        <v>623</v>
       </c>
       <c r="L183" s="4">
-        <v>10.825473799999999</v>
+        <v>8.4886578000000004</v>
       </c>
       <c r="M183" s="4">
-        <v>381.88651024052768</v>
+        <v>254.22399869364</v>
       </c>
       <c r="N183" s="4">
-        <v>-3.4182367339319342E-5</v>
+        <v>3.2190303826000743E-3</v>
       </c>
       <c r="O183" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_182_Ca002TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_182_Ca002TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P183" t="s">
@@ -10179,19 +10178,19 @@
         <v>23</v>
       </c>
       <c r="K184">
-        <v>846</v>
+        <v>779</v>
       </c>
       <c r="L184" s="4">
-        <v>22.7628463</v>
+        <v>19.463864000000001</v>
       </c>
       <c r="M184" s="4">
-        <v>381.04335718508838</v>
+        <v>253.9454262116538</v>
       </c>
       <c r="N184" s="4">
-        <v>-1.6835150640659435E-5</v>
+        <v>3.3738121611746053E-3</v>
       </c>
       <c r="O184" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_183_Ca002TrE_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_183_Ca002TrE_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P184" t="s">
@@ -10230,19 +10229,19 @@
         <v>23</v>
       </c>
       <c r="K185">
-        <v>1073</v>
+        <v>960</v>
       </c>
       <c r="L185" s="4">
-        <v>31.963267900000002</v>
+        <v>24.051374800000001</v>
       </c>
       <c r="M185" s="4">
-        <v>381.63356078081227</v>
+        <v>254.1289643914796</v>
       </c>
       <c r="N185" s="4">
-        <v>-3.3578188434191247E-5</v>
+        <v>3.2751904423848899E-3</v>
       </c>
       <c r="O185" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_184_Ca002TrT_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_184_Ca002TrT_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P185" t="s">
@@ -10281,19 +10280,19 @@
         <v>23</v>
       </c>
       <c r="K186">
-        <v>855</v>
+        <v>786</v>
       </c>
       <c r="L186" s="4">
-        <v>17.024059000000001</v>
+        <v>14.2351194</v>
       </c>
       <c r="M186" s="4">
-        <v>381.04368103828699</v>
+        <v>253.55125490281631</v>
       </c>
       <c r="N186" s="4">
-        <v>-2.0069438141590012E-5</v>
+        <v>3.5662559452234177E-3</v>
       </c>
       <c r="O186" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_185_Ca002TrE_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_185_Ca002TrE_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P186" t="s">
@@ -10332,19 +10331,19 @@
         <v>23</v>
       </c>
       <c r="K187">
-        <v>527</v>
+        <v>474</v>
       </c>
       <c r="L187" s="4">
-        <v>21.349246300000001</v>
+        <v>15.787716400000001</v>
       </c>
       <c r="M187" s="4">
-        <v>372.20355675717434</v>
+        <v>253.27180401064624</v>
       </c>
       <c r="N187" s="4">
-        <v>1.3873388124689967E-3</v>
+        <v>4.9160894154999468E-2</v>
       </c>
       <c r="O187" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_186_Ca145TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_186_Ca145TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P187" t="s">
@@ -10383,19 +10382,19 @@
         <v>23</v>
       </c>
       <c r="K188">
-        <v>607</v>
+        <v>555</v>
       </c>
       <c r="L188" s="4">
-        <v>33.214777900000001</v>
+        <v>27.449654200000001</v>
       </c>
       <c r="M188" s="4">
-        <v>370.93851444553013</v>
+        <v>253.63294225015278</v>
       </c>
       <c r="N188" s="4">
-        <v>1.3397112364410546E-3</v>
+        <v>4.810377017588241E-2</v>
       </c>
       <c r="O188" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_187_Ca145TrE_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_187_Ca145TrE_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P188" t="s">
@@ -10434,19 +10433,19 @@
         <v>23</v>
       </c>
       <c r="K189">
-        <v>700</v>
+        <v>661</v>
       </c>
       <c r="L189" s="4">
-        <v>44.9155345</v>
+        <v>33.896692399999999</v>
       </c>
       <c r="M189" s="4">
-        <v>371.81429024596218</v>
+        <v>253.3709348291647</v>
       </c>
       <c r="N189" s="4">
-        <v>1.4107633967963551E-3</v>
+        <v>4.8806518332155768E-2</v>
       </c>
       <c r="O189" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_188_Ca145TrT_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_188_Ca145TrT_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P189" t="s">
@@ -10485,19 +10484,19 @@
         <v>23</v>
       </c>
       <c r="K190">
-        <v>614</v>
+        <v>552</v>
       </c>
       <c r="L190" s="4">
-        <v>28.216464200000001</v>
+        <v>23.032370700000001</v>
       </c>
       <c r="M190" s="4">
-        <v>370.93943356965093</v>
+        <v>254.25984835913818</v>
       </c>
       <c r="N190" s="4">
-        <v>1.3892818819760677E-3</v>
+        <v>4.5680834620504207E-2</v>
       </c>
       <c r="O190" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_189_Ca145TrE_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_189_Ca145TrE_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P190" t="s">
@@ -10536,19 +10535,19 @@
         <v>23</v>
       </c>
       <c r="K191">
-        <v>524</v>
+        <v>479</v>
       </c>
       <c r="L191" s="4">
-        <v>7.1862035000000004</v>
+        <v>5.9978942000000002</v>
       </c>
       <c r="M191" s="4">
-        <v>372.20166167468278</v>
+        <v>253.61890887799672</v>
       </c>
       <c r="N191" s="4">
-        <v>1.409108714457652E-3</v>
+        <v>4.7716316255700164E-2</v>
       </c>
       <c r="O191" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_190_Ca199TrN_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_190_Ca199TrN_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P191" t="s">
@@ -10587,19 +10586,19 @@
         <v>23</v>
       </c>
       <c r="K192">
-        <v>603</v>
+        <v>557</v>
       </c>
       <c r="L192" s="4">
-        <v>19.7404346</v>
+        <v>15.092715200000001</v>
       </c>
       <c r="M192" s="4">
-        <v>370.93999255041638</v>
+        <v>254.260402662704</v>
       </c>
       <c r="N192" s="4">
-        <v>1.3453530934555147E-3</v>
+        <v>4.5731255622589728E-2</v>
       </c>
       <c r="O192" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_191_Ca199TrE_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_191_Ca199TrE_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P192" t="s">
@@ -10638,19 +10637,19 @@
         <v>23</v>
       </c>
       <c r="K193">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="L193" s="4">
-        <v>20.6214203</v>
+        <v>17.224721599999999</v>
       </c>
       <c r="M193" s="4">
-        <v>371.81328890895344</v>
+        <v>253.25351002868609</v>
       </c>
       <c r="N193" s="4">
-        <v>1.4003301625109543E-3</v>
+        <v>4.9207336715380023E-2</v>
       </c>
       <c r="O193" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_192_Ca199TrT_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_192_Ca199TrT_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P193" t="s">
@@ -10689,19 +10688,19 @@
         <v>23</v>
       </c>
       <c r="K194">
-        <v>614</v>
+        <v>556</v>
       </c>
       <c r="L194" s="4">
-        <v>13.1838348</v>
+        <v>10.684606</v>
       </c>
       <c r="M194" s="4">
-        <v>370.9400909528074</v>
+        <v>254.26043066391662</v>
       </c>
       <c r="N194" s="4">
-        <v>1.3708339585667417E-3</v>
+        <v>4.5748004975679102E-2</v>
       </c>
       <c r="O194" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_193_Ca199TrE_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_193_Ca199TrE_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P194" t="s">
@@ -10740,19 +10739,19 @@
         <v>23</v>
       </c>
       <c r="K195">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="L195" s="4">
-        <v>10.555490499999999</v>
+        <v>9.9482643999999993</v>
       </c>
       <c r="M195" s="4">
-        <v>261.081841054047</v>
+        <v>261.08166040169237</v>
       </c>
       <c r="N195" s="4">
-        <v>2.5014125021558167</v>
+        <v>2.5016336386640723</v>
       </c>
       <c r="O195" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_194_Ca139TrE_MaTRD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_194_Ca139TrE_MaTRD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P195" t="s">
@@ -10791,19 +10790,19 @@
         <v>23</v>
       </c>
       <c r="K196">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="L196" s="4">
-        <v>11.8021251</v>
+        <v>9.5922903000000002</v>
       </c>
       <c r="M196" s="4">
-        <v>261.0642816021724</v>
+        <v>261.06407810151654</v>
       </c>
       <c r="N196" s="4">
-        <v>2.5015682434278559</v>
+        <v>2.50146032858953</v>
       </c>
       <c r="O196" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_195_Ca139TrU_MaTRD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_195_Ca139TrU_MaTRD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P196" t="s">
@@ -10842,19 +10841,19 @@
         <v>23</v>
       </c>
       <c r="K197">
-        <v>1233</v>
+        <v>1270</v>
       </c>
       <c r="L197" s="4">
-        <v>13.415961599999999</v>
+        <v>11.567644100000001</v>
       </c>
       <c r="M197" s="4">
-        <v>-5.2047770154173183E-3</v>
+        <v>-5.2072433849134295E-3</v>
       </c>
       <c r="N197" s="4">
-        <v>-6.181198847530746E-4</v>
+        <v>-6.1836375124176891E-4</v>
       </c>
       <c r="O197" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_196_Ca149TrN_MaPST_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_196_Ca149TrN_MaPST_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P197" t="s">
@@ -10893,19 +10892,19 @@
         <v>23</v>
       </c>
       <c r="K198">
-        <v>3891</v>
+        <v>1534</v>
       </c>
       <c r="L198" s="4">
-        <v>53.287511000000002</v>
+        <v>28.487518900000001</v>
       </c>
       <c r="M198" s="4">
-        <v>38.423752563390039</v>
+        <v>36.527316122048688</v>
       </c>
       <c r="N198" s="4">
-        <v>0.27194779624896204</v>
+        <v>0.34473477421245408</v>
       </c>
       <c r="O198" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_197_Ca139TrN_MaSKD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_197_Ca139TrN_MaSKD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P198" t="s">
@@ -10944,19 +10943,19 @@
         <v>23</v>
       </c>
       <c r="K199">
-        <v>1658</v>
+        <v>1068</v>
       </c>
       <c r="L199" s="4">
-        <v>38.465760600000003</v>
+        <v>25.600088199999998</v>
       </c>
       <c r="M199" s="4">
-        <v>4.3383309448297922</v>
+        <v>3.2963512131621115</v>
       </c>
       <c r="N199" s="4">
-        <v>27.645192129473372</v>
+        <v>26.633185141562961</v>
       </c>
       <c r="O199" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_198_Ca139TrN_MaRAD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_198_Ca139TrN_MaRAD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P199" t="s">
@@ -10995,19 +10994,19 @@
         <v>23</v>
       </c>
       <c r="K200">
-        <v>3881</v>
+        <v>1324</v>
       </c>
       <c r="L200" s="4">
-        <v>90.592572599999997</v>
+        <v>43.122450000000001</v>
       </c>
       <c r="M200" s="4">
-        <v>25.116669613622989</v>
+        <v>36.473954929183741</v>
       </c>
       <c r="N200" s="4">
-        <v>0.71769373518630564</v>
+        <v>0.24152554958136607</v>
       </c>
       <c r="O200" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_199_Ca184TrN_MaSKD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_199_Ca184TrN_MaSKD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P200" t="s">
@@ -11046,19 +11045,19 @@
         <v>23</v>
       </c>
       <c r="K201">
-        <v>1304</v>
+        <v>630</v>
       </c>
       <c r="L201" s="4">
-        <v>34.0758753</v>
+        <v>19.3392163</v>
       </c>
       <c r="M201" s="4">
-        <v>12.229747015583525</v>
+        <v>12.325249526502066</v>
       </c>
       <c r="N201" s="4">
-        <v>21.58235681320863</v>
+        <v>21.750765145281377</v>
       </c>
       <c r="O201" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_200_Ca184TrN_MaRAD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_200_Ca184TrN_MaRAD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P201" t="s">
@@ -11097,19 +11096,19 @@
         <v>23</v>
       </c>
       <c r="K202">
-        <v>3922</v>
+        <v>1420</v>
       </c>
       <c r="L202" s="4">
-        <v>57.538500399999997</v>
+        <v>25.736760700000001</v>
       </c>
       <c r="M202" s="4">
-        <v>25.123899743893862</v>
+        <v>36.481830843237923</v>
       </c>
       <c r="N202" s="4">
-        <v>0.71773363845612415</v>
+        <v>0.24082475243609128</v>
       </c>
       <c r="O202" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_201_Ca198TrN_MaSKD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_201_Ca198TrN_MaSKD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P202" t="s">
@@ -11148,19 +11147,19 @@
         <v>23</v>
       </c>
       <c r="K203">
-        <v>1390</v>
+        <v>671</v>
       </c>
       <c r="L203" s="4">
-        <v>19.9748278</v>
+        <v>11.342545400000001</v>
       </c>
       <c r="M203" s="4">
-        <v>12.218345153270521</v>
+        <v>12.31122417552997</v>
       </c>
       <c r="N203" s="4">
-        <v>21.54065913738404</v>
+        <v>21.706182500865388</v>
       </c>
       <c r="O203" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_202_Ca198TrN_MaRAD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_202_Ca198TrN_MaRAD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P203" t="s">
@@ -11199,19 +11198,19 @@
         <v>23</v>
       </c>
       <c r="K204">
-        <v>26596</v>
+        <v>27243</v>
       </c>
       <c r="L204" s="4">
-        <v>439.30110550000001</v>
+        <v>351.91965549999998</v>
       </c>
       <c r="M204" s="4">
-        <v>20.104357846426581</v>
+        <v>20.636780660349928</v>
       </c>
       <c r="N204" s="4">
-        <v>2.9139705258141175</v>
+        <v>2.6236283163076557</v>
       </c>
       <c r="O204" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_203_Ca156TrN_MaIPA_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_203_Ca156TrN_MaIPA_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P204" t="s">
@@ -11253,7 +11252,7 @@
         <v>19038</v>
       </c>
       <c r="L205" s="4">
-        <v>282.83103640000002</v>
+        <v>240.6878859</v>
       </c>
       <c r="M205" s="4">
         <v>16.632571092353267</v>
@@ -11262,7 +11261,7 @@
         <v>0.59977102241128721</v>
       </c>
       <c r="O205" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_204_Ca130TrN_MaIPA_ode23t.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_204_Ca130TrN_MaIPA_ode23t.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P205" t="s">
@@ -11301,19 +11300,19 @@
         <v>23</v>
       </c>
       <c r="K206">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="L206" s="4">
-        <v>19.948556199999999</v>
+        <v>18.102271300000002</v>
       </c>
       <c r="M206" s="4">
-        <v>347.57852188972799</v>
+        <v>347.06965940566118</v>
       </c>
       <c r="N206" s="4">
-        <v>0.73451115111442622</v>
+        <v>0.7418504809659543</v>
       </c>
       <c r="O206" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_205_Ca171TrN_MaRDP_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_205_Ca171TrN_MaRDP_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P206" t="s">
@@ -11352,19 +11351,19 @@
         <v>23</v>
       </c>
       <c r="K207">
-        <v>1358</v>
+        <v>1343</v>
       </c>
       <c r="L207" s="4">
-        <v>11.4190658</v>
+        <v>9.8940824000000003</v>
       </c>
       <c r="M207" s="4">
-        <v>144.09868481879104</v>
+        <v>144.12805935798102</v>
       </c>
       <c r="N207" s="4">
-        <v>3.6001086423006722E-2</v>
+        <v>3.6049700607179436E-2</v>
       </c>
       <c r="O207" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_206_Ca172TrN_MaRDP_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_206_Ca172TrN_MaRDP_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P207" t="s">
@@ -11403,19 +11402,19 @@
         <v>23</v>
       </c>
       <c r="K208">
-        <v>1437</v>
+        <v>1425</v>
       </c>
       <c r="L208" s="4">
-        <v>19.362078199999999</v>
+        <v>14.706552200000001</v>
       </c>
       <c r="M208" s="4">
-        <v>371.51143857337883</v>
+        <v>371.49017605651255</v>
       </c>
       <c r="N208" s="4">
-        <v>0.79734073778887038</v>
+        <v>0.81154442293087081</v>
       </c>
       <c r="O208" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_207_Ca139TrN_MaZPL_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_207_Ca139TrN_MaZPL_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P208" t="s">
@@ -11454,19 +11453,19 @@
         <v>23</v>
       </c>
       <c r="K209">
-        <v>2092</v>
+        <v>2103</v>
       </c>
       <c r="L209" s="4">
-        <v>10.529161800000001</v>
+        <v>9.0977359999999994</v>
       </c>
       <c r="M209" s="4">
-        <v>397.66905255280756</v>
+        <v>397.67073171998339</v>
       </c>
       <c r="N209" s="4">
-        <v>0.33478258829633978</v>
+        <v>0.33476835033906699</v>
       </c>
       <c r="O209" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_208_Ca165TrN_MaZPL_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_208_Ca165TrN_MaZPL_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P209" t="s">
@@ -11505,19 +11504,19 @@
         <v>23</v>
       </c>
       <c r="K210">
-        <v>1440</v>
+        <v>1446</v>
       </c>
       <c r="L210" s="4">
-        <v>20.608405300000001</v>
+        <v>18.7540342</v>
       </c>
       <c r="M210" s="4">
-        <v>371.4780761434464</v>
+        <v>371.05201521787399</v>
       </c>
       <c r="N210" s="4">
-        <v>0.80657430914532491</v>
+        <v>0.80529120515221708</v>
       </c>
       <c r="O210" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_209_Ca171TrN_MaZPL_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_209_Ca171TrN_MaZPL_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P210" t="s">
@@ -11559,16 +11558,16 @@
         <v>500</v>
       </c>
       <c r="L211" s="4">
-        <v>5.1364346000000003</v>
+        <v>4.0829939</v>
       </c>
       <c r="M211" s="4">
-        <v>378.33358153429947</v>
+        <v>378.34551114397271</v>
       </c>
       <c r="N211" s="4">
-        <v>0.32218144391101278</v>
+        <v>0.32222478157510459</v>
       </c>
       <c r="O211" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_210_Ca165TrN_MaCPL_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_210_Ca165TrN_MaCPL_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P211" t="s">
@@ -11607,19 +11606,19 @@
         <v>23</v>
       </c>
       <c r="K212">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="L212" s="4">
-        <v>15.6207615</v>
+        <v>13.6876856</v>
       </c>
       <c r="M212" s="4">
-        <v>347.08942277743932</v>
+        <v>347.40648316636668</v>
       </c>
       <c r="N212" s="4">
-        <v>0.72245296354677668</v>
+        <v>0.70574701768388082</v>
       </c>
       <c r="O212" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_211_Ca171TrN_MaCPL_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_211_Ca171TrN_MaCPL_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P212" t="s">
@@ -11658,19 +11657,19 @@
         <v>23</v>
       </c>
       <c r="K213">
-        <v>2461</v>
+        <v>2441</v>
       </c>
       <c r="L213" s="4">
-        <v>35.796181400000002</v>
+        <v>32.007344500000002</v>
       </c>
       <c r="M213" s="4">
-        <v>151.74121929923942</v>
+        <v>152.46624457755527</v>
       </c>
       <c r="N213" s="4">
-        <v>1.8466014217721045E-3</v>
+        <v>1.9413477001689746E-3</v>
       </c>
       <c r="O213" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_212_Ca171TrN_MaRDR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_212_Ca171TrN_MaRDR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P213" t="s">
@@ -11709,19 +11708,19 @@
         <v>23</v>
       </c>
       <c r="K214">
-        <v>2823</v>
+        <v>2837</v>
       </c>
       <c r="L214" s="4">
-        <v>24.1636767</v>
+        <v>22.353320100000001</v>
       </c>
       <c r="M214" s="4">
-        <v>146.55491971181934</v>
+        <v>146.53857677739339</v>
       </c>
       <c r="N214" s="4">
-        <v>-4.743597936265654E-3</v>
+        <v>-4.7701634856845256E-3</v>
       </c>
       <c r="O214" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_213_Ca172TrN_MaRDR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_213_Ca172TrN_MaRDR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P214" t="s">
@@ -11760,19 +11759,19 @@
         <v>23</v>
       </c>
       <c r="K215">
-        <v>2976</v>
+        <v>2933</v>
       </c>
       <c r="L215" s="4">
-        <v>38.975349799999996</v>
+        <v>28.789513400000001</v>
       </c>
       <c r="M215" s="4">
-        <v>175.85309551991446</v>
+        <v>176.57156798735582</v>
       </c>
       <c r="N215" s="4">
-        <v>8.8580271285211738E-4</v>
+        <v>8.6936610414568513E-4</v>
       </c>
       <c r="O215" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_214_Ca139TrN_MaZRR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_214_Ca139TrN_MaZRR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P215" t="s">
@@ -11811,19 +11810,19 @@
         <v>23</v>
       </c>
       <c r="K216">
-        <v>3554</v>
+        <v>3542</v>
       </c>
       <c r="L216" s="4">
-        <v>20.6272074</v>
+        <v>18.589272900000001</v>
       </c>
       <c r="M216" s="4">
-        <v>176.08863517005179</v>
+        <v>176.84780159382117</v>
       </c>
       <c r="N216" s="4">
-        <v>8.5040798455875065E-5</v>
+        <v>8.1686592870201043E-5</v>
       </c>
       <c r="O216" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_215_Ca165TrN_MaZRR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_215_Ca165TrN_MaZRR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P216" t="s">
@@ -11862,19 +11861,19 @@
         <v>23</v>
       </c>
       <c r="K217">
-        <v>2981</v>
+        <v>2949</v>
       </c>
       <c r="L217" s="4">
-        <v>53.3197835</v>
+        <v>40.944189000000001</v>
       </c>
       <c r="M217" s="4">
-        <v>175.86263581813625</v>
+        <v>176.58793752379347</v>
       </c>
       <c r="N217" s="4">
-        <v>8.7565090765181521E-4</v>
+        <v>8.6300939401287872E-4</v>
       </c>
       <c r="O217" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_216_Ca171TrN_MaZRR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_216_Ca171TrN_MaZRR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P217" t="s">
@@ -11913,19 +11912,19 @@
         <v>23</v>
       </c>
       <c r="K218">
-        <v>5148</v>
+        <v>4972</v>
       </c>
       <c r="L218" s="4">
-        <v>21.496126799999999</v>
+        <v>16.317820699999999</v>
       </c>
       <c r="M218" s="4">
-        <v>-14.041202967756229</v>
+        <v>-5.9991254595402488</v>
       </c>
       <c r="N218" s="4">
-        <v>3.5231516468227177E-2</v>
+        <v>2.8537503614540724E-3</v>
       </c>
       <c r="O218" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_217_Ca170TrN_MaCMP_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_217_Ca170TrN_MaCMP_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P218" t="s">
@@ -11964,19 +11963,19 @@
         <v>23</v>
       </c>
       <c r="K219">
-        <v>1949</v>
+        <v>1799</v>
       </c>
       <c r="L219" s="4">
-        <v>12.710401600000001</v>
+        <v>10.4864405</v>
       </c>
       <c r="M219" s="4">
-        <v>-14.041046010546779</v>
+        <v>-5.9726656783988181</v>
       </c>
       <c r="N219" s="4">
-        <v>3.5310034220484558E-2</v>
+        <v>2.8449919010700574E-3</v>
       </c>
       <c r="O219" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_218_Ca170TrN_MaCMF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_218_Ca170TrN_MaCMF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P219" t="s">
@@ -12015,19 +12014,19 @@
         <v>23</v>
       </c>
       <c r="K220">
-        <v>4947</v>
+        <v>4611</v>
       </c>
       <c r="L220" s="4">
-        <v>42.772864200000001</v>
+        <v>30.470402100000001</v>
       </c>
       <c r="M220" s="4">
-        <v>-329.43356991973457</v>
+        <v>-329.53567917592096</v>
       </c>
       <c r="N220" s="4">
-        <v>6.1252075084780149</v>
+        <v>6.1312762399027676</v>
       </c>
       <c r="O220" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_219_Ca170TrN_MaMPO_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_219_Ca170TrN_MaMPO_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P220" t="s">
@@ -12066,19 +12065,19 @@
         <v>23</v>
       </c>
       <c r="K221">
-        <v>2842</v>
+        <v>1189</v>
       </c>
       <c r="L221" s="4">
-        <v>12.4188393</v>
+        <v>8.7921192999999995</v>
       </c>
       <c r="M221" s="4">
-        <v>-13.86744383949182</v>
+        <v>-13.867948143582701</v>
       </c>
       <c r="N221" s="4">
-        <v>0.22361383430083492</v>
+        <v>0.22443531131060013</v>
       </c>
       <c r="O221" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_220_Ca170TrN_MaMCI_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_220_Ca170TrN_MaMCI_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P221" t="s">
@@ -12117,19 +12116,19 @@
         <v>23</v>
       </c>
       <c r="K222">
-        <v>6838</v>
+        <v>5804</v>
       </c>
       <c r="L222" s="4">
-        <v>19.311674700000001</v>
+        <v>16.6303181</v>
       </c>
       <c r="M222" s="4">
-        <v>-12.027265725976132</v>
+        <v>-5.9982045826768076</v>
       </c>
       <c r="N222" s="4">
-        <v>6.3923614062326856E-3</v>
+        <v>-4.4792032632720137E-3</v>
       </c>
       <c r="O222" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_221_Ca170TrN_MaCHO_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_221_Ca170TrN_MaCHO_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P222" t="s">
@@ -12168,19 +12167,19 @@
         <v>23</v>
       </c>
       <c r="K223">
-        <v>3983</v>
+        <v>3424</v>
       </c>
       <c r="L223" s="4">
-        <v>17.538717500000001</v>
+        <v>15.354661200000001</v>
       </c>
       <c r="M223" s="4">
-        <v>-12.036435638247626</v>
+        <v>-5.9972843174621753</v>
       </c>
       <c r="N223" s="4">
-        <v>6.3926387951457435E-3</v>
+        <v>-4.5297124179603685E-3</v>
       </c>
       <c r="O223" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_222_Ca170TrN_MaCHF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_222_Ca170TrN_MaCHF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P223" t="s">
@@ -12219,19 +12218,19 @@
         <v>23</v>
       </c>
       <c r="K224">
-        <v>7396</v>
+        <v>7124</v>
       </c>
       <c r="L224" s="4">
-        <v>35.696689499999998</v>
+        <v>27.919169799999999</v>
       </c>
       <c r="M224" s="4">
-        <v>-690.29330270771482</v>
+        <v>-752.11388561220849</v>
       </c>
       <c r="N224" s="4">
-        <v>577.05400906427576</v>
+        <v>628.45203341313902</v>
       </c>
       <c r="O224" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_223_Ca170TrN_MaCKY_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_223_Ca170TrN_MaCKY_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P224" t="s">
@@ -12270,19 +12269,19 @@
         <v>23</v>
       </c>
       <c r="K225">
-        <v>2413</v>
+        <v>2159</v>
       </c>
       <c r="L225" s="4">
-        <v>15.9101032</v>
+        <v>13.264477100000001</v>
       </c>
       <c r="M225" s="4">
-        <v>-758.72389839459424</v>
+        <v>-758.74802770655413</v>
       </c>
       <c r="N225" s="4">
-        <v>632.73131233653282</v>
+        <v>632.74607041001832</v>
       </c>
       <c r="O225" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_224_Ca170TrN_MaCKF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_224_Ca170TrN_MaCKF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P225" t="s">
@@ -12321,19 +12320,19 @@
         <v>23</v>
       </c>
       <c r="K226">
-        <v>2697</v>
+        <v>2839</v>
       </c>
       <c r="L226" s="4">
-        <v>17.289710599999999</v>
+        <v>13.4071487</v>
       </c>
       <c r="M226" s="4">
-        <v>177.35369343605259</v>
+        <v>177.34510860271695</v>
       </c>
       <c r="N226" s="4">
-        <v>288.2713887450534</v>
+        <v>288.25150738557329</v>
       </c>
       <c r="O226" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_225_Ca170TrN_MaCNN_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_225_Ca170TrN_MaCNN_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P226" t="s">
@@ -12372,19 +12371,19 @@
         <v>23</v>
       </c>
       <c r="K227">
-        <v>4916</v>
+        <v>4356</v>
       </c>
       <c r="L227" s="4">
-        <v>75.234959200000006</v>
+        <v>55.142650000000003</v>
       </c>
       <c r="M227" s="4">
-        <v>2994.8360332370894</v>
+        <v>2994.8759137739453</v>
       </c>
       <c r="N227" s="4">
-        <v>-3064.9307135855188</v>
+        <v>-3064.8910805854848</v>
       </c>
       <c r="O227" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_226_Ca170TrN_MaCNF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_226_Ca170TrN_MaCNF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P227" t="s">
@@ -12423,19 +12422,19 @@
         <v>23</v>
       </c>
       <c r="K228">
-        <v>2916</v>
+        <v>2951</v>
       </c>
       <c r="L228" s="4">
-        <v>13.0298143</v>
+        <v>11.642736299999999</v>
       </c>
       <c r="M228" s="4">
-        <v>522.24648431443222</v>
+        <v>522.24045562762728</v>
       </c>
       <c r="N228" s="4">
-        <v>-164.33204403906922</v>
+        <v>-164.33132904038584</v>
       </c>
       <c r="O228" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_227_Ca170TrN_MaCSZ_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_227_Ca170TrN_MaCSZ_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P228" t="s">
@@ -12474,19 +12473,19 @@
         <v>23</v>
       </c>
       <c r="K229">
-        <v>5910</v>
+        <v>5673</v>
       </c>
       <c r="L229" s="4">
-        <v>84.500073799999996</v>
+        <v>68.634571600000001</v>
       </c>
       <c r="M229" s="4">
-        <v>-17.955688284833194</v>
+        <v>-8.9728629388324688</v>
       </c>
       <c r="N229" s="4">
-        <v>5.8151472810077674E-2</v>
+        <v>1.0034872062229231E-2</v>
       </c>
       <c r="O229" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_228_Ca170TrN_MaCSF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_228_Ca170TrN_MaCSF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P229" t="s">
@@ -12525,19 +12524,19 @@
         <v>23</v>
       </c>
       <c r="K230">
-        <v>2154</v>
+        <v>2241</v>
       </c>
       <c r="L230" s="4">
-        <v>16.351481499999998</v>
+        <v>13.1002747</v>
       </c>
       <c r="M230" s="4">
-        <v>209.02536259841429</v>
+        <v>209.02280860099125</v>
       </c>
       <c r="N230" s="4">
-        <v>379.24842874078547</v>
+        <v>379.24686055694934</v>
       </c>
       <c r="O230" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_229_Ca170TrN_MaCPU_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_229_Ca170TrN_MaCPU_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P230" t="s">
@@ -12576,19 +12575,19 @@
         <v>23</v>
       </c>
       <c r="K231">
-        <v>2612</v>
+        <v>2538</v>
       </c>
       <c r="L231" s="4">
-        <v>17.7533821</v>
+        <v>13.928376800000001</v>
       </c>
       <c r="M231" s="4">
-        <v>183.03378385213068</v>
+        <v>183.03269898530789</v>
       </c>
       <c r="N231" s="4">
-        <v>-170.2413784001219</v>
+        <v>-170.24435589518907</v>
       </c>
       <c r="O231" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_230_Ca170TrN_MaCPD_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_230_Ca170TrN_MaCPD_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P231" t="s">
@@ -12627,19 +12626,19 @@
         <v>23</v>
       </c>
       <c r="K232">
-        <v>1970</v>
+        <v>1833</v>
       </c>
       <c r="L232" s="4">
-        <v>4.3185479999999998</v>
+        <v>3.7261962</v>
       </c>
       <c r="M232" s="4">
-        <v>-14.040752318430982</v>
+        <v>-5.9989452283678029</v>
       </c>
       <c r="N232" s="4">
-        <v>3.5249858626149516E-2</v>
+        <v>2.9149286655359881E-3</v>
       </c>
       <c r="O232" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_231_Ca202TrN_MaCMF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_231_Ca202TrN_MaCMF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P232" t="s">
@@ -12678,19 +12677,19 @@
         <v>23</v>
       </c>
       <c r="K233">
-        <v>4840</v>
+        <v>4494</v>
       </c>
       <c r="L233" s="4">
-        <v>25.1002604</v>
+        <v>19.192789099999999</v>
       </c>
       <c r="M233" s="4">
-        <v>-329.43710823007586</v>
+        <v>-329.5346720413765</v>
       </c>
       <c r="N233" s="4">
-        <v>6.1341408826024768</v>
+        <v>6.1280042524881084</v>
       </c>
       <c r="O233" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_232_Ca202TrN_MaMPO_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_232_Ca202TrN_MaMPO_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P233" t="s">
@@ -12729,19 +12728,19 @@
         <v>23</v>
       </c>
       <c r="K234">
-        <v>2800</v>
+        <v>1228</v>
       </c>
       <c r="L234" s="4">
-        <v>8.4918689999999994</v>
+        <v>5.1897251000000004</v>
       </c>
       <c r="M234" s="4">
-        <v>-13.867572041998372</v>
+        <v>-13.866561094853914</v>
       </c>
       <c r="N234" s="4">
-        <v>0.22358573752794086</v>
+        <v>0.22505929677404879</v>
       </c>
       <c r="O234" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_233_Ca202TrN_MaMCI_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_233_Ca202TrN_MaMCI_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P234" t="s">
@@ -12780,19 +12779,19 @@
         <v>23</v>
       </c>
       <c r="K235">
-        <v>4121</v>
+        <v>3623</v>
       </c>
       <c r="L235" s="4">
-        <v>9.6291177999999995</v>
+        <v>8.1839969000000004</v>
       </c>
       <c r="M235" s="4">
-        <v>-18.000363645062713</v>
+        <v>-5.9973644509489237</v>
       </c>
       <c r="N235" s="4">
-        <v>6.8053768392511968E-2</v>
+        <v>-7.1877005592359692E-3</v>
       </c>
       <c r="O235" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_234_Ca202TrN_MaCKF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_234_Ca202TrN_MaCKF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P235" t="s">
@@ -12831,19 +12830,19 @@
         <v>23</v>
       </c>
       <c r="K236">
-        <v>11468</v>
+        <v>10267</v>
       </c>
       <c r="L236" s="4">
-        <v>122.1820444</v>
+        <v>85.782134200000002</v>
       </c>
       <c r="M236" s="4">
-        <v>-20.801129023514072</v>
+        <v>-8.9955870080525102</v>
       </c>
       <c r="N236" s="4">
-        <v>0.22875388354325107</v>
+        <v>4.6945714894128583E-2</v>
       </c>
       <c r="O236" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_235_Ca202TrN_MaCNF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_235_Ca202TrN_MaCNF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P236" t="s">
@@ -12882,19 +12881,19 @@
         <v>23</v>
       </c>
       <c r="K237">
-        <v>5962</v>
+        <v>5730</v>
       </c>
       <c r="L237" s="4">
-        <v>44.792744300000003</v>
+        <v>40.567216000000002</v>
       </c>
       <c r="M237" s="4">
-        <v>-17.9560095021086</v>
+        <v>-8.9541086974422974</v>
       </c>
       <c r="N237" s="4">
-        <v>5.8144338635155467E-2</v>
+        <v>9.9196943581524311E-3</v>
       </c>
       <c r="O237" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_236_Ca202TrN_MaCSF_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_236_Ca202TrN_MaCSF_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P237" t="s">
@@ -12933,19 +12932,19 @@
         <v>23</v>
       </c>
       <c r="K238">
-        <v>5493</v>
+        <v>5482</v>
       </c>
       <c r="L238" s="4">
-        <v>17.868171799999999</v>
+        <v>17.130053100000001</v>
       </c>
       <c r="M238" s="4">
-        <v>-14.038691594276685</v>
+        <v>-5.9993464123157887</v>
       </c>
       <c r="N238" s="4">
-        <v>3.5214286419929512E-2</v>
+        <v>2.9681563327125368E-3</v>
       </c>
       <c r="O238" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_237_Ca202TrN_MaCMP_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_237_Ca202TrN_MaCMP_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P238" t="s">
@@ -12984,19 +12983,19 @@
         <v>23</v>
       </c>
       <c r="K239">
-        <v>15567</v>
+        <v>14970</v>
       </c>
       <c r="L239" s="4">
-        <v>61.6529855</v>
+        <v>49.186618899999999</v>
       </c>
       <c r="M239" s="4">
-        <v>-18.000064562429735</v>
+        <v>-5.9994184932941126</v>
       </c>
       <c r="N239" s="4">
-        <v>6.7026213960128603E-2</v>
+        <v>-8.8994053961336268E-3</v>
       </c>
       <c r="O239" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_238_Ca202TrN_MaCKY_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_238_Ca202TrN_MaCKY_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P239" t="s">
@@ -13038,7 +13037,7 @@
         <v>452</v>
       </c>
       <c r="L240" s="4">
-        <v>2.7933998999999998</v>
+        <v>2.3599804999999998</v>
       </c>
       <c r="M240" s="4">
         <v>381.37486659164909</v>
@@ -13047,7 +13046,7 @@
         <v>0.32857745548546308</v>
       </c>
       <c r="O240" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_239_Ca202TrN_MaCPL_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_239_Ca202TrN_MaCPL_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P240" t="s">
@@ -13086,19 +13085,19 @@
         <v>23</v>
       </c>
       <c r="K241">
-        <v>2656</v>
+        <v>2621</v>
       </c>
       <c r="L241" s="4">
-        <v>44.340344100000003</v>
+        <v>33.495898699999998</v>
       </c>
       <c r="M241" s="4">
-        <v>175.66379112985402</v>
+        <v>176.38757123963492</v>
       </c>
       <c r="N241" s="4">
-        <v>7.4771153392064259E-4</v>
+        <v>7.5313585530835609E-4</v>
       </c>
       <c r="O241" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_240_Ca140TrN_MaCRR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_240_Ca140TrN_MaCRR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P241" t="s">
@@ -13137,19 +13136,19 @@
         <v>23</v>
       </c>
       <c r="K242">
-        <v>3215</v>
+        <v>3225</v>
       </c>
       <c r="L242" s="4">
-        <v>40.272785800000001</v>
+        <v>31.6129584</v>
       </c>
       <c r="M242" s="4">
-        <v>175.71691060691782</v>
+        <v>176.44721089387855</v>
       </c>
       <c r="N242" s="4">
-        <v>7.7250487963850779E-4</v>
+        <v>7.815473884677256E-4</v>
       </c>
       <c r="O242" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_241_Ca189TrN_MaCRR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_241_Ca189TrN_MaCRR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P242" t="s">
@@ -13188,19 +13187,19 @@
         <v>92</v>
       </c>
       <c r="K243">
-        <v>1743</v>
+        <v>1730</v>
       </c>
       <c r="L243" s="4">
-        <v>87.761127799999997</v>
+        <v>72.932537300000007</v>
       </c>
       <c r="M243" s="4">
-        <v>51.299600675518292</v>
+        <v>51.299677113743009</v>
       </c>
       <c r="N243" s="4">
-        <v>9.0083405701821811E-3</v>
+        <v>9.0083815906742484E-3</v>
       </c>
       <c r="O243" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_242_Ca173TrN_MaDCA_daessc_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_242_Ca173TrN_MaDCA_daessc_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P243" t="s">
@@ -13242,7 +13241,7 @@
         <v>4249</v>
       </c>
       <c r="L244" s="4">
-        <v>128.37083200000001</v>
+        <v>114.9303862</v>
       </c>
       <c r="M244" s="4">
         <v>980.4691875567853</v>
@@ -13251,7 +13250,7 @@
         <v>0.72233131442744603</v>
       </c>
       <c r="O244" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_243_Ca173TrN_MaDC1_daessc_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_243_Ca173TrN_MaDC1_daessc_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P244" t="s">
@@ -13293,16 +13292,16 @@
         <v>323</v>
       </c>
       <c r="L245" s="4">
-        <v>3.2466102000000001</v>
+        <v>2.9563058999999998</v>
       </c>
       <c r="M245" s="4">
-        <v>53.509311804764934</v>
+        <v>53.509319715849301</v>
       </c>
       <c r="N245" s="4">
-        <v>9.7541792626843829E-3</v>
+        <v>9.7689027667346214E-3</v>
       </c>
       <c r="O245" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_244_Ca165TrN_MaDCA_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_244_Ca165TrN_MaDCA_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P245" t="s">
@@ -13341,19 +13340,19 @@
         <v>23</v>
       </c>
       <c r="K246">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="L246" s="4">
-        <v>7.1006036999999997</v>
+        <v>6.8210006999999999</v>
       </c>
       <c r="M246" s="4">
-        <v>992.65315441171231</v>
+        <v>992.65379357671691</v>
       </c>
       <c r="N246" s="4">
-        <v>0.75920385782470967</v>
+        <v>0.86000426375834593</v>
       </c>
       <c r="O246" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_245_Ca165TrN_MaDC1_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_245_Ca165TrN_MaDC1_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P246" t="s">
@@ -13395,7 +13394,7 @@
         <v>4123</v>
       </c>
       <c r="L247" s="4">
-        <v>71.375507799999994</v>
+        <v>59.242603699999997</v>
       </c>
       <c r="M247" s="4">
         <v>980.46294643382373</v>
@@ -13404,7 +13403,7 @@
         <v>0.72247009918101013</v>
       </c>
       <c r="O247" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_246_Ca196TrN_MaDC1_daessc_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_246_Ca196TrN_MaDC1_daessc_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P247" t="s">
@@ -13443,19 +13442,19 @@
         <v>23</v>
       </c>
       <c r="K248">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="L248" s="4">
-        <v>4.8584943000000003</v>
+        <v>4.2243835000000001</v>
       </c>
       <c r="M248" s="4">
-        <v>147.84652913024078</v>
+        <v>147.84737210464033</v>
       </c>
       <c r="N248" s="4">
-        <v>9.4916895233608495E-2</v>
+        <v>9.5038349493720295E-2</v>
       </c>
       <c r="O248" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_247_Ca179TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_247_Ca179TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P248" t="s">
@@ -13494,19 +13493,19 @@
         <v>23</v>
       </c>
       <c r="K249">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L249" s="4">
-        <v>6.2441138</v>
+        <v>6.0750147999999999</v>
       </c>
       <c r="M249" s="4">
-        <v>147.83252245405649</v>
+        <v>147.83268219081276</v>
       </c>
       <c r="N249" s="4">
-        <v>9.4499257515865479E-2</v>
+        <v>9.4502180585988416E-2</v>
       </c>
       <c r="O249" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_248_Ca180TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_248_Ca180TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P249" t="s">
@@ -13545,19 +13544,19 @@
         <v>23</v>
       </c>
       <c r="K250">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="L250" s="4">
-        <v>1.9491864000000001</v>
+        <v>1.9295977</v>
       </c>
       <c r="M250" s="4">
-        <v>147.86103390990425</v>
+        <v>147.82486338693215</v>
       </c>
       <c r="N250" s="4">
-        <v>9.4536590620128744E-2</v>
+        <v>9.4418738181751574E-2</v>
       </c>
       <c r="O250" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_249_Ca197TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_249_Ca197TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P250" t="s">
@@ -13599,7 +13598,7 @@
         <v>421</v>
       </c>
       <c r="L251" s="4">
-        <v>12.319245799999999</v>
+        <v>11.530829300000001</v>
       </c>
       <c r="M251" s="4">
         <v>63.227172416907337</v>
@@ -13608,7 +13607,7 @@
         <v>-25.378190011468046</v>
       </c>
       <c r="O251" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_250_Ca182TrN_MaTUR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_250_Ca182TrN_MaTUR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P251" t="s">
@@ -13650,7 +13649,7 @@
         <v>351</v>
       </c>
       <c r="L252" s="4">
-        <v>4.3444237000000001</v>
+        <v>4.2043727999999998</v>
       </c>
       <c r="M252" s="4">
         <v>63.21430152446672</v>
@@ -13659,7 +13658,7 @@
         <v>-25.381027537908963</v>
       </c>
       <c r="O252" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_251_Ca203TrN_MaTUR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_251_Ca203TrN_MaTUR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P252" t="s">
@@ -13698,19 +13697,19 @@
         <v>23</v>
       </c>
       <c r="K253">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L253" s="4">
-        <v>13.5584805</v>
+        <v>13.7534104</v>
       </c>
       <c r="M253" s="4">
-        <v>114.15360770985896</v>
+        <v>114.17680892945702</v>
       </c>
       <c r="N253" s="4">
-        <v>-80.784884048920773</v>
+        <v>-80.786480806163979</v>
       </c>
       <c r="O253" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_252_Ca185TrN_MaTUR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_252_Ca185TrN_MaTUR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P253" t="s">
@@ -13749,19 +13748,19 @@
         <v>23</v>
       </c>
       <c r="K254">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="L254" s="4">
-        <v>6.4818356000000001</v>
+        <v>7.3327941000000001</v>
       </c>
       <c r="M254" s="4">
-        <v>140.64223431466803</v>
+        <v>140.63774240418851</v>
       </c>
       <c r="N254" s="4">
-        <v>-71.763210253706674</v>
+        <v>-71.763277607417052</v>
       </c>
       <c r="O254" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_240830_2345_253_Ca188TrN_MaTUR_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_240930_0651_253_Ca188TrN_MaTUR_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P254" t="s">
@@ -13803,7 +13802,7 @@
         <v>453</v>
       </c>
       <c r="L255" s="4">
-        <v>17.147322299999999</v>
+        <v>16.2606982</v>
       </c>
       <c r="M255" s="4">
         <v>79.191403342521781</v>
@@ -13812,7 +13811,7 @@
         <v>-0.33364204715638829</v>
       </c>
       <c r="O255" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_Axle3_240830_2345_254_CaAxle3_000TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_Axle3_240930_0651_254_CaAxle3_000TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P255" t="s">
@@ -13854,7 +13853,7 @@
         <v>490</v>
       </c>
       <c r="L256" s="4">
-        <v>15.780060499999999</v>
+        <v>15.939799600000001</v>
       </c>
       <c r="M256" s="4">
         <v>69.13329697133797</v>
@@ -13863,7 +13862,7 @@
         <v>8.3863063097864898E-2</v>
       </c>
       <c r="O256" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_Axle3_240830_2345_255_CaAxle3_008TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_Axle3_240930_0651_255_CaAxle3_008TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P256" t="s">
@@ -13902,19 +13901,19 @@
         <v>23</v>
       </c>
       <c r="K257">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L257" s="4">
-        <v>11.211081999999999</v>
+        <v>12.639070200000001</v>
       </c>
       <c r="M257" s="4">
-        <v>79.274118218475053</v>
+        <v>79.272926513404613</v>
       </c>
       <c r="N257" s="4">
-        <v>-0.3135493902856154</v>
+        <v>-0.31352220349035204</v>
       </c>
       <c r="O257" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_Axle3_240830_2345_256_CaAxle3_003TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_Axle3_240930_0651_256_CaAxle3_003TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P257" t="s">
@@ -13953,19 +13952,19 @@
         <v>23</v>
       </c>
       <c r="K258">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L258" s="4">
-        <v>1.8505992</v>
+        <v>2.1520635000000001</v>
       </c>
       <c r="M258" s="4">
-        <v>80.152382869234771</v>
+        <v>80.15192099333315</v>
       </c>
       <c r="N258" s="4">
-        <v>-0.31967573922971104</v>
+        <v>-0.31967225606407207</v>
       </c>
       <c r="O258" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_Axle3_240830_2345_257_CaAxle3_017TrN_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_Axle3_240930_0651_257_CaAxle3_017TrN_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P258" t="s">
@@ -14004,19 +14003,19 @@
         <v>23</v>
       </c>
       <c r="K259">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L259" s="4">
-        <v>32.364577699999998</v>
+        <v>29.925108099999999</v>
       </c>
       <c r="M259" s="4">
-        <v>23.326591154260509</v>
+        <v>23.326491618587372</v>
       </c>
       <c r="N259" s="4">
-        <v>2.4825691196431639E-3</v>
+        <v>2.4826709087205634E-3</v>
       </c>
       <c r="O259" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_Axle3_240830_2345_258_CaAxle3_010TrK_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_Axle3_240930_0651_258_CaAxle3_010TrK_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P259" t="s">
@@ -14055,19 +14054,19 @@
         <v>23</v>
       </c>
       <c r="K260">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L260" s="4">
-        <v>33.704988899999996</v>
+        <v>31.137050899999998</v>
       </c>
       <c r="M260" s="4">
-        <v>23.441148459771718</v>
+        <v>23.441154051369235</v>
       </c>
       <c r="N260" s="4">
-        <v>2.5318340812336311E-3</v>
+        <v>2.5318378727670898E-3</v>
       </c>
       <c r="O260" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_Axle3_240830_2345_259_CaAxle3_010TrK_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_Axle3_240930_0651_259_CaAxle3_010TrK_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P260" t="s">
@@ -14109,16 +14108,16 @@
         <v>395</v>
       </c>
       <c r="L261" s="4">
-        <v>2.2287754999999998</v>
+        <v>2.4905575999999998</v>
       </c>
       <c r="M261" s="4">
-        <v>26.915043021668794</v>
+        <v>26.915041029821563</v>
       </c>
       <c r="N261" s="4">
-        <v>3.6189184600081623E-3</v>
+        <v>3.6189163614937514E-3</v>
       </c>
       <c r="O261" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_Axle3_240830_2345_260_CaAxle3_019TrK_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_Axle3_240930_0651_260_CaAxle3_019TrK_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P261" t="s">
@@ -14160,16 +14159,16 @@
         <v>396</v>
       </c>
       <c r="L262" s="4">
-        <v>2.4148817</v>
+        <v>2.6966304999999999</v>
       </c>
       <c r="M262" s="4">
-        <v>26.904160760618034</v>
+        <v>26.904146124473968</v>
       </c>
       <c r="N262" s="4">
-        <v>3.611469351209276E-3</v>
+        <v>3.611462807766589E-3</v>
       </c>
       <c r="O262" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_Axle3_240830_2345_261_CaAxle3_019TrK_MaWOT_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_Axle3_240930_0651_261_CaAxle3_019TrK_MaWOT_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P262" t="s">
@@ -14208,19 +14207,19 @@
         <v>23</v>
       </c>
       <c r="K263">
-        <v>750</v>
+        <v>678</v>
       </c>
       <c r="L263" s="4">
-        <v>22.846087499999999</v>
+        <v>21.304439200000001</v>
       </c>
       <c r="M263" s="4">
-        <v>262.42903008990589</v>
+        <v>254.21605199052124</v>
       </c>
       <c r="N263" s="4">
-        <v>-0.10295114890148493</v>
+        <v>-0.10050739200938441</v>
       </c>
       <c r="O263" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_Axle3_240830_2345_262_CaAxle3_012TrK_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_Axle3_240930_0651_262_CaAxle3_012TrK_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P263" t="s">
@@ -14259,19 +14258,19 @@
         <v>23</v>
       </c>
       <c r="K264">
-        <v>844</v>
+        <v>759</v>
       </c>
       <c r="L264" s="4">
-        <v>25.854736299999999</v>
+        <v>25.4199406</v>
       </c>
       <c r="M264" s="4">
-        <v>262.4117348034693</v>
+        <v>254.39301612588906</v>
       </c>
       <c r="N264" s="4">
-        <v>-0.10005579984325763</v>
+        <v>-9.8901011708036002E-2</v>
       </c>
       <c r="O264" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_Axle3_240830_2345_263_CaAxle3_012TrK_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_Axle3_240930_0651_263_CaAxle3_012TrK_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P264" t="s">
@@ -14310,19 +14309,19 @@
         <v>23</v>
       </c>
       <c r="K265">
-        <v>743</v>
+        <v>665</v>
       </c>
       <c r="L265" s="4">
-        <v>21.916422000000001</v>
+        <v>21.600452900000001</v>
       </c>
       <c r="M265" s="4">
-        <v>264.07464649022739</v>
+        <v>254.14114228036419</v>
       </c>
       <c r="N265" s="4">
-        <v>-9.8846175087976995E-2</v>
+        <v>-0.10005833685288401</v>
       </c>
       <c r="O265" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_Axle3_240830_2345_264_CaAxle3_012TrK_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_Axle3_240930_0651_264_CaAxle3_012TrK_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P265" t="s">
@@ -14361,19 +14360,19 @@
         <v>23</v>
       </c>
       <c r="K266">
-        <v>1019</v>
+        <v>939</v>
       </c>
       <c r="L266" s="4">
-        <v>27.112104299999999</v>
+        <v>26.0470048</v>
       </c>
       <c r="M266" s="4">
-        <v>264.04787176410008</v>
+        <v>253.33300494342768</v>
       </c>
       <c r="N266" s="4">
-        <v>-9.8718756134351437E-2</v>
+        <v>-8.9199969287908409E-2</v>
       </c>
       <c r="O266" s="1" t="str">
-        <f>HYPERLINK(".\sm_car_240830_2345\sm_car_Axle3_240830_2345_265_CaAxle3_012TrK_MaDLC_ode23t_1.png","figure")</f>
+        <f>HYPERLINK(".\sm_car_240930_0651\sm_car_Axle3_240930_0651_265_CaAxle3_012TrK_MaDLC_ode23t_1.png","figure")</f>
         <v>figure</v>
       </c>
       <c r="P266" t="s">
@@ -14382,5 +14381,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>